--- a/Assets/Resources/Language/Language.xlsx
+++ b/Assets/Resources/Language/Language.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="bBIO3Tz9O17USJO/wvacB8QUctx0Qb1yMEY7DXzGXh0="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="bCpl2ulkJwefW6eYTXpN2nVgNQ98B5sOQ0I0RcPB1AQ="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="421">
   <si>
     <t>ID</t>
   </si>
@@ -1044,6 +1044,12 @@
     <t>加注</t>
   </si>
   <si>
+    <t>Bet</t>
+  </si>
+  <si>
+    <t>下注</t>
+  </si>
+  <si>
     <t>Call</t>
   </si>
   <si>
@@ -1069,6 +1075,12 @@
   </si>
   <si>
     <t>加注至</t>
+  </si>
+  <si>
+    <t>BetTo</t>
+  </si>
+  <si>
+    <t>下注至</t>
   </si>
   <si>
     <t>CheckOrFold</t>
@@ -1303,7 +1315,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1323,6 +1335,10 @@
     <font>
       <sz val="10.0"/>
       <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -1438,7 +1454,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1493,14 +1509,9 @@
     <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
@@ -1509,9 +1520,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
@@ -4302,10 +4325,10 @@
       <c r="A77" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="B77" s="21" t="s">
+      <c r="B77" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="3" t="s">
         <v>141</v>
       </c>
       <c r="D77" s="3"/>
@@ -4333,13 +4356,13 @@
       <c r="Z77" s="3"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="22" t="s">
+      <c r="A78" s="21" t="s">
         <v>142</v>
       </c>
       <c r="B78" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C78" s="21" t="s">
+      <c r="C78" s="3" t="s">
         <v>143</v>
       </c>
       <c r="D78" s="3"/>
@@ -5031,34 +5054,34 @@
       <c r="Z98" s="3"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="23" t="s">
+      <c r="A99" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="B99" s="23"/>
-      <c r="C99" s="23"/>
-      <c r="D99" s="23"/>
-      <c r="E99" s="23"/>
-      <c r="F99" s="23"/>
-      <c r="G99" s="23"/>
-      <c r="H99" s="23"/>
-      <c r="I99" s="23"/>
-      <c r="J99" s="23"/>
-      <c r="K99" s="23"/>
-      <c r="L99" s="23"/>
-      <c r="M99" s="23"/>
-      <c r="N99" s="23"/>
-      <c r="O99" s="23"/>
-      <c r="P99" s="23"/>
-      <c r="Q99" s="23"/>
-      <c r="R99" s="23"/>
-      <c r="S99" s="23"/>
-      <c r="T99" s="23"/>
-      <c r="U99" s="23"/>
-      <c r="V99" s="23"/>
-      <c r="W99" s="23"/>
-      <c r="X99" s="23"/>
-      <c r="Y99" s="23"/>
-      <c r="Z99" s="23"/>
+      <c r="B99" s="22"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="22"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="22"/>
+      <c r="I99" s="22"/>
+      <c r="J99" s="22"/>
+      <c r="K99" s="22"/>
+      <c r="L99" s="22"/>
+      <c r="M99" s="22"/>
+      <c r="N99" s="22"/>
+      <c r="O99" s="22"/>
+      <c r="P99" s="22"/>
+      <c r="Q99" s="22"/>
+      <c r="R99" s="22"/>
+      <c r="S99" s="22"/>
+      <c r="T99" s="22"/>
+      <c r="U99" s="22"/>
+      <c r="V99" s="22"/>
+      <c r="W99" s="22"/>
+      <c r="X99" s="22"/>
+      <c r="Y99" s="22"/>
+      <c r="Z99" s="22"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="3" t="s">
@@ -5163,34 +5186,34 @@
       <c r="Z102" s="3"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="23" t="s">
+      <c r="A103" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="B103" s="23"/>
-      <c r="C103" s="23"/>
-      <c r="D103" s="23"/>
-      <c r="E103" s="23"/>
-      <c r="F103" s="23"/>
-      <c r="G103" s="23"/>
-      <c r="H103" s="23"/>
-      <c r="I103" s="23"/>
-      <c r="J103" s="23"/>
-      <c r="K103" s="23"/>
-      <c r="L103" s="23"/>
-      <c r="M103" s="23"/>
-      <c r="N103" s="23"/>
-      <c r="O103" s="23"/>
-      <c r="P103" s="23"/>
-      <c r="Q103" s="23"/>
-      <c r="R103" s="23"/>
-      <c r="S103" s="23"/>
-      <c r="T103" s="23"/>
-      <c r="U103" s="23"/>
-      <c r="V103" s="23"/>
-      <c r="W103" s="23"/>
-      <c r="X103" s="23"/>
-      <c r="Y103" s="23"/>
-      <c r="Z103" s="23"/>
+      <c r="B103" s="22"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22"/>
+      <c r="F103" s="22"/>
+      <c r="G103" s="22"/>
+      <c r="H103" s="22"/>
+      <c r="I103" s="22"/>
+      <c r="J103" s="22"/>
+      <c r="K103" s="22"/>
+      <c r="L103" s="22"/>
+      <c r="M103" s="22"/>
+      <c r="N103" s="22"/>
+      <c r="O103" s="22"/>
+      <c r="P103" s="22"/>
+      <c r="Q103" s="22"/>
+      <c r="R103" s="22"/>
+      <c r="S103" s="22"/>
+      <c r="T103" s="22"/>
+      <c r="U103" s="22"/>
+      <c r="V103" s="22"/>
+      <c r="W103" s="22"/>
+      <c r="X103" s="22"/>
+      <c r="Y103" s="22"/>
+      <c r="Z103" s="22"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="3" t="s">
@@ -5329,34 +5352,34 @@
       <c r="Z107" s="3"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="24" t="s">
+      <c r="A108" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="B108" s="24"/>
-      <c r="C108" s="24"/>
-      <c r="D108" s="24"/>
-      <c r="E108" s="24"/>
-      <c r="F108" s="24"/>
-      <c r="G108" s="24"/>
-      <c r="H108" s="24"/>
-      <c r="I108" s="24"/>
-      <c r="J108" s="24"/>
-      <c r="K108" s="24"/>
-      <c r="L108" s="24"/>
-      <c r="M108" s="24"/>
-      <c r="N108" s="24"/>
-      <c r="O108" s="24"/>
-      <c r="P108" s="24"/>
-      <c r="Q108" s="24"/>
-      <c r="R108" s="24"/>
-      <c r="S108" s="24"/>
-      <c r="T108" s="24"/>
-      <c r="U108" s="24"/>
-      <c r="V108" s="24"/>
-      <c r="W108" s="24"/>
-      <c r="X108" s="24"/>
-      <c r="Y108" s="24"/>
-      <c r="Z108" s="24"/>
+      <c r="B108" s="23"/>
+      <c r="C108" s="23"/>
+      <c r="D108" s="23"/>
+      <c r="E108" s="23"/>
+      <c r="F108" s="23"/>
+      <c r="G108" s="23"/>
+      <c r="H108" s="23"/>
+      <c r="I108" s="23"/>
+      <c r="J108" s="23"/>
+      <c r="K108" s="23"/>
+      <c r="L108" s="23"/>
+      <c r="M108" s="23"/>
+      <c r="N108" s="23"/>
+      <c r="O108" s="23"/>
+      <c r="P108" s="23"/>
+      <c r="Q108" s="23"/>
+      <c r="R108" s="23"/>
+      <c r="S108" s="23"/>
+      <c r="T108" s="23"/>
+      <c r="U108" s="23"/>
+      <c r="V108" s="23"/>
+      <c r="W108" s="23"/>
+      <c r="X108" s="23"/>
+      <c r="Y108" s="23"/>
+      <c r="Z108" s="23"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="3" t="s">
@@ -5393,34 +5416,34 @@
       <c r="Z109" s="3"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="23" t="s">
+      <c r="A110" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="B110" s="23"/>
-      <c r="C110" s="23"/>
-      <c r="D110" s="23"/>
-      <c r="E110" s="23"/>
-      <c r="F110" s="23"/>
-      <c r="G110" s="23"/>
-      <c r="H110" s="23"/>
-      <c r="I110" s="23"/>
-      <c r="J110" s="23"/>
-      <c r="K110" s="23"/>
-      <c r="L110" s="23"/>
-      <c r="M110" s="23"/>
-      <c r="N110" s="23"/>
-      <c r="O110" s="23"/>
-      <c r="P110" s="23"/>
-      <c r="Q110" s="23"/>
-      <c r="R110" s="23"/>
-      <c r="S110" s="23"/>
-      <c r="T110" s="23"/>
-      <c r="U110" s="23"/>
-      <c r="V110" s="23"/>
-      <c r="W110" s="23"/>
-      <c r="X110" s="23"/>
-      <c r="Y110" s="23"/>
-      <c r="Z110" s="23"/>
+      <c r="B110" s="22"/>
+      <c r="C110" s="22"/>
+      <c r="D110" s="22"/>
+      <c r="E110" s="22"/>
+      <c r="F110" s="22"/>
+      <c r="G110" s="22"/>
+      <c r="H110" s="22"/>
+      <c r="I110" s="22"/>
+      <c r="J110" s="22"/>
+      <c r="K110" s="22"/>
+      <c r="L110" s="22"/>
+      <c r="M110" s="22"/>
+      <c r="N110" s="22"/>
+      <c r="O110" s="22"/>
+      <c r="P110" s="22"/>
+      <c r="Q110" s="22"/>
+      <c r="R110" s="22"/>
+      <c r="S110" s="22"/>
+      <c r="T110" s="22"/>
+      <c r="U110" s="22"/>
+      <c r="V110" s="22"/>
+      <c r="W110" s="22"/>
+      <c r="X110" s="22"/>
+      <c r="Y110" s="22"/>
+      <c r="Z110" s="22"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="3" t="s">
@@ -5525,34 +5548,34 @@
       <c r="Z113" s="3"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="23" t="s">
+      <c r="A114" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="B114" s="23"/>
-      <c r="C114" s="23"/>
-      <c r="D114" s="23"/>
-      <c r="E114" s="23"/>
-      <c r="F114" s="23"/>
-      <c r="G114" s="23"/>
-      <c r="H114" s="23"/>
-      <c r="I114" s="23"/>
-      <c r="J114" s="23"/>
-      <c r="K114" s="23"/>
-      <c r="L114" s="23"/>
-      <c r="M114" s="23"/>
-      <c r="N114" s="23"/>
-      <c r="O114" s="23"/>
-      <c r="P114" s="23"/>
-      <c r="Q114" s="23"/>
-      <c r="R114" s="23"/>
-      <c r="S114" s="23"/>
-      <c r="T114" s="23"/>
-      <c r="U114" s="23"/>
-      <c r="V114" s="23"/>
-      <c r="W114" s="23"/>
-      <c r="X114" s="23"/>
-      <c r="Y114" s="23"/>
-      <c r="Z114" s="23"/>
+      <c r="B114" s="22"/>
+      <c r="C114" s="22"/>
+      <c r="D114" s="22"/>
+      <c r="E114" s="22"/>
+      <c r="F114" s="22"/>
+      <c r="G114" s="22"/>
+      <c r="H114" s="22"/>
+      <c r="I114" s="22"/>
+      <c r="J114" s="22"/>
+      <c r="K114" s="22"/>
+      <c r="L114" s="22"/>
+      <c r="M114" s="22"/>
+      <c r="N114" s="22"/>
+      <c r="O114" s="22"/>
+      <c r="P114" s="22"/>
+      <c r="Q114" s="22"/>
+      <c r="R114" s="22"/>
+      <c r="S114" s="22"/>
+      <c r="T114" s="22"/>
+      <c r="U114" s="22"/>
+      <c r="V114" s="22"/>
+      <c r="W114" s="22"/>
+      <c r="X114" s="22"/>
+      <c r="Y114" s="22"/>
+      <c r="Z114" s="22"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="1" t="s">
@@ -5589,34 +5612,34 @@
       <c r="Z115" s="1"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="23" t="s">
+      <c r="A116" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="B116" s="23"/>
-      <c r="C116" s="23"/>
-      <c r="D116" s="23"/>
-      <c r="E116" s="23"/>
-      <c r="F116" s="23"/>
-      <c r="G116" s="23"/>
-      <c r="H116" s="23"/>
-      <c r="I116" s="23"/>
-      <c r="J116" s="23"/>
-      <c r="K116" s="23"/>
-      <c r="L116" s="23"/>
-      <c r="M116" s="23"/>
-      <c r="N116" s="23"/>
-      <c r="O116" s="23"/>
-      <c r="P116" s="23"/>
-      <c r="Q116" s="23"/>
-      <c r="R116" s="23"/>
-      <c r="S116" s="23"/>
-      <c r="T116" s="23"/>
-      <c r="U116" s="23"/>
-      <c r="V116" s="23"/>
-      <c r="W116" s="23"/>
-      <c r="X116" s="23"/>
-      <c r="Y116" s="23"/>
-      <c r="Z116" s="23"/>
+      <c r="B116" s="22"/>
+      <c r="C116" s="22"/>
+      <c r="D116" s="22"/>
+      <c r="E116" s="22"/>
+      <c r="F116" s="22"/>
+      <c r="G116" s="22"/>
+      <c r="H116" s="22"/>
+      <c r="I116" s="22"/>
+      <c r="J116" s="22"/>
+      <c r="K116" s="22"/>
+      <c r="L116" s="22"/>
+      <c r="M116" s="22"/>
+      <c r="N116" s="22"/>
+      <c r="O116" s="22"/>
+      <c r="P116" s="22"/>
+      <c r="Q116" s="22"/>
+      <c r="R116" s="22"/>
+      <c r="S116" s="22"/>
+      <c r="T116" s="22"/>
+      <c r="U116" s="22"/>
+      <c r="V116" s="22"/>
+      <c r="W116" s="22"/>
+      <c r="X116" s="22"/>
+      <c r="Y116" s="22"/>
+      <c r="Z116" s="22"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="4" t="s">
@@ -6667,7 +6690,7 @@
       <c r="Z148" s="10"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="25" t="s">
+      <c r="A149" s="24" t="s">
         <v>258</v>
       </c>
       <c r="B149" s="1" t="s">
@@ -8011,7 +8034,7 @@
       <c r="Z189" s="10"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="25" t="s">
+      <c r="A190" s="24" t="s">
         <v>326</v>
       </c>
       <c r="B190" s="17" t="s">
@@ -8045,7 +8068,7 @@
       <c r="Z190" s="18"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="25" t="s">
+      <c r="A191" s="24" t="s">
         <v>328</v>
       </c>
       <c r="B191" s="17" t="s">
@@ -8079,7 +8102,7 @@
       <c r="Z191" s="18"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="25" t="s">
+      <c r="A192" s="24" t="s">
         <v>330</v>
       </c>
       <c r="B192" s="17" t="s">
@@ -8116,10 +8139,10 @@
       <c r="A193" s="25" t="s">
         <v>332</v>
       </c>
-      <c r="B193" s="17" t="s">
+      <c r="B193" s="26" t="s">
         <v>332</v>
       </c>
-      <c r="C193" s="17" t="s">
+      <c r="C193" s="26" t="s">
         <v>333</v>
       </c>
       <c r="D193" s="17"/>
@@ -8147,116 +8170,116 @@
       <c r="Z193" s="18"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="26" t="s">
+      <c r="A194" s="24" t="s">
         <v>334</v>
       </c>
-      <c r="B194" s="27" t="s">
+      <c r="B194" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="C194" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="C194" s="27" t="s">
-        <v>335</v>
-      </c>
-      <c r="D194" s="27"/>
-      <c r="E194" s="27"/>
-      <c r="F194" s="27"/>
-      <c r="G194" s="27"/>
-      <c r="H194" s="27"/>
-      <c r="I194" s="27"/>
-      <c r="J194" s="27"/>
-      <c r="K194" s="27"/>
-      <c r="L194" s="27"/>
-      <c r="M194" s="27"/>
-      <c r="N194" s="27"/>
-      <c r="O194" s="27"/>
-      <c r="P194" s="27"/>
-      <c r="Q194" s="27"/>
-      <c r="R194" s="27"/>
-      <c r="S194" s="27"/>
-      <c r="T194" s="27"/>
-      <c r="U194" s="27"/>
-      <c r="V194" s="27"/>
-      <c r="W194" s="27"/>
-      <c r="X194" s="27"/>
-      <c r="Y194" s="27"/>
-      <c r="Z194" s="28"/>
+      <c r="D194" s="17"/>
+      <c r="E194" s="17"/>
+      <c r="F194" s="17"/>
+      <c r="G194" s="17"/>
+      <c r="H194" s="17"/>
+      <c r="I194" s="17"/>
+      <c r="J194" s="17"/>
+      <c r="K194" s="17"/>
+      <c r="L194" s="17"/>
+      <c r="M194" s="17"/>
+      <c r="N194" s="17"/>
+      <c r="O194" s="17"/>
+      <c r="P194" s="17"/>
+      <c r="Q194" s="17"/>
+      <c r="R194" s="17"/>
+      <c r="S194" s="17"/>
+      <c r="T194" s="17"/>
+      <c r="U194" s="17"/>
+      <c r="V194" s="17"/>
+      <c r="W194" s="17"/>
+      <c r="X194" s="17"/>
+      <c r="Y194" s="17"/>
+      <c r="Z194" s="18"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="7" t="s">
+      <c r="A195" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="B195" s="9" t="s">
+      <c r="B195" s="28" t="s">
         <v>337</v>
       </c>
-      <c r="C195" s="9" t="s">
+      <c r="C195" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="D195" s="28"/>
+      <c r="E195" s="28"/>
+      <c r="F195" s="28"/>
+      <c r="G195" s="28"/>
+      <c r="H195" s="28"/>
+      <c r="I195" s="28"/>
+      <c r="J195" s="28"/>
+      <c r="K195" s="28"/>
+      <c r="L195" s="28"/>
+      <c r="M195" s="28"/>
+      <c r="N195" s="28"/>
+      <c r="O195" s="28"/>
+      <c r="P195" s="28"/>
+      <c r="Q195" s="28"/>
+      <c r="R195" s="28"/>
+      <c r="S195" s="28"/>
+      <c r="T195" s="28"/>
+      <c r="U195" s="28"/>
+      <c r="V195" s="28"/>
+      <c r="W195" s="28"/>
+      <c r="X195" s="28"/>
+      <c r="Y195" s="28"/>
+      <c r="Z195" s="29"/>
+    </row>
+    <row r="196" ht="15.75" customHeight="1">
+      <c r="A196" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="D195" s="9"/>
-      <c r="E195" s="9"/>
-      <c r="F195" s="9"/>
-      <c r="G195" s="9"/>
-      <c r="H195" s="9"/>
-      <c r="I195" s="9"/>
-      <c r="J195" s="9"/>
-      <c r="K195" s="9"/>
-      <c r="L195" s="9"/>
-      <c r="M195" s="9"/>
-      <c r="N195" s="9"/>
-      <c r="O195" s="9"/>
-      <c r="P195" s="9"/>
-      <c r="Q195" s="9"/>
-      <c r="R195" s="9"/>
-      <c r="S195" s="9"/>
-      <c r="T195" s="9"/>
-      <c r="U195" s="9"/>
-      <c r="V195" s="9"/>
-      <c r="W195" s="9"/>
-      <c r="X195" s="9"/>
-      <c r="Y195" s="9"/>
-      <c r="Z195" s="10"/>
-    </row>
-    <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="13" t="s">
+      <c r="B196" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="B196" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C196" s="1" t="s">
+      <c r="C196" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="D196" s="1"/>
-      <c r="E196" s="1"/>
-      <c r="F196" s="1"/>
-      <c r="G196" s="1"/>
-      <c r="H196" s="1"/>
-      <c r="I196" s="1"/>
-      <c r="J196" s="1"/>
-      <c r="K196" s="1"/>
-      <c r="L196" s="1"/>
-      <c r="M196" s="1"/>
-      <c r="N196" s="1"/>
-      <c r="O196" s="1"/>
-      <c r="P196" s="1"/>
-      <c r="Q196" s="1"/>
-      <c r="R196" s="1"/>
-      <c r="S196" s="1"/>
-      <c r="T196" s="1"/>
-      <c r="U196" s="1"/>
-      <c r="V196" s="1"/>
-      <c r="W196" s="1"/>
-      <c r="X196" s="1"/>
-      <c r="Y196" s="1"/>
-      <c r="Z196" s="12"/>
+      <c r="D196" s="9"/>
+      <c r="E196" s="9"/>
+      <c r="F196" s="9"/>
+      <c r="G196" s="9"/>
+      <c r="H196" s="9"/>
+      <c r="I196" s="9"/>
+      <c r="J196" s="9"/>
+      <c r="K196" s="9"/>
+      <c r="L196" s="9"/>
+      <c r="M196" s="9"/>
+      <c r="N196" s="9"/>
+      <c r="O196" s="9"/>
+      <c r="P196" s="9"/>
+      <c r="Q196" s="9"/>
+      <c r="R196" s="9"/>
+      <c r="S196" s="9"/>
+      <c r="T196" s="9"/>
+      <c r="U196" s="9"/>
+      <c r="V196" s="9"/>
+      <c r="W196" s="9"/>
+      <c r="X196" s="9"/>
+      <c r="Y196" s="9"/>
+      <c r="Z196" s="10"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="13" t="s">
         <v>341</v>
       </c>
       <c r="B197" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -8283,42 +8306,42 @@
       <c r="Z197" s="12"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="7" t="s">
+      <c r="A198" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="B198" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="C198" s="32" t="s">
         <v>344</v>
       </c>
-      <c r="B198" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="C198" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="D198" s="9"/>
-      <c r="E198" s="9"/>
-      <c r="F198" s="9"/>
-      <c r="G198" s="9"/>
-      <c r="H198" s="9"/>
-      <c r="I198" s="9"/>
-      <c r="J198" s="9"/>
-      <c r="K198" s="9"/>
-      <c r="L198" s="9"/>
-      <c r="M198" s="9"/>
-      <c r="N198" s="9"/>
-      <c r="O198" s="9"/>
-      <c r="P198" s="9"/>
-      <c r="Q198" s="9"/>
-      <c r="R198" s="9"/>
-      <c r="S198" s="9"/>
-      <c r="T198" s="9"/>
-      <c r="U198" s="9"/>
-      <c r="V198" s="9"/>
-      <c r="W198" s="9"/>
-      <c r="X198" s="9"/>
-      <c r="Y198" s="9"/>
-      <c r="Z198" s="10"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1"/>
+      <c r="G198" s="1"/>
+      <c r="H198" s="1"/>
+      <c r="I198" s="1"/>
+      <c r="J198" s="1"/>
+      <c r="K198" s="1"/>
+      <c r="L198" s="1"/>
+      <c r="M198" s="1"/>
+      <c r="N198" s="1"/>
+      <c r="O198" s="1"/>
+      <c r="P198" s="1"/>
+      <c r="Q198" s="1"/>
+      <c r="R198" s="1"/>
+      <c r="S198" s="1"/>
+      <c r="T198" s="1"/>
+      <c r="U198" s="1"/>
+      <c r="V198" s="1"/>
+      <c r="W198" s="1"/>
+      <c r="X198" s="1"/>
+      <c r="Y198" s="1"/>
+      <c r="Z198" s="12"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>346</v>
@@ -8351,77 +8374,83 @@
       <c r="Z199" s="12"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="13" t="s">
+      <c r="A200" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B200" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="C200" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="D200" s="1"/>
-      <c r="E200" s="1"/>
-      <c r="F200" s="1"/>
-      <c r="G200" s="1"/>
-      <c r="H200" s="1"/>
-      <c r="I200" s="1"/>
-      <c r="J200" s="1"/>
-      <c r="K200" s="1"/>
-      <c r="L200" s="1"/>
-      <c r="M200" s="1"/>
-      <c r="N200" s="1"/>
-      <c r="O200" s="1"/>
-      <c r="P200" s="1"/>
-      <c r="Q200" s="1"/>
-      <c r="R200" s="1"/>
-      <c r="S200" s="1"/>
-      <c r="T200" s="1"/>
-      <c r="U200" s="1"/>
-      <c r="V200" s="1"/>
-      <c r="W200" s="1"/>
-      <c r="X200" s="1"/>
-      <c r="Y200" s="1"/>
-      <c r="Z200" s="12"/>
+      <c r="D200" s="9"/>
+      <c r="E200" s="9"/>
+      <c r="F200" s="9"/>
+      <c r="G200" s="9"/>
+      <c r="H200" s="9"/>
+      <c r="I200" s="9"/>
+      <c r="J200" s="9"/>
+      <c r="K200" s="9"/>
+      <c r="L200" s="9"/>
+      <c r="M200" s="9"/>
+      <c r="N200" s="9"/>
+      <c r="O200" s="9"/>
+      <c r="P200" s="9"/>
+      <c r="Q200" s="9"/>
+      <c r="R200" s="9"/>
+      <c r="S200" s="9"/>
+      <c r="T200" s="9"/>
+      <c r="U200" s="9"/>
+      <c r="V200" s="9"/>
+      <c r="W200" s="9"/>
+      <c r="X200" s="9"/>
+      <c r="Y200" s="9"/>
+      <c r="Z200" s="10"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="14" t="s">
+      <c r="A201" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="B201" s="15" t="s">
+      <c r="B201" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C201" s="15" t="s">
+      <c r="C201" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D201" s="15"/>
-      <c r="E201" s="15"/>
-      <c r="F201" s="15"/>
-      <c r="G201" s="15"/>
-      <c r="H201" s="15"/>
-      <c r="I201" s="15"/>
-      <c r="J201" s="15"/>
-      <c r="K201" s="15"/>
-      <c r="L201" s="15"/>
-      <c r="M201" s="15"/>
-      <c r="N201" s="15"/>
-      <c r="O201" s="15"/>
-      <c r="P201" s="15"/>
-      <c r="Q201" s="15"/>
-      <c r="R201" s="15"/>
-      <c r="S201" s="15"/>
-      <c r="T201" s="15"/>
-      <c r="U201" s="15"/>
-      <c r="V201" s="15"/>
-      <c r="W201" s="15"/>
-      <c r="X201" s="15"/>
-      <c r="Y201" s="15"/>
-      <c r="Z201" s="16"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+      <c r="G201" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="I201" s="1"/>
+      <c r="J201" s="1"/>
+      <c r="K201" s="1"/>
+      <c r="L201" s="1"/>
+      <c r="M201" s="1"/>
+      <c r="N201" s="1"/>
+      <c r="O201" s="1"/>
+      <c r="P201" s="1"/>
+      <c r="Q201" s="1"/>
+      <c r="R201" s="1"/>
+      <c r="S201" s="1"/>
+      <c r="T201" s="1"/>
+      <c r="U201" s="1"/>
+      <c r="V201" s="1"/>
+      <c r="W201" s="1"/>
+      <c r="X201" s="1"/>
+      <c r="Y201" s="1"/>
+      <c r="Z201" s="12"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="1"/>
-      <c r="B202" s="1"/>
-      <c r="C202" s="1"/>
+      <c r="A202" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>353</v>
+      </c>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
@@ -8444,48 +8473,46 @@
       <c r="W202" s="1"/>
       <c r="X202" s="1"/>
       <c r="Y202" s="1"/>
-      <c r="Z202" s="1"/>
+      <c r="Z202" s="12"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B203" s="2"/>
-      <c r="C203" s="2"/>
-      <c r="D203" s="2"/>
-      <c r="E203" s="2"/>
-      <c r="F203" s="2"/>
-      <c r="G203" s="2"/>
-      <c r="H203" s="2"/>
-      <c r="I203" s="2"/>
-      <c r="J203" s="2"/>
-      <c r="K203" s="2"/>
-      <c r="L203" s="2"/>
-      <c r="M203" s="2"/>
-      <c r="N203" s="2"/>
-      <c r="O203" s="2"/>
-      <c r="P203" s="2"/>
-      <c r="Q203" s="2"/>
-      <c r="R203" s="2"/>
-      <c r="S203" s="2"/>
-      <c r="T203" s="2"/>
-      <c r="U203" s="2"/>
-      <c r="V203" s="2"/>
-      <c r="W203" s="2"/>
-      <c r="X203" s="2"/>
-      <c r="Y203" s="2"/>
-      <c r="Z203" s="2"/>
+      <c r="A203" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="B203" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="C203" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="D203" s="15"/>
+      <c r="E203" s="15"/>
+      <c r="F203" s="15"/>
+      <c r="G203" s="15"/>
+      <c r="H203" s="15"/>
+      <c r="I203" s="15"/>
+      <c r="J203" s="15"/>
+      <c r="K203" s="15"/>
+      <c r="L203" s="15"/>
+      <c r="M203" s="15"/>
+      <c r="N203" s="15"/>
+      <c r="O203" s="15"/>
+      <c r="P203" s="15"/>
+      <c r="Q203" s="15"/>
+      <c r="R203" s="15"/>
+      <c r="S203" s="15"/>
+      <c r="T203" s="15"/>
+      <c r="U203" s="15"/>
+      <c r="V203" s="15"/>
+      <c r="W203" s="15"/>
+      <c r="X203" s="15"/>
+      <c r="Y203" s="15"/>
+      <c r="Z203" s="16"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>354</v>
-      </c>
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
@@ -8511,38 +8538,34 @@
       <c r="Z204" s="1"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C205" s="1" t="s">
+      <c r="A205" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="D205" s="1"/>
-      <c r="E205" s="1"/>
-      <c r="F205" s="1"/>
-      <c r="G205" s="1"/>
-      <c r="H205" s="1"/>
-      <c r="I205" s="1"/>
-      <c r="J205" s="1"/>
-      <c r="K205" s="1"/>
-      <c r="L205" s="1"/>
-      <c r="M205" s="1"/>
-      <c r="N205" s="1"/>
-      <c r="O205" s="1"/>
-      <c r="P205" s="1"/>
-      <c r="Q205" s="1"/>
-      <c r="R205" s="1"/>
-      <c r="S205" s="1"/>
-      <c r="T205" s="1"/>
-      <c r="U205" s="1"/>
-      <c r="V205" s="1"/>
-      <c r="W205" s="1"/>
-      <c r="X205" s="1"/>
-      <c r="Y205" s="1"/>
-      <c r="Z205" s="1"/>
+      <c r="B205" s="2"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="2"/>
+      <c r="E205" s="2"/>
+      <c r="F205" s="2"/>
+      <c r="G205" s="2"/>
+      <c r="H205" s="2"/>
+      <c r="I205" s="2"/>
+      <c r="J205" s="2"/>
+      <c r="K205" s="2"/>
+      <c r="L205" s="2"/>
+      <c r="M205" s="2"/>
+      <c r="N205" s="2"/>
+      <c r="O205" s="2"/>
+      <c r="P205" s="2"/>
+      <c r="Q205" s="2"/>
+      <c r="R205" s="2"/>
+      <c r="S205" s="2"/>
+      <c r="T205" s="2"/>
+      <c r="U205" s="2"/>
+      <c r="V205" s="2"/>
+      <c r="W205" s="2"/>
+      <c r="X205" s="2"/>
+      <c r="Y205" s="2"/>
+      <c r="Z205" s="2"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="1" t="s">
@@ -8613,13 +8636,13 @@
       <c r="Z207" s="1"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="29" t="s">
+      <c r="A208" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B208" s="20" t="s">
+      <c r="B208" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C208" s="29" t="s">
+      <c r="C208" s="1" t="s">
         <v>362</v>
       </c>
       <c r="D208" s="1"/>
@@ -8647,9 +8670,15 @@
       <c r="Z208" s="1"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
-      <c r="C209" s="1"/>
+      <c r="A209" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>364</v>
+      </c>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
@@ -8675,45 +8704,43 @@
       <c r="Z209" s="1"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="B210" s="2"/>
-      <c r="C210" s="2"/>
-      <c r="D210" s="2"/>
-      <c r="E210" s="2"/>
-      <c r="F210" s="2"/>
-      <c r="G210" s="2"/>
-      <c r="H210" s="2"/>
-      <c r="I210" s="2"/>
-      <c r="J210" s="2"/>
-      <c r="K210" s="2"/>
-      <c r="L210" s="2"/>
-      <c r="M210" s="2"/>
-      <c r="N210" s="2"/>
-      <c r="O210" s="2"/>
-      <c r="P210" s="2"/>
-      <c r="Q210" s="2"/>
-      <c r="R210" s="2"/>
-      <c r="S210" s="2"/>
-      <c r="T210" s="2"/>
-      <c r="U210" s="2"/>
-      <c r="V210" s="2"/>
-      <c r="W210" s="2"/>
-      <c r="X210" s="2"/>
-      <c r="Y210" s="2"/>
-      <c r="Z210" s="2"/>
+      <c r="A210" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B210" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
+      <c r="I210" s="1"/>
+      <c r="J210" s="1"/>
+      <c r="K210" s="1"/>
+      <c r="L210" s="1"/>
+      <c r="M210" s="1"/>
+      <c r="N210" s="1"/>
+      <c r="O210" s="1"/>
+      <c r="P210" s="1"/>
+      <c r="Q210" s="1"/>
+      <c r="R210" s="1"/>
+      <c r="S210" s="1"/>
+      <c r="T210" s="1"/>
+      <c r="U210" s="1"/>
+      <c r="V210" s="1"/>
+      <c r="W210" s="1"/>
+      <c r="X210" s="1"/>
+      <c r="Y210" s="1"/>
+      <c r="Z210" s="1"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>365</v>
-      </c>
+      <c r="A211" s="1"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
@@ -8739,73 +8766,73 @@
       <c r="Z211" s="1"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
-      <c r="C212" s="1"/>
-      <c r="D212" s="1"/>
-      <c r="E212" s="1"/>
-      <c r="F212" s="1"/>
-      <c r="G212" s="1"/>
-      <c r="H212" s="1"/>
-      <c r="I212" s="1"/>
-      <c r="J212" s="1"/>
-      <c r="K212" s="1"/>
-      <c r="L212" s="1"/>
-      <c r="M212" s="1"/>
-      <c r="N212" s="1"/>
-      <c r="O212" s="1"/>
-      <c r="P212" s="1"/>
-      <c r="Q212" s="1"/>
-      <c r="R212" s="1"/>
-      <c r="S212" s="1"/>
-      <c r="T212" s="1"/>
-      <c r="U212" s="1"/>
-      <c r="V212" s="1"/>
-      <c r="W212" s="1"/>
-      <c r="X212" s="1"/>
-      <c r="Y212" s="1"/>
-      <c r="Z212" s="1"/>
+      <c r="A212" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
+      <c r="G212" s="2"/>
+      <c r="H212" s="2"/>
+      <c r="I212" s="2"/>
+      <c r="J212" s="2"/>
+      <c r="K212" s="2"/>
+      <c r="L212" s="2"/>
+      <c r="M212" s="2"/>
+      <c r="N212" s="2"/>
+      <c r="O212" s="2"/>
+      <c r="P212" s="2"/>
+      <c r="Q212" s="2"/>
+      <c r="R212" s="2"/>
+      <c r="S212" s="2"/>
+      <c r="T212" s="2"/>
+      <c r="U212" s="2"/>
+      <c r="V212" s="2"/>
+      <c r="W212" s="2"/>
+      <c r="X212" s="2"/>
+      <c r="Y212" s="2"/>
+      <c r="Z212" s="2"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="B213" s="2"/>
-      <c r="C213" s="2"/>
-      <c r="D213" s="2"/>
-      <c r="E213" s="2"/>
-      <c r="F213" s="2"/>
-      <c r="G213" s="2"/>
-      <c r="H213" s="2"/>
-      <c r="I213" s="2"/>
-      <c r="J213" s="2"/>
-      <c r="K213" s="2"/>
-      <c r="L213" s="2"/>
-      <c r="M213" s="2"/>
-      <c r="N213" s="2"/>
-      <c r="O213" s="2"/>
-      <c r="P213" s="2"/>
-      <c r="Q213" s="2"/>
-      <c r="R213" s="2"/>
-      <c r="S213" s="2"/>
-      <c r="T213" s="2"/>
-      <c r="U213" s="2"/>
-      <c r="V213" s="2"/>
-      <c r="W213" s="2"/>
-      <c r="X213" s="2"/>
-      <c r="Y213" s="2"/>
-      <c r="Z213" s="2"/>
+      <c r="A213" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
+      <c r="F213" s="1"/>
+      <c r="G213" s="1"/>
+      <c r="H213" s="1"/>
+      <c r="I213" s="1"/>
+      <c r="J213" s="1"/>
+      <c r="K213" s="1"/>
+      <c r="L213" s="1"/>
+      <c r="M213" s="1"/>
+      <c r="N213" s="1"/>
+      <c r="O213" s="1"/>
+      <c r="P213" s="1"/>
+      <c r="Q213" s="1"/>
+      <c r="R213" s="1"/>
+      <c r="S213" s="1"/>
+      <c r="T213" s="1"/>
+      <c r="U213" s="1"/>
+      <c r="V213" s="1"/>
+      <c r="W213" s="1"/>
+      <c r="X213" s="1"/>
+      <c r="Y213" s="1"/>
+      <c r="Z213" s="1"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>369</v>
-      </c>
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
@@ -8831,48 +8858,44 @@
       <c r="Z214" s="1"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="1" t="s">
+      <c r="A215" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B215" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D215" s="1"/>
-      <c r="E215" s="1"/>
-      <c r="F215" s="1"/>
-      <c r="G215" s="1"/>
-      <c r="H215" s="1"/>
-      <c r="I215" s="1"/>
-      <c r="J215" s="1"/>
-      <c r="K215" s="1"/>
-      <c r="L215" s="1"/>
-      <c r="M215" s="1"/>
-      <c r="N215" s="1"/>
-      <c r="O215" s="1"/>
-      <c r="P215" s="1"/>
-      <c r="Q215" s="1"/>
-      <c r="R215" s="1"/>
-      <c r="S215" s="1"/>
-      <c r="T215" s="1"/>
-      <c r="U215" s="1"/>
-      <c r="V215" s="1"/>
-      <c r="W215" s="1"/>
-      <c r="X215" s="1"/>
-      <c r="Y215" s="1"/>
-      <c r="Z215" s="1"/>
+      <c r="B215" s="2"/>
+      <c r="C215" s="2"/>
+      <c r="D215" s="2"/>
+      <c r="E215" s="2"/>
+      <c r="F215" s="2"/>
+      <c r="G215" s="2"/>
+      <c r="H215" s="2"/>
+      <c r="I215" s="2"/>
+      <c r="J215" s="2"/>
+      <c r="K215" s="2"/>
+      <c r="L215" s="2"/>
+      <c r="M215" s="2"/>
+      <c r="N215" s="2"/>
+      <c r="O215" s="2"/>
+      <c r="P215" s="2"/>
+      <c r="Q215" s="2"/>
+      <c r="R215" s="2"/>
+      <c r="S215" s="2"/>
+      <c r="T215" s="2"/>
+      <c r="U215" s="2"/>
+      <c r="V215" s="2"/>
+      <c r="W215" s="2"/>
+      <c r="X215" s="2"/>
+      <c r="Y215" s="2"/>
+      <c r="Z215" s="2"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C216" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -8900,13 +8923,13 @@
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C217" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -8934,13 +8957,13 @@
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C218" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -8968,7 +8991,7 @@
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>381</v>
@@ -9005,10 +9028,10 @@
         <v>383</v>
       </c>
       <c r="B220" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C220" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -9036,13 +9059,13 @@
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C221" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -9070,13 +9093,13 @@
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C222" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>391</v>
       </c>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -9104,13 +9127,13 @@
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C223" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>394</v>
       </c>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -9137,9 +9160,15 @@
       <c r="Z223" s="1"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
-      <c r="C224" s="1"/>
+      <c r="A224" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>395</v>
+      </c>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
@@ -9165,45 +9194,43 @@
       <c r="Z224" s="1"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B225" s="2"/>
-      <c r="C225" s="2"/>
-      <c r="D225" s="2"/>
-      <c r="E225" s="2"/>
-      <c r="F225" s="2"/>
-      <c r="G225" s="2"/>
-      <c r="H225" s="2"/>
-      <c r="I225" s="2"/>
-      <c r="J225" s="2"/>
-      <c r="K225" s="2"/>
-      <c r="L225" s="2"/>
-      <c r="M225" s="2"/>
-      <c r="N225" s="2"/>
-      <c r="O225" s="2"/>
-      <c r="P225" s="2"/>
-      <c r="Q225" s="2"/>
-      <c r="R225" s="2"/>
-      <c r="S225" s="2"/>
-      <c r="T225" s="2"/>
-      <c r="U225" s="2"/>
-      <c r="V225" s="2"/>
-      <c r="W225" s="2"/>
-      <c r="X225" s="2"/>
-      <c r="Y225" s="2"/>
-      <c r="Z225" s="2"/>
+      <c r="A225" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1"/>
+      <c r="F225" s="1"/>
+      <c r="G225" s="1"/>
+      <c r="H225" s="1"/>
+      <c r="I225" s="1"/>
+      <c r="J225" s="1"/>
+      <c r="K225" s="1"/>
+      <c r="L225" s="1"/>
+      <c r="M225" s="1"/>
+      <c r="N225" s="1"/>
+      <c r="O225" s="1"/>
+      <c r="P225" s="1"/>
+      <c r="Q225" s="1"/>
+      <c r="R225" s="1"/>
+      <c r="S225" s="1"/>
+      <c r="T225" s="1"/>
+      <c r="U225" s="1"/>
+      <c r="V225" s="1"/>
+      <c r="W225" s="1"/>
+      <c r="X225" s="1"/>
+      <c r="Y225" s="1"/>
+      <c r="Z225" s="1"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
@@ -9229,48 +9256,44 @@
       <c r="Z226" s="1"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D227" s="1"/>
-      <c r="E227" s="1"/>
-      <c r="F227" s="1"/>
-      <c r="G227" s="1"/>
-      <c r="H227" s="1"/>
-      <c r="I227" s="1"/>
-      <c r="J227" s="1"/>
-      <c r="K227" s="1"/>
-      <c r="L227" s="1"/>
-      <c r="M227" s="1"/>
-      <c r="N227" s="1"/>
-      <c r="O227" s="1"/>
-      <c r="P227" s="1"/>
-      <c r="Q227" s="1"/>
-      <c r="R227" s="1"/>
-      <c r="S227" s="1"/>
-      <c r="T227" s="1"/>
-      <c r="U227" s="1"/>
-      <c r="V227" s="1"/>
-      <c r="W227" s="1"/>
-      <c r="X227" s="1"/>
-      <c r="Y227" s="1"/>
-      <c r="Z227" s="1"/>
+      <c r="A227" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B227" s="2"/>
+      <c r="C227" s="2"/>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
+      <c r="F227" s="2"/>
+      <c r="G227" s="2"/>
+      <c r="H227" s="2"/>
+      <c r="I227" s="2"/>
+      <c r="J227" s="2"/>
+      <c r="K227" s="2"/>
+      <c r="L227" s="2"/>
+      <c r="M227" s="2"/>
+      <c r="N227" s="2"/>
+      <c r="O227" s="2"/>
+      <c r="P227" s="2"/>
+      <c r="Q227" s="2"/>
+      <c r="R227" s="2"/>
+      <c r="S227" s="2"/>
+      <c r="T227" s="2"/>
+      <c r="U227" s="2"/>
+      <c r="V227" s="2"/>
+      <c r="W227" s="2"/>
+      <c r="X227" s="2"/>
+      <c r="Y227" s="2"/>
+      <c r="Z227" s="2"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -9298,13 +9321,13 @@
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>400</v>
+        <v>71</v>
       </c>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -9332,13 +9355,13 @@
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>402</v>
+        <v>71</v>
       </c>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -9406,7 +9429,7 @@
         <v>405</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>20</v>
+        <v>406</v>
       </c>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -9434,13 +9457,13 @@
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>16</v>
+        <v>408</v>
       </c>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -9468,13 +9491,13 @@
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -9502,13 +9525,13 @@
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>410</v>
+        <v>16</v>
       </c>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -9539,10 +9562,10 @@
         <v>411</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>413</v>
+        <v>18</v>
       </c>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -9570,13 +9593,13 @@
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C237" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>416</v>
       </c>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -9603,9 +9626,15 @@
       <c r="Z237" s="1"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="1"/>
-      <c r="B238" s="1"/>
-      <c r="C238" s="1"/>
+      <c r="A238" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>417</v>
+      </c>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
@@ -9631,9 +9660,15 @@
       <c r="Z238" s="1"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="A239" s="1"/>
-      <c r="B239" s="1"/>
-      <c r="C239" s="1"/>
+      <c r="A239" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>420</v>
+      </c>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
@@ -15203,60 +15238,60 @@
       <c r="Z437" s="1"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="A438" s="17"/>
-      <c r="B438" s="17"/>
-      <c r="C438" s="17"/>
-      <c r="D438" s="17"/>
-      <c r="E438" s="17"/>
-      <c r="F438" s="17"/>
-      <c r="G438" s="17"/>
-      <c r="H438" s="17"/>
-      <c r="I438" s="17"/>
-      <c r="J438" s="17"/>
-      <c r="K438" s="17"/>
-      <c r="L438" s="17"/>
-      <c r="M438" s="17"/>
-      <c r="N438" s="17"/>
-      <c r="O438" s="17"/>
-      <c r="P438" s="17"/>
-      <c r="Q438" s="17"/>
-      <c r="R438" s="17"/>
-      <c r="S438" s="17"/>
-      <c r="T438" s="17"/>
-      <c r="U438" s="17"/>
-      <c r="V438" s="17"/>
-      <c r="W438" s="17"/>
-      <c r="X438" s="17"/>
-      <c r="Y438" s="17"/>
-      <c r="Z438" s="17"/>
+      <c r="A438" s="1"/>
+      <c r="B438" s="1"/>
+      <c r="C438" s="1"/>
+      <c r="D438" s="1"/>
+      <c r="E438" s="1"/>
+      <c r="F438" s="1"/>
+      <c r="G438" s="1"/>
+      <c r="H438" s="1"/>
+      <c r="I438" s="1"/>
+      <c r="J438" s="1"/>
+      <c r="K438" s="1"/>
+      <c r="L438" s="1"/>
+      <c r="M438" s="1"/>
+      <c r="N438" s="1"/>
+      <c r="O438" s="1"/>
+      <c r="P438" s="1"/>
+      <c r="Q438" s="1"/>
+      <c r="R438" s="1"/>
+      <c r="S438" s="1"/>
+      <c r="T438" s="1"/>
+      <c r="U438" s="1"/>
+      <c r="V438" s="1"/>
+      <c r="W438" s="1"/>
+      <c r="X438" s="1"/>
+      <c r="Y438" s="1"/>
+      <c r="Z438" s="1"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="A439" s="17"/>
-      <c r="B439" s="17"/>
-      <c r="C439" s="17"/>
-      <c r="D439" s="17"/>
-      <c r="E439" s="17"/>
-      <c r="F439" s="17"/>
-      <c r="G439" s="17"/>
-      <c r="H439" s="17"/>
-      <c r="I439" s="17"/>
-      <c r="J439" s="17"/>
-      <c r="K439" s="17"/>
-      <c r="L439" s="17"/>
-      <c r="M439" s="17"/>
-      <c r="N439" s="17"/>
-      <c r="O439" s="17"/>
-      <c r="P439" s="17"/>
-      <c r="Q439" s="17"/>
-      <c r="R439" s="17"/>
-      <c r="S439" s="17"/>
-      <c r="T439" s="17"/>
-      <c r="U439" s="17"/>
-      <c r="V439" s="17"/>
-      <c r="W439" s="17"/>
-      <c r="X439" s="17"/>
-      <c r="Y439" s="17"/>
-      <c r="Z439" s="17"/>
+      <c r="A439" s="1"/>
+      <c r="B439" s="1"/>
+      <c r="C439" s="1"/>
+      <c r="D439" s="1"/>
+      <c r="E439" s="1"/>
+      <c r="F439" s="1"/>
+      <c r="G439" s="1"/>
+      <c r="H439" s="1"/>
+      <c r="I439" s="1"/>
+      <c r="J439" s="1"/>
+      <c r="K439" s="1"/>
+      <c r="L439" s="1"/>
+      <c r="M439" s="1"/>
+      <c r="N439" s="1"/>
+      <c r="O439" s="1"/>
+      <c r="P439" s="1"/>
+      <c r="Q439" s="1"/>
+      <c r="R439" s="1"/>
+      <c r="S439" s="1"/>
+      <c r="T439" s="1"/>
+      <c r="U439" s="1"/>
+      <c r="V439" s="1"/>
+      <c r="W439" s="1"/>
+      <c r="X439" s="1"/>
+      <c r="Y439" s="1"/>
+      <c r="Z439" s="1"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
       <c r="A440" s="17"/>
@@ -31890,6 +31925,62 @@
       <c r="Y1033" s="17"/>
       <c r="Z1033" s="17"/>
     </row>
+    <row r="1034" ht="15.75" customHeight="1">
+      <c r="A1034" s="17"/>
+      <c r="B1034" s="17"/>
+      <c r="C1034" s="17"/>
+      <c r="D1034" s="17"/>
+      <c r="E1034" s="17"/>
+      <c r="F1034" s="17"/>
+      <c r="G1034" s="17"/>
+      <c r="H1034" s="17"/>
+      <c r="I1034" s="17"/>
+      <c r="J1034" s="17"/>
+      <c r="K1034" s="17"/>
+      <c r="L1034" s="17"/>
+      <c r="M1034" s="17"/>
+      <c r="N1034" s="17"/>
+      <c r="O1034" s="17"/>
+      <c r="P1034" s="17"/>
+      <c r="Q1034" s="17"/>
+      <c r="R1034" s="17"/>
+      <c r="S1034" s="17"/>
+      <c r="T1034" s="17"/>
+      <c r="U1034" s="17"/>
+      <c r="V1034" s="17"/>
+      <c r="W1034" s="17"/>
+      <c r="X1034" s="17"/>
+      <c r="Y1034" s="17"/>
+      <c r="Z1034" s="17"/>
+    </row>
+    <row r="1035" ht="15.75" customHeight="1">
+      <c r="A1035" s="17"/>
+      <c r="B1035" s="17"/>
+      <c r="C1035" s="17"/>
+      <c r="D1035" s="17"/>
+      <c r="E1035" s="17"/>
+      <c r="F1035" s="17"/>
+      <c r="G1035" s="17"/>
+      <c r="H1035" s="17"/>
+      <c r="I1035" s="17"/>
+      <c r="J1035" s="17"/>
+      <c r="K1035" s="17"/>
+      <c r="L1035" s="17"/>
+      <c r="M1035" s="17"/>
+      <c r="N1035" s="17"/>
+      <c r="O1035" s="17"/>
+      <c r="P1035" s="17"/>
+      <c r="Q1035" s="17"/>
+      <c r="R1035" s="17"/>
+      <c r="S1035" s="17"/>
+      <c r="T1035" s="17"/>
+      <c r="U1035" s="17"/>
+      <c r="V1035" s="17"/>
+      <c r="W1035" s="17"/>
+      <c r="X1035" s="17"/>
+      <c r="Y1035" s="17"/>
+      <c r="Z1035" s="17"/>
+    </row>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/Assets/Resources/Language/Language.xlsx
+++ b/Assets/Resources/Language/Language.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="bCpl2ulkJwefW6eYTXpN2nVgNQ98B5sOQ0I0RcPB1AQ="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="TockPlgeYKWuSlumYarhfh04pRViecBV2WpP6BhjqWw="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="423">
   <si>
     <t>ID</t>
   </si>
@@ -1114,6 +1114,12 @@
   </si>
   <si>
     <t>下一局留座離桌</t>
+  </si>
+  <si>
+    <t>Start replenishing chips for the next hand</t>
+  </si>
+  <si>
+    <t>籌碼將在下一手開始補充</t>
   </si>
   <si>
     <t>遊戲內選單</t>
@@ -1454,7 +1460,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1520,20 +1526,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -8136,13 +8133,13 @@
       <c r="Z192" s="18"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="25" t="s">
+      <c r="A193" s="24" t="s">
         <v>332</v>
       </c>
-      <c r="B193" s="26" t="s">
+      <c r="B193" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="C193" s="26" t="s">
+      <c r="C193" s="17" t="s">
         <v>333</v>
       </c>
       <c r="D193" s="17"/>
@@ -8204,38 +8201,38 @@
       <c r="Z194" s="18"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="27" t="s">
+      <c r="A195" s="25" t="s">
         <v>336</v>
       </c>
-      <c r="B195" s="28" t="s">
+      <c r="B195" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="C195" s="28" t="s">
+      <c r="C195" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="D195" s="28"/>
-      <c r="E195" s="28"/>
-      <c r="F195" s="28"/>
-      <c r="G195" s="28"/>
-      <c r="H195" s="28"/>
-      <c r="I195" s="28"/>
-      <c r="J195" s="28"/>
-      <c r="K195" s="28"/>
-      <c r="L195" s="28"/>
-      <c r="M195" s="28"/>
-      <c r="N195" s="28"/>
-      <c r="O195" s="28"/>
-      <c r="P195" s="28"/>
-      <c r="Q195" s="28"/>
-      <c r="R195" s="28"/>
-      <c r="S195" s="28"/>
-      <c r="T195" s="28"/>
-      <c r="U195" s="28"/>
-      <c r="V195" s="28"/>
-      <c r="W195" s="28"/>
-      <c r="X195" s="28"/>
-      <c r="Y195" s="28"/>
-      <c r="Z195" s="29"/>
+      <c r="D195" s="26"/>
+      <c r="E195" s="26"/>
+      <c r="F195" s="26"/>
+      <c r="G195" s="26"/>
+      <c r="H195" s="26"/>
+      <c r="I195" s="26"/>
+      <c r="J195" s="26"/>
+      <c r="K195" s="26"/>
+      <c r="L195" s="26"/>
+      <c r="M195" s="26"/>
+      <c r="N195" s="26"/>
+      <c r="O195" s="26"/>
+      <c r="P195" s="26"/>
+      <c r="Q195" s="26"/>
+      <c r="R195" s="26"/>
+      <c r="S195" s="26"/>
+      <c r="T195" s="26"/>
+      <c r="U195" s="26"/>
+      <c r="V195" s="26"/>
+      <c r="W195" s="26"/>
+      <c r="X195" s="26"/>
+      <c r="Y195" s="26"/>
+      <c r="Z195" s="27"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="7" t="s">
@@ -8306,13 +8303,13 @@
       <c r="Z197" s="12"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="30" t="s">
+      <c r="A198" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="B198" s="31" t="s">
+      <c r="B198" s="28" t="s">
         <v>343</v>
       </c>
-      <c r="C198" s="32" t="s">
+      <c r="C198" s="1" t="s">
         <v>344</v>
       </c>
       <c r="D198" s="1"/>
@@ -8510,9 +8507,15 @@
       <c r="Z203" s="16"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="1"/>
-      <c r="B204" s="1"/>
-      <c r="C204" s="1"/>
+      <c r="A204" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="B204" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="C204" s="29" t="s">
+        <v>357</v>
+      </c>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
@@ -8538,68 +8541,62 @@
       <c r="Z204" s="1"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B205" s="2"/>
-      <c r="C205" s="2"/>
-      <c r="D205" s="2"/>
-      <c r="E205" s="2"/>
-      <c r="F205" s="2"/>
-      <c r="G205" s="2"/>
-      <c r="H205" s="2"/>
-      <c r="I205" s="2"/>
-      <c r="J205" s="2"/>
-      <c r="K205" s="2"/>
-      <c r="L205" s="2"/>
-      <c r="M205" s="2"/>
-      <c r="N205" s="2"/>
-      <c r="O205" s="2"/>
-      <c r="P205" s="2"/>
-      <c r="Q205" s="2"/>
-      <c r="R205" s="2"/>
-      <c r="S205" s="2"/>
-      <c r="T205" s="2"/>
-      <c r="U205" s="2"/>
-      <c r="V205" s="2"/>
-      <c r="W205" s="2"/>
-      <c r="X205" s="2"/>
-      <c r="Y205" s="2"/>
-      <c r="Z205" s="2"/>
+      <c r="A205" s="1"/>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
+      <c r="G205" s="1"/>
+      <c r="H205" s="1"/>
+      <c r="I205" s="1"/>
+      <c r="J205" s="1"/>
+      <c r="K205" s="1"/>
+      <c r="L205" s="1"/>
+      <c r="M205" s="1"/>
+      <c r="N205" s="1"/>
+      <c r="O205" s="1"/>
+      <c r="P205" s="1"/>
+      <c r="Q205" s="1"/>
+      <c r="R205" s="1"/>
+      <c r="S205" s="1"/>
+      <c r="T205" s="1"/>
+      <c r="U205" s="1"/>
+      <c r="V205" s="1"/>
+      <c r="W205" s="1"/>
+      <c r="X205" s="1"/>
+      <c r="Y205" s="1"/>
+      <c r="Z205" s="1"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C206" s="1" t="s">
+      <c r="A206" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="D206" s="1"/>
-      <c r="E206" s="1"/>
-      <c r="F206" s="1"/>
-      <c r="G206" s="1"/>
-      <c r="H206" s="1"/>
-      <c r="I206" s="1"/>
-      <c r="J206" s="1"/>
-      <c r="K206" s="1"/>
-      <c r="L206" s="1"/>
-      <c r="M206" s="1"/>
-      <c r="N206" s="1"/>
-      <c r="O206" s="1"/>
-      <c r="P206" s="1"/>
-      <c r="Q206" s="1"/>
-      <c r="R206" s="1"/>
-      <c r="S206" s="1"/>
-      <c r="T206" s="1"/>
-      <c r="U206" s="1"/>
-      <c r="V206" s="1"/>
-      <c r="W206" s="1"/>
-      <c r="X206" s="1"/>
-      <c r="Y206" s="1"/>
-      <c r="Z206" s="1"/>
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="2"/>
+      <c r="E206" s="2"/>
+      <c r="F206" s="2"/>
+      <c r="G206" s="2"/>
+      <c r="H206" s="2"/>
+      <c r="I206" s="2"/>
+      <c r="J206" s="2"/>
+      <c r="K206" s="2"/>
+      <c r="L206" s="2"/>
+      <c r="M206" s="2"/>
+      <c r="N206" s="2"/>
+      <c r="O206" s="2"/>
+      <c r="P206" s="2"/>
+      <c r="Q206" s="2"/>
+      <c r="R206" s="2"/>
+      <c r="S206" s="2"/>
+      <c r="T206" s="2"/>
+      <c r="U206" s="2"/>
+      <c r="V206" s="2"/>
+      <c r="W206" s="2"/>
+      <c r="X206" s="2"/>
+      <c r="Y206" s="2"/>
+      <c r="Z206" s="2"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="1" t="s">
@@ -8707,7 +8704,7 @@
       <c r="A210" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B210" s="20" t="s">
+      <c r="B210" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C210" s="1" t="s">
@@ -8738,9 +8735,15 @@
       <c r="Z210" s="1"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="1"/>
-      <c r="B211" s="1"/>
-      <c r="C211" s="1"/>
+      <c r="A211" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B211" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>368</v>
+      </c>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
@@ -8766,73 +8769,73 @@
       <c r="Z211" s="1"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B212" s="2"/>
-      <c r="C212" s="2"/>
-      <c r="D212" s="2"/>
-      <c r="E212" s="2"/>
-      <c r="F212" s="2"/>
-      <c r="G212" s="2"/>
-      <c r="H212" s="2"/>
-      <c r="I212" s="2"/>
-      <c r="J212" s="2"/>
-      <c r="K212" s="2"/>
-      <c r="L212" s="2"/>
-      <c r="M212" s="2"/>
-      <c r="N212" s="2"/>
-      <c r="O212" s="2"/>
-      <c r="P212" s="2"/>
-      <c r="Q212" s="2"/>
-      <c r="R212" s="2"/>
-      <c r="S212" s="2"/>
-      <c r="T212" s="2"/>
-      <c r="U212" s="2"/>
-      <c r="V212" s="2"/>
-      <c r="W212" s="2"/>
-      <c r="X212" s="2"/>
-      <c r="Y212" s="2"/>
-      <c r="Z212" s="2"/>
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+      <c r="G212" s="1"/>
+      <c r="H212" s="1"/>
+      <c r="I212" s="1"/>
+      <c r="J212" s="1"/>
+      <c r="K212" s="1"/>
+      <c r="L212" s="1"/>
+      <c r="M212" s="1"/>
+      <c r="N212" s="1"/>
+      <c r="O212" s="1"/>
+      <c r="P212" s="1"/>
+      <c r="Q212" s="1"/>
+      <c r="R212" s="1"/>
+      <c r="S212" s="1"/>
+      <c r="T212" s="1"/>
+      <c r="U212" s="1"/>
+      <c r="V212" s="1"/>
+      <c r="W212" s="1"/>
+      <c r="X212" s="1"/>
+      <c r="Y212" s="1"/>
+      <c r="Z212" s="1"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C213" s="1" t="s">
+      <c r="A213" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="D213" s="1"/>
-      <c r="E213" s="1"/>
-      <c r="F213" s="1"/>
-      <c r="G213" s="1"/>
-      <c r="H213" s="1"/>
-      <c r="I213" s="1"/>
-      <c r="J213" s="1"/>
-      <c r="K213" s="1"/>
-      <c r="L213" s="1"/>
-      <c r="M213" s="1"/>
-      <c r="N213" s="1"/>
-      <c r="O213" s="1"/>
-      <c r="P213" s="1"/>
-      <c r="Q213" s="1"/>
-      <c r="R213" s="1"/>
-      <c r="S213" s="1"/>
-      <c r="T213" s="1"/>
-      <c r="U213" s="1"/>
-      <c r="V213" s="1"/>
-      <c r="W213" s="1"/>
-      <c r="X213" s="1"/>
-      <c r="Y213" s="1"/>
-      <c r="Z213" s="1"/>
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
+      <c r="G213" s="2"/>
+      <c r="H213" s="2"/>
+      <c r="I213" s="2"/>
+      <c r="J213" s="2"/>
+      <c r="K213" s="2"/>
+      <c r="L213" s="2"/>
+      <c r="M213" s="2"/>
+      <c r="N213" s="2"/>
+      <c r="O213" s="2"/>
+      <c r="P213" s="2"/>
+      <c r="Q213" s="2"/>
+      <c r="R213" s="2"/>
+      <c r="S213" s="2"/>
+      <c r="T213" s="2"/>
+      <c r="U213" s="2"/>
+      <c r="V213" s="2"/>
+      <c r="W213" s="2"/>
+      <c r="X213" s="2"/>
+      <c r="Y213" s="2"/>
+      <c r="Z213" s="2"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
-      <c r="C214" s="1"/>
+      <c r="A214" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>371</v>
+      </c>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
@@ -8858,78 +8861,72 @@
       <c r="Z214" s="1"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B215" s="2"/>
-      <c r="C215" s="2"/>
-      <c r="D215" s="2"/>
-      <c r="E215" s="2"/>
-      <c r="F215" s="2"/>
-      <c r="G215" s="2"/>
-      <c r="H215" s="2"/>
-      <c r="I215" s="2"/>
-      <c r="J215" s="2"/>
-      <c r="K215" s="2"/>
-      <c r="L215" s="2"/>
-      <c r="M215" s="2"/>
-      <c r="N215" s="2"/>
-      <c r="O215" s="2"/>
-      <c r="P215" s="2"/>
-      <c r="Q215" s="2"/>
-      <c r="R215" s="2"/>
-      <c r="S215" s="2"/>
-      <c r="T215" s="2"/>
-      <c r="U215" s="2"/>
-      <c r="V215" s="2"/>
-      <c r="W215" s="2"/>
-      <c r="X215" s="2"/>
-      <c r="Y215" s="2"/>
-      <c r="Z215" s="2"/>
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
+      <c r="G215" s="1"/>
+      <c r="H215" s="1"/>
+      <c r="I215" s="1"/>
+      <c r="J215" s="1"/>
+      <c r="K215" s="1"/>
+      <c r="L215" s="1"/>
+      <c r="M215" s="1"/>
+      <c r="N215" s="1"/>
+      <c r="O215" s="1"/>
+      <c r="P215" s="1"/>
+      <c r="Q215" s="1"/>
+      <c r="R215" s="1"/>
+      <c r="S215" s="1"/>
+      <c r="T215" s="1"/>
+      <c r="U215" s="1"/>
+      <c r="V215" s="1"/>
+      <c r="W215" s="1"/>
+      <c r="X215" s="1"/>
+      <c r="Y215" s="1"/>
+      <c r="Z215" s="1"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B216" s="1" t="s">
+      <c r="A216" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C216" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D216" s="1"/>
-      <c r="E216" s="1"/>
-      <c r="F216" s="1"/>
-      <c r="G216" s="1"/>
-      <c r="H216" s="1"/>
-      <c r="I216" s="1"/>
-      <c r="J216" s="1"/>
-      <c r="K216" s="1"/>
-      <c r="L216" s="1"/>
-      <c r="M216" s="1"/>
-      <c r="N216" s="1"/>
-      <c r="O216" s="1"/>
-      <c r="P216" s="1"/>
-      <c r="Q216" s="1"/>
-      <c r="R216" s="1"/>
-      <c r="S216" s="1"/>
-      <c r="T216" s="1"/>
-      <c r="U216" s="1"/>
-      <c r="V216" s="1"/>
-      <c r="W216" s="1"/>
-      <c r="X216" s="1"/>
-      <c r="Y216" s="1"/>
-      <c r="Z216" s="1"/>
+      <c r="B216" s="2"/>
+      <c r="C216" s="2"/>
+      <c r="D216" s="2"/>
+      <c r="E216" s="2"/>
+      <c r="F216" s="2"/>
+      <c r="G216" s="2"/>
+      <c r="H216" s="2"/>
+      <c r="I216" s="2"/>
+      <c r="J216" s="2"/>
+      <c r="K216" s="2"/>
+      <c r="L216" s="2"/>
+      <c r="M216" s="2"/>
+      <c r="N216" s="2"/>
+      <c r="O216" s="2"/>
+      <c r="P216" s="2"/>
+      <c r="Q216" s="2"/>
+      <c r="R216" s="2"/>
+      <c r="S216" s="2"/>
+      <c r="T216" s="2"/>
+      <c r="U216" s="2"/>
+      <c r="V216" s="2"/>
+      <c r="W216" s="2"/>
+      <c r="X216" s="2"/>
+      <c r="Y216" s="2"/>
+      <c r="Z216" s="2"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="C217" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>376</v>
       </c>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -8957,13 +8954,13 @@
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="C218" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -8991,13 +8988,13 @@
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="C219" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -9025,7 +9022,7 @@
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>383</v>
@@ -9096,10 +9093,10 @@
         <v>387</v>
       </c>
       <c r="B222" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C222" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -9127,13 +9124,13 @@
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="C223" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -9161,13 +9158,13 @@
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="C224" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -9195,13 +9192,13 @@
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="C225" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -9228,9 +9225,15 @@
       <c r="Z225" s="1"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
-      <c r="C226" s="1"/>
+      <c r="A226" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>400</v>
+      </c>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
@@ -9256,78 +9259,72 @@
       <c r="Z226" s="1"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="2" t="s">
+      <c r="A227" s="1"/>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="1"/>
+      <c r="F227" s="1"/>
+      <c r="G227" s="1"/>
+      <c r="H227" s="1"/>
+      <c r="I227" s="1"/>
+      <c r="J227" s="1"/>
+      <c r="K227" s="1"/>
+      <c r="L227" s="1"/>
+      <c r="M227" s="1"/>
+      <c r="N227" s="1"/>
+      <c r="O227" s="1"/>
+      <c r="P227" s="1"/>
+      <c r="Q227" s="1"/>
+      <c r="R227" s="1"/>
+      <c r="S227" s="1"/>
+      <c r="T227" s="1"/>
+      <c r="U227" s="1"/>
+      <c r="V227" s="1"/>
+      <c r="W227" s="1"/>
+      <c r="X227" s="1"/>
+      <c r="Y227" s="1"/>
+      <c r="Z227" s="1"/>
+    </row>
+    <row r="228" ht="15.75" customHeight="1">
+      <c r="A228" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B227" s="2"/>
-      <c r="C227" s="2"/>
-      <c r="D227" s="2"/>
-      <c r="E227" s="2"/>
-      <c r="F227" s="2"/>
-      <c r="G227" s="2"/>
-      <c r="H227" s="2"/>
-      <c r="I227" s="2"/>
-      <c r="J227" s="2"/>
-      <c r="K227" s="2"/>
-      <c r="L227" s="2"/>
-      <c r="M227" s="2"/>
-      <c r="N227" s="2"/>
-      <c r="O227" s="2"/>
-      <c r="P227" s="2"/>
-      <c r="Q227" s="2"/>
-      <c r="R227" s="2"/>
-      <c r="S227" s="2"/>
-      <c r="T227" s="2"/>
-      <c r="U227" s="2"/>
-      <c r="V227" s="2"/>
-      <c r="W227" s="2"/>
-      <c r="X227" s="2"/>
-      <c r="Y227" s="2"/>
-      <c r="Z227" s="2"/>
-    </row>
-    <row r="228" ht="15.75" customHeight="1">
-      <c r="A228" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D228" s="1"/>
-      <c r="E228" s="1"/>
-      <c r="F228" s="1"/>
-      <c r="G228" s="1"/>
-      <c r="H228" s="1"/>
-      <c r="I228" s="1"/>
-      <c r="J228" s="1"/>
-      <c r="K228" s="1"/>
-      <c r="L228" s="1"/>
-      <c r="M228" s="1"/>
-      <c r="N228" s="1"/>
-      <c r="O228" s="1"/>
-      <c r="P228" s="1"/>
-      <c r="Q228" s="1"/>
-      <c r="R228" s="1"/>
-      <c r="S228" s="1"/>
-      <c r="T228" s="1"/>
-      <c r="U228" s="1"/>
-      <c r="V228" s="1"/>
-      <c r="W228" s="1"/>
-      <c r="X228" s="1"/>
-      <c r="Y228" s="1"/>
-      <c r="Z228" s="1"/>
+      <c r="B228" s="2"/>
+      <c r="C228" s="2"/>
+      <c r="D228" s="2"/>
+      <c r="E228" s="2"/>
+      <c r="F228" s="2"/>
+      <c r="G228" s="2"/>
+      <c r="H228" s="2"/>
+      <c r="I228" s="2"/>
+      <c r="J228" s="2"/>
+      <c r="K228" s="2"/>
+      <c r="L228" s="2"/>
+      <c r="M228" s="2"/>
+      <c r="N228" s="2"/>
+      <c r="O228" s="2"/>
+      <c r="P228" s="2"/>
+      <c r="Q228" s="2"/>
+      <c r="R228" s="2"/>
+      <c r="S228" s="2"/>
+      <c r="T228" s="2"/>
+      <c r="U228" s="2"/>
+      <c r="V228" s="2"/>
+      <c r="W228" s="2"/>
+      <c r="X228" s="2"/>
+      <c r="Y228" s="2"/>
+      <c r="Z228" s="2"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>401</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -9358,7 +9355,7 @@
         <v>402</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>71</v>
@@ -9389,13 +9386,13 @@
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>404</v>
+        <v>71</v>
       </c>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -9497,7 +9494,7 @@
         <v>409</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>20</v>
+        <v>410</v>
       </c>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -9525,13 +9522,13 @@
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -9559,13 +9556,13 @@
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -9593,13 +9590,13 @@
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>414</v>
+        <v>18</v>
       </c>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -9627,13 +9624,13 @@
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B238" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B238" s="1" t="s">
+      <c r="C238" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>417</v>
       </c>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -9661,13 +9658,13 @@
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B239" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B239" s="1" t="s">
+      <c r="C239" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>420</v>
       </c>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -9694,9 +9691,15 @@
       <c r="Z239" s="1"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="A240" s="1"/>
-      <c r="B240" s="1"/>
-      <c r="C240" s="1"/>
+      <c r="A240" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
@@ -15294,32 +15297,32 @@
       <c r="Z439" s="1"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="A440" s="17"/>
-      <c r="B440" s="17"/>
-      <c r="C440" s="17"/>
-      <c r="D440" s="17"/>
-      <c r="E440" s="17"/>
-      <c r="F440" s="17"/>
-      <c r="G440" s="17"/>
-      <c r="H440" s="17"/>
-      <c r="I440" s="17"/>
-      <c r="J440" s="17"/>
-      <c r="K440" s="17"/>
-      <c r="L440" s="17"/>
-      <c r="M440" s="17"/>
-      <c r="N440" s="17"/>
-      <c r="O440" s="17"/>
-      <c r="P440" s="17"/>
-      <c r="Q440" s="17"/>
-      <c r="R440" s="17"/>
-      <c r="S440" s="17"/>
-      <c r="T440" s="17"/>
-      <c r="U440" s="17"/>
-      <c r="V440" s="17"/>
-      <c r="W440" s="17"/>
-      <c r="X440" s="17"/>
-      <c r="Y440" s="17"/>
-      <c r="Z440" s="17"/>
+      <c r="A440" s="1"/>
+      <c r="B440" s="1"/>
+      <c r="C440" s="1"/>
+      <c r="D440" s="1"/>
+      <c r="E440" s="1"/>
+      <c r="F440" s="1"/>
+      <c r="G440" s="1"/>
+      <c r="H440" s="1"/>
+      <c r="I440" s="1"/>
+      <c r="J440" s="1"/>
+      <c r="K440" s="1"/>
+      <c r="L440" s="1"/>
+      <c r="M440" s="1"/>
+      <c r="N440" s="1"/>
+      <c r="O440" s="1"/>
+      <c r="P440" s="1"/>
+      <c r="Q440" s="1"/>
+      <c r="R440" s="1"/>
+      <c r="S440" s="1"/>
+      <c r="T440" s="1"/>
+      <c r="U440" s="1"/>
+      <c r="V440" s="1"/>
+      <c r="W440" s="1"/>
+      <c r="X440" s="1"/>
+      <c r="Y440" s="1"/>
+      <c r="Z440" s="1"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
       <c r="A441" s="17"/>
@@ -31981,6 +31984,34 @@
       <c r="Y1035" s="17"/>
       <c r="Z1035" s="17"/>
     </row>
+    <row r="1036" ht="15.75" customHeight="1">
+      <c r="A1036" s="17"/>
+      <c r="B1036" s="17"/>
+      <c r="C1036" s="17"/>
+      <c r="D1036" s="17"/>
+      <c r="E1036" s="17"/>
+      <c r="F1036" s="17"/>
+      <c r="G1036" s="17"/>
+      <c r="H1036" s="17"/>
+      <c r="I1036" s="17"/>
+      <c r="J1036" s="17"/>
+      <c r="K1036" s="17"/>
+      <c r="L1036" s="17"/>
+      <c r="M1036" s="17"/>
+      <c r="N1036" s="17"/>
+      <c r="O1036" s="17"/>
+      <c r="P1036" s="17"/>
+      <c r="Q1036" s="17"/>
+      <c r="R1036" s="17"/>
+      <c r="S1036" s="17"/>
+      <c r="T1036" s="17"/>
+      <c r="U1036" s="17"/>
+      <c r="V1036" s="17"/>
+      <c r="W1036" s="17"/>
+      <c r="X1036" s="17"/>
+      <c r="Y1036" s="17"/>
+      <c r="Z1036" s="17"/>
+    </row>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/Assets/Resources/Language/Language.xlsx
+++ b/Assets/Resources/Language/Language.xlsx
@@ -738,10 +738,10 @@
     <t>手機登入</t>
   </si>
   <si>
-    <t>Please use your mobile phone number to log in.</t>
-  </si>
-  <si>
-    <t>請使用您的手機號碼登入。</t>
+    <t>Please use your account to login in.</t>
+  </si>
+  <si>
+    <t>請使用您的帳號登入。</t>
   </si>
   <si>
     <t>You Will Receive A New Account.</t>
@@ -1429,7 +1429,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1454,11 +1454,6 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <color rgb="FF000000"/>
@@ -1637,11 +1632,8 @@
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
@@ -1649,8 +1641,11 @@
     <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -5413,13 +5408,13 @@
       <c r="Z105" s="22"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="23" t="s">
+      <c r="A106" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="B106" s="23" t="s">
+      <c r="B106" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="C106" s="23" t="s">
+      <c r="C106" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D106" s="22"/>
@@ -5447,13 +5442,13 @@
       <c r="Z106" s="22"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="23" t="s">
+      <c r="A107" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="B107" s="24" t="s">
+      <c r="B107" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="C107" s="23" t="s">
+      <c r="C107" s="22" t="s">
         <v>201</v>
       </c>
       <c r="D107" s="22"/>
@@ -5509,34 +5504,34 @@
       <c r="Z108" s="3"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="25" t="s">
+      <c r="A109" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="B109" s="25"/>
-      <c r="C109" s="25"/>
-      <c r="D109" s="25"/>
-      <c r="E109" s="25"/>
-      <c r="F109" s="25"/>
-      <c r="G109" s="25"/>
-      <c r="H109" s="25"/>
-      <c r="I109" s="25"/>
-      <c r="J109" s="25"/>
-      <c r="K109" s="25"/>
-      <c r="L109" s="25"/>
-      <c r="M109" s="25"/>
-      <c r="N109" s="25"/>
-      <c r="O109" s="25"/>
-      <c r="P109" s="25"/>
-      <c r="Q109" s="25"/>
-      <c r="R109" s="25"/>
-      <c r="S109" s="25"/>
-      <c r="T109" s="25"/>
-      <c r="U109" s="25"/>
-      <c r="V109" s="25"/>
-      <c r="W109" s="25"/>
-      <c r="X109" s="25"/>
-      <c r="Y109" s="25"/>
-      <c r="Z109" s="25"/>
+      <c r="B109" s="24"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="24"/>
+      <c r="F109" s="24"/>
+      <c r="G109" s="24"/>
+      <c r="H109" s="24"/>
+      <c r="I109" s="24"/>
+      <c r="J109" s="24"/>
+      <c r="K109" s="24"/>
+      <c r="L109" s="24"/>
+      <c r="M109" s="24"/>
+      <c r="N109" s="24"/>
+      <c r="O109" s="24"/>
+      <c r="P109" s="24"/>
+      <c r="Q109" s="24"/>
+      <c r="R109" s="24"/>
+      <c r="S109" s="24"/>
+      <c r="T109" s="24"/>
+      <c r="U109" s="24"/>
+      <c r="V109" s="24"/>
+      <c r="W109" s="24"/>
+      <c r="X109" s="24"/>
+      <c r="Y109" s="24"/>
+      <c r="Z109" s="24"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="3" t="s">
@@ -5641,34 +5636,34 @@
       <c r="Z112" s="3"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="25" t="s">
+      <c r="A113" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="B113" s="25"/>
-      <c r="C113" s="25"/>
-      <c r="D113" s="25"/>
-      <c r="E113" s="25"/>
-      <c r="F113" s="25"/>
-      <c r="G113" s="25"/>
-      <c r="H113" s="25"/>
-      <c r="I113" s="25"/>
-      <c r="J113" s="25"/>
-      <c r="K113" s="25"/>
-      <c r="L113" s="25"/>
-      <c r="M113" s="25"/>
-      <c r="N113" s="25"/>
-      <c r="O113" s="25"/>
-      <c r="P113" s="25"/>
-      <c r="Q113" s="25"/>
-      <c r="R113" s="25"/>
-      <c r="S113" s="25"/>
-      <c r="T113" s="25"/>
-      <c r="U113" s="25"/>
-      <c r="V113" s="25"/>
-      <c r="W113" s="25"/>
-      <c r="X113" s="25"/>
-      <c r="Y113" s="25"/>
-      <c r="Z113" s="25"/>
+      <c r="B113" s="24"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="24"/>
+      <c r="F113" s="24"/>
+      <c r="G113" s="24"/>
+      <c r="H113" s="24"/>
+      <c r="I113" s="24"/>
+      <c r="J113" s="24"/>
+      <c r="K113" s="24"/>
+      <c r="L113" s="24"/>
+      <c r="M113" s="24"/>
+      <c r="N113" s="24"/>
+      <c r="O113" s="24"/>
+      <c r="P113" s="24"/>
+      <c r="Q113" s="24"/>
+      <c r="R113" s="24"/>
+      <c r="S113" s="24"/>
+      <c r="T113" s="24"/>
+      <c r="U113" s="24"/>
+      <c r="V113" s="24"/>
+      <c r="W113" s="24"/>
+      <c r="X113" s="24"/>
+      <c r="Y113" s="24"/>
+      <c r="Z113" s="24"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="3" t="s">
@@ -5807,34 +5802,34 @@
       <c r="Z117" s="3"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="26" t="s">
+      <c r="A118" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="B118" s="26"/>
-      <c r="C118" s="26"/>
-      <c r="D118" s="26"/>
-      <c r="E118" s="26"/>
-      <c r="F118" s="26"/>
-      <c r="G118" s="26"/>
-      <c r="H118" s="26"/>
-      <c r="I118" s="26"/>
-      <c r="J118" s="26"/>
-      <c r="K118" s="26"/>
-      <c r="L118" s="26"/>
-      <c r="M118" s="26"/>
-      <c r="N118" s="26"/>
-      <c r="O118" s="26"/>
-      <c r="P118" s="26"/>
-      <c r="Q118" s="26"/>
-      <c r="R118" s="26"/>
-      <c r="S118" s="26"/>
-      <c r="T118" s="26"/>
-      <c r="U118" s="26"/>
-      <c r="V118" s="26"/>
-      <c r="W118" s="26"/>
-      <c r="X118" s="26"/>
-      <c r="Y118" s="26"/>
-      <c r="Z118" s="26"/>
+      <c r="B118" s="25"/>
+      <c r="C118" s="25"/>
+      <c r="D118" s="25"/>
+      <c r="E118" s="25"/>
+      <c r="F118" s="25"/>
+      <c r="G118" s="25"/>
+      <c r="H118" s="25"/>
+      <c r="I118" s="25"/>
+      <c r="J118" s="25"/>
+      <c r="K118" s="25"/>
+      <c r="L118" s="25"/>
+      <c r="M118" s="25"/>
+      <c r="N118" s="25"/>
+      <c r="O118" s="25"/>
+      <c r="P118" s="25"/>
+      <c r="Q118" s="25"/>
+      <c r="R118" s="25"/>
+      <c r="S118" s="25"/>
+      <c r="T118" s="25"/>
+      <c r="U118" s="25"/>
+      <c r="V118" s="25"/>
+      <c r="W118" s="25"/>
+      <c r="X118" s="25"/>
+      <c r="Y118" s="25"/>
+      <c r="Z118" s="25"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="3" t="s">
@@ -5871,43 +5866,43 @@
       <c r="Z119" s="3"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="25" t="s">
+      <c r="A120" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="B120" s="25"/>
-      <c r="C120" s="25"/>
-      <c r="D120" s="25"/>
-      <c r="E120" s="25"/>
-      <c r="F120" s="25"/>
-      <c r="G120" s="25"/>
-      <c r="H120" s="25"/>
-      <c r="I120" s="25"/>
-      <c r="J120" s="25"/>
-      <c r="K120" s="25"/>
-      <c r="L120" s="25"/>
-      <c r="M120" s="25"/>
-      <c r="N120" s="25"/>
-      <c r="O120" s="25"/>
-      <c r="P120" s="25"/>
-      <c r="Q120" s="25"/>
-      <c r="R120" s="25"/>
-      <c r="S120" s="25"/>
-      <c r="T120" s="25"/>
-      <c r="U120" s="25"/>
-      <c r="V120" s="25"/>
-      <c r="W120" s="25"/>
-      <c r="X120" s="25"/>
-      <c r="Y120" s="25"/>
-      <c r="Z120" s="25"/>
+      <c r="B120" s="24"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="24"/>
+      <c r="G120" s="24"/>
+      <c r="H120" s="24"/>
+      <c r="I120" s="24"/>
+      <c r="J120" s="24"/>
+      <c r="K120" s="24"/>
+      <c r="L120" s="24"/>
+      <c r="M120" s="24"/>
+      <c r="N120" s="24"/>
+      <c r="O120" s="24"/>
+      <c r="P120" s="24"/>
+      <c r="Q120" s="24"/>
+      <c r="R120" s="24"/>
+      <c r="S120" s="24"/>
+      <c r="T120" s="24"/>
+      <c r="U120" s="24"/>
+      <c r="V120" s="24"/>
+      <c r="W120" s="24"/>
+      <c r="X120" s="24"/>
+      <c r="Y120" s="24"/>
+      <c r="Z120" s="24"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="3" t="s">
+      <c r="A121" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="26" t="s">
         <v>222</v>
       </c>
       <c r="D121" s="3"/>
@@ -6003,34 +5998,34 @@
       <c r="Z123" s="3"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="25" t="s">
+      <c r="A124" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="B124" s="25"/>
-      <c r="C124" s="25"/>
-      <c r="D124" s="25"/>
-      <c r="E124" s="25"/>
-      <c r="F124" s="25"/>
-      <c r="G124" s="25"/>
-      <c r="H124" s="25"/>
-      <c r="I124" s="25"/>
-      <c r="J124" s="25"/>
-      <c r="K124" s="25"/>
-      <c r="L124" s="25"/>
-      <c r="M124" s="25"/>
-      <c r="N124" s="25"/>
-      <c r="O124" s="25"/>
-      <c r="P124" s="25"/>
-      <c r="Q124" s="25"/>
-      <c r="R124" s="25"/>
-      <c r="S124" s="25"/>
-      <c r="T124" s="25"/>
-      <c r="U124" s="25"/>
-      <c r="V124" s="25"/>
-      <c r="W124" s="25"/>
-      <c r="X124" s="25"/>
-      <c r="Y124" s="25"/>
-      <c r="Z124" s="25"/>
+      <c r="B124" s="24"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="24"/>
+      <c r="F124" s="24"/>
+      <c r="G124" s="24"/>
+      <c r="H124" s="24"/>
+      <c r="I124" s="24"/>
+      <c r="J124" s="24"/>
+      <c r="K124" s="24"/>
+      <c r="L124" s="24"/>
+      <c r="M124" s="24"/>
+      <c r="N124" s="24"/>
+      <c r="O124" s="24"/>
+      <c r="P124" s="24"/>
+      <c r="Q124" s="24"/>
+      <c r="R124" s="24"/>
+      <c r="S124" s="24"/>
+      <c r="T124" s="24"/>
+      <c r="U124" s="24"/>
+      <c r="V124" s="24"/>
+      <c r="W124" s="24"/>
+      <c r="X124" s="24"/>
+      <c r="Y124" s="24"/>
+      <c r="Z124" s="24"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="1" t="s">
@@ -6067,34 +6062,34 @@
       <c r="Z125" s="1"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="25" t="s">
+      <c r="A126" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="B126" s="25"/>
-      <c r="C126" s="25"/>
-      <c r="D126" s="25"/>
-      <c r="E126" s="25"/>
-      <c r="F126" s="25"/>
-      <c r="G126" s="25"/>
-      <c r="H126" s="25"/>
-      <c r="I126" s="25"/>
-      <c r="J126" s="25"/>
-      <c r="K126" s="25"/>
-      <c r="L126" s="25"/>
-      <c r="M126" s="25"/>
-      <c r="N126" s="25"/>
-      <c r="O126" s="25"/>
-      <c r="P126" s="25"/>
-      <c r="Q126" s="25"/>
-      <c r="R126" s="25"/>
-      <c r="S126" s="25"/>
-      <c r="T126" s="25"/>
-      <c r="U126" s="25"/>
-      <c r="V126" s="25"/>
-      <c r="W126" s="25"/>
-      <c r="X126" s="25"/>
-      <c r="Y126" s="25"/>
-      <c r="Z126" s="25"/>
+      <c r="B126" s="24"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="24"/>
+      <c r="F126" s="24"/>
+      <c r="G126" s="24"/>
+      <c r="H126" s="24"/>
+      <c r="I126" s="24"/>
+      <c r="J126" s="24"/>
+      <c r="K126" s="24"/>
+      <c r="L126" s="24"/>
+      <c r="M126" s="24"/>
+      <c r="N126" s="24"/>
+      <c r="O126" s="24"/>
+      <c r="P126" s="24"/>
+      <c r="Q126" s="24"/>
+      <c r="R126" s="24"/>
+      <c r="S126" s="24"/>
+      <c r="T126" s="24"/>
+      <c r="U126" s="24"/>
+      <c r="V126" s="24"/>
+      <c r="W126" s="24"/>
+      <c r="X126" s="24"/>
+      <c r="Y126" s="24"/>
+      <c r="Z126" s="24"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="4" t="s">

--- a/Assets/Resources/Language/Language.xlsx
+++ b/Assets/Resources/Language/Language.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="QwJMSFmZDWJiac6sUSZU+XprixMaRKWrL3hR9gcr7kk="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="p1kTanUw4r9sHJCKBrWoJU3n2lEKzd5U9dC431Co5Ng="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="451">
   <si>
     <t>ID</t>
   </si>
@@ -681,6 +681,12 @@
     <t>您的信箱</t>
   </si>
   <si>
+    <t>i GOT IT</t>
+  </si>
+  <si>
+    <t>我明白了</t>
+  </si>
+  <si>
     <t>錢包連接頁面</t>
   </si>
   <si>
@@ -781,6 +787,18 @@
   </si>
   <si>
     <t>條款</t>
+  </si>
+  <si>
+    <t>Asia Poker privacy policy</t>
+  </si>
+  <si>
+    <t>Asia Poker 隱私權政策</t>
+  </si>
+  <si>
+    <t>Asia Poker Terms of Service</t>
+  </si>
+  <si>
+    <t>Asia Poker 服務條款</t>
   </si>
   <si>
     <t>設置暱稱</t>
@@ -1572,7 +1590,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1635,6 +1653,9 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1643,6 +1664,9 @@
     </xf>
     <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5476,96 +5500,96 @@
       <c r="Z107" s="22"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
-      <c r="K108" s="3"/>
-      <c r="L108" s="3"/>
-      <c r="M108" s="3"/>
-      <c r="N108" s="3"/>
-      <c r="O108" s="3"/>
-      <c r="P108" s="3"/>
-      <c r="Q108" s="3"/>
-      <c r="R108" s="3"/>
-      <c r="S108" s="3"/>
-      <c r="T108" s="3"/>
-      <c r="U108" s="3"/>
-      <c r="V108" s="3"/>
-      <c r="W108" s="3"/>
-      <c r="X108" s="3"/>
-      <c r="Y108" s="3"/>
-      <c r="Z108" s="3"/>
+      <c r="A108" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="B108" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="C108" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="D108" s="22"/>
+      <c r="E108" s="22"/>
+      <c r="F108" s="22"/>
+      <c r="G108" s="22"/>
+      <c r="H108" s="22"/>
+      <c r="I108" s="22"/>
+      <c r="J108" s="22"/>
+      <c r="K108" s="22"/>
+      <c r="L108" s="22"/>
+      <c r="M108" s="22"/>
+      <c r="N108" s="22"/>
+      <c r="O108" s="22"/>
+      <c r="P108" s="22"/>
+      <c r="Q108" s="22"/>
+      <c r="R108" s="22"/>
+      <c r="S108" s="22"/>
+      <c r="T108" s="22"/>
+      <c r="U108" s="22"/>
+      <c r="V108" s="22"/>
+      <c r="W108" s="22"/>
+      <c r="X108" s="22"/>
+      <c r="Y108" s="22"/>
+      <c r="Z108" s="22"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="B109" s="24"/>
-      <c r="C109" s="24"/>
-      <c r="D109" s="24"/>
-      <c r="E109" s="24"/>
-      <c r="F109" s="24"/>
-      <c r="G109" s="24"/>
-      <c r="H109" s="24"/>
-      <c r="I109" s="24"/>
-      <c r="J109" s="24"/>
-      <c r="K109" s="24"/>
-      <c r="L109" s="24"/>
-      <c r="M109" s="24"/>
-      <c r="N109" s="24"/>
-      <c r="O109" s="24"/>
-      <c r="P109" s="24"/>
-      <c r="Q109" s="24"/>
-      <c r="R109" s="24"/>
-      <c r="S109" s="24"/>
-      <c r="T109" s="24"/>
-      <c r="U109" s="24"/>
-      <c r="V109" s="24"/>
-      <c r="W109" s="24"/>
-      <c r="X109" s="24"/>
-      <c r="Y109" s="24"/>
-      <c r="Z109" s="24"/>
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
+      <c r="L109" s="3"/>
+      <c r="M109" s="3"/>
+      <c r="N109" s="3"/>
+      <c r="O109" s="3"/>
+      <c r="P109" s="3"/>
+      <c r="Q109" s="3"/>
+      <c r="R109" s="3"/>
+      <c r="S109" s="3"/>
+      <c r="T109" s="3"/>
+      <c r="U109" s="3"/>
+      <c r="V109" s="3"/>
+      <c r="W109" s="3"/>
+      <c r="X109" s="3"/>
+      <c r="Y109" s="3"/>
+      <c r="Z109" s="3"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C110" s="3" t="s">
+      <c r="A110" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="3"/>
-      <c r="J110" s="3"/>
-      <c r="K110" s="3"/>
-      <c r="L110" s="3"/>
-      <c r="M110" s="3"/>
-      <c r="N110" s="3"/>
-      <c r="O110" s="3"/>
-      <c r="P110" s="3"/>
-      <c r="Q110" s="3"/>
-      <c r="R110" s="3"/>
-      <c r="S110" s="3"/>
-      <c r="T110" s="3"/>
-      <c r="U110" s="3"/>
-      <c r="V110" s="3"/>
-      <c r="W110" s="3"/>
-      <c r="X110" s="3"/>
-      <c r="Y110" s="3"/>
-      <c r="Z110" s="3"/>
+      <c r="B110" s="25"/>
+      <c r="C110" s="25"/>
+      <c r="D110" s="25"/>
+      <c r="E110" s="25"/>
+      <c r="F110" s="25"/>
+      <c r="G110" s="25"/>
+      <c r="H110" s="25"/>
+      <c r="I110" s="25"/>
+      <c r="J110" s="25"/>
+      <c r="K110" s="25"/>
+      <c r="L110" s="25"/>
+      <c r="M110" s="25"/>
+      <c r="N110" s="25"/>
+      <c r="O110" s="25"/>
+      <c r="P110" s="25"/>
+      <c r="Q110" s="25"/>
+      <c r="R110" s="25"/>
+      <c r="S110" s="25"/>
+      <c r="T110" s="25"/>
+      <c r="U110" s="25"/>
+      <c r="V110" s="25"/>
+      <c r="W110" s="25"/>
+      <c r="X110" s="25"/>
+      <c r="Y110" s="25"/>
+      <c r="Z110" s="25"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="3" t="s">
@@ -5608,7 +5632,7 @@
       <c r="B112" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="C112" s="3" t="s">
         <v>208</v>
       </c>
       <c r="D112" s="3"/>
@@ -5636,68 +5660,68 @@
       <c r="Z112" s="3"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="24" t="s">
+      <c r="A113" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B113" s="24"/>
-      <c r="C113" s="24"/>
-      <c r="D113" s="24"/>
-      <c r="E113" s="24"/>
-      <c r="F113" s="24"/>
-      <c r="G113" s="24"/>
-      <c r="H113" s="24"/>
-      <c r="I113" s="24"/>
-      <c r="J113" s="24"/>
-      <c r="K113" s="24"/>
-      <c r="L113" s="24"/>
-      <c r="M113" s="24"/>
-      <c r="N113" s="24"/>
-      <c r="O113" s="24"/>
-      <c r="P113" s="24"/>
-      <c r="Q113" s="24"/>
-      <c r="R113" s="24"/>
-      <c r="S113" s="24"/>
-      <c r="T113" s="24"/>
-      <c r="U113" s="24"/>
-      <c r="V113" s="24"/>
-      <c r="W113" s="24"/>
-      <c r="X113" s="24"/>
-      <c r="Y113" s="24"/>
-      <c r="Z113" s="24"/>
+      <c r="B113" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+      <c r="L113" s="3"/>
+      <c r="M113" s="3"/>
+      <c r="N113" s="3"/>
+      <c r="O113" s="3"/>
+      <c r="P113" s="3"/>
+      <c r="Q113" s="3"/>
+      <c r="R113" s="3"/>
+      <c r="S113" s="3"/>
+      <c r="T113" s="3"/>
+      <c r="U113" s="3"/>
+      <c r="V113" s="3"/>
+      <c r="W113" s="3"/>
+      <c r="X113" s="3"/>
+      <c r="Y113" s="3"/>
+      <c r="Z113" s="3"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C114" s="3" t="s">
+      <c r="A114" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
-      <c r="G114" s="3"/>
-      <c r="H114" s="3"/>
-      <c r="I114" s="3"/>
-      <c r="J114" s="3"/>
-      <c r="K114" s="3"/>
-      <c r="L114" s="3"/>
-      <c r="M114" s="3"/>
-      <c r="N114" s="3"/>
-      <c r="O114" s="3"/>
-      <c r="P114" s="3"/>
-      <c r="Q114" s="3"/>
-      <c r="R114" s="3"/>
-      <c r="S114" s="3"/>
-      <c r="T114" s="3"/>
-      <c r="U114" s="3"/>
-      <c r="V114" s="3"/>
-      <c r="W114" s="3"/>
-      <c r="X114" s="3"/>
-      <c r="Y114" s="3"/>
-      <c r="Z114" s="3"/>
+      <c r="B114" s="25"/>
+      <c r="C114" s="25"/>
+      <c r="D114" s="25"/>
+      <c r="E114" s="25"/>
+      <c r="F114" s="25"/>
+      <c r="G114" s="25"/>
+      <c r="H114" s="25"/>
+      <c r="I114" s="25"/>
+      <c r="J114" s="25"/>
+      <c r="K114" s="25"/>
+      <c r="L114" s="25"/>
+      <c r="M114" s="25"/>
+      <c r="N114" s="25"/>
+      <c r="O114" s="25"/>
+      <c r="P114" s="25"/>
+      <c r="Q114" s="25"/>
+      <c r="R114" s="25"/>
+      <c r="S114" s="25"/>
+      <c r="T114" s="25"/>
+      <c r="U114" s="25"/>
+      <c r="V114" s="25"/>
+      <c r="W114" s="25"/>
+      <c r="X114" s="25"/>
+      <c r="Y114" s="25"/>
+      <c r="Z114" s="25"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="3" t="s">
@@ -5802,141 +5826,141 @@
       <c r="Z117" s="3"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="25" t="s">
+      <c r="A118" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B118" s="25"/>
-      <c r="C118" s="25"/>
-      <c r="D118" s="25"/>
-      <c r="E118" s="25"/>
-      <c r="F118" s="25"/>
-      <c r="G118" s="25"/>
-      <c r="H118" s="25"/>
-      <c r="I118" s="25"/>
-      <c r="J118" s="25"/>
-      <c r="K118" s="25"/>
-      <c r="L118" s="25"/>
-      <c r="M118" s="25"/>
-      <c r="N118" s="25"/>
-      <c r="O118" s="25"/>
-      <c r="P118" s="25"/>
-      <c r="Q118" s="25"/>
-      <c r="R118" s="25"/>
-      <c r="S118" s="25"/>
-      <c r="T118" s="25"/>
-      <c r="U118" s="25"/>
-      <c r="V118" s="25"/>
-      <c r="W118" s="25"/>
-      <c r="X118" s="25"/>
-      <c r="Y118" s="25"/>
-      <c r="Z118" s="25"/>
+      <c r="B118" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
+      <c r="K118" s="3"/>
+      <c r="L118" s="3"/>
+      <c r="M118" s="3"/>
+      <c r="N118" s="3"/>
+      <c r="O118" s="3"/>
+      <c r="P118" s="3"/>
+      <c r="Q118" s="3"/>
+      <c r="R118" s="3"/>
+      <c r="S118" s="3"/>
+      <c r="T118" s="3"/>
+      <c r="U118" s="3"/>
+      <c r="V118" s="3"/>
+      <c r="W118" s="3"/>
+      <c r="X118" s="3"/>
+      <c r="Y118" s="3"/>
+      <c r="Z118" s="3"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
-      <c r="I119" s="3"/>
-      <c r="J119" s="3"/>
-      <c r="K119" s="3"/>
-      <c r="L119" s="3"/>
-      <c r="M119" s="3"/>
-      <c r="N119" s="3"/>
-      <c r="O119" s="3"/>
-      <c r="P119" s="3"/>
-      <c r="Q119" s="3"/>
-      <c r="R119" s="3"/>
-      <c r="S119" s="3"/>
-      <c r="T119" s="3"/>
-      <c r="U119" s="3"/>
-      <c r="V119" s="3"/>
-      <c r="W119" s="3"/>
-      <c r="X119" s="3"/>
-      <c r="Y119" s="3"/>
-      <c r="Z119" s="3"/>
+      <c r="A119" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="B119" s="26"/>
+      <c r="C119" s="26"/>
+      <c r="D119" s="26"/>
+      <c r="E119" s="26"/>
+      <c r="F119" s="26"/>
+      <c r="G119" s="26"/>
+      <c r="H119" s="26"/>
+      <c r="I119" s="26"/>
+      <c r="J119" s="26"/>
+      <c r="K119" s="26"/>
+      <c r="L119" s="26"/>
+      <c r="M119" s="26"/>
+      <c r="N119" s="26"/>
+      <c r="O119" s="26"/>
+      <c r="P119" s="26"/>
+      <c r="Q119" s="26"/>
+      <c r="R119" s="26"/>
+      <c r="S119" s="26"/>
+      <c r="T119" s="26"/>
+      <c r="U119" s="26"/>
+      <c r="V119" s="26"/>
+      <c r="W119" s="26"/>
+      <c r="X119" s="26"/>
+      <c r="Y119" s="26"/>
+      <c r="Z119" s="26"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="24" t="s">
+      <c r="A120" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B120" s="24"/>
-      <c r="C120" s="24"/>
-      <c r="D120" s="24"/>
-      <c r="E120" s="24"/>
-      <c r="F120" s="24"/>
-      <c r="G120" s="24"/>
-      <c r="H120" s="24"/>
-      <c r="I120" s="24"/>
-      <c r="J120" s="24"/>
-      <c r="K120" s="24"/>
-      <c r="L120" s="24"/>
-      <c r="M120" s="24"/>
-      <c r="N120" s="24"/>
-      <c r="O120" s="24"/>
-      <c r="P120" s="24"/>
-      <c r="Q120" s="24"/>
-      <c r="R120" s="24"/>
-      <c r="S120" s="24"/>
-      <c r="T120" s="24"/>
-      <c r="U120" s="24"/>
-      <c r="V120" s="24"/>
-      <c r="W120" s="24"/>
-      <c r="X120" s="24"/>
-      <c r="Y120" s="24"/>
-      <c r="Z120" s="24"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3"/>
+      <c r="K120" s="3"/>
+      <c r="L120" s="3"/>
+      <c r="M120" s="3"/>
+      <c r="N120" s="3"/>
+      <c r="O120" s="3"/>
+      <c r="P120" s="3"/>
+      <c r="Q120" s="3"/>
+      <c r="R120" s="3"/>
+      <c r="S120" s="3"/>
+      <c r="T120" s="3"/>
+      <c r="U120" s="3"/>
+      <c r="V120" s="3"/>
+      <c r="W120" s="3"/>
+      <c r="X120" s="3"/>
+      <c r="Y120" s="3"/>
+      <c r="Z120" s="3"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="B121" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="C121" s="26" t="s">
+      <c r="A121" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
-      <c r="G121" s="3"/>
-      <c r="H121" s="3"/>
-      <c r="I121" s="3"/>
-      <c r="J121" s="3"/>
-      <c r="K121" s="3"/>
-      <c r="L121" s="3"/>
-      <c r="M121" s="3"/>
-      <c r="N121" s="3"/>
-      <c r="O121" s="3"/>
-      <c r="P121" s="3"/>
-      <c r="Q121" s="3"/>
-      <c r="R121" s="3"/>
-      <c r="S121" s="3"/>
-      <c r="T121" s="3"/>
-      <c r="U121" s="3"/>
-      <c r="V121" s="3"/>
-      <c r="W121" s="3"/>
-      <c r="X121" s="3"/>
-      <c r="Y121" s="3"/>
-      <c r="Z121" s="3"/>
+      <c r="B121" s="25"/>
+      <c r="C121" s="25"/>
+      <c r="D121" s="25"/>
+      <c r="E121" s="25"/>
+      <c r="F121" s="25"/>
+      <c r="G121" s="25"/>
+      <c r="H121" s="25"/>
+      <c r="I121" s="25"/>
+      <c r="J121" s="25"/>
+      <c r="K121" s="25"/>
+      <c r="L121" s="25"/>
+      <c r="M121" s="25"/>
+      <c r="N121" s="25"/>
+      <c r="O121" s="25"/>
+      <c r="P121" s="25"/>
+      <c r="Q121" s="25"/>
+      <c r="R121" s="25"/>
+      <c r="S121" s="25"/>
+      <c r="T121" s="25"/>
+      <c r="U121" s="25"/>
+      <c r="V121" s="25"/>
+      <c r="W121" s="25"/>
+      <c r="X121" s="25"/>
+      <c r="Y121" s="25"/>
+      <c r="Z121" s="25"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="27" t="s">
         <v>224</v>
       </c>
       <c r="D122" s="3"/>
@@ -5964,7 +5988,7 @@
       <c r="Z122" s="3"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="5" t="s">
+      <c r="A123" s="3" t="s">
         <v>225</v>
       </c>
       <c r="B123" s="3" t="s">
@@ -5998,142 +6022,142 @@
       <c r="Z123" s="3"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="24" t="s">
+      <c r="A124" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="B124" s="24"/>
-      <c r="C124" s="24"/>
-      <c r="D124" s="24"/>
-      <c r="E124" s="24"/>
-      <c r="F124" s="24"/>
-      <c r="G124" s="24"/>
-      <c r="H124" s="24"/>
-      <c r="I124" s="24"/>
-      <c r="J124" s="24"/>
-      <c r="K124" s="24"/>
-      <c r="L124" s="24"/>
-      <c r="M124" s="24"/>
-      <c r="N124" s="24"/>
-      <c r="O124" s="24"/>
-      <c r="P124" s="24"/>
-      <c r="Q124" s="24"/>
-      <c r="R124" s="24"/>
-      <c r="S124" s="24"/>
-      <c r="T124" s="24"/>
-      <c r="U124" s="24"/>
-      <c r="V124" s="24"/>
-      <c r="W124" s="24"/>
-      <c r="X124" s="24"/>
-      <c r="Y124" s="24"/>
-      <c r="Z124" s="24"/>
+      <c r="B124" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="3"/>
+      <c r="K124" s="3"/>
+      <c r="L124" s="3"/>
+      <c r="M124" s="3"/>
+      <c r="N124" s="3"/>
+      <c r="O124" s="3"/>
+      <c r="P124" s="3"/>
+      <c r="Q124" s="3"/>
+      <c r="R124" s="3"/>
+      <c r="S124" s="3"/>
+      <c r="T124" s="3"/>
+      <c r="U124" s="3"/>
+      <c r="V124" s="3"/>
+      <c r="W124" s="3"/>
+      <c r="X124" s="3"/>
+      <c r="Y124" s="3"/>
+      <c r="Z124" s="3"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C125" s="5" t="s">
+      <c r="A125" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
-      <c r="J125" s="1"/>
-      <c r="K125" s="1"/>
-      <c r="L125" s="1"/>
-      <c r="M125" s="1"/>
-      <c r="N125" s="1"/>
-      <c r="O125" s="1"/>
-      <c r="P125" s="1"/>
-      <c r="Q125" s="1"/>
-      <c r="R125" s="1"/>
-      <c r="S125" s="1"/>
-      <c r="T125" s="1"/>
-      <c r="U125" s="1"/>
-      <c r="V125" s="1"/>
-      <c r="W125" s="1"/>
-      <c r="X125" s="1"/>
-      <c r="Y125" s="1"/>
-      <c r="Z125" s="1"/>
+      <c r="B125" s="25"/>
+      <c r="C125" s="25"/>
+      <c r="D125" s="25"/>
+      <c r="E125" s="25"/>
+      <c r="F125" s="25"/>
+      <c r="G125" s="25"/>
+      <c r="H125" s="25"/>
+      <c r="I125" s="25"/>
+      <c r="J125" s="25"/>
+      <c r="K125" s="25"/>
+      <c r="L125" s="25"/>
+      <c r="M125" s="25"/>
+      <c r="N125" s="25"/>
+      <c r="O125" s="25"/>
+      <c r="P125" s="25"/>
+      <c r="Q125" s="25"/>
+      <c r="R125" s="25"/>
+      <c r="S125" s="25"/>
+      <c r="T125" s="25"/>
+      <c r="U125" s="25"/>
+      <c r="V125" s="25"/>
+      <c r="W125" s="25"/>
+      <c r="X125" s="25"/>
+      <c r="Y125" s="25"/>
+      <c r="Z125" s="25"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="24" t="s">
+      <c r="A126" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B126" s="24"/>
-      <c r="C126" s="24"/>
-      <c r="D126" s="24"/>
-      <c r="E126" s="24"/>
-      <c r="F126" s="24"/>
-      <c r="G126" s="24"/>
-      <c r="H126" s="24"/>
-      <c r="I126" s="24"/>
-      <c r="J126" s="24"/>
-      <c r="K126" s="24"/>
-      <c r="L126" s="24"/>
-      <c r="M126" s="24"/>
-      <c r="N126" s="24"/>
-      <c r="O126" s="24"/>
-      <c r="P126" s="24"/>
-      <c r="Q126" s="24"/>
-      <c r="R126" s="24"/>
-      <c r="S126" s="24"/>
-      <c r="T126" s="24"/>
-      <c r="U126" s="24"/>
-      <c r="V126" s="24"/>
-      <c r="W126" s="24"/>
-      <c r="X126" s="24"/>
-      <c r="Y126" s="24"/>
-      <c r="Z126" s="24"/>
+      <c r="B126" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+      <c r="O126" s="1"/>
+      <c r="P126" s="1"/>
+      <c r="Q126" s="1"/>
+      <c r="R126" s="1"/>
+      <c r="S126" s="1"/>
+      <c r="T126" s="1"/>
+      <c r="U126" s="1"/>
+      <c r="V126" s="1"/>
+      <c r="W126" s="1"/>
+      <c r="X126" s="1"/>
+      <c r="Y126" s="1"/>
+      <c r="Z126" s="1"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C127" s="5" t="s">
+      <c r="A127" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="3"/>
-      <c r="G127" s="3"/>
-      <c r="H127" s="3"/>
-      <c r="I127" s="3"/>
-      <c r="J127" s="3"/>
-      <c r="K127" s="3"/>
-      <c r="L127" s="3"/>
-      <c r="M127" s="3"/>
-      <c r="N127" s="3"/>
-      <c r="O127" s="3"/>
-      <c r="P127" s="3"/>
-      <c r="Q127" s="3"/>
-      <c r="R127" s="3"/>
-      <c r="S127" s="3"/>
-      <c r="T127" s="3"/>
-      <c r="U127" s="3"/>
-      <c r="V127" s="3"/>
-      <c r="W127" s="3"/>
-      <c r="X127" s="3"/>
-      <c r="Y127" s="3"/>
-      <c r="Z127" s="3"/>
+      <c r="B127" s="25"/>
+      <c r="C127" s="25"/>
+      <c r="D127" s="25"/>
+      <c r="E127" s="25"/>
+      <c r="F127" s="25"/>
+      <c r="G127" s="25"/>
+      <c r="H127" s="25"/>
+      <c r="I127" s="25"/>
+      <c r="J127" s="25"/>
+      <c r="K127" s="25"/>
+      <c r="L127" s="25"/>
+      <c r="M127" s="25"/>
+      <c r="N127" s="25"/>
+      <c r="O127" s="25"/>
+      <c r="P127" s="25"/>
+      <c r="Q127" s="25"/>
+      <c r="R127" s="25"/>
+      <c r="S127" s="25"/>
+      <c r="T127" s="25"/>
+      <c r="U127" s="25"/>
+      <c r="V127" s="25"/>
+      <c r="W127" s="25"/>
+      <c r="X127" s="25"/>
+      <c r="Y127" s="25"/>
+      <c r="Z127" s="25"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="6" t="s">
+      <c r="A128" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B128" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C128" s="6" t="s">
-        <v>230</v>
+      <c r="C128" s="5" t="s">
+        <v>234</v>
       </c>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -6161,13 +6185,13 @@
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="C129" s="3" t="s">
         <v>235</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -6193,170 +6217,176 @@
       <c r="Y129" s="3"/>
       <c r="Z129" s="3"/>
     </row>
-    <row r="130">
-      <c r="A130" s="18"/>
-      <c r="B130" s="18"/>
-      <c r="C130" s="18"/>
-      <c r="D130" s="18"/>
-      <c r="E130" s="18"/>
-      <c r="F130" s="18"/>
-      <c r="G130" s="18"/>
-      <c r="H130" s="18"/>
-      <c r="I130" s="18"/>
-      <c r="J130" s="18"/>
-      <c r="K130" s="18"/>
-      <c r="L130" s="18"/>
-      <c r="M130" s="18"/>
-      <c r="N130" s="18"/>
-      <c r="O130" s="18"/>
-      <c r="P130" s="18"/>
-      <c r="Q130" s="18"/>
-      <c r="R130" s="18"/>
-      <c r="S130" s="18"/>
-      <c r="T130" s="18"/>
-      <c r="U130" s="18"/>
-      <c r="V130" s="18"/>
-      <c r="W130" s="18"/>
-      <c r="X130" s="18"/>
-      <c r="Y130" s="18"/>
-      <c r="Z130" s="18"/>
-    </row>
-    <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="2" t="s">
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="A130" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
-      <c r="I131" s="2"/>
-      <c r="J131" s="2"/>
-      <c r="K131" s="2"/>
-      <c r="L131" s="2"/>
-      <c r="M131" s="2"/>
-      <c r="N131" s="2"/>
-      <c r="O131" s="2"/>
-      <c r="P131" s="2"/>
-      <c r="Q131" s="2"/>
-      <c r="R131" s="2"/>
-      <c r="S131" s="2"/>
-      <c r="T131" s="2"/>
-      <c r="U131" s="2"/>
-      <c r="V131" s="2"/>
-      <c r="W131" s="2"/>
-      <c r="X131" s="2"/>
-      <c r="Y131" s="2"/>
-      <c r="Z131" s="2"/>
-    </row>
-    <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="3" t="s">
+      <c r="B130" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B132" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
-      <c r="G132" s="3"/>
-      <c r="H132" s="3"/>
-      <c r="I132" s="3"/>
-      <c r="J132" s="3"/>
-      <c r="K132" s="3"/>
-      <c r="L132" s="3"/>
-      <c r="M132" s="3"/>
-      <c r="N132" s="3"/>
-      <c r="O132" s="3"/>
-      <c r="P132" s="3"/>
-      <c r="Q132" s="3"/>
-      <c r="R132" s="3"/>
-      <c r="S132" s="3"/>
-      <c r="T132" s="3"/>
-      <c r="U132" s="3"/>
-      <c r="V132" s="3"/>
-      <c r="W132" s="3"/>
-      <c r="X132" s="3"/>
-      <c r="Y132" s="3"/>
-      <c r="Z132" s="3"/>
-    </row>
-    <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="3" t="s">
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3"/>
+      <c r="K130" s="3"/>
+      <c r="L130" s="3"/>
+      <c r="M130" s="3"/>
+      <c r="N130" s="3"/>
+      <c r="O130" s="3"/>
+      <c r="P130" s="3"/>
+      <c r="Q130" s="3"/>
+      <c r="R130" s="3"/>
+      <c r="S130" s="3"/>
+      <c r="T130" s="3"/>
+      <c r="U130" s="3"/>
+      <c r="V130" s="3"/>
+      <c r="W130" s="3"/>
+      <c r="X130" s="3"/>
+      <c r="Y130" s="3"/>
+      <c r="Z130" s="3"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B131" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C131" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
-      <c r="F133" s="3"/>
-      <c r="G133" s="3"/>
-      <c r="H133" s="3"/>
-      <c r="I133" s="3"/>
-      <c r="J133" s="3"/>
-      <c r="K133" s="3"/>
-      <c r="L133" s="3"/>
-      <c r="M133" s="3"/>
-      <c r="N133" s="3"/>
-      <c r="O133" s="3"/>
-      <c r="P133" s="3"/>
-      <c r="Q133" s="3"/>
-      <c r="R133" s="3"/>
-      <c r="S133" s="3"/>
-      <c r="T133" s="3"/>
-      <c r="U133" s="3"/>
-      <c r="V133" s="3"/>
-      <c r="W133" s="3"/>
-      <c r="X133" s="3"/>
-      <c r="Y133" s="3"/>
-      <c r="Z133" s="3"/>
+      <c r="D131" s="18"/>
+      <c r="E131" s="18"/>
+      <c r="F131" s="18"/>
+      <c r="G131" s="18"/>
+      <c r="H131" s="18"/>
+      <c r="I131" s="18"/>
+      <c r="J131" s="18"/>
+      <c r="K131" s="18"/>
+      <c r="L131" s="18"/>
+      <c r="M131" s="18"/>
+      <c r="N131" s="18"/>
+      <c r="O131" s="18"/>
+      <c r="P131" s="18"/>
+      <c r="Q131" s="18"/>
+      <c r="R131" s="18"/>
+      <c r="S131" s="18"/>
+      <c r="T131" s="18"/>
+      <c r="U131" s="18"/>
+      <c r="V131" s="18"/>
+      <c r="W131" s="18"/>
+      <c r="X131" s="18"/>
+      <c r="Y131" s="18"/>
+      <c r="Z131" s="18"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="B132" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="C132" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="D132" s="18"/>
+      <c r="E132" s="18"/>
+      <c r="F132" s="18"/>
+      <c r="G132" s="18"/>
+      <c r="H132" s="18"/>
+      <c r="I132" s="18"/>
+      <c r="J132" s="18"/>
+      <c r="K132" s="18"/>
+      <c r="L132" s="18"/>
+      <c r="M132" s="18"/>
+      <c r="N132" s="18"/>
+      <c r="O132" s="18"/>
+      <c r="P132" s="18"/>
+      <c r="Q132" s="18"/>
+      <c r="R132" s="18"/>
+      <c r="S132" s="18"/>
+      <c r="T132" s="18"/>
+      <c r="U132" s="18"/>
+      <c r="V132" s="18"/>
+      <c r="W132" s="18"/>
+      <c r="X132" s="18"/>
+      <c r="Y132" s="18"/>
+      <c r="Z132" s="18"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="18"/>
+      <c r="B133" s="18"/>
+      <c r="C133" s="18"/>
+      <c r="D133" s="18"/>
+      <c r="E133" s="18"/>
+      <c r="F133" s="18"/>
+      <c r="G133" s="18"/>
+      <c r="H133" s="18"/>
+      <c r="I133" s="18"/>
+      <c r="J133" s="18"/>
+      <c r="K133" s="18"/>
+      <c r="L133" s="18"/>
+      <c r="M133" s="18"/>
+      <c r="N133" s="18"/>
+      <c r="O133" s="18"/>
+      <c r="P133" s="18"/>
+      <c r="Q133" s="18"/>
+      <c r="R133" s="18"/>
+      <c r="S133" s="18"/>
+      <c r="T133" s="18"/>
+      <c r="U133" s="18"/>
+      <c r="V133" s="18"/>
+      <c r="W133" s="18"/>
+      <c r="X133" s="18"/>
+      <c r="Y133" s="18"/>
+      <c r="Z133" s="18"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
-      <c r="G134" s="3"/>
-      <c r="H134" s="3"/>
-      <c r="I134" s="3"/>
-      <c r="J134" s="3"/>
-      <c r="K134" s="3"/>
-      <c r="L134" s="3"/>
-      <c r="M134" s="3"/>
-      <c r="N134" s="3"/>
-      <c r="O134" s="3"/>
-      <c r="P134" s="3"/>
-      <c r="Q134" s="3"/>
-      <c r="R134" s="3"/>
-      <c r="S134" s="3"/>
-      <c r="T134" s="3"/>
-      <c r="U134" s="3"/>
-      <c r="V134" s="3"/>
-      <c r="W134" s="3"/>
-      <c r="X134" s="3"/>
-      <c r="Y134" s="3"/>
-      <c r="Z134" s="3"/>
+      <c r="A134" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2"/>
+      <c r="K134" s="2"/>
+      <c r="L134" s="2"/>
+      <c r="M134" s="2"/>
+      <c r="N134" s="2"/>
+      <c r="O134" s="2"/>
+      <c r="P134" s="2"/>
+      <c r="Q134" s="2"/>
+      <c r="R134" s="2"/>
+      <c r="S134" s="2"/>
+      <c r="T134" s="2"/>
+      <c r="U134" s="2"/>
+      <c r="V134" s="2"/>
+      <c r="W134" s="2"/>
+      <c r="X134" s="2"/>
+      <c r="Y134" s="2"/>
+      <c r="Z134" s="2"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
+      <c r="A135" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>242</v>
+      </c>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
@@ -6382,146 +6412,140 @@
       <c r="Z135" s="3"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
-      <c r="G136" s="2"/>
-      <c r="H136" s="2"/>
-      <c r="I136" s="2"/>
-      <c r="J136" s="2"/>
-      <c r="K136" s="2"/>
-      <c r="L136" s="2"/>
-      <c r="M136" s="2"/>
-      <c r="N136" s="2"/>
-      <c r="O136" s="2"/>
-      <c r="P136" s="2"/>
-      <c r="Q136" s="2"/>
-      <c r="R136" s="2"/>
-      <c r="S136" s="2"/>
-      <c r="T136" s="2"/>
-      <c r="U136" s="2"/>
-      <c r="V136" s="2"/>
-      <c r="W136" s="2"/>
-      <c r="X136" s="2"/>
-      <c r="Y136" s="2"/>
-      <c r="Z136" s="2"/>
+      <c r="A136" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="3"/>
+      <c r="I136" s="3"/>
+      <c r="J136" s="3"/>
+      <c r="K136" s="3"/>
+      <c r="L136" s="3"/>
+      <c r="M136" s="3"/>
+      <c r="N136" s="3"/>
+      <c r="O136" s="3"/>
+      <c r="P136" s="3"/>
+      <c r="Q136" s="3"/>
+      <c r="R136" s="3"/>
+      <c r="S136" s="3"/>
+      <c r="T136" s="3"/>
+      <c r="U136" s="3"/>
+      <c r="V136" s="3"/>
+      <c r="W136" s="3"/>
+      <c r="X136" s="3"/>
+      <c r="Y136" s="3"/>
+      <c r="Z136" s="3"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
-      <c r="J137" s="1"/>
-      <c r="K137" s="1"/>
-      <c r="L137" s="1"/>
-      <c r="M137" s="1"/>
-      <c r="N137" s="1"/>
-      <c r="O137" s="1"/>
-      <c r="P137" s="1"/>
-      <c r="Q137" s="1"/>
-      <c r="R137" s="1"/>
-      <c r="S137" s="1"/>
-      <c r="T137" s="1"/>
-      <c r="U137" s="1"/>
-      <c r="V137" s="1"/>
-      <c r="W137" s="1"/>
-      <c r="X137" s="1"/>
-      <c r="Y137" s="1"/>
-      <c r="Z137" s="1"/>
+      <c r="A137" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3"/>
+      <c r="J137" s="3"/>
+      <c r="K137" s="3"/>
+      <c r="L137" s="3"/>
+      <c r="M137" s="3"/>
+      <c r="N137" s="3"/>
+      <c r="O137" s="3"/>
+      <c r="P137" s="3"/>
+      <c r="Q137" s="3"/>
+      <c r="R137" s="3"/>
+      <c r="S137" s="3"/>
+      <c r="T137" s="3"/>
+      <c r="U137" s="3"/>
+      <c r="V137" s="3"/>
+      <c r="W137" s="3"/>
+      <c r="X137" s="3"/>
+      <c r="Y137" s="3"/>
+      <c r="Z137" s="3"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
-      <c r="G138" s="1"/>
-      <c r="H138" s="1"/>
-      <c r="I138" s="1"/>
-      <c r="J138" s="1"/>
-      <c r="K138" s="1"/>
-      <c r="L138" s="1"/>
-      <c r="M138" s="1"/>
-      <c r="N138" s="1"/>
-      <c r="O138" s="1"/>
-      <c r="P138" s="1"/>
-      <c r="Q138" s="1"/>
-      <c r="R138" s="1"/>
-      <c r="S138" s="1"/>
-      <c r="T138" s="1"/>
-      <c r="U138" s="1"/>
-      <c r="V138" s="1"/>
-      <c r="W138" s="1"/>
-      <c r="X138" s="1"/>
-      <c r="Y138" s="1"/>
-      <c r="Z138" s="1"/>
+      <c r="A138" s="3"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="3"/>
+      <c r="I138" s="3"/>
+      <c r="J138" s="3"/>
+      <c r="K138" s="3"/>
+      <c r="L138" s="3"/>
+      <c r="M138" s="3"/>
+      <c r="N138" s="3"/>
+      <c r="O138" s="3"/>
+      <c r="P138" s="3"/>
+      <c r="Q138" s="3"/>
+      <c r="R138" s="3"/>
+      <c r="S138" s="3"/>
+      <c r="T138" s="3"/>
+      <c r="U138" s="3"/>
+      <c r="V138" s="3"/>
+      <c r="W138" s="3"/>
+      <c r="X138" s="3"/>
+      <c r="Y138" s="3"/>
+      <c r="Z138" s="3"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
-      <c r="G139" s="1"/>
-      <c r="H139" s="1"/>
-      <c r="I139" s="1"/>
-      <c r="J139" s="1"/>
-      <c r="K139" s="1"/>
-      <c r="L139" s="1"/>
-      <c r="M139" s="1"/>
-      <c r="N139" s="1"/>
-      <c r="O139" s="1"/>
-      <c r="P139" s="1"/>
-      <c r="Q139" s="1"/>
-      <c r="R139" s="1"/>
-      <c r="S139" s="1"/>
-      <c r="T139" s="1"/>
-      <c r="U139" s="1"/>
-      <c r="V139" s="1"/>
-      <c r="W139" s="1"/>
-      <c r="X139" s="1"/>
-      <c r="Y139" s="1"/>
-      <c r="Z139" s="1"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+      <c r="J139" s="2"/>
+      <c r="K139" s="2"/>
+      <c r="L139" s="2"/>
+      <c r="M139" s="2"/>
+      <c r="N139" s="2"/>
+      <c r="O139" s="2"/>
+      <c r="P139" s="2"/>
+      <c r="Q139" s="2"/>
+      <c r="R139" s="2"/>
+      <c r="S139" s="2"/>
+      <c r="T139" s="2"/>
+      <c r="U139" s="2"/>
+      <c r="V139" s="2"/>
+      <c r="W139" s="2"/>
+      <c r="X139" s="2"/>
+      <c r="Y139" s="2"/>
+      <c r="Z139" s="2"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -6549,7 +6573,7 @@
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>252</v>
@@ -6616,9 +6640,15 @@
       <c r="Z142" s="1"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
+      <c r="A143" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
@@ -6644,44 +6674,48 @@
       <c r="Z143" s="1"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
-      <c r="G144" s="2"/>
-      <c r="H144" s="2"/>
-      <c r="I144" s="2"/>
-      <c r="J144" s="2"/>
-      <c r="K144" s="2"/>
-      <c r="L144" s="2"/>
-      <c r="M144" s="2"/>
-      <c r="N144" s="2"/>
-      <c r="O144" s="2"/>
-      <c r="P144" s="2"/>
-      <c r="Q144" s="2"/>
-      <c r="R144" s="2"/>
-      <c r="S144" s="2"/>
-      <c r="T144" s="2"/>
-      <c r="U144" s="2"/>
-      <c r="V144" s="2"/>
-      <c r="W144" s="2"/>
-      <c r="X144" s="2"/>
-      <c r="Y144" s="2"/>
-      <c r="Z144" s="2"/>
+      <c r="A144" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+      <c r="O144" s="1"/>
+      <c r="P144" s="1"/>
+      <c r="Q144" s="1"/>
+      <c r="R144" s="1"/>
+      <c r="S144" s="1"/>
+      <c r="T144" s="1"/>
+      <c r="U144" s="1"/>
+      <c r="V144" s="1"/>
+      <c r="W144" s="1"/>
+      <c r="X144" s="1"/>
+      <c r="Y144" s="1"/>
+      <c r="Z144" s="1"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -6737,7 +6771,7 @@
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="2" t="s">
-        <v>106</v>
+        <v>262</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -6767,13 +6801,13 @@
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="1" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -6800,15 +6834,9 @@
       <c r="Z148" s="1"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>261</v>
-      </c>
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
@@ -6834,75 +6862,71 @@
       <c r="Z149" s="1"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
-      <c r="G150" s="1"/>
-      <c r="H150" s="1"/>
-      <c r="I150" s="1"/>
-      <c r="J150" s="1"/>
-      <c r="K150" s="1"/>
-      <c r="L150" s="1"/>
-      <c r="M150" s="1"/>
-      <c r="N150" s="1"/>
-      <c r="O150" s="1"/>
-      <c r="P150" s="1"/>
-      <c r="Q150" s="1"/>
-      <c r="R150" s="1"/>
-      <c r="S150" s="1"/>
-      <c r="T150" s="1"/>
-      <c r="U150" s="1"/>
-      <c r="V150" s="1"/>
-      <c r="W150" s="1"/>
-      <c r="X150" s="1"/>
-      <c r="Y150" s="1"/>
-      <c r="Z150" s="1"/>
+      <c r="A150" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2"/>
+      <c r="K150" s="2"/>
+      <c r="L150" s="2"/>
+      <c r="M150" s="2"/>
+      <c r="N150" s="2"/>
+      <c r="O150" s="2"/>
+      <c r="P150" s="2"/>
+      <c r="Q150" s="2"/>
+      <c r="R150" s="2"/>
+      <c r="S150" s="2"/>
+      <c r="T150" s="2"/>
+      <c r="U150" s="2"/>
+      <c r="V150" s="2"/>
+      <c r="W150" s="2"/>
+      <c r="X150" s="2"/>
+      <c r="Y150" s="2"/>
+      <c r="Z150" s="2"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="7" t="s">
+      <c r="A151" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B151" s="9" t="s">
+      <c r="B151" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C151" s="9" t="s">
+      <c r="C151" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D151" s="9"/>
-      <c r="E151" s="9"/>
-      <c r="F151" s="9"/>
-      <c r="G151" s="9"/>
-      <c r="H151" s="9"/>
-      <c r="I151" s="9"/>
-      <c r="J151" s="9"/>
-      <c r="K151" s="9"/>
-      <c r="L151" s="9"/>
-      <c r="M151" s="9"/>
-      <c r="N151" s="9"/>
-      <c r="O151" s="9"/>
-      <c r="P151" s="9"/>
-      <c r="Q151" s="9"/>
-      <c r="R151" s="9"/>
-      <c r="S151" s="9"/>
-      <c r="T151" s="9"/>
-      <c r="U151" s="9"/>
-      <c r="V151" s="9"/>
-      <c r="W151" s="9"/>
-      <c r="X151" s="9"/>
-      <c r="Y151" s="9"/>
-      <c r="Z151" s="10"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+      <c r="O151" s="1"/>
+      <c r="P151" s="1"/>
+      <c r="Q151" s="1"/>
+      <c r="R151" s="1"/>
+      <c r="S151" s="1"/>
+      <c r="T151" s="1"/>
+      <c r="U151" s="1"/>
+      <c r="V151" s="1"/>
+      <c r="W151" s="1"/>
+      <c r="X151" s="1"/>
+      <c r="Y151" s="1"/>
+      <c r="Z151" s="1"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="13" t="s">
+      <c r="A152" s="1" t="s">
         <v>266</v>
       </c>
       <c r="B152" s="1" t="s">
@@ -6933,41 +6957,41 @@
       <c r="W152" s="1"/>
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
-      <c r="Z152" s="12"/>
+      <c r="Z152" s="1"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="14" t="s">
+      <c r="A153" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B153" s="15" t="s">
+      <c r="B153" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C153" s="15" t="s">
+      <c r="C153" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D153" s="15"/>
-      <c r="E153" s="15"/>
-      <c r="F153" s="15"/>
-      <c r="G153" s="15"/>
-      <c r="H153" s="15"/>
-      <c r="I153" s="15"/>
-      <c r="J153" s="15"/>
-      <c r="K153" s="15"/>
-      <c r="L153" s="15"/>
-      <c r="M153" s="15"/>
-      <c r="N153" s="15"/>
-      <c r="O153" s="15"/>
-      <c r="P153" s="15"/>
-      <c r="Q153" s="15"/>
-      <c r="R153" s="15"/>
-      <c r="S153" s="15"/>
-      <c r="T153" s="15"/>
-      <c r="U153" s="15"/>
-      <c r="V153" s="15"/>
-      <c r="W153" s="15"/>
-      <c r="X153" s="15"/>
-      <c r="Y153" s="15"/>
-      <c r="Z153" s="16"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+      <c r="O153" s="1"/>
+      <c r="P153" s="1"/>
+      <c r="Q153" s="1"/>
+      <c r="R153" s="1"/>
+      <c r="S153" s="1"/>
+      <c r="T153" s="1"/>
+      <c r="U153" s="1"/>
+      <c r="V153" s="1"/>
+      <c r="W153" s="1"/>
+      <c r="X153" s="1"/>
+      <c r="Y153" s="1"/>
+      <c r="Z153" s="1"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="7" t="s">
@@ -7038,109 +7062,109 @@
       <c r="Z155" s="12"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="13" t="s">
+      <c r="A156" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B156" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C156" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
-      <c r="H156" s="1"/>
-      <c r="I156" s="1"/>
-      <c r="J156" s="1"/>
-      <c r="K156" s="1"/>
-      <c r="L156" s="1"/>
-      <c r="M156" s="1"/>
-      <c r="N156" s="1"/>
-      <c r="O156" s="1"/>
-      <c r="P156" s="1"/>
-      <c r="Q156" s="1"/>
-      <c r="R156" s="1"/>
-      <c r="S156" s="1"/>
-      <c r="T156" s="1"/>
-      <c r="U156" s="1"/>
-      <c r="V156" s="1"/>
-      <c r="W156" s="1"/>
-      <c r="X156" s="1"/>
-      <c r="Y156" s="1"/>
-      <c r="Z156" s="12"/>
+      <c r="D156" s="15"/>
+      <c r="E156" s="15"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="15"/>
+      <c r="H156" s="15"/>
+      <c r="I156" s="15"/>
+      <c r="J156" s="15"/>
+      <c r="K156" s="15"/>
+      <c r="L156" s="15"/>
+      <c r="M156" s="15"/>
+      <c r="N156" s="15"/>
+      <c r="O156" s="15"/>
+      <c r="P156" s="15"/>
+      <c r="Q156" s="15"/>
+      <c r="R156" s="15"/>
+      <c r="S156" s="15"/>
+      <c r="T156" s="15"/>
+      <c r="U156" s="15"/>
+      <c r="V156" s="15"/>
+      <c r="W156" s="15"/>
+      <c r="X156" s="15"/>
+      <c r="Y156" s="15"/>
+      <c r="Z156" s="16"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="14" t="s">
+      <c r="A157" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="B157" s="15" t="s">
+      <c r="B157" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="C157" s="15" t="s">
+      <c r="C157" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="D157" s="15"/>
-      <c r="E157" s="15"/>
-      <c r="F157" s="15"/>
-      <c r="G157" s="15"/>
-      <c r="H157" s="15"/>
-      <c r="I157" s="15"/>
-      <c r="J157" s="15"/>
-      <c r="K157" s="15"/>
-      <c r="L157" s="15"/>
-      <c r="M157" s="15"/>
-      <c r="N157" s="15"/>
-      <c r="O157" s="15"/>
-      <c r="P157" s="15"/>
-      <c r="Q157" s="15"/>
-      <c r="R157" s="15"/>
-      <c r="S157" s="15"/>
-      <c r="T157" s="15"/>
-      <c r="U157" s="15"/>
-      <c r="V157" s="15"/>
-      <c r="W157" s="15"/>
-      <c r="X157" s="15"/>
-      <c r="Y157" s="15"/>
-      <c r="Z157" s="16"/>
+      <c r="D157" s="9"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="9"/>
+      <c r="G157" s="9"/>
+      <c r="H157" s="9"/>
+      <c r="I157" s="9"/>
+      <c r="J157" s="9"/>
+      <c r="K157" s="9"/>
+      <c r="L157" s="9"/>
+      <c r="M157" s="9"/>
+      <c r="N157" s="9"/>
+      <c r="O157" s="9"/>
+      <c r="P157" s="9"/>
+      <c r="Q157" s="9"/>
+      <c r="R157" s="9"/>
+      <c r="S157" s="9"/>
+      <c r="T157" s="9"/>
+      <c r="U157" s="9"/>
+      <c r="V157" s="9"/>
+      <c r="W157" s="9"/>
+      <c r="X157" s="9"/>
+      <c r="Y157" s="9"/>
+      <c r="Z157" s="10"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="7" t="s">
+      <c r="A158" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="B158" s="9" t="s">
+      <c r="B158" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C158" s="9" t="s">
+      <c r="C158" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D158" s="9"/>
-      <c r="E158" s="9"/>
-      <c r="F158" s="9"/>
-      <c r="G158" s="9"/>
-      <c r="H158" s="9"/>
-      <c r="I158" s="9"/>
-      <c r="J158" s="9"/>
-      <c r="K158" s="9"/>
-      <c r="L158" s="9"/>
-      <c r="M158" s="9"/>
-      <c r="N158" s="9"/>
-      <c r="O158" s="9"/>
-      <c r="P158" s="9"/>
-      <c r="Q158" s="9"/>
-      <c r="R158" s="9"/>
-      <c r="S158" s="9"/>
-      <c r="T158" s="9"/>
-      <c r="U158" s="9"/>
-      <c r="V158" s="9"/>
-      <c r="W158" s="9"/>
-      <c r="X158" s="9"/>
-      <c r="Y158" s="9"/>
-      <c r="Z158" s="10"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+      <c r="M158" s="1"/>
+      <c r="N158" s="1"/>
+      <c r="O158" s="1"/>
+      <c r="P158" s="1"/>
+      <c r="Q158" s="1"/>
+      <c r="R158" s="1"/>
+      <c r="S158" s="1"/>
+      <c r="T158" s="1"/>
+      <c r="U158" s="1"/>
+      <c r="V158" s="1"/>
+      <c r="W158" s="1"/>
+      <c r="X158" s="1"/>
+      <c r="Y158" s="1"/>
+      <c r="Z158" s="12"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="27" t="s">
+      <c r="A159" s="13" t="s">
         <v>280</v>
       </c>
       <c r="B159" s="1" t="s">
@@ -7174,82 +7198,82 @@
       <c r="Z159" s="12"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="13" t="s">
+      <c r="A160" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B160" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C160" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
-      <c r="H160" s="1"/>
-      <c r="I160" s="1"/>
-      <c r="J160" s="1"/>
-      <c r="K160" s="1"/>
-      <c r="L160" s="1"/>
-      <c r="M160" s="1"/>
-      <c r="N160" s="1"/>
-      <c r="O160" s="1"/>
-      <c r="P160" s="1"/>
-      <c r="Q160" s="1"/>
-      <c r="R160" s="1"/>
-      <c r="S160" s="1"/>
-      <c r="T160" s="1"/>
-      <c r="U160" s="1"/>
-      <c r="V160" s="1"/>
-      <c r="W160" s="1"/>
-      <c r="X160" s="1"/>
-      <c r="Y160" s="1"/>
-      <c r="Z160" s="12"/>
+      <c r="D160" s="15"/>
+      <c r="E160" s="15"/>
+      <c r="F160" s="15"/>
+      <c r="G160" s="15"/>
+      <c r="H160" s="15"/>
+      <c r="I160" s="15"/>
+      <c r="J160" s="15"/>
+      <c r="K160" s="15"/>
+      <c r="L160" s="15"/>
+      <c r="M160" s="15"/>
+      <c r="N160" s="15"/>
+      <c r="O160" s="15"/>
+      <c r="P160" s="15"/>
+      <c r="Q160" s="15"/>
+      <c r="R160" s="15"/>
+      <c r="S160" s="15"/>
+      <c r="T160" s="15"/>
+      <c r="U160" s="15"/>
+      <c r="V160" s="15"/>
+      <c r="W160" s="15"/>
+      <c r="X160" s="15"/>
+      <c r="Y160" s="15"/>
+      <c r="Z160" s="16"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="14" t="s">
+      <c r="A161" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="B161" s="15" t="s">
+      <c r="B161" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="C161" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D161" s="15"/>
-      <c r="E161" s="15"/>
-      <c r="F161" s="15"/>
-      <c r="G161" s="15"/>
-      <c r="H161" s="15"/>
-      <c r="I161" s="15"/>
-      <c r="J161" s="15"/>
-      <c r="K161" s="15"/>
-      <c r="L161" s="15"/>
-      <c r="M161" s="15"/>
-      <c r="N161" s="15"/>
-      <c r="O161" s="15"/>
-      <c r="P161" s="15"/>
-      <c r="Q161" s="15"/>
-      <c r="R161" s="15"/>
-      <c r="S161" s="15"/>
-      <c r="T161" s="15"/>
-      <c r="U161" s="15"/>
-      <c r="V161" s="15"/>
-      <c r="W161" s="15"/>
-      <c r="X161" s="15"/>
-      <c r="Y161" s="15"/>
-      <c r="Z161" s="16"/>
+      <c r="C161" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D161" s="9"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="9"/>
+      <c r="G161" s="9"/>
+      <c r="H161" s="9"/>
+      <c r="I161" s="9"/>
+      <c r="J161" s="9"/>
+      <c r="K161" s="9"/>
+      <c r="L161" s="9"/>
+      <c r="M161" s="9"/>
+      <c r="N161" s="9"/>
+      <c r="O161" s="9"/>
+      <c r="P161" s="9"/>
+      <c r="Q161" s="9"/>
+      <c r="R161" s="9"/>
+      <c r="S161" s="9"/>
+      <c r="T161" s="9"/>
+      <c r="U161" s="9"/>
+      <c r="V161" s="9"/>
+      <c r="W161" s="9"/>
+      <c r="X161" s="9"/>
+      <c r="Y161" s="9"/>
+      <c r="Z161" s="10"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="1" t="s">
-        <v>285</v>
+      <c r="A162" s="29" t="s">
+        <v>286</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -7273,12 +7297,18 @@
       <c r="W162" s="1"/>
       <c r="X162" s="1"/>
       <c r="Y162" s="1"/>
-      <c r="Z162" s="1"/>
+      <c r="Z162" s="12"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
+      <c r="A163" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
@@ -7301,47 +7331,51 @@
       <c r="W163" s="1"/>
       <c r="X163" s="1"/>
       <c r="Y163" s="1"/>
-      <c r="Z163" s="1"/>
+      <c r="Z163" s="12"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B164" s="2"/>
-      <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
-      <c r="E164" s="2"/>
-      <c r="F164" s="2"/>
-      <c r="G164" s="2"/>
-      <c r="H164" s="2"/>
-      <c r="I164" s="2"/>
-      <c r="J164" s="2"/>
-      <c r="K164" s="2"/>
-      <c r="L164" s="2"/>
-      <c r="M164" s="2"/>
-      <c r="N164" s="2"/>
-      <c r="O164" s="2"/>
-      <c r="P164" s="2"/>
-      <c r="Q164" s="2"/>
-      <c r="R164" s="2"/>
-      <c r="S164" s="2"/>
-      <c r="T164" s="2"/>
-      <c r="U164" s="2"/>
-      <c r="V164" s="2"/>
-      <c r="W164" s="2"/>
-      <c r="X164" s="2"/>
-      <c r="Y164" s="2"/>
-      <c r="Z164" s="2"/>
+      <c r="A164" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="B164" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="C164" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D164" s="15"/>
+      <c r="E164" s="15"/>
+      <c r="F164" s="15"/>
+      <c r="G164" s="15"/>
+      <c r="H164" s="15"/>
+      <c r="I164" s="15"/>
+      <c r="J164" s="15"/>
+      <c r="K164" s="15"/>
+      <c r="L164" s="15"/>
+      <c r="M164" s="15"/>
+      <c r="N164" s="15"/>
+      <c r="O164" s="15"/>
+      <c r="P164" s="15"/>
+      <c r="Q164" s="15"/>
+      <c r="R164" s="15"/>
+      <c r="S164" s="15"/>
+      <c r="T164" s="15"/>
+      <c r="U164" s="15"/>
+      <c r="V164" s="15"/>
+      <c r="W164" s="15"/>
+      <c r="X164" s="15"/>
+      <c r="Y164" s="15"/>
+      <c r="Z164" s="16"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -7397,7 +7431,7 @@
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="2" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -7427,13 +7461,13 @@
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -7460,15 +7494,9 @@
       <c r="Z168" s="1"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>293</v>
-      </c>
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
@@ -7494,38 +7522,34 @@
       <c r="Z169" s="1"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
-      <c r="G170" s="1"/>
-      <c r="H170" s="1"/>
-      <c r="I170" s="1"/>
-      <c r="J170" s="1"/>
-      <c r="K170" s="1"/>
-      <c r="L170" s="1"/>
-      <c r="M170" s="1"/>
-      <c r="N170" s="1"/>
-      <c r="O170" s="1"/>
-      <c r="P170" s="1"/>
-      <c r="Q170" s="1"/>
-      <c r="R170" s="1"/>
-      <c r="S170" s="1"/>
-      <c r="T170" s="1"/>
-      <c r="U170" s="1"/>
-      <c r="V170" s="1"/>
-      <c r="W170" s="1"/>
-      <c r="X170" s="1"/>
-      <c r="Y170" s="1"/>
-      <c r="Z170" s="1"/>
+      <c r="A170" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="2"/>
+      <c r="J170" s="2"/>
+      <c r="K170" s="2"/>
+      <c r="L170" s="2"/>
+      <c r="M170" s="2"/>
+      <c r="N170" s="2"/>
+      <c r="O170" s="2"/>
+      <c r="P170" s="2"/>
+      <c r="Q170" s="2"/>
+      <c r="R170" s="2"/>
+      <c r="S170" s="2"/>
+      <c r="T170" s="2"/>
+      <c r="U170" s="2"/>
+      <c r="V170" s="2"/>
+      <c r="W170" s="2"/>
+      <c r="X170" s="2"/>
+      <c r="Y170" s="2"/>
+      <c r="Z170" s="2"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="1" t="s">
@@ -7698,9 +7722,15 @@
       <c r="Z175" s="1"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
+      <c r="A176" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>307</v>
+      </c>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
@@ -7726,44 +7756,48 @@
       <c r="Z176" s="1"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B177" s="2"/>
-      <c r="C177" s="2"/>
-      <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
-      <c r="F177" s="2"/>
-      <c r="G177" s="2"/>
-      <c r="H177" s="2"/>
-      <c r="I177" s="2"/>
-      <c r="J177" s="2"/>
-      <c r="K177" s="2"/>
-      <c r="L177" s="2"/>
-      <c r="M177" s="2"/>
-      <c r="N177" s="2"/>
-      <c r="O177" s="2"/>
-      <c r="P177" s="2"/>
-      <c r="Q177" s="2"/>
-      <c r="R177" s="2"/>
-      <c r="S177" s="2"/>
-      <c r="T177" s="2"/>
-      <c r="U177" s="2"/>
-      <c r="V177" s="2"/>
-      <c r="W177" s="2"/>
-      <c r="X177" s="2"/>
-      <c r="Y177" s="2"/>
-      <c r="Z177" s="2"/>
+      <c r="A177" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
+      <c r="H177" s="1"/>
+      <c r="I177" s="1"/>
+      <c r="J177" s="1"/>
+      <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="1"/>
+      <c r="N177" s="1"/>
+      <c r="O177" s="1"/>
+      <c r="P177" s="1"/>
+      <c r="Q177" s="1"/>
+      <c r="R177" s="1"/>
+      <c r="S177" s="1"/>
+      <c r="T177" s="1"/>
+      <c r="U177" s="1"/>
+      <c r="V177" s="1"/>
+      <c r="W177" s="1"/>
+      <c r="X177" s="1"/>
+      <c r="Y177" s="1"/>
+      <c r="Z177" s="1"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -7790,15 +7824,9 @@
       <c r="Z178" s="1"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>311</v>
-      </c>
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
@@ -7824,82 +7852,78 @@
       <c r="Z179" s="1"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="18" t="s">
+      <c r="A180" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B180" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="C180" s="18" t="s">
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="2"/>
+      <c r="G180" s="2"/>
+      <c r="H180" s="2"/>
+      <c r="I180" s="2"/>
+      <c r="J180" s="2"/>
+      <c r="K180" s="2"/>
+      <c r="L180" s="2"/>
+      <c r="M180" s="2"/>
+      <c r="N180" s="2"/>
+      <c r="O180" s="2"/>
+      <c r="P180" s="2"/>
+      <c r="Q180" s="2"/>
+      <c r="R180" s="2"/>
+      <c r="S180" s="2"/>
+      <c r="T180" s="2"/>
+      <c r="U180" s="2"/>
+      <c r="V180" s="2"/>
+      <c r="W180" s="2"/>
+      <c r="X180" s="2"/>
+      <c r="Y180" s="2"/>
+      <c r="Z180" s="2"/>
+    </row>
+    <row r="181" ht="15.75" customHeight="1">
+      <c r="A181" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D180" s="18"/>
-      <c r="E180" s="18"/>
-      <c r="F180" s="18"/>
-      <c r="G180" s="18"/>
-      <c r="H180" s="18"/>
-      <c r="I180" s="18"/>
-      <c r="J180" s="18"/>
-      <c r="K180" s="18"/>
-      <c r="L180" s="18"/>
-      <c r="M180" s="18"/>
-      <c r="N180" s="18"/>
-      <c r="O180" s="18"/>
-      <c r="P180" s="18"/>
-      <c r="Q180" s="18"/>
-      <c r="R180" s="18"/>
-      <c r="S180" s="18"/>
-      <c r="T180" s="18"/>
-      <c r="U180" s="18"/>
-      <c r="V180" s="18"/>
-      <c r="W180" s="18"/>
-      <c r="X180" s="18"/>
-      <c r="Y180" s="18"/>
-      <c r="Z180" s="18"/>
-    </row>
-    <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="18" t="s">
+      <c r="B181" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B181" s="18" t="s">
+      <c r="C181" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C181" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="D181" s="18"/>
-      <c r="E181" s="18"/>
-      <c r="F181" s="18"/>
-      <c r="G181" s="18"/>
-      <c r="H181" s="18"/>
-      <c r="I181" s="18"/>
-      <c r="J181" s="18"/>
-      <c r="K181" s="18"/>
-      <c r="L181" s="18"/>
-      <c r="M181" s="18"/>
-      <c r="N181" s="18"/>
-      <c r="O181" s="18"/>
-      <c r="P181" s="18"/>
-      <c r="Q181" s="18"/>
-      <c r="R181" s="18"/>
-      <c r="S181" s="18"/>
-      <c r="T181" s="18"/>
-      <c r="U181" s="18"/>
-      <c r="V181" s="18"/>
-      <c r="W181" s="18"/>
-      <c r="X181" s="18"/>
-      <c r="Y181" s="18"/>
-      <c r="Z181" s="18"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+      <c r="G181" s="1"/>
+      <c r="H181" s="1"/>
+      <c r="I181" s="1"/>
+      <c r="J181" s="1"/>
+      <c r="K181" s="1"/>
+      <c r="L181" s="1"/>
+      <c r="M181" s="1"/>
+      <c r="N181" s="1"/>
+      <c r="O181" s="1"/>
+      <c r="P181" s="1"/>
+      <c r="Q181" s="1"/>
+      <c r="R181" s="1"/>
+      <c r="S181" s="1"/>
+      <c r="T181" s="1"/>
+      <c r="U181" s="1"/>
+      <c r="V181" s="1"/>
+      <c r="W181" s="1"/>
+      <c r="X181" s="1"/>
+      <c r="Y181" s="1"/>
+      <c r="Z181" s="1"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -7926,72 +7950,72 @@
       <c r="Z182" s="1"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="1" t="s">
+      <c r="A183" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B183" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="C183" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="B183" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C183" s="1" t="s">
+      <c r="D183" s="18"/>
+      <c r="E183" s="18"/>
+      <c r="F183" s="18"/>
+      <c r="G183" s="18"/>
+      <c r="H183" s="18"/>
+      <c r="I183" s="18"/>
+      <c r="J183" s="18"/>
+      <c r="K183" s="18"/>
+      <c r="L183" s="18"/>
+      <c r="M183" s="18"/>
+      <c r="N183" s="18"/>
+      <c r="O183" s="18"/>
+      <c r="P183" s="18"/>
+      <c r="Q183" s="18"/>
+      <c r="R183" s="18"/>
+      <c r="S183" s="18"/>
+      <c r="T183" s="18"/>
+      <c r="U183" s="18"/>
+      <c r="V183" s="18"/>
+      <c r="W183" s="18"/>
+      <c r="X183" s="18"/>
+      <c r="Y183" s="18"/>
+      <c r="Z183" s="18"/>
+    </row>
+    <row r="184" ht="15.75" customHeight="1">
+      <c r="A184" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="D183" s="1"/>
-      <c r="E183" s="1"/>
-      <c r="F183" s="1"/>
-      <c r="G183" s="1"/>
-      <c r="H183" s="1"/>
-      <c r="I183" s="1"/>
-      <c r="J183" s="1"/>
-      <c r="K183" s="1"/>
-      <c r="L183" s="1"/>
-      <c r="M183" s="1"/>
-      <c r="N183" s="1"/>
-      <c r="O183" s="1"/>
-      <c r="P183" s="1"/>
-      <c r="Q183" s="1"/>
-      <c r="R183" s="1"/>
-      <c r="S183" s="1"/>
-      <c r="T183" s="1"/>
-      <c r="U183" s="1"/>
-      <c r="V183" s="1"/>
-      <c r="W183" s="1"/>
-      <c r="X183" s="1"/>
-      <c r="Y183" s="1"/>
-      <c r="Z183" s="1"/>
-    </row>
-    <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="1" t="s">
+      <c r="B184" s="18" t="s">
         <v>321</v>
       </c>
-      <c r="B184" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="C184" s="1" t="s">
+      <c r="C184" s="18" t="s">
         <v>322</v>
       </c>
-      <c r="D184" s="1"/>
-      <c r="E184" s="1"/>
-      <c r="F184" s="1"/>
-      <c r="G184" s="1"/>
-      <c r="H184" s="1"/>
-      <c r="I184" s="1"/>
-      <c r="J184" s="1"/>
-      <c r="K184" s="1"/>
-      <c r="L184" s="1"/>
-      <c r="M184" s="1"/>
-      <c r="N184" s="1"/>
-      <c r="O184" s="1"/>
-      <c r="P184" s="1"/>
-      <c r="Q184" s="1"/>
-      <c r="R184" s="1"/>
-      <c r="S184" s="1"/>
-      <c r="T184" s="1"/>
-      <c r="U184" s="1"/>
-      <c r="V184" s="1"/>
-      <c r="W184" s="1"/>
-      <c r="X184" s="1"/>
-      <c r="Y184" s="1"/>
-      <c r="Z184" s="1"/>
+      <c r="D184" s="18"/>
+      <c r="E184" s="18"/>
+      <c r="F184" s="18"/>
+      <c r="G184" s="18"/>
+      <c r="H184" s="18"/>
+      <c r="I184" s="18"/>
+      <c r="J184" s="18"/>
+      <c r="K184" s="18"/>
+      <c r="L184" s="18"/>
+      <c r="M184" s="18"/>
+      <c r="N184" s="18"/>
+      <c r="O184" s="18"/>
+      <c r="P184" s="18"/>
+      <c r="Q184" s="18"/>
+      <c r="R184" s="18"/>
+      <c r="S184" s="18"/>
+      <c r="T184" s="18"/>
+      <c r="U184" s="18"/>
+      <c r="V184" s="18"/>
+      <c r="W184" s="18"/>
+      <c r="X184" s="18"/>
+      <c r="Y184" s="18"/>
+      <c r="Z184" s="18"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="1" t="s">
@@ -8099,7 +8123,7 @@
       <c r="A188" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B188" s="6" t="s">
+      <c r="B188" s="1" t="s">
         <v>329</v>
       </c>
       <c r="C188" s="1" t="s">
@@ -8133,11 +8157,11 @@
       <c r="A189" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B189" s="6" t="s">
+      <c r="B189" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C189" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -8165,13 +8189,13 @@
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C190" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="B190" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -8199,13 +8223,13 @@
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -8232,9 +8256,15 @@
       <c r="Z191" s="1"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
+      <c r="A192" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>339</v>
+      </c>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
@@ -8260,44 +8290,48 @@
       <c r="Z192" s="1"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
-      <c r="D193" s="2"/>
-      <c r="E193" s="2"/>
-      <c r="F193" s="2"/>
-      <c r="G193" s="2"/>
-      <c r="H193" s="2"/>
-      <c r="I193" s="2"/>
-      <c r="J193" s="2"/>
-      <c r="K193" s="2"/>
-      <c r="L193" s="2"/>
-      <c r="M193" s="2"/>
-      <c r="N193" s="2"/>
-      <c r="O193" s="2"/>
-      <c r="P193" s="2"/>
-      <c r="Q193" s="2"/>
-      <c r="R193" s="2"/>
-      <c r="S193" s="2"/>
-      <c r="T193" s="2"/>
-      <c r="U193" s="2"/>
-      <c r="V193" s="2"/>
-      <c r="W193" s="2"/>
-      <c r="X193" s="2"/>
-      <c r="Y193" s="2"/>
-      <c r="Z193" s="2"/>
+      <c r="A193" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+      <c r="G193" s="1"/>
+      <c r="H193" s="1"/>
+      <c r="I193" s="1"/>
+      <c r="J193" s="1"/>
+      <c r="K193" s="1"/>
+      <c r="L193" s="1"/>
+      <c r="M193" s="1"/>
+      <c r="N193" s="1"/>
+      <c r="O193" s="1"/>
+      <c r="P193" s="1"/>
+      <c r="Q193" s="1"/>
+      <c r="R193" s="1"/>
+      <c r="S193" s="1"/>
+      <c r="T193" s="1"/>
+      <c r="U193" s="1"/>
+      <c r="V193" s="1"/>
+      <c r="W193" s="1"/>
+      <c r="X193" s="1"/>
+      <c r="Y193" s="1"/>
+      <c r="Z193" s="1"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>343</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -8353,7 +8387,7 @@
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="2" t="s">
-        <v>341</v>
+        <v>116</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -8382,49 +8416,43 @@
       <c r="Z196" s="2"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B197" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="C197" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="D197" s="9"/>
-      <c r="E197" s="9"/>
-      <c r="F197" s="9"/>
-      <c r="G197" s="9"/>
-      <c r="H197" s="9"/>
-      <c r="I197" s="9"/>
-      <c r="J197" s="9"/>
-      <c r="K197" s="9"/>
-      <c r="L197" s="9"/>
-      <c r="M197" s="9"/>
-      <c r="N197" s="9"/>
-      <c r="O197" s="9"/>
-      <c r="P197" s="9"/>
-      <c r="Q197" s="9"/>
-      <c r="R197" s="9"/>
-      <c r="S197" s="9"/>
-      <c r="T197" s="9"/>
-      <c r="U197" s="9"/>
-      <c r="V197" s="9"/>
-      <c r="W197" s="9"/>
-      <c r="X197" s="9"/>
-      <c r="Y197" s="9"/>
-      <c r="Z197" s="10"/>
+      <c r="A197" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
+      <c r="G197" s="1"/>
+      <c r="H197" s="1"/>
+      <c r="I197" s="1"/>
+      <c r="J197" s="1"/>
+      <c r="K197" s="1"/>
+      <c r="L197" s="1"/>
+      <c r="M197" s="1"/>
+      <c r="N197" s="1"/>
+      <c r="O197" s="1"/>
+      <c r="P197" s="1"/>
+      <c r="Q197" s="1"/>
+      <c r="R197" s="1"/>
+      <c r="S197" s="1"/>
+      <c r="T197" s="1"/>
+      <c r="U197" s="1"/>
+      <c r="V197" s="1"/>
+      <c r="W197" s="1"/>
+      <c r="X197" s="1"/>
+      <c r="Y197" s="1"/>
+      <c r="Z197" s="1"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>345</v>
-      </c>
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
@@ -8447,180 +8475,176 @@
       <c r="W198" s="1"/>
       <c r="X198" s="1"/>
       <c r="Y198" s="1"/>
-      <c r="Z198" s="12"/>
+      <c r="Z198" s="1"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="B199" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="C199" s="9" t="s">
+      <c r="A199" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="D199" s="9"/>
-      <c r="E199" s="9"/>
-      <c r="F199" s="9"/>
-      <c r="G199" s="9"/>
-      <c r="H199" s="9"/>
-      <c r="I199" s="9"/>
-      <c r="J199" s="9"/>
-      <c r="K199" s="9"/>
-      <c r="L199" s="9"/>
-      <c r="M199" s="9"/>
-      <c r="N199" s="9"/>
-      <c r="O199" s="9"/>
-      <c r="P199" s="9"/>
-      <c r="Q199" s="9"/>
-      <c r="R199" s="9"/>
-      <c r="S199" s="9"/>
-      <c r="T199" s="9"/>
-      <c r="U199" s="9"/>
-      <c r="V199" s="9"/>
-      <c r="W199" s="9"/>
-      <c r="X199" s="9"/>
-      <c r="Y199" s="9"/>
-      <c r="Z199" s="10"/>
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
+      <c r="G199" s="2"/>
+      <c r="H199" s="2"/>
+      <c r="I199" s="2"/>
+      <c r="J199" s="2"/>
+      <c r="K199" s="2"/>
+      <c r="L199" s="2"/>
+      <c r="M199" s="2"/>
+      <c r="N199" s="2"/>
+      <c r="O199" s="2"/>
+      <c r="P199" s="2"/>
+      <c r="Q199" s="2"/>
+      <c r="R199" s="2"/>
+      <c r="S199" s="2"/>
+      <c r="T199" s="2"/>
+      <c r="U199" s="2"/>
+      <c r="V199" s="2"/>
+      <c r="W199" s="2"/>
+      <c r="X199" s="2"/>
+      <c r="Y199" s="2"/>
+      <c r="Z199" s="2"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="13" t="s">
+      <c r="A200" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B200" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="C200" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D200" s="1"/>
-      <c r="E200" s="1"/>
-      <c r="F200" s="1"/>
-      <c r="G200" s="1"/>
-      <c r="H200" s="1"/>
-      <c r="I200" s="1"/>
-      <c r="J200" s="1"/>
-      <c r="K200" s="1"/>
-      <c r="L200" s="1"/>
-      <c r="M200" s="1"/>
-      <c r="N200" s="1"/>
-      <c r="O200" s="1"/>
-      <c r="P200" s="1"/>
-      <c r="Q200" s="1"/>
-      <c r="R200" s="1"/>
-      <c r="S200" s="1"/>
-      <c r="T200" s="1"/>
-      <c r="U200" s="1"/>
-      <c r="V200" s="1"/>
-      <c r="W200" s="1"/>
-      <c r="X200" s="1"/>
-      <c r="Y200" s="1"/>
-      <c r="Z200" s="12"/>
+      <c r="C200" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="D200" s="9"/>
+      <c r="E200" s="9"/>
+      <c r="F200" s="9"/>
+      <c r="G200" s="9"/>
+      <c r="H200" s="9"/>
+      <c r="I200" s="9"/>
+      <c r="J200" s="9"/>
+      <c r="K200" s="9"/>
+      <c r="L200" s="9"/>
+      <c r="M200" s="9"/>
+      <c r="N200" s="9"/>
+      <c r="O200" s="9"/>
+      <c r="P200" s="9"/>
+      <c r="Q200" s="9"/>
+      <c r="R200" s="9"/>
+      <c r="S200" s="9"/>
+      <c r="T200" s="9"/>
+      <c r="U200" s="9"/>
+      <c r="V200" s="9"/>
+      <c r="W200" s="9"/>
+      <c r="X200" s="9"/>
+      <c r="Y200" s="9"/>
+      <c r="Z200" s="10"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="27" t="s">
-        <v>349</v>
-      </c>
-      <c r="B201" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="C201" s="18" t="s">
+      <c r="A201" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="D201" s="18"/>
-      <c r="E201" s="18"/>
-      <c r="F201" s="18"/>
-      <c r="G201" s="18"/>
-      <c r="H201" s="18"/>
-      <c r="I201" s="18"/>
-      <c r="J201" s="18"/>
-      <c r="K201" s="18"/>
-      <c r="L201" s="18"/>
-      <c r="M201" s="18"/>
-      <c r="N201" s="18"/>
-      <c r="O201" s="18"/>
-      <c r="P201" s="18"/>
-      <c r="Q201" s="18"/>
-      <c r="R201" s="18"/>
-      <c r="S201" s="18"/>
-      <c r="T201" s="18"/>
-      <c r="U201" s="18"/>
-      <c r="V201" s="18"/>
-      <c r="W201" s="18"/>
-      <c r="X201" s="18"/>
-      <c r="Y201" s="18"/>
-      <c r="Z201" s="19"/>
+      <c r="B201" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+      <c r="G201" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="I201" s="1"/>
+      <c r="J201" s="1"/>
+      <c r="K201" s="1"/>
+      <c r="L201" s="1"/>
+      <c r="M201" s="1"/>
+      <c r="N201" s="1"/>
+      <c r="O201" s="1"/>
+      <c r="P201" s="1"/>
+      <c r="Q201" s="1"/>
+      <c r="R201" s="1"/>
+      <c r="S201" s="1"/>
+      <c r="T201" s="1"/>
+      <c r="U201" s="1"/>
+      <c r="V201" s="1"/>
+      <c r="W201" s="1"/>
+      <c r="X201" s="1"/>
+      <c r="Y201" s="1"/>
+      <c r="Z201" s="12"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="27" t="s">
-        <v>351</v>
-      </c>
-      <c r="B202" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="C202" s="18" t="s">
+      <c r="A202" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="D202" s="18"/>
-      <c r="E202" s="18"/>
-      <c r="F202" s="18"/>
-      <c r="G202" s="18"/>
-      <c r="H202" s="18"/>
-      <c r="I202" s="18"/>
-      <c r="J202" s="18"/>
-      <c r="K202" s="18"/>
-      <c r="L202" s="18"/>
-      <c r="M202" s="18"/>
-      <c r="N202" s="18"/>
-      <c r="O202" s="18"/>
-      <c r="P202" s="18"/>
-      <c r="Q202" s="18"/>
-      <c r="R202" s="18"/>
-      <c r="S202" s="18"/>
-      <c r="T202" s="18"/>
-      <c r="U202" s="18"/>
-      <c r="V202" s="18"/>
-      <c r="W202" s="18"/>
-      <c r="X202" s="18"/>
-      <c r="Y202" s="18"/>
-      <c r="Z202" s="19"/>
+      <c r="B202" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="C202" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="D202" s="9"/>
+      <c r="E202" s="9"/>
+      <c r="F202" s="9"/>
+      <c r="G202" s="9"/>
+      <c r="H202" s="9"/>
+      <c r="I202" s="9"/>
+      <c r="J202" s="9"/>
+      <c r="K202" s="9"/>
+      <c r="L202" s="9"/>
+      <c r="M202" s="9"/>
+      <c r="N202" s="9"/>
+      <c r="O202" s="9"/>
+      <c r="P202" s="9"/>
+      <c r="Q202" s="9"/>
+      <c r="R202" s="9"/>
+      <c r="S202" s="9"/>
+      <c r="T202" s="9"/>
+      <c r="U202" s="9"/>
+      <c r="V202" s="9"/>
+      <c r="W202" s="9"/>
+      <c r="X202" s="9"/>
+      <c r="Y202" s="9"/>
+      <c r="Z202" s="10"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="27" t="s">
+      <c r="A203" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C203" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B203" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="C203" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="D203" s="18"/>
-      <c r="E203" s="18"/>
-      <c r="F203" s="18"/>
-      <c r="G203" s="18"/>
-      <c r="H203" s="18"/>
-      <c r="I203" s="18"/>
-      <c r="J203" s="18"/>
-      <c r="K203" s="18"/>
-      <c r="L203" s="18"/>
-      <c r="M203" s="18"/>
-      <c r="N203" s="18"/>
-      <c r="O203" s="18"/>
-      <c r="P203" s="18"/>
-      <c r="Q203" s="18"/>
-      <c r="R203" s="18"/>
-      <c r="S203" s="18"/>
-      <c r="T203" s="18"/>
-      <c r="U203" s="18"/>
-      <c r="V203" s="18"/>
-      <c r="W203" s="18"/>
-      <c r="X203" s="18"/>
-      <c r="Y203" s="18"/>
-      <c r="Z203" s="19"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+      <c r="G203" s="1"/>
+      <c r="H203" s="1"/>
+      <c r="I203" s="1"/>
+      <c r="J203" s="1"/>
+      <c r="K203" s="1"/>
+      <c r="L203" s="1"/>
+      <c r="M203" s="1"/>
+      <c r="N203" s="1"/>
+      <c r="O203" s="1"/>
+      <c r="P203" s="1"/>
+      <c r="Q203" s="1"/>
+      <c r="R203" s="1"/>
+      <c r="S203" s="1"/>
+      <c r="T203" s="1"/>
+      <c r="U203" s="1"/>
+      <c r="V203" s="1"/>
+      <c r="W203" s="1"/>
+      <c r="X203" s="1"/>
+      <c r="Y203" s="1"/>
+      <c r="Z203" s="12"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="27" t="s">
+      <c r="A204" s="29" t="s">
         <v>355</v>
       </c>
       <c r="B204" s="18" t="s">
@@ -8654,7 +8678,7 @@
       <c r="Z204" s="19"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="27" t="s">
+      <c r="A205" s="29" t="s">
         <v>357</v>
       </c>
       <c r="B205" s="18" t="s">
@@ -8688,11 +8712,11 @@
       <c r="Z205" s="19"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="27" t="s">
+      <c r="A206" s="29" t="s">
         <v>359</v>
       </c>
       <c r="B206" s="18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C206" s="18" t="s">
         <v>360</v>
@@ -8722,184 +8746,184 @@
       <c r="Z206" s="19"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="14" t="s">
+      <c r="A207" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="B207" s="15" t="s">
+      <c r="B207" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="C207" s="18" t="s">
         <v>362</v>
       </c>
-      <c r="C207" s="15" t="s">
+      <c r="D207" s="18"/>
+      <c r="E207" s="18"/>
+      <c r="F207" s="18"/>
+      <c r="G207" s="18"/>
+      <c r="H207" s="18"/>
+      <c r="I207" s="18"/>
+      <c r="J207" s="18"/>
+      <c r="K207" s="18"/>
+      <c r="L207" s="18"/>
+      <c r="M207" s="18"/>
+      <c r="N207" s="18"/>
+      <c r="O207" s="18"/>
+      <c r="P207" s="18"/>
+      <c r="Q207" s="18"/>
+      <c r="R207" s="18"/>
+      <c r="S207" s="18"/>
+      <c r="T207" s="18"/>
+      <c r="U207" s="18"/>
+      <c r="V207" s="18"/>
+      <c r="W207" s="18"/>
+      <c r="X207" s="18"/>
+      <c r="Y207" s="18"/>
+      <c r="Z207" s="19"/>
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
+      <c r="A208" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="D207" s="15"/>
-      <c r="E207" s="15"/>
-      <c r="F207" s="15"/>
-      <c r="G207" s="15"/>
-      <c r="H207" s="15"/>
-      <c r="I207" s="15"/>
-      <c r="J207" s="15"/>
-      <c r="K207" s="15"/>
-      <c r="L207" s="15"/>
-      <c r="M207" s="15"/>
-      <c r="N207" s="15"/>
-      <c r="O207" s="15"/>
-      <c r="P207" s="15"/>
-      <c r="Q207" s="15"/>
-      <c r="R207" s="15"/>
-      <c r="S207" s="15"/>
-      <c r="T207" s="15"/>
-      <c r="U207" s="15"/>
-      <c r="V207" s="15"/>
-      <c r="W207" s="15"/>
-      <c r="X207" s="15"/>
-      <c r="Y207" s="15"/>
-      <c r="Z207" s="16"/>
-    </row>
-    <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="13" t="s">
+      <c r="B208" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="C208" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="B208" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C208" s="1" t="s">
+      <c r="D208" s="18"/>
+      <c r="E208" s="18"/>
+      <c r="F208" s="18"/>
+      <c r="G208" s="18"/>
+      <c r="H208" s="18"/>
+      <c r="I208" s="18"/>
+      <c r="J208" s="18"/>
+      <c r="K208" s="18"/>
+      <c r="L208" s="18"/>
+      <c r="M208" s="18"/>
+      <c r="N208" s="18"/>
+      <c r="O208" s="18"/>
+      <c r="P208" s="18"/>
+      <c r="Q208" s="18"/>
+      <c r="R208" s="18"/>
+      <c r="S208" s="18"/>
+      <c r="T208" s="18"/>
+      <c r="U208" s="18"/>
+      <c r="V208" s="18"/>
+      <c r="W208" s="18"/>
+      <c r="X208" s="18"/>
+      <c r="Y208" s="18"/>
+      <c r="Z208" s="19"/>
+    </row>
+    <row r="209" ht="15.75" customHeight="1">
+      <c r="A209" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="D208" s="1"/>
-      <c r="E208" s="1"/>
-      <c r="F208" s="1"/>
-      <c r="G208" s="1"/>
-      <c r="H208" s="1"/>
-      <c r="I208" s="1"/>
-      <c r="J208" s="1"/>
-      <c r="K208" s="1"/>
-      <c r="L208" s="1"/>
-      <c r="M208" s="1"/>
-      <c r="N208" s="1"/>
-      <c r="O208" s="1"/>
-      <c r="P208" s="1"/>
-      <c r="Q208" s="1"/>
-      <c r="R208" s="1"/>
-      <c r="S208" s="1"/>
-      <c r="T208" s="1"/>
-      <c r="U208" s="1"/>
-      <c r="V208" s="1"/>
-      <c r="W208" s="1"/>
-      <c r="X208" s="1"/>
-      <c r="Y208" s="1"/>
-      <c r="Z208" s="12"/>
-    </row>
-    <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="13" t="s">
+      <c r="B209" s="18" t="s">
         <v>366</v>
       </c>
-      <c r="B209" s="28" t="s">
+      <c r="C209" s="18" t="s">
         <v>366</v>
       </c>
-      <c r="C209" s="1" t="s">
+      <c r="D209" s="18"/>
+      <c r="E209" s="18"/>
+      <c r="F209" s="18"/>
+      <c r="G209" s="18"/>
+      <c r="H209" s="18"/>
+      <c r="I209" s="18"/>
+      <c r="J209" s="18"/>
+      <c r="K209" s="18"/>
+      <c r="L209" s="18"/>
+      <c r="M209" s="18"/>
+      <c r="N209" s="18"/>
+      <c r="O209" s="18"/>
+      <c r="P209" s="18"/>
+      <c r="Q209" s="18"/>
+      <c r="R209" s="18"/>
+      <c r="S209" s="18"/>
+      <c r="T209" s="18"/>
+      <c r="U209" s="18"/>
+      <c r="V209" s="18"/>
+      <c r="W209" s="18"/>
+      <c r="X209" s="18"/>
+      <c r="Y209" s="18"/>
+      <c r="Z209" s="19"/>
+    </row>
+    <row r="210" ht="15.75" customHeight="1">
+      <c r="A210" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="D209" s="1"/>
-      <c r="E209" s="1"/>
-      <c r="F209" s="1"/>
-      <c r="G209" s="1"/>
-      <c r="H209" s="1"/>
-      <c r="I209" s="1"/>
-      <c r="J209" s="1"/>
-      <c r="K209" s="1"/>
-      <c r="L209" s="1"/>
-      <c r="M209" s="1"/>
-      <c r="N209" s="1"/>
-      <c r="O209" s="1"/>
-      <c r="P209" s="1"/>
-      <c r="Q209" s="1"/>
-      <c r="R209" s="1"/>
-      <c r="S209" s="1"/>
-      <c r="T209" s="1"/>
-      <c r="U209" s="1"/>
-      <c r="V209" s="1"/>
-      <c r="W209" s="1"/>
-      <c r="X209" s="1"/>
-      <c r="Y209" s="1"/>
-      <c r="Z209" s="12"/>
-    </row>
-    <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="13" t="s">
+      <c r="B210" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="C210" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="C210" s="1" t="s">
+      <c r="D210" s="15"/>
+      <c r="E210" s="15"/>
+      <c r="F210" s="15"/>
+      <c r="G210" s="15"/>
+      <c r="H210" s="15"/>
+      <c r="I210" s="15"/>
+      <c r="J210" s="15"/>
+      <c r="K210" s="15"/>
+      <c r="L210" s="15"/>
+      <c r="M210" s="15"/>
+      <c r="N210" s="15"/>
+      <c r="O210" s="15"/>
+      <c r="P210" s="15"/>
+      <c r="Q210" s="15"/>
+      <c r="R210" s="15"/>
+      <c r="S210" s="15"/>
+      <c r="T210" s="15"/>
+      <c r="U210" s="15"/>
+      <c r="V210" s="15"/>
+      <c r="W210" s="15"/>
+      <c r="X210" s="15"/>
+      <c r="Y210" s="15"/>
+      <c r="Z210" s="16"/>
+    </row>
+    <row r="211" ht="15.75" customHeight="1">
+      <c r="A211" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="D210" s="1"/>
-      <c r="E210" s="1"/>
-      <c r="F210" s="1"/>
-      <c r="G210" s="1"/>
-      <c r="H210" s="1"/>
-      <c r="I210" s="1"/>
-      <c r="J210" s="1"/>
-      <c r="K210" s="1"/>
-      <c r="L210" s="1"/>
-      <c r="M210" s="1"/>
-      <c r="N210" s="1"/>
-      <c r="O210" s="1"/>
-      <c r="P210" s="1"/>
-      <c r="Q210" s="1"/>
-      <c r="R210" s="1"/>
-      <c r="S210" s="1"/>
-      <c r="T210" s="1"/>
-      <c r="U210" s="1"/>
-      <c r="V210" s="1"/>
-      <c r="W210" s="1"/>
-      <c r="X210" s="1"/>
-      <c r="Y210" s="1"/>
-      <c r="Z210" s="12"/>
-    </row>
-    <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="7" t="s">
+      <c r="B211" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C211" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B211" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="C211" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="D211" s="9"/>
-      <c r="E211" s="9"/>
-      <c r="F211" s="9"/>
-      <c r="G211" s="9"/>
-      <c r="H211" s="9"/>
-      <c r="I211" s="9"/>
-      <c r="J211" s="9"/>
-      <c r="K211" s="9"/>
-      <c r="L211" s="9"/>
-      <c r="M211" s="9"/>
-      <c r="N211" s="9"/>
-      <c r="O211" s="9"/>
-      <c r="P211" s="9"/>
-      <c r="Q211" s="9"/>
-      <c r="R211" s="9"/>
-      <c r="S211" s="9"/>
-      <c r="T211" s="9"/>
-      <c r="U211" s="9"/>
-      <c r="V211" s="9"/>
-      <c r="W211" s="9"/>
-      <c r="X211" s="9"/>
-      <c r="Y211" s="9"/>
-      <c r="Z211" s="10"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+      <c r="H211" s="1"/>
+      <c r="I211" s="1"/>
+      <c r="J211" s="1"/>
+      <c r="K211" s="1"/>
+      <c r="L211" s="1"/>
+      <c r="M211" s="1"/>
+      <c r="N211" s="1"/>
+      <c r="O211" s="1"/>
+      <c r="P211" s="1"/>
+      <c r="Q211" s="1"/>
+      <c r="R211" s="1"/>
+      <c r="S211" s="1"/>
+      <c r="T211" s="1"/>
+      <c r="U211" s="1"/>
+      <c r="V211" s="1"/>
+      <c r="W211" s="1"/>
+      <c r="X211" s="1"/>
+      <c r="Y211" s="1"/>
+      <c r="Z211" s="12"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="B212" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="C212" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -8927,7 +8951,7 @@
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>375</v>
@@ -8960,41 +8984,41 @@
       <c r="Z213" s="12"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="14" t="s">
+      <c r="A214" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="B214" s="15" t="s">
+      <c r="B214" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="C214" s="15" t="s">
+      <c r="C214" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="D214" s="15"/>
-      <c r="E214" s="15"/>
-      <c r="F214" s="15"/>
-      <c r="G214" s="15"/>
-      <c r="H214" s="15"/>
-      <c r="I214" s="15"/>
-      <c r="J214" s="15"/>
-      <c r="K214" s="15"/>
-      <c r="L214" s="15"/>
-      <c r="M214" s="15"/>
-      <c r="N214" s="15"/>
-      <c r="O214" s="15"/>
-      <c r="P214" s="15"/>
-      <c r="Q214" s="15"/>
-      <c r="R214" s="15"/>
-      <c r="S214" s="15"/>
-      <c r="T214" s="15"/>
-      <c r="U214" s="15"/>
-      <c r="V214" s="15"/>
-      <c r="W214" s="15"/>
-      <c r="X214" s="15"/>
-      <c r="Y214" s="15"/>
-      <c r="Z214" s="16"/>
+      <c r="D214" s="9"/>
+      <c r="E214" s="9"/>
+      <c r="F214" s="9"/>
+      <c r="G214" s="9"/>
+      <c r="H214" s="9"/>
+      <c r="I214" s="9"/>
+      <c r="J214" s="9"/>
+      <c r="K214" s="9"/>
+      <c r="L214" s="9"/>
+      <c r="M214" s="9"/>
+      <c r="N214" s="9"/>
+      <c r="O214" s="9"/>
+      <c r="P214" s="9"/>
+      <c r="Q214" s="9"/>
+      <c r="R214" s="9"/>
+      <c r="S214" s="9"/>
+      <c r="T214" s="9"/>
+      <c r="U214" s="9"/>
+      <c r="V214" s="9"/>
+      <c r="W214" s="9"/>
+      <c r="X214" s="9"/>
+      <c r="Y214" s="9"/>
+      <c r="Z214" s="10"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="1" t="s">
+      <c r="A215" s="13" t="s">
         <v>379</v>
       </c>
       <c r="B215" s="1" t="s">
@@ -9025,12 +9049,18 @@
       <c r="W215" s="1"/>
       <c r="X215" s="1"/>
       <c r="Y215" s="1"/>
-      <c r="Z215" s="1"/>
+      <c r="Z215" s="12"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
-      <c r="C216" s="1"/>
+      <c r="A216" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
@@ -9053,47 +9083,51 @@
       <c r="W216" s="1"/>
       <c r="X216" s="1"/>
       <c r="Y216" s="1"/>
-      <c r="Z216" s="1"/>
+      <c r="Z216" s="12"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B217" s="2"/>
-      <c r="C217" s="2"/>
-      <c r="D217" s="2"/>
-      <c r="E217" s="2"/>
-      <c r="F217" s="2"/>
-      <c r="G217" s="2"/>
-      <c r="H217" s="2"/>
-      <c r="I217" s="2"/>
-      <c r="J217" s="2"/>
-      <c r="K217" s="2"/>
-      <c r="L217" s="2"/>
-      <c r="M217" s="2"/>
-      <c r="N217" s="2"/>
-      <c r="O217" s="2"/>
-      <c r="P217" s="2"/>
-      <c r="Q217" s="2"/>
-      <c r="R217" s="2"/>
-      <c r="S217" s="2"/>
-      <c r="T217" s="2"/>
-      <c r="U217" s="2"/>
-      <c r="V217" s="2"/>
-      <c r="W217" s="2"/>
-      <c r="X217" s="2"/>
-      <c r="Y217" s="2"/>
-      <c r="Z217" s="2"/>
+      <c r="A217" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="B217" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="C217" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="D217" s="15"/>
+      <c r="E217" s="15"/>
+      <c r="F217" s="15"/>
+      <c r="G217" s="15"/>
+      <c r="H217" s="15"/>
+      <c r="I217" s="15"/>
+      <c r="J217" s="15"/>
+      <c r="K217" s="15"/>
+      <c r="L217" s="15"/>
+      <c r="M217" s="15"/>
+      <c r="N217" s="15"/>
+      <c r="O217" s="15"/>
+      <c r="P217" s="15"/>
+      <c r="Q217" s="15"/>
+      <c r="R217" s="15"/>
+      <c r="S217" s="15"/>
+      <c r="T217" s="15"/>
+      <c r="U217" s="15"/>
+      <c r="V217" s="15"/>
+      <c r="W217" s="15"/>
+      <c r="X217" s="15"/>
+      <c r="Y217" s="15"/>
+      <c r="Z217" s="16"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -9120,15 +9154,9 @@
       <c r="Z218" s="1"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>385</v>
-      </c>
+      <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
@@ -9154,38 +9182,34 @@
       <c r="Z219" s="1"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C220" s="1" t="s">
+      <c r="A220" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D220" s="1"/>
-      <c r="E220" s="1"/>
-      <c r="F220" s="1"/>
-      <c r="G220" s="1"/>
-      <c r="H220" s="1"/>
-      <c r="I220" s="1"/>
-      <c r="J220" s="1"/>
-      <c r="K220" s="1"/>
-      <c r="L220" s="1"/>
-      <c r="M220" s="1"/>
-      <c r="N220" s="1"/>
-      <c r="O220" s="1"/>
-      <c r="P220" s="1"/>
-      <c r="Q220" s="1"/>
-      <c r="R220" s="1"/>
-      <c r="S220" s="1"/>
-      <c r="T220" s="1"/>
-      <c r="U220" s="1"/>
-      <c r="V220" s="1"/>
-      <c r="W220" s="1"/>
-      <c r="X220" s="1"/>
-      <c r="Y220" s="1"/>
-      <c r="Z220" s="1"/>
+      <c r="B220" s="2"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="2"/>
+      <c r="E220" s="2"/>
+      <c r="F220" s="2"/>
+      <c r="G220" s="2"/>
+      <c r="H220" s="2"/>
+      <c r="I220" s="2"/>
+      <c r="J220" s="2"/>
+      <c r="K220" s="2"/>
+      <c r="L220" s="2"/>
+      <c r="M220" s="2"/>
+      <c r="N220" s="2"/>
+      <c r="O220" s="2"/>
+      <c r="P220" s="2"/>
+      <c r="Q220" s="2"/>
+      <c r="R220" s="2"/>
+      <c r="S220" s="2"/>
+      <c r="T220" s="2"/>
+      <c r="U220" s="2"/>
+      <c r="V220" s="2"/>
+      <c r="W220" s="2"/>
+      <c r="X220" s="2"/>
+      <c r="Y220" s="2"/>
+      <c r="Z220" s="2"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="1" t="s">
@@ -9225,7 +9249,7 @@
       <c r="A222" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B222" s="21" t="s">
+      <c r="B222" s="1" t="s">
         <v>390</v>
       </c>
       <c r="C222" s="1" t="s">
@@ -9256,9 +9280,15 @@
       <c r="Z222" s="1"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
-      <c r="C223" s="1"/>
+      <c r="A223" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>393</v>
+      </c>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
@@ -9284,44 +9314,48 @@
       <c r="Z223" s="1"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="B224" s="2"/>
-      <c r="C224" s="2"/>
-      <c r="D224" s="2"/>
-      <c r="E224" s="2"/>
-      <c r="F224" s="2"/>
-      <c r="G224" s="2"/>
-      <c r="H224" s="2"/>
-      <c r="I224" s="2"/>
-      <c r="J224" s="2"/>
-      <c r="K224" s="2"/>
-      <c r="L224" s="2"/>
-      <c r="M224" s="2"/>
-      <c r="N224" s="2"/>
-      <c r="O224" s="2"/>
-      <c r="P224" s="2"/>
-      <c r="Q224" s="2"/>
-      <c r="R224" s="2"/>
-      <c r="S224" s="2"/>
-      <c r="T224" s="2"/>
-      <c r="U224" s="2"/>
-      <c r="V224" s="2"/>
-      <c r="W224" s="2"/>
-      <c r="X224" s="2"/>
-      <c r="Y224" s="2"/>
-      <c r="Z224" s="2"/>
+      <c r="A224" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D224" s="1"/>
+      <c r="E224" s="1"/>
+      <c r="F224" s="1"/>
+      <c r="G224" s="1"/>
+      <c r="H224" s="1"/>
+      <c r="I224" s="1"/>
+      <c r="J224" s="1"/>
+      <c r="K224" s="1"/>
+      <c r="L224" s="1"/>
+      <c r="M224" s="1"/>
+      <c r="N224" s="1"/>
+      <c r="O224" s="1"/>
+      <c r="P224" s="1"/>
+      <c r="Q224" s="1"/>
+      <c r="R224" s="1"/>
+      <c r="S224" s="1"/>
+      <c r="T224" s="1"/>
+      <c r="U224" s="1"/>
+      <c r="V224" s="1"/>
+      <c r="W224" s="1"/>
+      <c r="X224" s="1"/>
+      <c r="Y224" s="1"/>
+      <c r="Z224" s="1"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
+      </c>
+      <c r="B225" s="21" t="s">
+        <v>396</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -9377,7 +9411,7 @@
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="2" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -9407,13 +9441,13 @@
     </row>
     <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -9440,15 +9474,9 @@
       <c r="Z228" s="1"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>401</v>
-      </c>
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
@@ -9474,48 +9502,44 @@
       <c r="Z229" s="1"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="A230" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="D230" s="1"/>
-      <c r="E230" s="1"/>
-      <c r="F230" s="1"/>
-      <c r="G230" s="1"/>
-      <c r="H230" s="1"/>
-      <c r="I230" s="1"/>
-      <c r="J230" s="1"/>
-      <c r="K230" s="1"/>
-      <c r="L230" s="1"/>
-      <c r="M230" s="1"/>
-      <c r="N230" s="1"/>
-      <c r="O230" s="1"/>
-      <c r="P230" s="1"/>
-      <c r="Q230" s="1"/>
-      <c r="R230" s="1"/>
-      <c r="S230" s="1"/>
-      <c r="T230" s="1"/>
-      <c r="U230" s="1"/>
-      <c r="V230" s="1"/>
-      <c r="W230" s="1"/>
-      <c r="X230" s="1"/>
-      <c r="Y230" s="1"/>
-      <c r="Z230" s="1"/>
+      <c r="A230" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B230" s="2"/>
+      <c r="C230" s="2"/>
+      <c r="D230" s="2"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="2"/>
+      <c r="G230" s="2"/>
+      <c r="H230" s="2"/>
+      <c r="I230" s="2"/>
+      <c r="J230" s="2"/>
+      <c r="K230" s="2"/>
+      <c r="L230" s="2"/>
+      <c r="M230" s="2"/>
+      <c r="N230" s="2"/>
+      <c r="O230" s="2"/>
+      <c r="P230" s="2"/>
+      <c r="Q230" s="2"/>
+      <c r="R230" s="2"/>
+      <c r="S230" s="2"/>
+      <c r="T230" s="2"/>
+      <c r="U230" s="2"/>
+      <c r="V230" s="2"/>
+      <c r="W230" s="2"/>
+      <c r="X230" s="2"/>
+      <c r="Y230" s="2"/>
+      <c r="Z230" s="2"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -9543,13 +9567,13 @@
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -9577,13 +9601,13 @@
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C233" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>411</v>
       </c>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -9611,13 +9635,13 @@
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B234" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="C234" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>414</v>
       </c>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -9645,13 +9669,13 @@
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C235" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>417</v>
       </c>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -9679,13 +9703,13 @@
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -9713,13 +9737,13 @@
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -9746,9 +9770,15 @@
       <c r="Z237" s="1"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="1"/>
-      <c r="B238" s="1"/>
-      <c r="C238" s="1"/>
+      <c r="A238" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>423</v>
+      </c>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
@@ -9774,44 +9804,48 @@
       <c r="Z238" s="1"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="A239" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B239" s="2"/>
-      <c r="C239" s="2"/>
-      <c r="D239" s="2"/>
-      <c r="E239" s="2"/>
-      <c r="F239" s="2"/>
-      <c r="G239" s="2"/>
-      <c r="H239" s="2"/>
-      <c r="I239" s="2"/>
-      <c r="J239" s="2"/>
-      <c r="K239" s="2"/>
-      <c r="L239" s="2"/>
-      <c r="M239" s="2"/>
-      <c r="N239" s="2"/>
-      <c r="O239" s="2"/>
-      <c r="P239" s="2"/>
-      <c r="Q239" s="2"/>
-      <c r="R239" s="2"/>
-      <c r="S239" s="2"/>
-      <c r="T239" s="2"/>
-      <c r="U239" s="2"/>
-      <c r="V239" s="2"/>
-      <c r="W239" s="2"/>
-      <c r="X239" s="2"/>
-      <c r="Y239" s="2"/>
-      <c r="Z239" s="2"/>
+      <c r="A239" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D239" s="1"/>
+      <c r="E239" s="1"/>
+      <c r="F239" s="1"/>
+      <c r="G239" s="1"/>
+      <c r="H239" s="1"/>
+      <c r="I239" s="1"/>
+      <c r="J239" s="1"/>
+      <c r="K239" s="1"/>
+      <c r="L239" s="1"/>
+      <c r="M239" s="1"/>
+      <c r="N239" s="1"/>
+      <c r="O239" s="1"/>
+      <c r="P239" s="1"/>
+      <c r="Q239" s="1"/>
+      <c r="R239" s="1"/>
+      <c r="S239" s="1"/>
+      <c r="T239" s="1"/>
+      <c r="U239" s="1"/>
+      <c r="V239" s="1"/>
+      <c r="W239" s="1"/>
+      <c r="X239" s="1"/>
+      <c r="Y239" s="1"/>
+      <c r="Z239" s="1"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -9838,15 +9872,9 @@
       <c r="Z240" s="1"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="A241" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="A241" s="1"/>
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
@@ -9872,48 +9900,44 @@
       <c r="Z241" s="1"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="A242" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D242" s="1"/>
-      <c r="E242" s="1"/>
-      <c r="F242" s="1"/>
-      <c r="G242" s="1"/>
-      <c r="H242" s="1"/>
-      <c r="I242" s="1"/>
-      <c r="J242" s="1"/>
-      <c r="K242" s="1"/>
-      <c r="L242" s="1"/>
-      <c r="M242" s="1"/>
-      <c r="N242" s="1"/>
-      <c r="O242" s="1"/>
-      <c r="P242" s="1"/>
-      <c r="Q242" s="1"/>
-      <c r="R242" s="1"/>
-      <c r="S242" s="1"/>
-      <c r="T242" s="1"/>
-      <c r="U242" s="1"/>
-      <c r="V242" s="1"/>
-      <c r="W242" s="1"/>
-      <c r="X242" s="1"/>
-      <c r="Y242" s="1"/>
-      <c r="Z242" s="1"/>
+      <c r="A242" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B242" s="2"/>
+      <c r="C242" s="2"/>
+      <c r="D242" s="2"/>
+      <c r="E242" s="2"/>
+      <c r="F242" s="2"/>
+      <c r="G242" s="2"/>
+      <c r="H242" s="2"/>
+      <c r="I242" s="2"/>
+      <c r="J242" s="2"/>
+      <c r="K242" s="2"/>
+      <c r="L242" s="2"/>
+      <c r="M242" s="2"/>
+      <c r="N242" s="2"/>
+      <c r="O242" s="2"/>
+      <c r="P242" s="2"/>
+      <c r="Q242" s="2"/>
+      <c r="R242" s="2"/>
+      <c r="S242" s="2"/>
+      <c r="T242" s="2"/>
+      <c r="U242" s="2"/>
+      <c r="V242" s="2"/>
+      <c r="W242" s="2"/>
+      <c r="X242" s="2"/>
+      <c r="Y242" s="2"/>
+      <c r="Z242" s="2"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>429</v>
+        <v>79</v>
       </c>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -9941,13 +9965,13 @@
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>431</v>
+        <v>81</v>
       </c>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -9975,13 +9999,13 @@
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>433</v>
+        <v>81</v>
       </c>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -10015,7 +10039,7 @@
         <v>434</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>22</v>
+        <v>435</v>
       </c>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -10043,13 +10067,13 @@
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>16</v>
+        <v>437</v>
       </c>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -10077,13 +10101,13 @@
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -10111,13 +10135,13 @@
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>440</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>441</v>
+        <v>22</v>
       </c>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -10145,13 +10169,13 @@
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>444</v>
+        <v>16</v>
       </c>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -10178,9 +10202,15 @@
       <c r="Z250" s="1"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="A251" s="1"/>
-      <c r="B251" s="1"/>
-      <c r="C251" s="1"/>
+      <c r="A251" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>444</v>
+      </c>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
@@ -10206,9 +10236,15 @@
       <c r="Z251" s="1"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="A252" s="1"/>
-      <c r="B252" s="1"/>
-      <c r="C252" s="1"/>
+      <c r="A252" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>447</v>
+      </c>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
@@ -10234,9 +10270,15 @@
       <c r="Z252" s="1"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="A253" s="1"/>
-      <c r="B253" s="1"/>
-      <c r="C253" s="1"/>
+      <c r="A253" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>450</v>
+      </c>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
@@ -15778,88 +15820,88 @@
       <c r="Z450" s="1"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="A451" s="18"/>
-      <c r="B451" s="18"/>
-      <c r="C451" s="18"/>
-      <c r="D451" s="18"/>
-      <c r="E451" s="18"/>
-      <c r="F451" s="18"/>
-      <c r="G451" s="18"/>
-      <c r="H451" s="18"/>
-      <c r="I451" s="18"/>
-      <c r="J451" s="18"/>
-      <c r="K451" s="18"/>
-      <c r="L451" s="18"/>
-      <c r="M451" s="18"/>
-      <c r="N451" s="18"/>
-      <c r="O451" s="18"/>
-      <c r="P451" s="18"/>
-      <c r="Q451" s="18"/>
-      <c r="R451" s="18"/>
-      <c r="S451" s="18"/>
-      <c r="T451" s="18"/>
-      <c r="U451" s="18"/>
-      <c r="V451" s="18"/>
-      <c r="W451" s="18"/>
-      <c r="X451" s="18"/>
-      <c r="Y451" s="18"/>
-      <c r="Z451" s="18"/>
+      <c r="A451" s="1"/>
+      <c r="B451" s="1"/>
+      <c r="C451" s="1"/>
+      <c r="D451" s="1"/>
+      <c r="E451" s="1"/>
+      <c r="F451" s="1"/>
+      <c r="G451" s="1"/>
+      <c r="H451" s="1"/>
+      <c r="I451" s="1"/>
+      <c r="J451" s="1"/>
+      <c r="K451" s="1"/>
+      <c r="L451" s="1"/>
+      <c r="M451" s="1"/>
+      <c r="N451" s="1"/>
+      <c r="O451" s="1"/>
+      <c r="P451" s="1"/>
+      <c r="Q451" s="1"/>
+      <c r="R451" s="1"/>
+      <c r="S451" s="1"/>
+      <c r="T451" s="1"/>
+      <c r="U451" s="1"/>
+      <c r="V451" s="1"/>
+      <c r="W451" s="1"/>
+      <c r="X451" s="1"/>
+      <c r="Y451" s="1"/>
+      <c r="Z451" s="1"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="A452" s="18"/>
-      <c r="B452" s="18"/>
-      <c r="C452" s="18"/>
-      <c r="D452" s="18"/>
-      <c r="E452" s="18"/>
-      <c r="F452" s="18"/>
-      <c r="G452" s="18"/>
-      <c r="H452" s="18"/>
-      <c r="I452" s="18"/>
-      <c r="J452" s="18"/>
-      <c r="K452" s="18"/>
-      <c r="L452" s="18"/>
-      <c r="M452" s="18"/>
-      <c r="N452" s="18"/>
-      <c r="O452" s="18"/>
-      <c r="P452" s="18"/>
-      <c r="Q452" s="18"/>
-      <c r="R452" s="18"/>
-      <c r="S452" s="18"/>
-      <c r="T452" s="18"/>
-      <c r="U452" s="18"/>
-      <c r="V452" s="18"/>
-      <c r="W452" s="18"/>
-      <c r="X452" s="18"/>
-      <c r="Y452" s="18"/>
-      <c r="Z452" s="18"/>
+      <c r="A452" s="1"/>
+      <c r="B452" s="1"/>
+      <c r="C452" s="1"/>
+      <c r="D452" s="1"/>
+      <c r="E452" s="1"/>
+      <c r="F452" s="1"/>
+      <c r="G452" s="1"/>
+      <c r="H452" s="1"/>
+      <c r="I452" s="1"/>
+      <c r="J452" s="1"/>
+      <c r="K452" s="1"/>
+      <c r="L452" s="1"/>
+      <c r="M452" s="1"/>
+      <c r="N452" s="1"/>
+      <c r="O452" s="1"/>
+      <c r="P452" s="1"/>
+      <c r="Q452" s="1"/>
+      <c r="R452" s="1"/>
+      <c r="S452" s="1"/>
+      <c r="T452" s="1"/>
+      <c r="U452" s="1"/>
+      <c r="V452" s="1"/>
+      <c r="W452" s="1"/>
+      <c r="X452" s="1"/>
+      <c r="Y452" s="1"/>
+      <c r="Z452" s="1"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="A453" s="18"/>
-      <c r="B453" s="18"/>
-      <c r="C453" s="18"/>
-      <c r="D453" s="18"/>
-      <c r="E453" s="18"/>
-      <c r="F453" s="18"/>
-      <c r="G453" s="18"/>
-      <c r="H453" s="18"/>
-      <c r="I453" s="18"/>
-      <c r="J453" s="18"/>
-      <c r="K453" s="18"/>
-      <c r="L453" s="18"/>
-      <c r="M453" s="18"/>
-      <c r="N453" s="18"/>
-      <c r="O453" s="18"/>
-      <c r="P453" s="18"/>
-      <c r="Q453" s="18"/>
-      <c r="R453" s="18"/>
-      <c r="S453" s="18"/>
-      <c r="T453" s="18"/>
-      <c r="U453" s="18"/>
-      <c r="V453" s="18"/>
-      <c r="W453" s="18"/>
-      <c r="X453" s="18"/>
-      <c r="Y453" s="18"/>
-      <c r="Z453" s="18"/>
+      <c r="A453" s="1"/>
+      <c r="B453" s="1"/>
+      <c r="C453" s="1"/>
+      <c r="D453" s="1"/>
+      <c r="E453" s="1"/>
+      <c r="F453" s="1"/>
+      <c r="G453" s="1"/>
+      <c r="H453" s="1"/>
+      <c r="I453" s="1"/>
+      <c r="J453" s="1"/>
+      <c r="K453" s="1"/>
+      <c r="L453" s="1"/>
+      <c r="M453" s="1"/>
+      <c r="N453" s="1"/>
+      <c r="O453" s="1"/>
+      <c r="P453" s="1"/>
+      <c r="Q453" s="1"/>
+      <c r="R453" s="1"/>
+      <c r="S453" s="1"/>
+      <c r="T453" s="1"/>
+      <c r="U453" s="1"/>
+      <c r="V453" s="1"/>
+      <c r="W453" s="1"/>
+      <c r="X453" s="1"/>
+      <c r="Y453" s="1"/>
+      <c r="Z453" s="1"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
       <c r="A454" s="18"/>
@@ -32465,6 +32507,90 @@
       <c r="Y1046" s="18"/>
       <c r="Z1046" s="18"/>
     </row>
+    <row r="1047" ht="15.75" customHeight="1">
+      <c r="A1047" s="18"/>
+      <c r="B1047" s="18"/>
+      <c r="C1047" s="18"/>
+      <c r="D1047" s="18"/>
+      <c r="E1047" s="18"/>
+      <c r="F1047" s="18"/>
+      <c r="G1047" s="18"/>
+      <c r="H1047" s="18"/>
+      <c r="I1047" s="18"/>
+      <c r="J1047" s="18"/>
+      <c r="K1047" s="18"/>
+      <c r="L1047" s="18"/>
+      <c r="M1047" s="18"/>
+      <c r="N1047" s="18"/>
+      <c r="O1047" s="18"/>
+      <c r="P1047" s="18"/>
+      <c r="Q1047" s="18"/>
+      <c r="R1047" s="18"/>
+      <c r="S1047" s="18"/>
+      <c r="T1047" s="18"/>
+      <c r="U1047" s="18"/>
+      <c r="V1047" s="18"/>
+      <c r="W1047" s="18"/>
+      <c r="X1047" s="18"/>
+      <c r="Y1047" s="18"/>
+      <c r="Z1047" s="18"/>
+    </row>
+    <row r="1048" ht="15.75" customHeight="1">
+      <c r="A1048" s="18"/>
+      <c r="B1048" s="18"/>
+      <c r="C1048" s="18"/>
+      <c r="D1048" s="18"/>
+      <c r="E1048" s="18"/>
+      <c r="F1048" s="18"/>
+      <c r="G1048" s="18"/>
+      <c r="H1048" s="18"/>
+      <c r="I1048" s="18"/>
+      <c r="J1048" s="18"/>
+      <c r="K1048" s="18"/>
+      <c r="L1048" s="18"/>
+      <c r="M1048" s="18"/>
+      <c r="N1048" s="18"/>
+      <c r="O1048" s="18"/>
+      <c r="P1048" s="18"/>
+      <c r="Q1048" s="18"/>
+      <c r="R1048" s="18"/>
+      <c r="S1048" s="18"/>
+      <c r="T1048" s="18"/>
+      <c r="U1048" s="18"/>
+      <c r="V1048" s="18"/>
+      <c r="W1048" s="18"/>
+      <c r="X1048" s="18"/>
+      <c r="Y1048" s="18"/>
+      <c r="Z1048" s="18"/>
+    </row>
+    <row r="1049" ht="15.75" customHeight="1">
+      <c r="A1049" s="18"/>
+      <c r="B1049" s="18"/>
+      <c r="C1049" s="18"/>
+      <c r="D1049" s="18"/>
+      <c r="E1049" s="18"/>
+      <c r="F1049" s="18"/>
+      <c r="G1049" s="18"/>
+      <c r="H1049" s="18"/>
+      <c r="I1049" s="18"/>
+      <c r="J1049" s="18"/>
+      <c r="K1049" s="18"/>
+      <c r="L1049" s="18"/>
+      <c r="M1049" s="18"/>
+      <c r="N1049" s="18"/>
+      <c r="O1049" s="18"/>
+      <c r="P1049" s="18"/>
+      <c r="Q1049" s="18"/>
+      <c r="R1049" s="18"/>
+      <c r="S1049" s="18"/>
+      <c r="T1049" s="18"/>
+      <c r="U1049" s="18"/>
+      <c r="V1049" s="18"/>
+      <c r="W1049" s="18"/>
+      <c r="X1049" s="18"/>
+      <c r="Y1049" s="18"/>
+      <c r="Z1049" s="18"/>
+    </row>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/Assets/Resources/Language/Language.xlsx
+++ b/Assets/Resources/Language/Language.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jawad Ahmad\01 Unity Projects\ACE\Assets\Resources\Language\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DCA660-6D04-4C20-8186-D9A4B2EFF41E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="工作表1" sheetId="1" r:id="rId4"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="p1kTanUw4r9sHJCKBrWoJU3n2lEKzd5U9dC431Co5Ng="/>
@@ -16,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="453">
   <si>
     <t>ID</t>
   </si>
@@ -227,9 +236,10 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Google Sans&quot;, Roboto, sans-serif"/>
+        <sz val="9"/>
         <color rgb="FF1F1F1F"/>
-        <sz val="9.0"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
       </rPr>
       <t>GO TO INTEGRAL</t>
     </r>
@@ -240,9 +250,10 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Google Sans&quot;, Roboto, sans-serif"/>
+        <sz val="9"/>
         <color rgb="FF1F1F1F"/>
-        <sz val="9.0"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
       </rPr>
       <t>Classic Battle</t>
     </r>
@@ -256,9 +267,10 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Google Sans&quot;, Roboto, sans-serif"/>
+        <sz val="9"/>
         <color rgb="FF1F1F1F"/>
-        <sz val="9.0"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
       </rPr>
       <t>High Roller Battleground</t>
     </r>
@@ -434,17 +446,17 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
       </rPr>
       <t>連結後不能變更</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
       </rPr>
       <t>!!!</t>
     </r>
@@ -626,9 +638,10 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Google Sans&quot;, Roboto, sans-serif"/>
+        <sz val="9"/>
         <color rgb="FF1F1F1F"/>
-        <sz val="9.0"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
       </rPr>
       <t>Account</t>
     </r>
@@ -642,9 +655,10 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Google Sans&quot;, Roboto, sans-serif"/>
+        <sz val="9"/>
         <color rgb="FF1F1F1F"/>
-        <sz val="9.0"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
       </rPr>
       <t>Your UserName</t>
     </r>
@@ -658,9 +672,10 @@
   <si>
     <r>
       <rPr>
-        <rFont val="&quot;Google Sans&quot;, Roboto, sans-serif"/>
+        <sz val="9"/>
         <color rgb="FF1F1F1F"/>
-        <sz val="9.0"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
       </rPr>
       <t>Your Account</t>
     </r>
@@ -1094,17 +1109,17 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
       </rPr>
       <t>分享</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
       </rPr>
       <t>QRcode!</t>
     </r>
@@ -1441,41 +1456,55 @@
   </si>
   <si>
     <t>請繼續抵押</t>
+  </si>
+  <si>
+    <t>INTEGRAL RULE</t>
+  </si>
+  <si>
+    <t>积分规则</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1483,7 +1512,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1511,20 +1540,30 @@
     </fill>
   </fills>
   <borders count="12">
-    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1533,19 +1572,27 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1554,138 +1601,158 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1875,27 +1942,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:Z1049"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="C254" sqref="C254"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="31.88"/>
-    <col customWidth="1" min="2" max="2" width="34.13"/>
-    <col customWidth="1" min="3" max="3" width="24.5"/>
-    <col customWidth="1" min="4" max="26" width="9.75"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="26" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1929,7 +2000,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1959,7 +2030,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1993,7 +2064,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2027,7 +2098,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -2061,7 +2132,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2095,7 +2166,7 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -2129,7 +2200,7 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -2163,7 +2234,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -2197,7 +2268,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -2231,7 +2302,7 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -2265,7 +2336,7 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -2299,7 +2370,7 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -2333,7 +2404,7 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -2367,7 +2438,7 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -2401,7 +2472,7 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -2435,7 +2506,7 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -2469,7 +2540,7 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -2503,7 +2574,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -2537,7 +2608,7 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -2571,7 +2642,7 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>39</v>
       </c>
@@ -2605,7 +2676,7 @@
       <c r="Y21" s="9"/>
       <c r="Z21" s="10"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>41</v>
       </c>
@@ -2639,7 +2710,7 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="12"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>43</v>
       </c>
@@ -2673,7 +2744,7 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="12"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>45</v>
       </c>
@@ -2707,7 +2778,7 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="12"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>47</v>
       </c>
@@ -2741,7 +2812,7 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="12"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>49</v>
       </c>
@@ -2775,7 +2846,7 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="12"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>52</v>
       </c>
@@ -2809,7 +2880,7 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="12"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>54</v>
       </c>
@@ -2843,7 +2914,7 @@
       <c r="Y28" s="9"/>
       <c r="Z28" s="10"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>56</v>
       </c>
@@ -2877,7 +2948,7 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="12"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>58</v>
       </c>
@@ -2911,7 +2982,7 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="12"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>60</v>
       </c>
@@ -2945,7 +3016,7 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="12"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>62</v>
       </c>
@@ -2979,7 +3050,7 @@
       <c r="Y32" s="15"/>
       <c r="Z32" s="16"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>64</v>
       </c>
@@ -3013,7 +3084,7 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="12"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>66</v>
       </c>
@@ -3047,7 +3118,7 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="12"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>67</v>
       </c>
@@ -3081,7 +3152,7 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="12"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>68</v>
       </c>
@@ -3115,7 +3186,7 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="12"/>
     </row>
-    <row r="37" ht="15.0" customHeight="1">
+    <row r="37" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>70</v>
       </c>
@@ -3149,7 +3220,7 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="12"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>73</v>
       </c>
@@ -3183,7 +3254,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="12"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>76</v>
       </c>
@@ -3217,7 +3288,7 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="12"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>78</v>
       </c>
@@ -3251,7 +3322,7 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="12"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>80</v>
       </c>
@@ -3285,7 +3356,7 @@
       <c r="Y41" s="15"/>
       <c r="Z41" s="16"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
@@ -3319,7 +3390,7 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
@@ -3353,7 +3424,7 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
@@ -3387,7 +3458,7 @@
       <c r="Y44" s="18"/>
       <c r="Z44" s="18"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
@@ -3421,7 +3492,7 @@
       <c r="Y45" s="18"/>
       <c r="Z45" s="18"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>90</v>
       </c>
@@ -3455,7 +3526,7 @@
       <c r="Y46" s="18"/>
       <c r="Z46" s="19"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>92</v>
       </c>
@@ -3489,7 +3560,7 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="12"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
         <v>93</v>
       </c>
@@ -3523,7 +3594,7 @@
       <c r="Y48" s="18"/>
       <c r="Z48" s="19"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>95</v>
       </c>
@@ -3557,7 +3628,7 @@
       <c r="Y49" s="18"/>
       <c r="Z49" s="19"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
         <v>97</v>
       </c>
@@ -3591,7 +3662,7 @@
       <c r="Y50" s="18"/>
       <c r="Z50" s="19"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
         <v>98</v>
       </c>
@@ -3625,7 +3696,7 @@
       <c r="Y51" s="18"/>
       <c r="Z51" s="19"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
         <v>99</v>
       </c>
@@ -3659,7 +3730,7 @@
       <c r="Y52" s="18"/>
       <c r="Z52" s="19"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>101</v>
       </c>
@@ -3693,7 +3764,7 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="12"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
         <v>102</v>
       </c>
@@ -3727,7 +3798,7 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="12"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>103</v>
       </c>
@@ -3761,7 +3832,7 @@
       <c r="Y55" s="9"/>
       <c r="Z55" s="10"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>105</v>
       </c>
@@ -3795,7 +3866,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="12"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>107</v>
       </c>
@@ -3829,7 +3900,7 @@
       <c r="Y57" s="18"/>
       <c r="Z57" s="19"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>109</v>
       </c>
@@ -3863,7 +3934,7 @@
       <c r="Y58" s="18"/>
       <c r="Z58" s="19"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>111</v>
       </c>
@@ -3897,7 +3968,7 @@
       <c r="Y59" s="18"/>
       <c r="Z59" s="19"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
         <v>113</v>
       </c>
@@ -3931,7 +4002,7 @@
       <c r="Y60" s="18"/>
       <c r="Z60" s="19"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>115</v>
       </c>
@@ -3965,7 +4036,7 @@
       <c r="Y61" s="18"/>
       <c r="Z61" s="19"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
         <v>117</v>
       </c>
@@ -3999,7 +4070,7 @@
       <c r="Y62" s="18"/>
       <c r="Z62" s="19"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
         <v>118</v>
       </c>
@@ -4033,7 +4104,7 @@
       <c r="Y63" s="18"/>
       <c r="Z63" s="19"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
         <v>120</v>
       </c>
@@ -4067,7 +4138,7 @@
       <c r="Y64" s="15"/>
       <c r="Z64" s="16"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
         <v>121</v>
       </c>
@@ -4101,7 +4172,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="12"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
         <v>123</v>
       </c>
@@ -4135,7 +4206,7 @@
       <c r="Y66" s="15"/>
       <c r="Z66" s="16"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -4163,7 +4234,7 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>125</v>
       </c>
@@ -4193,7 +4264,7 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>126</v>
       </c>
@@ -4227,7 +4298,7 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>128</v>
       </c>
@@ -4261,7 +4332,7 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>130</v>
       </c>
@@ -4295,7 +4366,7 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>132</v>
       </c>
@@ -4329,7 +4400,7 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -4357,7 +4428,7 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>134</v>
       </c>
@@ -4387,7 +4458,7 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>135</v>
       </c>
@@ -4421,7 +4492,7 @@
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>137</v>
       </c>
@@ -4455,7 +4526,7 @@
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>139</v>
       </c>
@@ -4489,7 +4560,7 @@
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>141</v>
       </c>
@@ -4523,7 +4594,7 @@
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>143</v>
       </c>
@@ -4557,7 +4628,7 @@
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>145</v>
       </c>
@@ -4591,7 +4662,7 @@
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>147</v>
       </c>
@@ -4625,7 +4696,7 @@
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="21" t="s">
         <v>149</v>
       </c>
@@ -4659,7 +4730,7 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="22" t="s">
         <v>151</v>
       </c>
@@ -4693,7 +4764,7 @@
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -4721,7 +4792,7 @@
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>153</v>
       </c>
@@ -4751,7 +4822,7 @@
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>154</v>
       </c>
@@ -4785,7 +4856,7 @@
       <c r="Y86" s="3"/>
       <c r="Z86" s="3"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>156</v>
       </c>
@@ -4819,7 +4890,7 @@
       <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>158</v>
       </c>
@@ -4853,7 +4924,7 @@
       <c r="Y88" s="3"/>
       <c r="Z88" s="3"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>160</v>
       </c>
@@ -4887,7 +4958,7 @@
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>163</v>
       </c>
@@ -4921,7 +4992,7 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>165</v>
       </c>
@@ -4955,7 +5026,7 @@
       <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>167</v>
       </c>
@@ -4989,7 +5060,7 @@
       <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>169</v>
       </c>
@@ -5023,7 +5094,7 @@
       <c r="Y93" s="3"/>
       <c r="Z93" s="3"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>171</v>
       </c>
@@ -5057,7 +5128,7 @@
       <c r="Y94" s="3"/>
       <c r="Z94" s="3"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>173</v>
       </c>
@@ -5091,7 +5162,7 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>175</v>
       </c>
@@ -5125,7 +5196,7 @@
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>177</v>
       </c>
@@ -5159,7 +5230,7 @@
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>179</v>
       </c>
@@ -5193,7 +5264,7 @@
       <c r="Y98" s="3"/>
       <c r="Z98" s="3"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>181</v>
       </c>
@@ -5227,7 +5298,7 @@
       <c r="Y99" s="3"/>
       <c r="Z99" s="3"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>183</v>
       </c>
@@ -5261,7 +5332,7 @@
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>185</v>
       </c>
@@ -5295,7 +5366,7 @@
       <c r="Y101" s="3"/>
       <c r="Z101" s="3"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>187</v>
       </c>
@@ -5329,7 +5400,7 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="22" t="s">
         <v>189</v>
       </c>
@@ -5363,7 +5434,7 @@
       <c r="Y103" s="22"/>
       <c r="Z103" s="22"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="22" t="s">
         <v>192</v>
       </c>
@@ -5397,7 +5468,7 @@
       <c r="Y104" s="22"/>
       <c r="Z104" s="22"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="22" t="s">
         <v>195</v>
       </c>
@@ -5431,7 +5502,7 @@
       <c r="Y105" s="22"/>
       <c r="Z105" s="22"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="22" t="s">
         <v>198</v>
       </c>
@@ -5465,7 +5536,7 @@
       <c r="Y106" s="22"/>
       <c r="Z106" s="22"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="22" t="s">
         <v>200</v>
       </c>
@@ -5499,7 +5570,7 @@
       <c r="Y107" s="22"/>
       <c r="Z107" s="22"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="24" t="s">
         <v>202</v>
       </c>
@@ -5533,7 +5604,7 @@
       <c r="Y108" s="22"/>
       <c r="Z108" s="22"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -5561,7 +5632,7 @@
       <c r="Y109" s="3"/>
       <c r="Z109" s="3"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="25" t="s">
         <v>204</v>
       </c>
@@ -5591,7 +5662,7 @@
       <c r="Y110" s="25"/>
       <c r="Z110" s="25"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>205</v>
       </c>
@@ -5625,7 +5696,7 @@
       <c r="Y111" s="3"/>
       <c r="Z111" s="3"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>207</v>
       </c>
@@ -5659,7 +5730,7 @@
       <c r="Y112" s="3"/>
       <c r="Z112" s="3"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>209</v>
       </c>
@@ -5693,7 +5764,7 @@
       <c r="Y113" s="3"/>
       <c r="Z113" s="3"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="25" t="s">
         <v>211</v>
       </c>
@@ -5723,7 +5794,7 @@
       <c r="Y114" s="25"/>
       <c r="Z114" s="25"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>212</v>
       </c>
@@ -5757,7 +5828,7 @@
       <c r="Y115" s="3"/>
       <c r="Z115" s="3"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>214</v>
       </c>
@@ -5791,7 +5862,7 @@
       <c r="Y116" s="3"/>
       <c r="Z116" s="3"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>216</v>
       </c>
@@ -5825,7 +5896,7 @@
       <c r="Y117" s="3"/>
       <c r="Z117" s="3"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>218</v>
       </c>
@@ -5859,7 +5930,7 @@
       <c r="Y118" s="3"/>
       <c r="Z118" s="3"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="26" t="s">
         <v>220</v>
       </c>
@@ -5889,7 +5960,7 @@
       <c r="Y119" s="26"/>
       <c r="Z119" s="26"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>221</v>
       </c>
@@ -5923,7 +5994,7 @@
       <c r="Y120" s="3"/>
       <c r="Z120" s="3"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="25" t="s">
         <v>222</v>
       </c>
@@ -5953,7 +6024,7 @@
       <c r="Y121" s="25"/>
       <c r="Z121" s="25"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="27" t="s">
         <v>223</v>
       </c>
@@ -5987,7 +6058,7 @@
       <c r="Y122" s="3"/>
       <c r="Z122" s="3"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>225</v>
       </c>
@@ -6021,7 +6092,7 @@
       <c r="Y123" s="3"/>
       <c r="Z123" s="3"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
         <v>227</v>
       </c>
@@ -6055,7 +6126,7 @@
       <c r="Y124" s="3"/>
       <c r="Z124" s="3"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="25" t="s">
         <v>229</v>
       </c>
@@ -6085,7 +6156,7 @@
       <c r="Y125" s="25"/>
       <c r="Z125" s="25"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>230</v>
       </c>
@@ -6119,7 +6190,7 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="25" t="s">
         <v>232</v>
       </c>
@@ -6149,7 +6220,7 @@
       <c r="Y127" s="25"/>
       <c r="Z127" s="25"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>233</v>
       </c>
@@ -6183,7 +6254,7 @@
       <c r="Y128" s="3"/>
       <c r="Z128" s="3"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
         <v>235</v>
       </c>
@@ -6217,7 +6288,7 @@
       <c r="Y129" s="3"/>
       <c r="Z129" s="3"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
         <v>236</v>
       </c>
@@ -6251,7 +6322,7 @@
       <c r="Y130" s="3"/>
       <c r="Z130" s="3"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="28" t="s">
         <v>238</v>
       </c>
@@ -6285,7 +6356,7 @@
       <c r="Y131" s="18"/>
       <c r="Z131" s="18"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="28" t="s">
         <v>240</v>
       </c>
@@ -6319,7 +6390,7 @@
       <c r="Y132" s="18"/>
       <c r="Z132" s="18"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="18"/>
       <c r="B133" s="18"/>
       <c r="C133" s="18"/>
@@ -6347,7 +6418,7 @@
       <c r="Y133" s="18"/>
       <c r="Z133" s="18"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>242</v>
       </c>
@@ -6377,7 +6448,7 @@
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>243</v>
       </c>
@@ -6411,7 +6482,7 @@
       <c r="Y135" s="3"/>
       <c r="Z135" s="3"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>244</v>
       </c>
@@ -6445,7 +6516,7 @@
       <c r="Y136" s="3"/>
       <c r="Z136" s="3"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>246</v>
       </c>
@@ -6479,7 +6550,7 @@
       <c r="Y137" s="3"/>
       <c r="Z137" s="3"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -6507,7 +6578,7 @@
       <c r="Y138" s="3"/>
       <c r="Z138" s="3"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>248</v>
       </c>
@@ -6537,7 +6608,7 @@
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>249</v>
       </c>
@@ -6571,7 +6642,7 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>251</v>
       </c>
@@ -6605,7 +6676,7 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>254</v>
       </c>
@@ -6639,7 +6710,7 @@
       <c r="Y142" s="1"/>
       <c r="Z142" s="1"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>256</v>
       </c>
@@ -6673,7 +6744,7 @@
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>258</v>
       </c>
@@ -6707,7 +6778,7 @@
       <c r="Y144" s="1"/>
       <c r="Z144" s="1"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>260</v>
       </c>
@@ -6741,7 +6812,7 @@
       <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -6769,7 +6840,7 @@
       <c r="Y146" s="1"/>
       <c r="Z146" s="1"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>262</v>
       </c>
@@ -6799,7 +6870,7 @@
       <c r="Y147" s="2"/>
       <c r="Z147" s="2"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>263</v>
       </c>
@@ -6833,7 +6904,7 @@
       <c r="Y148" s="1"/>
       <c r="Z148" s="1"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -6861,7 +6932,7 @@
       <c r="Y149" s="1"/>
       <c r="Z149" s="1"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>106</v>
       </c>
@@ -6891,7 +6962,7 @@
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>264</v>
       </c>
@@ -6925,7 +6996,7 @@
       <c r="Y151" s="1"/>
       <c r="Z151" s="1"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>266</v>
       </c>
@@ -6959,7 +7030,7 @@
       <c r="Y152" s="1"/>
       <c r="Z152" s="1"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>268</v>
       </c>
@@ -6993,7 +7064,7 @@
       <c r="Y153" s="1"/>
       <c r="Z153" s="1"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
         <v>270</v>
       </c>
@@ -7027,7 +7098,7 @@
       <c r="Y154" s="9"/>
       <c r="Z154" s="10"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="13" t="s">
         <v>272</v>
       </c>
@@ -7061,7 +7132,7 @@
       <c r="Y155" s="1"/>
       <c r="Z155" s="12"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="14" t="s">
         <v>274</v>
       </c>
@@ -7095,7 +7166,7 @@
       <c r="Y156" s="15"/>
       <c r="Z156" s="16"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="7" t="s">
         <v>276</v>
       </c>
@@ -7129,7 +7200,7 @@
       <c r="Y157" s="9"/>
       <c r="Z157" s="10"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="13" t="s">
         <v>278</v>
       </c>
@@ -7163,7 +7234,7 @@
       <c r="Y158" s="1"/>
       <c r="Z158" s="12"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="13" t="s">
         <v>280</v>
       </c>
@@ -7197,7 +7268,7 @@
       <c r="Y159" s="1"/>
       <c r="Z159" s="12"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="14" t="s">
         <v>282</v>
       </c>
@@ -7231,7 +7302,7 @@
       <c r="Y160" s="15"/>
       <c r="Z160" s="16"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="7" t="s">
         <v>284</v>
       </c>
@@ -7265,7 +7336,7 @@
       <c r="Y161" s="9"/>
       <c r="Z161" s="10"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="29" t="s">
         <v>286</v>
       </c>
@@ -7299,7 +7370,7 @@
       <c r="Y162" s="1"/>
       <c r="Z162" s="12"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="13" t="s">
         <v>288</v>
       </c>
@@ -7333,7 +7404,7 @@
       <c r="Y163" s="1"/>
       <c r="Z163" s="12"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="14" t="s">
         <v>290</v>
       </c>
@@ -7367,7 +7438,7 @@
       <c r="Y164" s="15"/>
       <c r="Z164" s="16"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>291</v>
       </c>
@@ -7401,7 +7472,7 @@
       <c r="Y165" s="1"/>
       <c r="Z165" s="1"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -7429,7 +7500,7 @@
       <c r="Y166" s="1"/>
       <c r="Z166" s="1"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>293</v>
       </c>
@@ -7459,7 +7530,7 @@
       <c r="Y167" s="2"/>
       <c r="Z167" s="2"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>294</v>
       </c>
@@ -7493,7 +7564,7 @@
       <c r="Y168" s="1"/>
       <c r="Z168" s="1"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -7521,7 +7592,7 @@
       <c r="Y169" s="1"/>
       <c r="Z169" s="1"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>261</v>
       </c>
@@ -7551,7 +7622,7 @@
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>296</v>
       </c>
@@ -7585,7 +7656,7 @@
       <c r="Y171" s="1"/>
       <c r="Z171" s="1"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>298</v>
       </c>
@@ -7619,7 +7690,7 @@
       <c r="Y172" s="1"/>
       <c r="Z172" s="1"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>300</v>
       </c>
@@ -7653,7 +7724,7 @@
       <c r="Y173" s="1"/>
       <c r="Z173" s="1"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>302</v>
       </c>
@@ -7687,7 +7758,7 @@
       <c r="Y174" s="1"/>
       <c r="Z174" s="1"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>304</v>
       </c>
@@ -7721,7 +7792,7 @@
       <c r="Y175" s="1"/>
       <c r="Z175" s="1"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>306</v>
       </c>
@@ -7755,7 +7826,7 @@
       <c r="Y176" s="1"/>
       <c r="Z176" s="1"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>308</v>
       </c>
@@ -7789,7 +7860,7 @@
       <c r="Y177" s="1"/>
       <c r="Z177" s="1"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>310</v>
       </c>
@@ -7823,7 +7894,7 @@
       <c r="Y178" s="1"/>
       <c r="Z178" s="1"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -7851,7 +7922,7 @@
       <c r="Y179" s="1"/>
       <c r="Z179" s="1"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>312</v>
       </c>
@@ -7881,7 +7952,7 @@
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>313</v>
       </c>
@@ -7915,7 +7986,7 @@
       <c r="Y181" s="1"/>
       <c r="Z181" s="1"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>316</v>
       </c>
@@ -7949,7 +8020,7 @@
       <c r="Y182" s="1"/>
       <c r="Z182" s="1"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="18" t="s">
         <v>318</v>
       </c>
@@ -7983,7 +8054,7 @@
       <c r="Y183" s="18"/>
       <c r="Z183" s="18"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="18" t="s">
         <v>320</v>
       </c>
@@ -8017,7 +8088,7 @@
       <c r="Y184" s="18"/>
       <c r="Z184" s="18"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>323</v>
       </c>
@@ -8051,7 +8122,7 @@
       <c r="Y185" s="1"/>
       <c r="Z185" s="1"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>325</v>
       </c>
@@ -8085,7 +8156,7 @@
       <c r="Y186" s="1"/>
       <c r="Z186" s="1"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>327</v>
       </c>
@@ -8119,7 +8190,7 @@
       <c r="Y187" s="1"/>
       <c r="Z187" s="1"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>329</v>
       </c>
@@ -8153,7 +8224,7 @@
       <c r="Y188" s="1"/>
       <c r="Z188" s="1"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>331</v>
       </c>
@@ -8187,7 +8258,7 @@
       <c r="Y189" s="1"/>
       <c r="Z189" s="1"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>333</v>
       </c>
@@ -8221,7 +8292,7 @@
       <c r="Y190" s="1"/>
       <c r="Z190" s="1"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>335</v>
       </c>
@@ -8255,7 +8326,7 @@
       <c r="Y191" s="1"/>
       <c r="Z191" s="1"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>337</v>
       </c>
@@ -8289,7 +8360,7 @@
       <c r="Y192" s="1"/>
       <c r="Z192" s="1"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>340</v>
       </c>
@@ -8323,7 +8394,7 @@
       <c r="Y193" s="1"/>
       <c r="Z193" s="1"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>343</v>
       </c>
@@ -8357,7 +8428,7 @@
       <c r="Y194" s="1"/>
       <c r="Z194" s="1"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -8385,7 +8456,7 @@
       <c r="Y195" s="1"/>
       <c r="Z195" s="1"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>116</v>
       </c>
@@ -8415,7 +8486,7 @@
       <c r="Y196" s="2"/>
       <c r="Z196" s="2"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>345</v>
       </c>
@@ -8449,7 +8520,7 @@
       <c r="Y197" s="1"/>
       <c r="Z197" s="1"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -8477,7 +8548,7 @@
       <c r="Y198" s="1"/>
       <c r="Z198" s="1"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>347</v>
       </c>
@@ -8507,7 +8578,7 @@
       <c r="Y199" s="2"/>
       <c r="Z199" s="2"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="7" t="s">
         <v>348</v>
       </c>
@@ -8541,7 +8612,7 @@
       <c r="Y200" s="9"/>
       <c r="Z200" s="10"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="13" t="s">
         <v>350</v>
       </c>
@@ -8575,7 +8646,7 @@
       <c r="Y201" s="1"/>
       <c r="Z201" s="12"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="7" t="s">
         <v>352</v>
       </c>
@@ -8609,7 +8680,7 @@
       <c r="Y202" s="9"/>
       <c r="Z202" s="10"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="13" t="s">
         <v>354</v>
       </c>
@@ -8643,7 +8714,7 @@
       <c r="Y203" s="1"/>
       <c r="Z203" s="12"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="29" t="s">
         <v>355</v>
       </c>
@@ -8677,7 +8748,7 @@
       <c r="Y204" s="18"/>
       <c r="Z204" s="19"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="29" t="s">
         <v>357</v>
       </c>
@@ -8711,7 +8782,7 @@
       <c r="Y205" s="18"/>
       <c r="Z205" s="19"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="29" t="s">
         <v>359</v>
       </c>
@@ -8745,7 +8816,7 @@
       <c r="Y206" s="18"/>
       <c r="Z206" s="19"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="29" t="s">
         <v>361</v>
       </c>
@@ -8779,7 +8850,7 @@
       <c r="Y207" s="18"/>
       <c r="Z207" s="19"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="29" t="s">
         <v>363</v>
       </c>
@@ -8813,7 +8884,7 @@
       <c r="Y208" s="18"/>
       <c r="Z208" s="19"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="29" t="s">
         <v>365</v>
       </c>
@@ -8847,7 +8918,7 @@
       <c r="Y209" s="18"/>
       <c r="Z209" s="19"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="14" t="s">
         <v>367</v>
       </c>
@@ -8881,7 +8952,7 @@
       <c r="Y210" s="15"/>
       <c r="Z210" s="16"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="13" t="s">
         <v>370</v>
       </c>
@@ -8915,7 +8986,7 @@
       <c r="Y211" s="1"/>
       <c r="Z211" s="12"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="13" t="s">
         <v>372</v>
       </c>
@@ -8949,7 +9020,7 @@
       <c r="Y212" s="1"/>
       <c r="Z212" s="12"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="13" t="s">
         <v>374</v>
       </c>
@@ -8983,7 +9054,7 @@
       <c r="Y213" s="1"/>
       <c r="Z213" s="12"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="7" t="s">
         <v>377</v>
       </c>
@@ -9017,7 +9088,7 @@
       <c r="Y214" s="9"/>
       <c r="Z214" s="10"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="13" t="s">
         <v>379</v>
       </c>
@@ -9051,7 +9122,7 @@
       <c r="Y215" s="1"/>
       <c r="Z215" s="12"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="13" t="s">
         <v>381</v>
       </c>
@@ -9085,7 +9156,7 @@
       <c r="Y216" s="1"/>
       <c r="Z216" s="12"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="14" t="s">
         <v>383</v>
       </c>
@@ -9119,7 +9190,7 @@
       <c r="Y217" s="15"/>
       <c r="Z217" s="16"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>385</v>
       </c>
@@ -9153,7 +9224,7 @@
       <c r="Y218" s="1"/>
       <c r="Z218" s="1"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -9181,7 +9252,7 @@
       <c r="Y219" s="1"/>
       <c r="Z219" s="1"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>387</v>
       </c>
@@ -9211,7 +9282,7 @@
       <c r="Y220" s="2"/>
       <c r="Z220" s="2"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>388</v>
       </c>
@@ -9245,7 +9316,7 @@
       <c r="Y221" s="1"/>
       <c r="Z221" s="1"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>390</v>
       </c>
@@ -9279,7 +9350,7 @@
       <c r="Y222" s="1"/>
       <c r="Z222" s="1"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>392</v>
       </c>
@@ -9313,7 +9384,7 @@
       <c r="Y223" s="1"/>
       <c r="Z223" s="1"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>394</v>
       </c>
@@ -9347,7 +9418,7 @@
       <c r="Y224" s="1"/>
       <c r="Z224" s="1"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>396</v>
       </c>
@@ -9381,7 +9452,7 @@
       <c r="Y225" s="1"/>
       <c r="Z225" s="1"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -9409,7 +9480,7 @@
       <c r="Y226" s="1"/>
       <c r="Z226" s="1"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>398</v>
       </c>
@@ -9439,7 +9510,7 @@
       <c r="Y227" s="2"/>
       <c r="Z227" s="2"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>399</v>
       </c>
@@ -9473,7 +9544,7 @@
       <c r="Y228" s="1"/>
       <c r="Z228" s="1"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -9501,7 +9572,7 @@
       <c r="Y229" s="1"/>
       <c r="Z229" s="1"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>401</v>
       </c>
@@ -9531,7 +9602,7 @@
       <c r="Y230" s="2"/>
       <c r="Z230" s="2"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>402</v>
       </c>
@@ -9565,7 +9636,7 @@
       <c r="Y231" s="1"/>
       <c r="Z231" s="1"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>405</v>
       </c>
@@ -9599,7 +9670,7 @@
       <c r="Y232" s="1"/>
       <c r="Z232" s="1"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>408</v>
       </c>
@@ -9633,7 +9704,7 @@
       <c r="Y233" s="1"/>
       <c r="Z233" s="1"/>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>411</v>
       </c>
@@ -9667,7 +9738,7 @@
       <c r="Y234" s="1"/>
       <c r="Z234" s="1"/>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>414</v>
       </c>
@@ -9701,7 +9772,7 @@
       <c r="Y235" s="1"/>
       <c r="Z235" s="1"/>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>416</v>
       </c>
@@ -9735,7 +9806,7 @@
       <c r="Y236" s="1"/>
       <c r="Z236" s="1"/>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>418</v>
       </c>
@@ -9769,7 +9840,7 @@
       <c r="Y237" s="1"/>
       <c r="Z237" s="1"/>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>421</v>
       </c>
@@ -9803,7 +9874,7 @@
       <c r="Y238" s="1"/>
       <c r="Z238" s="1"/>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>424</v>
       </c>
@@ -9837,7 +9908,7 @@
       <c r="Y239" s="1"/>
       <c r="Z239" s="1"/>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>427</v>
       </c>
@@ -9871,7 +9942,7 @@
       <c r="Y240" s="1"/>
       <c r="Z240" s="1"/>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -9899,7 +9970,7 @@
       <c r="Y241" s="1"/>
       <c r="Z241" s="1"/>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>257</v>
       </c>
@@ -9929,7 +10000,7 @@
       <c r="Y242" s="2"/>
       <c r="Z242" s="2"/>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>430</v>
       </c>
@@ -9963,7 +10034,7 @@
       <c r="Y243" s="1"/>
       <c r="Z243" s="1"/>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>431</v>
       </c>
@@ -9997,7 +10068,7 @@
       <c r="Y244" s="1"/>
       <c r="Z244" s="1"/>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>433</v>
       </c>
@@ -10031,7 +10102,7 @@
       <c r="Y245" s="1"/>
       <c r="Z245" s="1"/>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>434</v>
       </c>
@@ -10065,7 +10136,7 @@
       <c r="Y246" s="1"/>
       <c r="Z246" s="1"/>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>436</v>
       </c>
@@ -10099,7 +10170,7 @@
       <c r="Y247" s="1"/>
       <c r="Z247" s="1"/>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>438</v>
       </c>
@@ -10133,7 +10204,7 @@
       <c r="Y248" s="1"/>
       <c r="Z248" s="1"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>440</v>
       </c>
@@ -10167,7 +10238,7 @@
       <c r="Y249" s="1"/>
       <c r="Z249" s="1"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>441</v>
       </c>
@@ -10201,7 +10272,7 @@
       <c r="Y250" s="1"/>
       <c r="Z250" s="1"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>442</v>
       </c>
@@ -10235,7 +10306,7 @@
       <c r="Y251" s="1"/>
       <c r="Z251" s="1"/>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>445</v>
       </c>
@@ -10269,7 +10340,7 @@
       <c r="Y252" s="1"/>
       <c r="Z252" s="1"/>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>448</v>
       </c>
@@ -10303,10 +10374,16 @@
       <c r="Y253" s="1"/>
       <c r="Z253" s="1"/>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
-      <c r="A254" s="1"/>
-      <c r="B254" s="1"/>
-      <c r="C254" s="1"/>
+    <row r="254" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A254" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>452</v>
+      </c>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
@@ -10331,7 +10408,7 @@
       <c r="Y254" s="1"/>
       <c r="Z254" s="1"/>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -10359,7 +10436,7 @@
       <c r="Y255" s="1"/>
       <c r="Z255" s="1"/>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -10387,7 +10464,7 @@
       <c r="Y256" s="1"/>
       <c r="Z256" s="1"/>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -10415,7 +10492,7 @@
       <c r="Y257" s="1"/>
       <c r="Z257" s="1"/>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -10443,7 +10520,7 @@
       <c r="Y258" s="1"/>
       <c r="Z258" s="1"/>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -10471,7 +10548,7 @@
       <c r="Y259" s="1"/>
       <c r="Z259" s="1"/>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -10499,7 +10576,7 @@
       <c r="Y260" s="1"/>
       <c r="Z260" s="1"/>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -10527,7 +10604,7 @@
       <c r="Y261" s="1"/>
       <c r="Z261" s="1"/>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -10555,7 +10632,7 @@
       <c r="Y262" s="1"/>
       <c r="Z262" s="1"/>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -10583,7 +10660,7 @@
       <c r="Y263" s="1"/>
       <c r="Z263" s="1"/>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -10611,7 +10688,7 @@
       <c r="Y264" s="1"/>
       <c r="Z264" s="1"/>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -10639,7 +10716,7 @@
       <c r="Y265" s="1"/>
       <c r="Z265" s="1"/>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -10667,7 +10744,7 @@
       <c r="Y266" s="1"/>
       <c r="Z266" s="1"/>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -10695,7 +10772,7 @@
       <c r="Y267" s="1"/>
       <c r="Z267" s="1"/>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -10723,7 +10800,7 @@
       <c r="Y268" s="1"/>
       <c r="Z268" s="1"/>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -10751,7 +10828,7 @@
       <c r="Y269" s="1"/>
       <c r="Z269" s="1"/>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
+    <row r="270" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -10779,7 +10856,7 @@
       <c r="Y270" s="1"/>
       <c r="Z270" s="1"/>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -10807,7 +10884,7 @@
       <c r="Y271" s="1"/>
       <c r="Z271" s="1"/>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
+    <row r="272" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -10835,7 +10912,7 @@
       <c r="Y272" s="1"/>
       <c r="Z272" s="1"/>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -10863,7 +10940,7 @@
       <c r="Y273" s="1"/>
       <c r="Z273" s="1"/>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -10891,7 +10968,7 @@
       <c r="Y274" s="1"/>
       <c r="Z274" s="1"/>
     </row>
-    <row r="275" ht="15.75" customHeight="1">
+    <row r="275" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -10919,7 +10996,7 @@
       <c r="Y275" s="1"/>
       <c r="Z275" s="1"/>
     </row>
-    <row r="276" ht="15.75" customHeight="1">
+    <row r="276" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -10947,7 +11024,7 @@
       <c r="Y276" s="1"/>
       <c r="Z276" s="1"/>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
+    <row r="277" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -10975,7 +11052,7 @@
       <c r="Y277" s="1"/>
       <c r="Z277" s="1"/>
     </row>
-    <row r="278" ht="15.75" customHeight="1">
+    <row r="278" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -11003,7 +11080,7 @@
       <c r="Y278" s="1"/>
       <c r="Z278" s="1"/>
     </row>
-    <row r="279" ht="15.75" customHeight="1">
+    <row r="279" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -11031,7 +11108,7 @@
       <c r="Y279" s="1"/>
       <c r="Z279" s="1"/>
     </row>
-    <row r="280" ht="15.75" customHeight="1">
+    <row r="280" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -11059,7 +11136,7 @@
       <c r="Y280" s="1"/>
       <c r="Z280" s="1"/>
     </row>
-    <row r="281" ht="15.75" customHeight="1">
+    <row r="281" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -11087,7 +11164,7 @@
       <c r="Y281" s="1"/>
       <c r="Z281" s="1"/>
     </row>
-    <row r="282" ht="15.75" customHeight="1">
+    <row r="282" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -11115,7 +11192,7 @@
       <c r="Y282" s="1"/>
       <c r="Z282" s="1"/>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
+    <row r="283" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -11143,7 +11220,7 @@
       <c r="Y283" s="1"/>
       <c r="Z283" s="1"/>
     </row>
-    <row r="284" ht="15.75" customHeight="1">
+    <row r="284" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -11171,7 +11248,7 @@
       <c r="Y284" s="1"/>
       <c r="Z284" s="1"/>
     </row>
-    <row r="285" ht="15.75" customHeight="1">
+    <row r="285" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -11199,7 +11276,7 @@
       <c r="Y285" s="1"/>
       <c r="Z285" s="1"/>
     </row>
-    <row r="286" ht="15.75" customHeight="1">
+    <row r="286" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -11227,7 +11304,7 @@
       <c r="Y286" s="1"/>
       <c r="Z286" s="1"/>
     </row>
-    <row r="287" ht="15.75" customHeight="1">
+    <row r="287" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -11255,7 +11332,7 @@
       <c r="Y287" s="1"/>
       <c r="Z287" s="1"/>
     </row>
-    <row r="288" ht="15.75" customHeight="1">
+    <row r="288" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -11283,7 +11360,7 @@
       <c r="Y288" s="1"/>
       <c r="Z288" s="1"/>
     </row>
-    <row r="289" ht="15.75" customHeight="1">
+    <row r="289" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -11311,7 +11388,7 @@
       <c r="Y289" s="1"/>
       <c r="Z289" s="1"/>
     </row>
-    <row r="290" ht="15.75" customHeight="1">
+    <row r="290" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -11339,7 +11416,7 @@
       <c r="Y290" s="1"/>
       <c r="Z290" s="1"/>
     </row>
-    <row r="291" ht="15.75" customHeight="1">
+    <row r="291" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -11367,7 +11444,7 @@
       <c r="Y291" s="1"/>
       <c r="Z291" s="1"/>
     </row>
-    <row r="292" ht="15.75" customHeight="1">
+    <row r="292" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -11395,7 +11472,7 @@
       <c r="Y292" s="1"/>
       <c r="Z292" s="1"/>
     </row>
-    <row r="293" ht="15.75" customHeight="1">
+    <row r="293" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -11423,7 +11500,7 @@
       <c r="Y293" s="1"/>
       <c r="Z293" s="1"/>
     </row>
-    <row r="294" ht="15.75" customHeight="1">
+    <row r="294" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -11451,7 +11528,7 @@
       <c r="Y294" s="1"/>
       <c r="Z294" s="1"/>
     </row>
-    <row r="295" ht="15.75" customHeight="1">
+    <row r="295" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -11479,7 +11556,7 @@
       <c r="Y295" s="1"/>
       <c r="Z295" s="1"/>
     </row>
-    <row r="296" ht="15.75" customHeight="1">
+    <row r="296" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -11507,7 +11584,7 @@
       <c r="Y296" s="1"/>
       <c r="Z296" s="1"/>
     </row>
-    <row r="297" ht="15.75" customHeight="1">
+    <row r="297" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -11535,7 +11612,7 @@
       <c r="Y297" s="1"/>
       <c r="Z297" s="1"/>
     </row>
-    <row r="298" ht="15.75" customHeight="1">
+    <row r="298" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -11563,7 +11640,7 @@
       <c r="Y298" s="1"/>
       <c r="Z298" s="1"/>
     </row>
-    <row r="299" ht="15.75" customHeight="1">
+    <row r="299" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -11591,7 +11668,7 @@
       <c r="Y299" s="1"/>
       <c r="Z299" s="1"/>
     </row>
-    <row r="300" ht="15.75" customHeight="1">
+    <row r="300" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -11619,7 +11696,7 @@
       <c r="Y300" s="1"/>
       <c r="Z300" s="1"/>
     </row>
-    <row r="301" ht="15.75" customHeight="1">
+    <row r="301" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -11647,7 +11724,7 @@
       <c r="Y301" s="1"/>
       <c r="Z301" s="1"/>
     </row>
-    <row r="302" ht="15.75" customHeight="1">
+    <row r="302" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -11675,7 +11752,7 @@
       <c r="Y302" s="1"/>
       <c r="Z302" s="1"/>
     </row>
-    <row r="303" ht="15.75" customHeight="1">
+    <row r="303" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -11703,7 +11780,7 @@
       <c r="Y303" s="1"/>
       <c r="Z303" s="1"/>
     </row>
-    <row r="304" ht="15.75" customHeight="1">
+    <row r="304" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -11731,7 +11808,7 @@
       <c r="Y304" s="1"/>
       <c r="Z304" s="1"/>
     </row>
-    <row r="305" ht="15.75" customHeight="1">
+    <row r="305" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -11759,7 +11836,7 @@
       <c r="Y305" s="1"/>
       <c r="Z305" s="1"/>
     </row>
-    <row r="306" ht="15.75" customHeight="1">
+    <row r="306" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -11787,7 +11864,7 @@
       <c r="Y306" s="1"/>
       <c r="Z306" s="1"/>
     </row>
-    <row r="307" ht="15.75" customHeight="1">
+    <row r="307" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -11815,7 +11892,7 @@
       <c r="Y307" s="1"/>
       <c r="Z307" s="1"/>
     </row>
-    <row r="308" ht="15.75" customHeight="1">
+    <row r="308" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -11843,7 +11920,7 @@
       <c r="Y308" s="1"/>
       <c r="Z308" s="1"/>
     </row>
-    <row r="309" ht="15.75" customHeight="1">
+    <row r="309" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -11871,7 +11948,7 @@
       <c r="Y309" s="1"/>
       <c r="Z309" s="1"/>
     </row>
-    <row r="310" ht="15.75" customHeight="1">
+    <row r="310" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -11899,7 +11976,7 @@
       <c r="Y310" s="1"/>
       <c r="Z310" s="1"/>
     </row>
-    <row r="311" ht="15.75" customHeight="1">
+    <row r="311" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -11927,7 +12004,7 @@
       <c r="Y311" s="1"/>
       <c r="Z311" s="1"/>
     </row>
-    <row r="312" ht="15.75" customHeight="1">
+    <row r="312" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -11955,7 +12032,7 @@
       <c r="Y312" s="1"/>
       <c r="Z312" s="1"/>
     </row>
-    <row r="313" ht="15.75" customHeight="1">
+    <row r="313" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -11983,7 +12060,7 @@
       <c r="Y313" s="1"/>
       <c r="Z313" s="1"/>
     </row>
-    <row r="314" ht="15.75" customHeight="1">
+    <row r="314" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -12011,7 +12088,7 @@
       <c r="Y314" s="1"/>
       <c r="Z314" s="1"/>
     </row>
-    <row r="315" ht="15.75" customHeight="1">
+    <row r="315" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -12039,7 +12116,7 @@
       <c r="Y315" s="1"/>
       <c r="Z315" s="1"/>
     </row>
-    <row r="316" ht="15.75" customHeight="1">
+    <row r="316" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -12067,7 +12144,7 @@
       <c r="Y316" s="1"/>
       <c r="Z316" s="1"/>
     </row>
-    <row r="317" ht="15.75" customHeight="1">
+    <row r="317" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -12095,7 +12172,7 @@
       <c r="Y317" s="1"/>
       <c r="Z317" s="1"/>
     </row>
-    <row r="318" ht="15.75" customHeight="1">
+    <row r="318" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -12123,7 +12200,7 @@
       <c r="Y318" s="1"/>
       <c r="Z318" s="1"/>
     </row>
-    <row r="319" ht="15.75" customHeight="1">
+    <row r="319" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -12151,7 +12228,7 @@
       <c r="Y319" s="1"/>
       <c r="Z319" s="1"/>
     </row>
-    <row r="320" ht="15.75" customHeight="1">
+    <row r="320" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -12179,7 +12256,7 @@
       <c r="Y320" s="1"/>
       <c r="Z320" s="1"/>
     </row>
-    <row r="321" ht="15.75" customHeight="1">
+    <row r="321" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -12207,7 +12284,7 @@
       <c r="Y321" s="1"/>
       <c r="Z321" s="1"/>
     </row>
-    <row r="322" ht="15.75" customHeight="1">
+    <row r="322" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -12235,7 +12312,7 @@
       <c r="Y322" s="1"/>
       <c r="Z322" s="1"/>
     </row>
-    <row r="323" ht="15.75" customHeight="1">
+    <row r="323" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -12263,7 +12340,7 @@
       <c r="Y323" s="1"/>
       <c r="Z323" s="1"/>
     </row>
-    <row r="324" ht="15.75" customHeight="1">
+    <row r="324" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -12291,7 +12368,7 @@
       <c r="Y324" s="1"/>
       <c r="Z324" s="1"/>
     </row>
-    <row r="325" ht="15.75" customHeight="1">
+    <row r="325" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -12319,7 +12396,7 @@
       <c r="Y325" s="1"/>
       <c r="Z325" s="1"/>
     </row>
-    <row r="326" ht="15.75" customHeight="1">
+    <row r="326" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -12347,7 +12424,7 @@
       <c r="Y326" s="1"/>
       <c r="Z326" s="1"/>
     </row>
-    <row r="327" ht="15.75" customHeight="1">
+    <row r="327" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -12375,7 +12452,7 @@
       <c r="Y327" s="1"/>
       <c r="Z327" s="1"/>
     </row>
-    <row r="328" ht="15.75" customHeight="1">
+    <row r="328" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -12403,7 +12480,7 @@
       <c r="Y328" s="1"/>
       <c r="Z328" s="1"/>
     </row>
-    <row r="329" ht="15.75" customHeight="1">
+    <row r="329" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -12431,7 +12508,7 @@
       <c r="Y329" s="1"/>
       <c r="Z329" s="1"/>
     </row>
-    <row r="330" ht="15.75" customHeight="1">
+    <row r="330" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -12459,7 +12536,7 @@
       <c r="Y330" s="1"/>
       <c r="Z330" s="1"/>
     </row>
-    <row r="331" ht="15.75" customHeight="1">
+    <row r="331" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -12487,7 +12564,7 @@
       <c r="Y331" s="1"/>
       <c r="Z331" s="1"/>
     </row>
-    <row r="332" ht="15.75" customHeight="1">
+    <row r="332" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -12515,7 +12592,7 @@
       <c r="Y332" s="1"/>
       <c r="Z332" s="1"/>
     </row>
-    <row r="333" ht="15.75" customHeight="1">
+    <row r="333" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -12543,7 +12620,7 @@
       <c r="Y333" s="1"/>
       <c r="Z333" s="1"/>
     </row>
-    <row r="334" ht="15.75" customHeight="1">
+    <row r="334" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -12571,7 +12648,7 @@
       <c r="Y334" s="1"/>
       <c r="Z334" s="1"/>
     </row>
-    <row r="335" ht="15.75" customHeight="1">
+    <row r="335" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -12599,7 +12676,7 @@
       <c r="Y335" s="1"/>
       <c r="Z335" s="1"/>
     </row>
-    <row r="336" ht="15.75" customHeight="1">
+    <row r="336" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -12627,7 +12704,7 @@
       <c r="Y336" s="1"/>
       <c r="Z336" s="1"/>
     </row>
-    <row r="337" ht="15.75" customHeight="1">
+    <row r="337" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -12655,7 +12732,7 @@
       <c r="Y337" s="1"/>
       <c r="Z337" s="1"/>
     </row>
-    <row r="338" ht="15.75" customHeight="1">
+    <row r="338" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -12683,7 +12760,7 @@
       <c r="Y338" s="1"/>
       <c r="Z338" s="1"/>
     </row>
-    <row r="339" ht="15.75" customHeight="1">
+    <row r="339" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -12711,7 +12788,7 @@
       <c r="Y339" s="1"/>
       <c r="Z339" s="1"/>
     </row>
-    <row r="340" ht="15.75" customHeight="1">
+    <row r="340" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -12739,7 +12816,7 @@
       <c r="Y340" s="1"/>
       <c r="Z340" s="1"/>
     </row>
-    <row r="341" ht="15.75" customHeight="1">
+    <row r="341" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -12767,7 +12844,7 @@
       <c r="Y341" s="1"/>
       <c r="Z341" s="1"/>
     </row>
-    <row r="342" ht="15.75" customHeight="1">
+    <row r="342" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -12795,7 +12872,7 @@
       <c r="Y342" s="1"/>
       <c r="Z342" s="1"/>
     </row>
-    <row r="343" ht="15.75" customHeight="1">
+    <row r="343" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -12823,7 +12900,7 @@
       <c r="Y343" s="1"/>
       <c r="Z343" s="1"/>
     </row>
-    <row r="344" ht="15.75" customHeight="1">
+    <row r="344" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -12851,7 +12928,7 @@
       <c r="Y344" s="1"/>
       <c r="Z344" s="1"/>
     </row>
-    <row r="345" ht="15.75" customHeight="1">
+    <row r="345" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -12879,7 +12956,7 @@
       <c r="Y345" s="1"/>
       <c r="Z345" s="1"/>
     </row>
-    <row r="346" ht="15.75" customHeight="1">
+    <row r="346" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -12907,7 +12984,7 @@
       <c r="Y346" s="1"/>
       <c r="Z346" s="1"/>
     </row>
-    <row r="347" ht="15.75" customHeight="1">
+    <row r="347" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -12935,7 +13012,7 @@
       <c r="Y347" s="1"/>
       <c r="Z347" s="1"/>
     </row>
-    <row r="348" ht="15.75" customHeight="1">
+    <row r="348" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -12963,7 +13040,7 @@
       <c r="Y348" s="1"/>
       <c r="Z348" s="1"/>
     </row>
-    <row r="349" ht="15.75" customHeight="1">
+    <row r="349" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -12991,7 +13068,7 @@
       <c r="Y349" s="1"/>
       <c r="Z349" s="1"/>
     </row>
-    <row r="350" ht="15.75" customHeight="1">
+    <row r="350" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -13019,7 +13096,7 @@
       <c r="Y350" s="1"/>
       <c r="Z350" s="1"/>
     </row>
-    <row r="351" ht="15.75" customHeight="1">
+    <row r="351" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -13047,7 +13124,7 @@
       <c r="Y351" s="1"/>
       <c r="Z351" s="1"/>
     </row>
-    <row r="352" ht="15.75" customHeight="1">
+    <row r="352" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -13075,7 +13152,7 @@
       <c r="Y352" s="1"/>
       <c r="Z352" s="1"/>
     </row>
-    <row r="353" ht="15.75" customHeight="1">
+    <row r="353" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -13103,7 +13180,7 @@
       <c r="Y353" s="1"/>
       <c r="Z353" s="1"/>
     </row>
-    <row r="354" ht="15.75" customHeight="1">
+    <row r="354" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -13131,7 +13208,7 @@
       <c r="Y354" s="1"/>
       <c r="Z354" s="1"/>
     </row>
-    <row r="355" ht="15.75" customHeight="1">
+    <row r="355" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -13159,7 +13236,7 @@
       <c r="Y355" s="1"/>
       <c r="Z355" s="1"/>
     </row>
-    <row r="356" ht="15.75" customHeight="1">
+    <row r="356" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -13187,7 +13264,7 @@
       <c r="Y356" s="1"/>
       <c r="Z356" s="1"/>
     </row>
-    <row r="357" ht="15.75" customHeight="1">
+    <row r="357" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -13215,7 +13292,7 @@
       <c r="Y357" s="1"/>
       <c r="Z357" s="1"/>
     </row>
-    <row r="358" ht="15.75" customHeight="1">
+    <row r="358" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -13243,7 +13320,7 @@
       <c r="Y358" s="1"/>
       <c r="Z358" s="1"/>
     </row>
-    <row r="359" ht="15.75" customHeight="1">
+    <row r="359" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -13271,7 +13348,7 @@
       <c r="Y359" s="1"/>
       <c r="Z359" s="1"/>
     </row>
-    <row r="360" ht="15.75" customHeight="1">
+    <row r="360" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -13299,7 +13376,7 @@
       <c r="Y360" s="1"/>
       <c r="Z360" s="1"/>
     </row>
-    <row r="361" ht="15.75" customHeight="1">
+    <row r="361" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -13327,7 +13404,7 @@
       <c r="Y361" s="1"/>
       <c r="Z361" s="1"/>
     </row>
-    <row r="362" ht="15.75" customHeight="1">
+    <row r="362" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -13355,7 +13432,7 @@
       <c r="Y362" s="1"/>
       <c r="Z362" s="1"/>
     </row>
-    <row r="363" ht="15.75" customHeight="1">
+    <row r="363" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -13383,7 +13460,7 @@
       <c r="Y363" s="1"/>
       <c r="Z363" s="1"/>
     </row>
-    <row r="364" ht="15.75" customHeight="1">
+    <row r="364" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -13411,7 +13488,7 @@
       <c r="Y364" s="1"/>
       <c r="Z364" s="1"/>
     </row>
-    <row r="365" ht="15.75" customHeight="1">
+    <row r="365" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -13439,7 +13516,7 @@
       <c r="Y365" s="1"/>
       <c r="Z365" s="1"/>
     </row>
-    <row r="366" ht="15.75" customHeight="1">
+    <row r="366" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -13467,7 +13544,7 @@
       <c r="Y366" s="1"/>
       <c r="Z366" s="1"/>
     </row>
-    <row r="367" ht="15.75" customHeight="1">
+    <row r="367" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -13495,7 +13572,7 @@
       <c r="Y367" s="1"/>
       <c r="Z367" s="1"/>
     </row>
-    <row r="368" ht="15.75" customHeight="1">
+    <row r="368" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -13523,7 +13600,7 @@
       <c r="Y368" s="1"/>
       <c r="Z368" s="1"/>
     </row>
-    <row r="369" ht="15.75" customHeight="1">
+    <row r="369" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -13551,7 +13628,7 @@
       <c r="Y369" s="1"/>
       <c r="Z369" s="1"/>
     </row>
-    <row r="370" ht="15.75" customHeight="1">
+    <row r="370" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -13579,7 +13656,7 @@
       <c r="Y370" s="1"/>
       <c r="Z370" s="1"/>
     </row>
-    <row r="371" ht="15.75" customHeight="1">
+    <row r="371" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -13607,7 +13684,7 @@
       <c r="Y371" s="1"/>
       <c r="Z371" s="1"/>
     </row>
-    <row r="372" ht="15.75" customHeight="1">
+    <row r="372" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -13635,7 +13712,7 @@
       <c r="Y372" s="1"/>
       <c r="Z372" s="1"/>
     </row>
-    <row r="373" ht="15.75" customHeight="1">
+    <row r="373" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -13663,7 +13740,7 @@
       <c r="Y373" s="1"/>
       <c r="Z373" s="1"/>
     </row>
-    <row r="374" ht="15.75" customHeight="1">
+    <row r="374" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -13691,7 +13768,7 @@
       <c r="Y374" s="1"/>
       <c r="Z374" s="1"/>
     </row>
-    <row r="375" ht="15.75" customHeight="1">
+    <row r="375" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -13719,7 +13796,7 @@
       <c r="Y375" s="1"/>
       <c r="Z375" s="1"/>
     </row>
-    <row r="376" ht="15.75" customHeight="1">
+    <row r="376" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -13747,7 +13824,7 @@
       <c r="Y376" s="1"/>
       <c r="Z376" s="1"/>
     </row>
-    <row r="377" ht="15.75" customHeight="1">
+    <row r="377" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -13775,7 +13852,7 @@
       <c r="Y377" s="1"/>
       <c r="Z377" s="1"/>
     </row>
-    <row r="378" ht="15.75" customHeight="1">
+    <row r="378" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -13803,7 +13880,7 @@
       <c r="Y378" s="1"/>
       <c r="Z378" s="1"/>
     </row>
-    <row r="379" ht="15.75" customHeight="1">
+    <row r="379" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -13831,7 +13908,7 @@
       <c r="Y379" s="1"/>
       <c r="Z379" s="1"/>
     </row>
-    <row r="380" ht="15.75" customHeight="1">
+    <row r="380" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -13859,7 +13936,7 @@
       <c r="Y380" s="1"/>
       <c r="Z380" s="1"/>
     </row>
-    <row r="381" ht="15.75" customHeight="1">
+    <row r="381" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -13887,7 +13964,7 @@
       <c r="Y381" s="1"/>
       <c r="Z381" s="1"/>
     </row>
-    <row r="382" ht="15.75" customHeight="1">
+    <row r="382" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -13915,7 +13992,7 @@
       <c r="Y382" s="1"/>
       <c r="Z382" s="1"/>
     </row>
-    <row r="383" ht="15.75" customHeight="1">
+    <row r="383" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -13943,7 +14020,7 @@
       <c r="Y383" s="1"/>
       <c r="Z383" s="1"/>
     </row>
-    <row r="384" ht="15.75" customHeight="1">
+    <row r="384" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -13971,7 +14048,7 @@
       <c r="Y384" s="1"/>
       <c r="Z384" s="1"/>
     </row>
-    <row r="385" ht="15.75" customHeight="1">
+    <row r="385" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -13999,7 +14076,7 @@
       <c r="Y385" s="1"/>
       <c r="Z385" s="1"/>
     </row>
-    <row r="386" ht="15.75" customHeight="1">
+    <row r="386" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -14027,7 +14104,7 @@
       <c r="Y386" s="1"/>
       <c r="Z386" s="1"/>
     </row>
-    <row r="387" ht="15.75" customHeight="1">
+    <row r="387" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -14055,7 +14132,7 @@
       <c r="Y387" s="1"/>
       <c r="Z387" s="1"/>
     </row>
-    <row r="388" ht="15.75" customHeight="1">
+    <row r="388" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -14083,7 +14160,7 @@
       <c r="Y388" s="1"/>
       <c r="Z388" s="1"/>
     </row>
-    <row r="389" ht="15.75" customHeight="1">
+    <row r="389" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -14111,7 +14188,7 @@
       <c r="Y389" s="1"/>
       <c r="Z389" s="1"/>
     </row>
-    <row r="390" ht="15.75" customHeight="1">
+    <row r="390" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -14139,7 +14216,7 @@
       <c r="Y390" s="1"/>
       <c r="Z390" s="1"/>
     </row>
-    <row r="391" ht="15.75" customHeight="1">
+    <row r="391" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -14167,7 +14244,7 @@
       <c r="Y391" s="1"/>
       <c r="Z391" s="1"/>
     </row>
-    <row r="392" ht="15.75" customHeight="1">
+    <row r="392" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -14195,7 +14272,7 @@
       <c r="Y392" s="1"/>
       <c r="Z392" s="1"/>
     </row>
-    <row r="393" ht="15.75" customHeight="1">
+    <row r="393" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -14223,7 +14300,7 @@
       <c r="Y393" s="1"/>
       <c r="Z393" s="1"/>
     </row>
-    <row r="394" ht="15.75" customHeight="1">
+    <row r="394" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -14251,7 +14328,7 @@
       <c r="Y394" s="1"/>
       <c r="Z394" s="1"/>
     </row>
-    <row r="395" ht="15.75" customHeight="1">
+    <row r="395" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -14279,7 +14356,7 @@
       <c r="Y395" s="1"/>
       <c r="Z395" s="1"/>
     </row>
-    <row r="396" ht="15.75" customHeight="1">
+    <row r="396" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -14307,7 +14384,7 @@
       <c r="Y396" s="1"/>
       <c r="Z396" s="1"/>
     </row>
-    <row r="397" ht="15.75" customHeight="1">
+    <row r="397" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -14335,7 +14412,7 @@
       <c r="Y397" s="1"/>
       <c r="Z397" s="1"/>
     </row>
-    <row r="398" ht="15.75" customHeight="1">
+    <row r="398" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -14363,7 +14440,7 @@
       <c r="Y398" s="1"/>
       <c r="Z398" s="1"/>
     </row>
-    <row r="399" ht="15.75" customHeight="1">
+    <row r="399" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -14391,7 +14468,7 @@
       <c r="Y399" s="1"/>
       <c r="Z399" s="1"/>
     </row>
-    <row r="400" ht="15.75" customHeight="1">
+    <row r="400" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -14419,7 +14496,7 @@
       <c r="Y400" s="1"/>
       <c r="Z400" s="1"/>
     </row>
-    <row r="401" ht="15.75" customHeight="1">
+    <row r="401" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -14447,7 +14524,7 @@
       <c r="Y401" s="1"/>
       <c r="Z401" s="1"/>
     </row>
-    <row r="402" ht="15.75" customHeight="1">
+    <row r="402" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -14475,7 +14552,7 @@
       <c r="Y402" s="1"/>
       <c r="Z402" s="1"/>
     </row>
-    <row r="403" ht="15.75" customHeight="1">
+    <row r="403" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -14503,7 +14580,7 @@
       <c r="Y403" s="1"/>
       <c r="Z403" s="1"/>
     </row>
-    <row r="404" ht="15.75" customHeight="1">
+    <row r="404" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -14531,7 +14608,7 @@
       <c r="Y404" s="1"/>
       <c r="Z404" s="1"/>
     </row>
-    <row r="405" ht="15.75" customHeight="1">
+    <row r="405" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -14559,7 +14636,7 @@
       <c r="Y405" s="1"/>
       <c r="Z405" s="1"/>
     </row>
-    <row r="406" ht="15.75" customHeight="1">
+    <row r="406" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -14587,7 +14664,7 @@
       <c r="Y406" s="1"/>
       <c r="Z406" s="1"/>
     </row>
-    <row r="407" ht="15.75" customHeight="1">
+    <row r="407" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -14615,7 +14692,7 @@
       <c r="Y407" s="1"/>
       <c r="Z407" s="1"/>
     </row>
-    <row r="408" ht="15.75" customHeight="1">
+    <row r="408" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -14643,7 +14720,7 @@
       <c r="Y408" s="1"/>
       <c r="Z408" s="1"/>
     </row>
-    <row r="409" ht="15.75" customHeight="1">
+    <row r="409" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -14671,7 +14748,7 @@
       <c r="Y409" s="1"/>
       <c r="Z409" s="1"/>
     </row>
-    <row r="410" ht="15.75" customHeight="1">
+    <row r="410" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -14699,7 +14776,7 @@
       <c r="Y410" s="1"/>
       <c r="Z410" s="1"/>
     </row>
-    <row r="411" ht="15.75" customHeight="1">
+    <row r="411" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -14727,7 +14804,7 @@
       <c r="Y411" s="1"/>
       <c r="Z411" s="1"/>
     </row>
-    <row r="412" ht="15.75" customHeight="1">
+    <row r="412" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -14755,7 +14832,7 @@
       <c r="Y412" s="1"/>
       <c r="Z412" s="1"/>
     </row>
-    <row r="413" ht="15.75" customHeight="1">
+    <row r="413" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -14783,7 +14860,7 @@
       <c r="Y413" s="1"/>
       <c r="Z413" s="1"/>
     </row>
-    <row r="414" ht="15.75" customHeight="1">
+    <row r="414" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -14811,7 +14888,7 @@
       <c r="Y414" s="1"/>
       <c r="Z414" s="1"/>
     </row>
-    <row r="415" ht="15.75" customHeight="1">
+    <row r="415" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -14839,7 +14916,7 @@
       <c r="Y415" s="1"/>
       <c r="Z415" s="1"/>
     </row>
-    <row r="416" ht="15.75" customHeight="1">
+    <row r="416" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -14867,7 +14944,7 @@
       <c r="Y416" s="1"/>
       <c r="Z416" s="1"/>
     </row>
-    <row r="417" ht="15.75" customHeight="1">
+    <row r="417" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -14895,7 +14972,7 @@
       <c r="Y417" s="1"/>
       <c r="Z417" s="1"/>
     </row>
-    <row r="418" ht="15.75" customHeight="1">
+    <row r="418" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -14923,7 +15000,7 @@
       <c r="Y418" s="1"/>
       <c r="Z418" s="1"/>
     </row>
-    <row r="419" ht="15.75" customHeight="1">
+    <row r="419" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -14951,7 +15028,7 @@
       <c r="Y419" s="1"/>
       <c r="Z419" s="1"/>
     </row>
-    <row r="420" ht="15.75" customHeight="1">
+    <row r="420" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -14979,7 +15056,7 @@
       <c r="Y420" s="1"/>
       <c r="Z420" s="1"/>
     </row>
-    <row r="421" ht="15.75" customHeight="1">
+    <row r="421" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -15007,7 +15084,7 @@
       <c r="Y421" s="1"/>
       <c r="Z421" s="1"/>
     </row>
-    <row r="422" ht="15.75" customHeight="1">
+    <row r="422" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -15035,7 +15112,7 @@
       <c r="Y422" s="1"/>
       <c r="Z422" s="1"/>
     </row>
-    <row r="423" ht="15.75" customHeight="1">
+    <row r="423" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -15063,7 +15140,7 @@
       <c r="Y423" s="1"/>
       <c r="Z423" s="1"/>
     </row>
-    <row r="424" ht="15.75" customHeight="1">
+    <row r="424" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -15091,7 +15168,7 @@
       <c r="Y424" s="1"/>
       <c r="Z424" s="1"/>
     </row>
-    <row r="425" ht="15.75" customHeight="1">
+    <row r="425" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -15119,7 +15196,7 @@
       <c r="Y425" s="1"/>
       <c r="Z425" s="1"/>
     </row>
-    <row r="426" ht="15.75" customHeight="1">
+    <row r="426" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -15147,7 +15224,7 @@
       <c r="Y426" s="1"/>
       <c r="Z426" s="1"/>
     </row>
-    <row r="427" ht="15.75" customHeight="1">
+    <row r="427" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -15175,7 +15252,7 @@
       <c r="Y427" s="1"/>
       <c r="Z427" s="1"/>
     </row>
-    <row r="428" ht="15.75" customHeight="1">
+    <row r="428" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -15203,7 +15280,7 @@
       <c r="Y428" s="1"/>
       <c r="Z428" s="1"/>
     </row>
-    <row r="429" ht="15.75" customHeight="1">
+    <row r="429" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -15231,7 +15308,7 @@
       <c r="Y429" s="1"/>
       <c r="Z429" s="1"/>
     </row>
-    <row r="430" ht="15.75" customHeight="1">
+    <row r="430" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -15259,7 +15336,7 @@
       <c r="Y430" s="1"/>
       <c r="Z430" s="1"/>
     </row>
-    <row r="431" ht="15.75" customHeight="1">
+    <row r="431" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -15287,7 +15364,7 @@
       <c r="Y431" s="1"/>
       <c r="Z431" s="1"/>
     </row>
-    <row r="432" ht="15.75" customHeight="1">
+    <row r="432" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -15315,7 +15392,7 @@
       <c r="Y432" s="1"/>
       <c r="Z432" s="1"/>
     </row>
-    <row r="433" ht="15.75" customHeight="1">
+    <row r="433" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -15343,7 +15420,7 @@
       <c r="Y433" s="1"/>
       <c r="Z433" s="1"/>
     </row>
-    <row r="434" ht="15.75" customHeight="1">
+    <row r="434" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -15371,7 +15448,7 @@
       <c r="Y434" s="1"/>
       <c r="Z434" s="1"/>
     </row>
-    <row r="435" ht="15.75" customHeight="1">
+    <row r="435" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -15399,7 +15476,7 @@
       <c r="Y435" s="1"/>
       <c r="Z435" s="1"/>
     </row>
-    <row r="436" ht="15.75" customHeight="1">
+    <row r="436" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -15427,7 +15504,7 @@
       <c r="Y436" s="1"/>
       <c r="Z436" s="1"/>
     </row>
-    <row r="437" ht="15.75" customHeight="1">
+    <row r="437" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -15455,7 +15532,7 @@
       <c r="Y437" s="1"/>
       <c r="Z437" s="1"/>
     </row>
-    <row r="438" ht="15.75" customHeight="1">
+    <row r="438" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -15483,7 +15560,7 @@
       <c r="Y438" s="1"/>
       <c r="Z438" s="1"/>
     </row>
-    <row r="439" ht="15.75" customHeight="1">
+    <row r="439" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -15511,7 +15588,7 @@
       <c r="Y439" s="1"/>
       <c r="Z439" s="1"/>
     </row>
-    <row r="440" ht="15.75" customHeight="1">
+    <row r="440" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -15539,7 +15616,7 @@
       <c r="Y440" s="1"/>
       <c r="Z440" s="1"/>
     </row>
-    <row r="441" ht="15.75" customHeight="1">
+    <row r="441" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -15567,7 +15644,7 @@
       <c r="Y441" s="1"/>
       <c r="Z441" s="1"/>
     </row>
-    <row r="442" ht="15.75" customHeight="1">
+    <row r="442" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -15595,7 +15672,7 @@
       <c r="Y442" s="1"/>
       <c r="Z442" s="1"/>
     </row>
-    <row r="443" ht="15.75" customHeight="1">
+    <row r="443" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -15623,7 +15700,7 @@
       <c r="Y443" s="1"/>
       <c r="Z443" s="1"/>
     </row>
-    <row r="444" ht="15.75" customHeight="1">
+    <row r="444" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -15651,7 +15728,7 @@
       <c r="Y444" s="1"/>
       <c r="Z444" s="1"/>
     </row>
-    <row r="445" ht="15.75" customHeight="1">
+    <row r="445" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -15679,7 +15756,7 @@
       <c r="Y445" s="1"/>
       <c r="Z445" s="1"/>
     </row>
-    <row r="446" ht="15.75" customHeight="1">
+    <row r="446" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -15707,7 +15784,7 @@
       <c r="Y446" s="1"/>
       <c r="Z446" s="1"/>
     </row>
-    <row r="447" ht="15.75" customHeight="1">
+    <row r="447" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -15735,7 +15812,7 @@
       <c r="Y447" s="1"/>
       <c r="Z447" s="1"/>
     </row>
-    <row r="448" ht="15.75" customHeight="1">
+    <row r="448" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -15763,7 +15840,7 @@
       <c r="Y448" s="1"/>
       <c r="Z448" s="1"/>
     </row>
-    <row r="449" ht="15.75" customHeight="1">
+    <row r="449" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -15791,7 +15868,7 @@
       <c r="Y449" s="1"/>
       <c r="Z449" s="1"/>
     </row>
-    <row r="450" ht="15.75" customHeight="1">
+    <row r="450" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -15819,7 +15896,7 @@
       <c r="Y450" s="1"/>
       <c r="Z450" s="1"/>
     </row>
-    <row r="451" ht="15.75" customHeight="1">
+    <row r="451" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -15847,7 +15924,7 @@
       <c r="Y451" s="1"/>
       <c r="Z451" s="1"/>
     </row>
-    <row r="452" ht="15.75" customHeight="1">
+    <row r="452" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -15875,7 +15952,7 @@
       <c r="Y452" s="1"/>
       <c r="Z452" s="1"/>
     </row>
-    <row r="453" ht="15.75" customHeight="1">
+    <row r="453" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -15903,7 +15980,7 @@
       <c r="Y453" s="1"/>
       <c r="Z453" s="1"/>
     </row>
-    <row r="454" ht="15.75" customHeight="1">
+    <row r="454" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="18"/>
       <c r="B454" s="18"/>
       <c r="C454" s="18"/>
@@ -15931,7 +16008,7 @@
       <c r="Y454" s="18"/>
       <c r="Z454" s="18"/>
     </row>
-    <row r="455" ht="15.75" customHeight="1">
+    <row r="455" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="18"/>
       <c r="B455" s="18"/>
       <c r="C455" s="18"/>
@@ -15959,7 +16036,7 @@
       <c r="Y455" s="18"/>
       <c r="Z455" s="18"/>
     </row>
-    <row r="456" ht="15.75" customHeight="1">
+    <row r="456" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="18"/>
       <c r="B456" s="18"/>
       <c r="C456" s="18"/>
@@ -15987,7 +16064,7 @@
       <c r="Y456" s="18"/>
       <c r="Z456" s="18"/>
     </row>
-    <row r="457" ht="15.75" customHeight="1">
+    <row r="457" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="18"/>
       <c r="B457" s="18"/>
       <c r="C457" s="18"/>
@@ -16015,7 +16092,7 @@
       <c r="Y457" s="18"/>
       <c r="Z457" s="18"/>
     </row>
-    <row r="458" ht="15.75" customHeight="1">
+    <row r="458" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="18"/>
       <c r="B458" s="18"/>
       <c r="C458" s="18"/>
@@ -16043,7 +16120,7 @@
       <c r="Y458" s="18"/>
       <c r="Z458" s="18"/>
     </row>
-    <row r="459" ht="15.75" customHeight="1">
+    <row r="459" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="18"/>
       <c r="B459" s="18"/>
       <c r="C459" s="18"/>
@@ -16071,7 +16148,7 @@
       <c r="Y459" s="18"/>
       <c r="Z459" s="18"/>
     </row>
-    <row r="460" ht="15.75" customHeight="1">
+    <row r="460" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="18"/>
       <c r="B460" s="18"/>
       <c r="C460" s="18"/>
@@ -16099,7 +16176,7 @@
       <c r="Y460" s="18"/>
       <c r="Z460" s="18"/>
     </row>
-    <row r="461" ht="15.75" customHeight="1">
+    <row r="461" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="18"/>
       <c r="B461" s="18"/>
       <c r="C461" s="18"/>
@@ -16127,7 +16204,7 @@
       <c r="Y461" s="18"/>
       <c r="Z461" s="18"/>
     </row>
-    <row r="462" ht="15.75" customHeight="1">
+    <row r="462" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="18"/>
       <c r="B462" s="18"/>
       <c r="C462" s="18"/>
@@ -16155,7 +16232,7 @@
       <c r="Y462" s="18"/>
       <c r="Z462" s="18"/>
     </row>
-    <row r="463" ht="15.75" customHeight="1">
+    <row r="463" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="18"/>
       <c r="B463" s="18"/>
       <c r="C463" s="18"/>
@@ -16183,7 +16260,7 @@
       <c r="Y463" s="18"/>
       <c r="Z463" s="18"/>
     </row>
-    <row r="464" ht="15.75" customHeight="1">
+    <row r="464" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="18"/>
       <c r="B464" s="18"/>
       <c r="C464" s="18"/>
@@ -16211,7 +16288,7 @@
       <c r="Y464" s="18"/>
       <c r="Z464" s="18"/>
     </row>
-    <row r="465" ht="15.75" customHeight="1">
+    <row r="465" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="18"/>
       <c r="B465" s="18"/>
       <c r="C465" s="18"/>
@@ -16239,7 +16316,7 @@
       <c r="Y465" s="18"/>
       <c r="Z465" s="18"/>
     </row>
-    <row r="466" ht="15.75" customHeight="1">
+    <row r="466" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="18"/>
       <c r="B466" s="18"/>
       <c r="C466" s="18"/>
@@ -16267,7 +16344,7 @@
       <c r="Y466" s="18"/>
       <c r="Z466" s="18"/>
     </row>
-    <row r="467" ht="15.75" customHeight="1">
+    <row r="467" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="18"/>
       <c r="B467" s="18"/>
       <c r="C467" s="18"/>
@@ -16295,7 +16372,7 @@
       <c r="Y467" s="18"/>
       <c r="Z467" s="18"/>
     </row>
-    <row r="468" ht="15.75" customHeight="1">
+    <row r="468" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="18"/>
       <c r="B468" s="18"/>
       <c r="C468" s="18"/>
@@ -16323,7 +16400,7 @@
       <c r="Y468" s="18"/>
       <c r="Z468" s="18"/>
     </row>
-    <row r="469" ht="15.75" customHeight="1">
+    <row r="469" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="18"/>
       <c r="B469" s="18"/>
       <c r="C469" s="18"/>
@@ -16351,7 +16428,7 @@
       <c r="Y469" s="18"/>
       <c r="Z469" s="18"/>
     </row>
-    <row r="470" ht="15.75" customHeight="1">
+    <row r="470" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="18"/>
       <c r="B470" s="18"/>
       <c r="C470" s="18"/>
@@ -16379,7 +16456,7 @@
       <c r="Y470" s="18"/>
       <c r="Z470" s="18"/>
     </row>
-    <row r="471" ht="15.75" customHeight="1">
+    <row r="471" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="18"/>
       <c r="B471" s="18"/>
       <c r="C471" s="18"/>
@@ -16407,7 +16484,7 @@
       <c r="Y471" s="18"/>
       <c r="Z471" s="18"/>
     </row>
-    <row r="472" ht="15.75" customHeight="1">
+    <row r="472" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="18"/>
       <c r="B472" s="18"/>
       <c r="C472" s="18"/>
@@ -16435,7 +16512,7 @@
       <c r="Y472" s="18"/>
       <c r="Z472" s="18"/>
     </row>
-    <row r="473" ht="15.75" customHeight="1">
+    <row r="473" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="18"/>
       <c r="B473" s="18"/>
       <c r="C473" s="18"/>
@@ -16463,7 +16540,7 @@
       <c r="Y473" s="18"/>
       <c r="Z473" s="18"/>
     </row>
-    <row r="474" ht="15.75" customHeight="1">
+    <row r="474" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="18"/>
       <c r="B474" s="18"/>
       <c r="C474" s="18"/>
@@ -16491,7 +16568,7 @@
       <c r="Y474" s="18"/>
       <c r="Z474" s="18"/>
     </row>
-    <row r="475" ht="15.75" customHeight="1">
+    <row r="475" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="18"/>
       <c r="B475" s="18"/>
       <c r="C475" s="18"/>
@@ -16519,7 +16596,7 @@
       <c r="Y475" s="18"/>
       <c r="Z475" s="18"/>
     </row>
-    <row r="476" ht="15.75" customHeight="1">
+    <row r="476" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="18"/>
       <c r="B476" s="18"/>
       <c r="C476" s="18"/>
@@ -16547,7 +16624,7 @@
       <c r="Y476" s="18"/>
       <c r="Z476" s="18"/>
     </row>
-    <row r="477" ht="15.75" customHeight="1">
+    <row r="477" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="18"/>
       <c r="B477" s="18"/>
       <c r="C477" s="18"/>
@@ -16575,7 +16652,7 @@
       <c r="Y477" s="18"/>
       <c r="Z477" s="18"/>
     </row>
-    <row r="478" ht="15.75" customHeight="1">
+    <row r="478" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="18"/>
       <c r="B478" s="18"/>
       <c r="C478" s="18"/>
@@ -16603,7 +16680,7 @@
       <c r="Y478" s="18"/>
       <c r="Z478" s="18"/>
     </row>
-    <row r="479" ht="15.75" customHeight="1">
+    <row r="479" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="18"/>
       <c r="B479" s="18"/>
       <c r="C479" s="18"/>
@@ -16631,7 +16708,7 @@
       <c r="Y479" s="18"/>
       <c r="Z479" s="18"/>
     </row>
-    <row r="480" ht="15.75" customHeight="1">
+    <row r="480" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="18"/>
       <c r="B480" s="18"/>
       <c r="C480" s="18"/>
@@ -16659,7 +16736,7 @@
       <c r="Y480" s="18"/>
       <c r="Z480" s="18"/>
     </row>
-    <row r="481" ht="15.75" customHeight="1">
+    <row r="481" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="18"/>
       <c r="B481" s="18"/>
       <c r="C481" s="18"/>
@@ -16687,7 +16764,7 @@
       <c r="Y481" s="18"/>
       <c r="Z481" s="18"/>
     </row>
-    <row r="482" ht="15.75" customHeight="1">
+    <row r="482" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="18"/>
       <c r="B482" s="18"/>
       <c r="C482" s="18"/>
@@ -16715,7 +16792,7 @@
       <c r="Y482" s="18"/>
       <c r="Z482" s="18"/>
     </row>
-    <row r="483" ht="15.75" customHeight="1">
+    <row r="483" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="18"/>
       <c r="B483" s="18"/>
       <c r="C483" s="18"/>
@@ -16743,7 +16820,7 @@
       <c r="Y483" s="18"/>
       <c r="Z483" s="18"/>
     </row>
-    <row r="484" ht="15.75" customHeight="1">
+    <row r="484" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="18"/>
       <c r="B484" s="18"/>
       <c r="C484" s="18"/>
@@ -16771,7 +16848,7 @@
       <c r="Y484" s="18"/>
       <c r="Z484" s="18"/>
     </row>
-    <row r="485" ht="15.75" customHeight="1">
+    <row r="485" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="18"/>
       <c r="B485" s="18"/>
       <c r="C485" s="18"/>
@@ -16799,7 +16876,7 @@
       <c r="Y485" s="18"/>
       <c r="Z485" s="18"/>
     </row>
-    <row r="486" ht="15.75" customHeight="1">
+    <row r="486" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="18"/>
       <c r="B486" s="18"/>
       <c r="C486" s="18"/>
@@ -16827,7 +16904,7 @@
       <c r="Y486" s="18"/>
       <c r="Z486" s="18"/>
     </row>
-    <row r="487" ht="15.75" customHeight="1">
+    <row r="487" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="18"/>
       <c r="B487" s="18"/>
       <c r="C487" s="18"/>
@@ -16855,7 +16932,7 @@
       <c r="Y487" s="18"/>
       <c r="Z487" s="18"/>
     </row>
-    <row r="488" ht="15.75" customHeight="1">
+    <row r="488" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="18"/>
       <c r="B488" s="18"/>
       <c r="C488" s="18"/>
@@ -16883,7 +16960,7 @@
       <c r="Y488" s="18"/>
       <c r="Z488" s="18"/>
     </row>
-    <row r="489" ht="15.75" customHeight="1">
+    <row r="489" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="18"/>
       <c r="B489" s="18"/>
       <c r="C489" s="18"/>
@@ -16911,7 +16988,7 @@
       <c r="Y489" s="18"/>
       <c r="Z489" s="18"/>
     </row>
-    <row r="490" ht="15.75" customHeight="1">
+    <row r="490" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="18"/>
       <c r="B490" s="18"/>
       <c r="C490" s="18"/>
@@ -16939,7 +17016,7 @@
       <c r="Y490" s="18"/>
       <c r="Z490" s="18"/>
     </row>
-    <row r="491" ht="15.75" customHeight="1">
+    <row r="491" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="18"/>
       <c r="B491" s="18"/>
       <c r="C491" s="18"/>
@@ -16967,7 +17044,7 @@
       <c r="Y491" s="18"/>
       <c r="Z491" s="18"/>
     </row>
-    <row r="492" ht="15.75" customHeight="1">
+    <row r="492" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="18"/>
       <c r="B492" s="18"/>
       <c r="C492" s="18"/>
@@ -16995,7 +17072,7 @@
       <c r="Y492" s="18"/>
       <c r="Z492" s="18"/>
     </row>
-    <row r="493" ht="15.75" customHeight="1">
+    <row r="493" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="18"/>
       <c r="B493" s="18"/>
       <c r="C493" s="18"/>
@@ -17023,7 +17100,7 @@
       <c r="Y493" s="18"/>
       <c r="Z493" s="18"/>
     </row>
-    <row r="494" ht="15.75" customHeight="1">
+    <row r="494" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="18"/>
       <c r="B494" s="18"/>
       <c r="C494" s="18"/>
@@ -17051,7 +17128,7 @@
       <c r="Y494" s="18"/>
       <c r="Z494" s="18"/>
     </row>
-    <row r="495" ht="15.75" customHeight="1">
+    <row r="495" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="18"/>
       <c r="B495" s="18"/>
       <c r="C495" s="18"/>
@@ -17079,7 +17156,7 @@
       <c r="Y495" s="18"/>
       <c r="Z495" s="18"/>
     </row>
-    <row r="496" ht="15.75" customHeight="1">
+    <row r="496" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="18"/>
       <c r="B496" s="18"/>
       <c r="C496" s="18"/>
@@ -17107,7 +17184,7 @@
       <c r="Y496" s="18"/>
       <c r="Z496" s="18"/>
     </row>
-    <row r="497" ht="15.75" customHeight="1">
+    <row r="497" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="18"/>
       <c r="B497" s="18"/>
       <c r="C497" s="18"/>
@@ -17135,7 +17212,7 @@
       <c r="Y497" s="18"/>
       <c r="Z497" s="18"/>
     </row>
-    <row r="498" ht="15.75" customHeight="1">
+    <row r="498" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="18"/>
       <c r="B498" s="18"/>
       <c r="C498" s="18"/>
@@ -17163,7 +17240,7 @@
       <c r="Y498" s="18"/>
       <c r="Z498" s="18"/>
     </row>
-    <row r="499" ht="15.75" customHeight="1">
+    <row r="499" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="18"/>
       <c r="B499" s="18"/>
       <c r="C499" s="18"/>
@@ -17191,7 +17268,7 @@
       <c r="Y499" s="18"/>
       <c r="Z499" s="18"/>
     </row>
-    <row r="500" ht="15.75" customHeight="1">
+    <row r="500" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="18"/>
       <c r="B500" s="18"/>
       <c r="C500" s="18"/>
@@ -17219,7 +17296,7 @@
       <c r="Y500" s="18"/>
       <c r="Z500" s="18"/>
     </row>
-    <row r="501" ht="15.75" customHeight="1">
+    <row r="501" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="18"/>
       <c r="B501" s="18"/>
       <c r="C501" s="18"/>
@@ -17247,7 +17324,7 @@
       <c r="Y501" s="18"/>
       <c r="Z501" s="18"/>
     </row>
-    <row r="502" ht="15.75" customHeight="1">
+    <row r="502" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="18"/>
       <c r="B502" s="18"/>
       <c r="C502" s="18"/>
@@ -17275,7 +17352,7 @@
       <c r="Y502" s="18"/>
       <c r="Z502" s="18"/>
     </row>
-    <row r="503" ht="15.75" customHeight="1">
+    <row r="503" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="18"/>
       <c r="B503" s="18"/>
       <c r="C503" s="18"/>
@@ -17303,7 +17380,7 @@
       <c r="Y503" s="18"/>
       <c r="Z503" s="18"/>
     </row>
-    <row r="504" ht="15.75" customHeight="1">
+    <row r="504" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="18"/>
       <c r="B504" s="18"/>
       <c r="C504" s="18"/>
@@ -17331,7 +17408,7 @@
       <c r="Y504" s="18"/>
       <c r="Z504" s="18"/>
     </row>
-    <row r="505" ht="15.75" customHeight="1">
+    <row r="505" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="18"/>
       <c r="B505" s="18"/>
       <c r="C505" s="18"/>
@@ -17359,7 +17436,7 @@
       <c r="Y505" s="18"/>
       <c r="Z505" s="18"/>
     </row>
-    <row r="506" ht="15.75" customHeight="1">
+    <row r="506" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="18"/>
       <c r="B506" s="18"/>
       <c r="C506" s="18"/>
@@ -17387,7 +17464,7 @@
       <c r="Y506" s="18"/>
       <c r="Z506" s="18"/>
     </row>
-    <row r="507" ht="15.75" customHeight="1">
+    <row r="507" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="18"/>
       <c r="B507" s="18"/>
       <c r="C507" s="18"/>
@@ -17415,7 +17492,7 @@
       <c r="Y507" s="18"/>
       <c r="Z507" s="18"/>
     </row>
-    <row r="508" ht="15.75" customHeight="1">
+    <row r="508" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="18"/>
       <c r="B508" s="18"/>
       <c r="C508" s="18"/>
@@ -17443,7 +17520,7 @@
       <c r="Y508" s="18"/>
       <c r="Z508" s="18"/>
     </row>
-    <row r="509" ht="15.75" customHeight="1">
+    <row r="509" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="18"/>
       <c r="B509" s="18"/>
       <c r="C509" s="18"/>
@@ -17471,7 +17548,7 @@
       <c r="Y509" s="18"/>
       <c r="Z509" s="18"/>
     </row>
-    <row r="510" ht="15.75" customHeight="1">
+    <row r="510" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="18"/>
       <c r="B510" s="18"/>
       <c r="C510" s="18"/>
@@ -17499,7 +17576,7 @@
       <c r="Y510" s="18"/>
       <c r="Z510" s="18"/>
     </row>
-    <row r="511" ht="15.75" customHeight="1">
+    <row r="511" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="18"/>
       <c r="B511" s="18"/>
       <c r="C511" s="18"/>
@@ -17527,7 +17604,7 @@
       <c r="Y511" s="18"/>
       <c r="Z511" s="18"/>
     </row>
-    <row r="512" ht="15.75" customHeight="1">
+    <row r="512" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="18"/>
       <c r="B512" s="18"/>
       <c r="C512" s="18"/>
@@ -17555,7 +17632,7 @@
       <c r="Y512" s="18"/>
       <c r="Z512" s="18"/>
     </row>
-    <row r="513" ht="15.75" customHeight="1">
+    <row r="513" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="18"/>
       <c r="B513" s="18"/>
       <c r="C513" s="18"/>
@@ -17583,7 +17660,7 @@
       <c r="Y513" s="18"/>
       <c r="Z513" s="18"/>
     </row>
-    <row r="514" ht="15.75" customHeight="1">
+    <row r="514" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="18"/>
       <c r="B514" s="18"/>
       <c r="C514" s="18"/>
@@ -17611,7 +17688,7 @@
       <c r="Y514" s="18"/>
       <c r="Z514" s="18"/>
     </row>
-    <row r="515" ht="15.75" customHeight="1">
+    <row r="515" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="18"/>
       <c r="B515" s="18"/>
       <c r="C515" s="18"/>
@@ -17639,7 +17716,7 @@
       <c r="Y515" s="18"/>
       <c r="Z515" s="18"/>
     </row>
-    <row r="516" ht="15.75" customHeight="1">
+    <row r="516" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="18"/>
       <c r="B516" s="18"/>
       <c r="C516" s="18"/>
@@ -17667,7 +17744,7 @@
       <c r="Y516" s="18"/>
       <c r="Z516" s="18"/>
     </row>
-    <row r="517" ht="15.75" customHeight="1">
+    <row r="517" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="18"/>
       <c r="B517" s="18"/>
       <c r="C517" s="18"/>
@@ -17695,7 +17772,7 @@
       <c r="Y517" s="18"/>
       <c r="Z517" s="18"/>
     </row>
-    <row r="518" ht="15.75" customHeight="1">
+    <row r="518" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="18"/>
       <c r="B518" s="18"/>
       <c r="C518" s="18"/>
@@ -17723,7 +17800,7 @@
       <c r="Y518" s="18"/>
       <c r="Z518" s="18"/>
     </row>
-    <row r="519" ht="15.75" customHeight="1">
+    <row r="519" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="18"/>
       <c r="B519" s="18"/>
       <c r="C519" s="18"/>
@@ -17751,7 +17828,7 @@
       <c r="Y519" s="18"/>
       <c r="Z519" s="18"/>
     </row>
-    <row r="520" ht="15.75" customHeight="1">
+    <row r="520" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="18"/>
       <c r="B520" s="18"/>
       <c r="C520" s="18"/>
@@ -17779,7 +17856,7 @@
       <c r="Y520" s="18"/>
       <c r="Z520" s="18"/>
     </row>
-    <row r="521" ht="15.75" customHeight="1">
+    <row r="521" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="18"/>
       <c r="B521" s="18"/>
       <c r="C521" s="18"/>
@@ -17807,7 +17884,7 @@
       <c r="Y521" s="18"/>
       <c r="Z521" s="18"/>
     </row>
-    <row r="522" ht="15.75" customHeight="1">
+    <row r="522" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="18"/>
       <c r="B522" s="18"/>
       <c r="C522" s="18"/>
@@ -17835,7 +17912,7 @@
       <c r="Y522" s="18"/>
       <c r="Z522" s="18"/>
     </row>
-    <row r="523" ht="15.75" customHeight="1">
+    <row r="523" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="18"/>
       <c r="B523" s="18"/>
       <c r="C523" s="18"/>
@@ -17863,7 +17940,7 @@
       <c r="Y523" s="18"/>
       <c r="Z523" s="18"/>
     </row>
-    <row r="524" ht="15.75" customHeight="1">
+    <row r="524" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="18"/>
       <c r="B524" s="18"/>
       <c r="C524" s="18"/>
@@ -17891,7 +17968,7 @@
       <c r="Y524" s="18"/>
       <c r="Z524" s="18"/>
     </row>
-    <row r="525" ht="15.75" customHeight="1">
+    <row r="525" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="18"/>
       <c r="B525" s="18"/>
       <c r="C525" s="18"/>
@@ -17919,7 +17996,7 @@
       <c r="Y525" s="18"/>
       <c r="Z525" s="18"/>
     </row>
-    <row r="526" ht="15.75" customHeight="1">
+    <row r="526" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="18"/>
       <c r="B526" s="18"/>
       <c r="C526" s="18"/>
@@ -17947,7 +18024,7 @@
       <c r="Y526" s="18"/>
       <c r="Z526" s="18"/>
     </row>
-    <row r="527" ht="15.75" customHeight="1">
+    <row r="527" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="18"/>
       <c r="B527" s="18"/>
       <c r="C527" s="18"/>
@@ -17975,7 +18052,7 @@
       <c r="Y527" s="18"/>
       <c r="Z527" s="18"/>
     </row>
-    <row r="528" ht="15.75" customHeight="1">
+    <row r="528" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="18"/>
       <c r="B528" s="18"/>
       <c r="C528" s="18"/>
@@ -18003,7 +18080,7 @@
       <c r="Y528" s="18"/>
       <c r="Z528" s="18"/>
     </row>
-    <row r="529" ht="15.75" customHeight="1">
+    <row r="529" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="18"/>
       <c r="B529" s="18"/>
       <c r="C529" s="18"/>
@@ -18031,7 +18108,7 @@
       <c r="Y529" s="18"/>
       <c r="Z529" s="18"/>
     </row>
-    <row r="530" ht="15.75" customHeight="1">
+    <row r="530" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="18"/>
       <c r="B530" s="18"/>
       <c r="C530" s="18"/>
@@ -18059,7 +18136,7 @@
       <c r="Y530" s="18"/>
       <c r="Z530" s="18"/>
     </row>
-    <row r="531" ht="15.75" customHeight="1">
+    <row r="531" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="18"/>
       <c r="B531" s="18"/>
       <c r="C531" s="18"/>
@@ -18087,7 +18164,7 @@
       <c r="Y531" s="18"/>
       <c r="Z531" s="18"/>
     </row>
-    <row r="532" ht="15.75" customHeight="1">
+    <row r="532" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="18"/>
       <c r="B532" s="18"/>
       <c r="C532" s="18"/>
@@ -18115,7 +18192,7 @@
       <c r="Y532" s="18"/>
       <c r="Z532" s="18"/>
     </row>
-    <row r="533" ht="15.75" customHeight="1">
+    <row r="533" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="18"/>
       <c r="B533" s="18"/>
       <c r="C533" s="18"/>
@@ -18143,7 +18220,7 @@
       <c r="Y533" s="18"/>
       <c r="Z533" s="18"/>
     </row>
-    <row r="534" ht="15.75" customHeight="1">
+    <row r="534" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="18"/>
       <c r="B534" s="18"/>
       <c r="C534" s="18"/>
@@ -18171,7 +18248,7 @@
       <c r="Y534" s="18"/>
       <c r="Z534" s="18"/>
     </row>
-    <row r="535" ht="15.75" customHeight="1">
+    <row r="535" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="18"/>
       <c r="B535" s="18"/>
       <c r="C535" s="18"/>
@@ -18199,7 +18276,7 @@
       <c r="Y535" s="18"/>
       <c r="Z535" s="18"/>
     </row>
-    <row r="536" ht="15.75" customHeight="1">
+    <row r="536" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="18"/>
       <c r="B536" s="18"/>
       <c r="C536" s="18"/>
@@ -18227,7 +18304,7 @@
       <c r="Y536" s="18"/>
       <c r="Z536" s="18"/>
     </row>
-    <row r="537" ht="15.75" customHeight="1">
+    <row r="537" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="18"/>
       <c r="B537" s="18"/>
       <c r="C537" s="18"/>
@@ -18255,7 +18332,7 @@
       <c r="Y537" s="18"/>
       <c r="Z537" s="18"/>
     </row>
-    <row r="538" ht="15.75" customHeight="1">
+    <row r="538" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="18"/>
       <c r="B538" s="18"/>
       <c r="C538" s="18"/>
@@ -18283,7 +18360,7 @@
       <c r="Y538" s="18"/>
       <c r="Z538" s="18"/>
     </row>
-    <row r="539" ht="15.75" customHeight="1">
+    <row r="539" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="18"/>
       <c r="B539" s="18"/>
       <c r="C539" s="18"/>
@@ -18311,7 +18388,7 @@
       <c r="Y539" s="18"/>
       <c r="Z539" s="18"/>
     </row>
-    <row r="540" ht="15.75" customHeight="1">
+    <row r="540" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="18"/>
       <c r="B540" s="18"/>
       <c r="C540" s="18"/>
@@ -18339,7 +18416,7 @@
       <c r="Y540" s="18"/>
       <c r="Z540" s="18"/>
     </row>
-    <row r="541" ht="15.75" customHeight="1">
+    <row r="541" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="18"/>
       <c r="B541" s="18"/>
       <c r="C541" s="18"/>
@@ -18367,7 +18444,7 @@
       <c r="Y541" s="18"/>
       <c r="Z541" s="18"/>
     </row>
-    <row r="542" ht="15.75" customHeight="1">
+    <row r="542" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="18"/>
       <c r="B542" s="18"/>
       <c r="C542" s="18"/>
@@ -18395,7 +18472,7 @@
       <c r="Y542" s="18"/>
       <c r="Z542" s="18"/>
     </row>
-    <row r="543" ht="15.75" customHeight="1">
+    <row r="543" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="18"/>
       <c r="B543" s="18"/>
       <c r="C543" s="18"/>
@@ -18423,7 +18500,7 @@
       <c r="Y543" s="18"/>
       <c r="Z543" s="18"/>
     </row>
-    <row r="544" ht="15.75" customHeight="1">
+    <row r="544" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="18"/>
       <c r="B544" s="18"/>
       <c r="C544" s="18"/>
@@ -18451,7 +18528,7 @@
       <c r="Y544" s="18"/>
       <c r="Z544" s="18"/>
     </row>
-    <row r="545" ht="15.75" customHeight="1">
+    <row r="545" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="18"/>
       <c r="B545" s="18"/>
       <c r="C545" s="18"/>
@@ -18479,7 +18556,7 @@
       <c r="Y545" s="18"/>
       <c r="Z545" s="18"/>
     </row>
-    <row r="546" ht="15.75" customHeight="1">
+    <row r="546" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="18"/>
       <c r="B546" s="18"/>
       <c r="C546" s="18"/>
@@ -18507,7 +18584,7 @@
       <c r="Y546" s="18"/>
       <c r="Z546" s="18"/>
     </row>
-    <row r="547" ht="15.75" customHeight="1">
+    <row r="547" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="18"/>
       <c r="B547" s="18"/>
       <c r="C547" s="18"/>
@@ -18535,7 +18612,7 @@
       <c r="Y547" s="18"/>
       <c r="Z547" s="18"/>
     </row>
-    <row r="548" ht="15.75" customHeight="1">
+    <row r="548" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="18"/>
       <c r="B548" s="18"/>
       <c r="C548" s="18"/>
@@ -18563,7 +18640,7 @@
       <c r="Y548" s="18"/>
       <c r="Z548" s="18"/>
     </row>
-    <row r="549" ht="15.75" customHeight="1">
+    <row r="549" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="18"/>
       <c r="B549" s="18"/>
       <c r="C549" s="18"/>
@@ -18591,7 +18668,7 @@
       <c r="Y549" s="18"/>
       <c r="Z549" s="18"/>
     </row>
-    <row r="550" ht="15.75" customHeight="1">
+    <row r="550" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="18"/>
       <c r="B550" s="18"/>
       <c r="C550" s="18"/>
@@ -18619,7 +18696,7 @@
       <c r="Y550" s="18"/>
       <c r="Z550" s="18"/>
     </row>
-    <row r="551" ht="15.75" customHeight="1">
+    <row r="551" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="18"/>
       <c r="B551" s="18"/>
       <c r="C551" s="18"/>
@@ -18647,7 +18724,7 @@
       <c r="Y551" s="18"/>
       <c r="Z551" s="18"/>
     </row>
-    <row r="552" ht="15.75" customHeight="1">
+    <row r="552" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="18"/>
       <c r="B552" s="18"/>
       <c r="C552" s="18"/>
@@ -18675,7 +18752,7 @@
       <c r="Y552" s="18"/>
       <c r="Z552" s="18"/>
     </row>
-    <row r="553" ht="15.75" customHeight="1">
+    <row r="553" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="18"/>
       <c r="B553" s="18"/>
       <c r="C553" s="18"/>
@@ -18703,7 +18780,7 @@
       <c r="Y553" s="18"/>
       <c r="Z553" s="18"/>
     </row>
-    <row r="554" ht="15.75" customHeight="1">
+    <row r="554" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="18"/>
       <c r="B554" s="18"/>
       <c r="C554" s="18"/>
@@ -18731,7 +18808,7 @@
       <c r="Y554" s="18"/>
       <c r="Z554" s="18"/>
     </row>
-    <row r="555" ht="15.75" customHeight="1">
+    <row r="555" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="18"/>
       <c r="B555" s="18"/>
       <c r="C555" s="18"/>
@@ -18759,7 +18836,7 @@
       <c r="Y555" s="18"/>
       <c r="Z555" s="18"/>
     </row>
-    <row r="556" ht="15.75" customHeight="1">
+    <row r="556" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="18"/>
       <c r="B556" s="18"/>
       <c r="C556" s="18"/>
@@ -18787,7 +18864,7 @@
       <c r="Y556" s="18"/>
       <c r="Z556" s="18"/>
     </row>
-    <row r="557" ht="15.75" customHeight="1">
+    <row r="557" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="18"/>
       <c r="B557" s="18"/>
       <c r="C557" s="18"/>
@@ -18815,7 +18892,7 @@
       <c r="Y557" s="18"/>
       <c r="Z557" s="18"/>
     </row>
-    <row r="558" ht="15.75" customHeight="1">
+    <row r="558" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="18"/>
       <c r="B558" s="18"/>
       <c r="C558" s="18"/>
@@ -18843,7 +18920,7 @@
       <c r="Y558" s="18"/>
       <c r="Z558" s="18"/>
     </row>
-    <row r="559" ht="15.75" customHeight="1">
+    <row r="559" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="18"/>
       <c r="B559" s="18"/>
       <c r="C559" s="18"/>
@@ -18871,7 +18948,7 @@
       <c r="Y559" s="18"/>
       <c r="Z559" s="18"/>
     </row>
-    <row r="560" ht="15.75" customHeight="1">
+    <row r="560" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="18"/>
       <c r="B560" s="18"/>
       <c r="C560" s="18"/>
@@ -18899,7 +18976,7 @@
       <c r="Y560" s="18"/>
       <c r="Z560" s="18"/>
     </row>
-    <row r="561" ht="15.75" customHeight="1">
+    <row r="561" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="18"/>
       <c r="B561" s="18"/>
       <c r="C561" s="18"/>
@@ -18927,7 +19004,7 @@
       <c r="Y561" s="18"/>
       <c r="Z561" s="18"/>
     </row>
-    <row r="562" ht="15.75" customHeight="1">
+    <row r="562" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="18"/>
       <c r="B562" s="18"/>
       <c r="C562" s="18"/>
@@ -18955,7 +19032,7 @@
       <c r="Y562" s="18"/>
       <c r="Z562" s="18"/>
     </row>
-    <row r="563" ht="15.75" customHeight="1">
+    <row r="563" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="18"/>
       <c r="B563" s="18"/>
       <c r="C563" s="18"/>
@@ -18983,7 +19060,7 @@
       <c r="Y563" s="18"/>
       <c r="Z563" s="18"/>
     </row>
-    <row r="564" ht="15.75" customHeight="1">
+    <row r="564" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="18"/>
       <c r="B564" s="18"/>
       <c r="C564" s="18"/>
@@ -19011,7 +19088,7 @@
       <c r="Y564" s="18"/>
       <c r="Z564" s="18"/>
     </row>
-    <row r="565" ht="15.75" customHeight="1">
+    <row r="565" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="18"/>
       <c r="B565" s="18"/>
       <c r="C565" s="18"/>
@@ -19039,7 +19116,7 @@
       <c r="Y565" s="18"/>
       <c r="Z565" s="18"/>
     </row>
-    <row r="566" ht="15.75" customHeight="1">
+    <row r="566" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="18"/>
       <c r="B566" s="18"/>
       <c r="C566" s="18"/>
@@ -19067,7 +19144,7 @@
       <c r="Y566" s="18"/>
       <c r="Z566" s="18"/>
     </row>
-    <row r="567" ht="15.75" customHeight="1">
+    <row r="567" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="18"/>
       <c r="B567" s="18"/>
       <c r="C567" s="18"/>
@@ -19095,7 +19172,7 @@
       <c r="Y567" s="18"/>
       <c r="Z567" s="18"/>
     </row>
-    <row r="568" ht="15.75" customHeight="1">
+    <row r="568" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="18"/>
       <c r="B568" s="18"/>
       <c r="C568" s="18"/>
@@ -19123,7 +19200,7 @@
       <c r="Y568" s="18"/>
       <c r="Z568" s="18"/>
     </row>
-    <row r="569" ht="15.75" customHeight="1">
+    <row r="569" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="18"/>
       <c r="B569" s="18"/>
       <c r="C569" s="18"/>
@@ -19151,7 +19228,7 @@
       <c r="Y569" s="18"/>
       <c r="Z569" s="18"/>
     </row>
-    <row r="570" ht="15.75" customHeight="1">
+    <row r="570" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="18"/>
       <c r="B570" s="18"/>
       <c r="C570" s="18"/>
@@ -19179,7 +19256,7 @@
       <c r="Y570" s="18"/>
       <c r="Z570" s="18"/>
     </row>
-    <row r="571" ht="15.75" customHeight="1">
+    <row r="571" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="18"/>
       <c r="B571" s="18"/>
       <c r="C571" s="18"/>
@@ -19207,7 +19284,7 @@
       <c r="Y571" s="18"/>
       <c r="Z571" s="18"/>
     </row>
-    <row r="572" ht="15.75" customHeight="1">
+    <row r="572" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="18"/>
       <c r="B572" s="18"/>
       <c r="C572" s="18"/>
@@ -19235,7 +19312,7 @@
       <c r="Y572" s="18"/>
       <c r="Z572" s="18"/>
     </row>
-    <row r="573" ht="15.75" customHeight="1">
+    <row r="573" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="18"/>
       <c r="B573" s="18"/>
       <c r="C573" s="18"/>
@@ -19263,7 +19340,7 @@
       <c r="Y573" s="18"/>
       <c r="Z573" s="18"/>
     </row>
-    <row r="574" ht="15.75" customHeight="1">
+    <row r="574" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="18"/>
       <c r="B574" s="18"/>
       <c r="C574" s="18"/>
@@ -19291,7 +19368,7 @@
       <c r="Y574" s="18"/>
       <c r="Z574" s="18"/>
     </row>
-    <row r="575" ht="15.75" customHeight="1">
+    <row r="575" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="18"/>
       <c r="B575" s="18"/>
       <c r="C575" s="18"/>
@@ -19319,7 +19396,7 @@
       <c r="Y575" s="18"/>
       <c r="Z575" s="18"/>
     </row>
-    <row r="576" ht="15.75" customHeight="1">
+    <row r="576" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="18"/>
       <c r="B576" s="18"/>
       <c r="C576" s="18"/>
@@ -19347,7 +19424,7 @@
       <c r="Y576" s="18"/>
       <c r="Z576" s="18"/>
     </row>
-    <row r="577" ht="15.75" customHeight="1">
+    <row r="577" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="18"/>
       <c r="B577" s="18"/>
       <c r="C577" s="18"/>
@@ -19375,7 +19452,7 @@
       <c r="Y577" s="18"/>
       <c r="Z577" s="18"/>
     </row>
-    <row r="578" ht="15.75" customHeight="1">
+    <row r="578" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="18"/>
       <c r="B578" s="18"/>
       <c r="C578" s="18"/>
@@ -19403,7 +19480,7 @@
       <c r="Y578" s="18"/>
       <c r="Z578" s="18"/>
     </row>
-    <row r="579" ht="15.75" customHeight="1">
+    <row r="579" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="18"/>
       <c r="B579" s="18"/>
       <c r="C579" s="18"/>
@@ -19431,7 +19508,7 @@
       <c r="Y579" s="18"/>
       <c r="Z579" s="18"/>
     </row>
-    <row r="580" ht="15.75" customHeight="1">
+    <row r="580" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="18"/>
       <c r="B580" s="18"/>
       <c r="C580" s="18"/>
@@ -19459,7 +19536,7 @@
       <c r="Y580" s="18"/>
       <c r="Z580" s="18"/>
     </row>
-    <row r="581" ht="15.75" customHeight="1">
+    <row r="581" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="18"/>
       <c r="B581" s="18"/>
       <c r="C581" s="18"/>
@@ -19487,7 +19564,7 @@
       <c r="Y581" s="18"/>
       <c r="Z581" s="18"/>
     </row>
-    <row r="582" ht="15.75" customHeight="1">
+    <row r="582" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="18"/>
       <c r="B582" s="18"/>
       <c r="C582" s="18"/>
@@ -19515,7 +19592,7 @@
       <c r="Y582" s="18"/>
       <c r="Z582" s="18"/>
     </row>
-    <row r="583" ht="15.75" customHeight="1">
+    <row r="583" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="18"/>
       <c r="B583" s="18"/>
       <c r="C583" s="18"/>
@@ -19543,7 +19620,7 @@
       <c r="Y583" s="18"/>
       <c r="Z583" s="18"/>
     </row>
-    <row r="584" ht="15.75" customHeight="1">
+    <row r="584" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="18"/>
       <c r="B584" s="18"/>
       <c r="C584" s="18"/>
@@ -19571,7 +19648,7 @@
       <c r="Y584" s="18"/>
       <c r="Z584" s="18"/>
     </row>
-    <row r="585" ht="15.75" customHeight="1">
+    <row r="585" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="18"/>
       <c r="B585" s="18"/>
       <c r="C585" s="18"/>
@@ -19599,7 +19676,7 @@
       <c r="Y585" s="18"/>
       <c r="Z585" s="18"/>
     </row>
-    <row r="586" ht="15.75" customHeight="1">
+    <row r="586" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="18"/>
       <c r="B586" s="18"/>
       <c r="C586" s="18"/>
@@ -19627,7 +19704,7 @@
       <c r="Y586" s="18"/>
       <c r="Z586" s="18"/>
     </row>
-    <row r="587" ht="15.75" customHeight="1">
+    <row r="587" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="18"/>
       <c r="B587" s="18"/>
       <c r="C587" s="18"/>
@@ -19655,7 +19732,7 @@
       <c r="Y587" s="18"/>
       <c r="Z587" s="18"/>
     </row>
-    <row r="588" ht="15.75" customHeight="1">
+    <row r="588" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="18"/>
       <c r="B588" s="18"/>
       <c r="C588" s="18"/>
@@ -19683,7 +19760,7 @@
       <c r="Y588" s="18"/>
       <c r="Z588" s="18"/>
     </row>
-    <row r="589" ht="15.75" customHeight="1">
+    <row r="589" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="18"/>
       <c r="B589" s="18"/>
       <c r="C589" s="18"/>
@@ -19711,7 +19788,7 @@
       <c r="Y589" s="18"/>
       <c r="Z589" s="18"/>
     </row>
-    <row r="590" ht="15.75" customHeight="1">
+    <row r="590" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="18"/>
       <c r="B590" s="18"/>
       <c r="C590" s="18"/>
@@ -19739,7 +19816,7 @@
       <c r="Y590" s="18"/>
       <c r="Z590" s="18"/>
     </row>
-    <row r="591" ht="15.75" customHeight="1">
+    <row r="591" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="18"/>
       <c r="B591" s="18"/>
       <c r="C591" s="18"/>
@@ -19767,7 +19844,7 @@
       <c r="Y591" s="18"/>
       <c r="Z591" s="18"/>
     </row>
-    <row r="592" ht="15.75" customHeight="1">
+    <row r="592" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="18"/>
       <c r="B592" s="18"/>
       <c r="C592" s="18"/>
@@ -19795,7 +19872,7 @@
       <c r="Y592" s="18"/>
       <c r="Z592" s="18"/>
     </row>
-    <row r="593" ht="15.75" customHeight="1">
+    <row r="593" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="18"/>
       <c r="B593" s="18"/>
       <c r="C593" s="18"/>
@@ -19823,7 +19900,7 @@
       <c r="Y593" s="18"/>
       <c r="Z593" s="18"/>
     </row>
-    <row r="594" ht="15.75" customHeight="1">
+    <row r="594" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="18"/>
       <c r="B594" s="18"/>
       <c r="C594" s="18"/>
@@ -19851,7 +19928,7 @@
       <c r="Y594" s="18"/>
       <c r="Z594" s="18"/>
     </row>
-    <row r="595" ht="15.75" customHeight="1">
+    <row r="595" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="18"/>
       <c r="B595" s="18"/>
       <c r="C595" s="18"/>
@@ -19879,7 +19956,7 @@
       <c r="Y595" s="18"/>
       <c r="Z595" s="18"/>
     </row>
-    <row r="596" ht="15.75" customHeight="1">
+    <row r="596" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="18"/>
       <c r="B596" s="18"/>
       <c r="C596" s="18"/>
@@ -19907,7 +19984,7 @@
       <c r="Y596" s="18"/>
       <c r="Z596" s="18"/>
     </row>
-    <row r="597" ht="15.75" customHeight="1">
+    <row r="597" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="18"/>
       <c r="B597" s="18"/>
       <c r="C597" s="18"/>
@@ -19935,7 +20012,7 @@
       <c r="Y597" s="18"/>
       <c r="Z597" s="18"/>
     </row>
-    <row r="598" ht="15.75" customHeight="1">
+    <row r="598" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="18"/>
       <c r="B598" s="18"/>
       <c r="C598" s="18"/>
@@ -19963,7 +20040,7 @@
       <c r="Y598" s="18"/>
       <c r="Z598" s="18"/>
     </row>
-    <row r="599" ht="15.75" customHeight="1">
+    <row r="599" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="18"/>
       <c r="B599" s="18"/>
       <c r="C599" s="18"/>
@@ -19991,7 +20068,7 @@
       <c r="Y599" s="18"/>
       <c r="Z599" s="18"/>
     </row>
-    <row r="600" ht="15.75" customHeight="1">
+    <row r="600" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="18"/>
       <c r="B600" s="18"/>
       <c r="C600" s="18"/>
@@ -20019,7 +20096,7 @@
       <c r="Y600" s="18"/>
       <c r="Z600" s="18"/>
     </row>
-    <row r="601" ht="15.75" customHeight="1">
+    <row r="601" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="18"/>
       <c r="B601" s="18"/>
       <c r="C601" s="18"/>
@@ -20047,7 +20124,7 @@
       <c r="Y601" s="18"/>
       <c r="Z601" s="18"/>
     </row>
-    <row r="602" ht="15.75" customHeight="1">
+    <row r="602" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="18"/>
       <c r="B602" s="18"/>
       <c r="C602" s="18"/>
@@ -20075,7 +20152,7 @@
       <c r="Y602" s="18"/>
       <c r="Z602" s="18"/>
     </row>
-    <row r="603" ht="15.75" customHeight="1">
+    <row r="603" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="18"/>
       <c r="B603" s="18"/>
       <c r="C603" s="18"/>
@@ -20103,7 +20180,7 @@
       <c r="Y603" s="18"/>
       <c r="Z603" s="18"/>
     </row>
-    <row r="604" ht="15.75" customHeight="1">
+    <row r="604" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="18"/>
       <c r="B604" s="18"/>
       <c r="C604" s="18"/>
@@ -20131,7 +20208,7 @@
       <c r="Y604" s="18"/>
       <c r="Z604" s="18"/>
     </row>
-    <row r="605" ht="15.75" customHeight="1">
+    <row r="605" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="18"/>
       <c r="B605" s="18"/>
       <c r="C605" s="18"/>
@@ -20159,7 +20236,7 @@
       <c r="Y605" s="18"/>
       <c r="Z605" s="18"/>
     </row>
-    <row r="606" ht="15.75" customHeight="1">
+    <row r="606" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="18"/>
       <c r="B606" s="18"/>
       <c r="C606" s="18"/>
@@ -20187,7 +20264,7 @@
       <c r="Y606" s="18"/>
       <c r="Z606" s="18"/>
     </row>
-    <row r="607" ht="15.75" customHeight="1">
+    <row r="607" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="18"/>
       <c r="B607" s="18"/>
       <c r="C607" s="18"/>
@@ -20215,7 +20292,7 @@
       <c r="Y607" s="18"/>
       <c r="Z607" s="18"/>
     </row>
-    <row r="608" ht="15.75" customHeight="1">
+    <row r="608" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="18"/>
       <c r="B608" s="18"/>
       <c r="C608" s="18"/>
@@ -20243,7 +20320,7 @@
       <c r="Y608" s="18"/>
       <c r="Z608" s="18"/>
     </row>
-    <row r="609" ht="15.75" customHeight="1">
+    <row r="609" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="18"/>
       <c r="B609" s="18"/>
       <c r="C609" s="18"/>
@@ -20271,7 +20348,7 @@
       <c r="Y609" s="18"/>
       <c r="Z609" s="18"/>
     </row>
-    <row r="610" ht="15.75" customHeight="1">
+    <row r="610" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="18"/>
       <c r="B610" s="18"/>
       <c r="C610" s="18"/>
@@ -20299,7 +20376,7 @@
       <c r="Y610" s="18"/>
       <c r="Z610" s="18"/>
     </row>
-    <row r="611" ht="15.75" customHeight="1">
+    <row r="611" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="18"/>
       <c r="B611" s="18"/>
       <c r="C611" s="18"/>
@@ -20327,7 +20404,7 @@
       <c r="Y611" s="18"/>
       <c r="Z611" s="18"/>
     </row>
-    <row r="612" ht="15.75" customHeight="1">
+    <row r="612" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="18"/>
       <c r="B612" s="18"/>
       <c r="C612" s="18"/>
@@ -20355,7 +20432,7 @@
       <c r="Y612" s="18"/>
       <c r="Z612" s="18"/>
     </row>
-    <row r="613" ht="15.75" customHeight="1">
+    <row r="613" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="18"/>
       <c r="B613" s="18"/>
       <c r="C613" s="18"/>
@@ -20383,7 +20460,7 @@
       <c r="Y613" s="18"/>
       <c r="Z613" s="18"/>
     </row>
-    <row r="614" ht="15.75" customHeight="1">
+    <row r="614" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="18"/>
       <c r="B614" s="18"/>
       <c r="C614" s="18"/>
@@ -20411,7 +20488,7 @@
       <c r="Y614" s="18"/>
       <c r="Z614" s="18"/>
     </row>
-    <row r="615" ht="15.75" customHeight="1">
+    <row r="615" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="18"/>
       <c r="B615" s="18"/>
       <c r="C615" s="18"/>
@@ -20439,7 +20516,7 @@
       <c r="Y615" s="18"/>
       <c r="Z615" s="18"/>
     </row>
-    <row r="616" ht="15.75" customHeight="1">
+    <row r="616" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="18"/>
       <c r="B616" s="18"/>
       <c r="C616" s="18"/>
@@ -20467,7 +20544,7 @@
       <c r="Y616" s="18"/>
       <c r="Z616" s="18"/>
     </row>
-    <row r="617" ht="15.75" customHeight="1">
+    <row r="617" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="18"/>
       <c r="B617" s="18"/>
       <c r="C617" s="18"/>
@@ -20495,7 +20572,7 @@
       <c r="Y617" s="18"/>
       <c r="Z617" s="18"/>
     </row>
-    <row r="618" ht="15.75" customHeight="1">
+    <row r="618" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="18"/>
       <c r="B618" s="18"/>
       <c r="C618" s="18"/>
@@ -20523,7 +20600,7 @@
       <c r="Y618" s="18"/>
       <c r="Z618" s="18"/>
     </row>
-    <row r="619" ht="15.75" customHeight="1">
+    <row r="619" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="18"/>
       <c r="B619" s="18"/>
       <c r="C619" s="18"/>
@@ -20551,7 +20628,7 @@
       <c r="Y619" s="18"/>
       <c r="Z619" s="18"/>
     </row>
-    <row r="620" ht="15.75" customHeight="1">
+    <row r="620" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="18"/>
       <c r="B620" s="18"/>
       <c r="C620" s="18"/>
@@ -20579,7 +20656,7 @@
       <c r="Y620" s="18"/>
       <c r="Z620" s="18"/>
     </row>
-    <row r="621" ht="15.75" customHeight="1">
+    <row r="621" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="18"/>
       <c r="B621" s="18"/>
       <c r="C621" s="18"/>
@@ -20607,7 +20684,7 @@
       <c r="Y621" s="18"/>
       <c r="Z621" s="18"/>
     </row>
-    <row r="622" ht="15.75" customHeight="1">
+    <row r="622" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="18"/>
       <c r="B622" s="18"/>
       <c r="C622" s="18"/>
@@ -20635,7 +20712,7 @@
       <c r="Y622" s="18"/>
       <c r="Z622" s="18"/>
     </row>
-    <row r="623" ht="15.75" customHeight="1">
+    <row r="623" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="18"/>
       <c r="B623" s="18"/>
       <c r="C623" s="18"/>
@@ -20663,7 +20740,7 @@
       <c r="Y623" s="18"/>
       <c r="Z623" s="18"/>
     </row>
-    <row r="624" ht="15.75" customHeight="1">
+    <row r="624" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="18"/>
       <c r="B624" s="18"/>
       <c r="C624" s="18"/>
@@ -20691,7 +20768,7 @@
       <c r="Y624" s="18"/>
       <c r="Z624" s="18"/>
     </row>
-    <row r="625" ht="15.75" customHeight="1">
+    <row r="625" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="18"/>
       <c r="B625" s="18"/>
       <c r="C625" s="18"/>
@@ -20719,7 +20796,7 @@
       <c r="Y625" s="18"/>
       <c r="Z625" s="18"/>
     </row>
-    <row r="626" ht="15.75" customHeight="1">
+    <row r="626" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="18"/>
       <c r="B626" s="18"/>
       <c r="C626" s="18"/>
@@ -20747,7 +20824,7 @@
       <c r="Y626" s="18"/>
       <c r="Z626" s="18"/>
     </row>
-    <row r="627" ht="15.75" customHeight="1">
+    <row r="627" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="18"/>
       <c r="B627" s="18"/>
       <c r="C627" s="18"/>
@@ -20775,7 +20852,7 @@
       <c r="Y627" s="18"/>
       <c r="Z627" s="18"/>
     </row>
-    <row r="628" ht="15.75" customHeight="1">
+    <row r="628" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="18"/>
       <c r="B628" s="18"/>
       <c r="C628" s="18"/>
@@ -20803,7 +20880,7 @@
       <c r="Y628" s="18"/>
       <c r="Z628" s="18"/>
     </row>
-    <row r="629" ht="15.75" customHeight="1">
+    <row r="629" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="18"/>
       <c r="B629" s="18"/>
       <c r="C629" s="18"/>
@@ -20831,7 +20908,7 @@
       <c r="Y629" s="18"/>
       <c r="Z629" s="18"/>
     </row>
-    <row r="630" ht="15.75" customHeight="1">
+    <row r="630" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="18"/>
       <c r="B630" s="18"/>
       <c r="C630" s="18"/>
@@ -20859,7 +20936,7 @@
       <c r="Y630" s="18"/>
       <c r="Z630" s="18"/>
     </row>
-    <row r="631" ht="15.75" customHeight="1">
+    <row r="631" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="18"/>
       <c r="B631" s="18"/>
       <c r="C631" s="18"/>
@@ -20887,7 +20964,7 @@
       <c r="Y631" s="18"/>
       <c r="Z631" s="18"/>
     </row>
-    <row r="632" ht="15.75" customHeight="1">
+    <row r="632" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="18"/>
       <c r="B632" s="18"/>
       <c r="C632" s="18"/>
@@ -20915,7 +20992,7 @@
       <c r="Y632" s="18"/>
       <c r="Z632" s="18"/>
     </row>
-    <row r="633" ht="15.75" customHeight="1">
+    <row r="633" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="18"/>
       <c r="B633" s="18"/>
       <c r="C633" s="18"/>
@@ -20943,7 +21020,7 @@
       <c r="Y633" s="18"/>
       <c r="Z633" s="18"/>
     </row>
-    <row r="634" ht="15.75" customHeight="1">
+    <row r="634" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="18"/>
       <c r="B634" s="18"/>
       <c r="C634" s="18"/>
@@ -20971,7 +21048,7 @@
       <c r="Y634" s="18"/>
       <c r="Z634" s="18"/>
     </row>
-    <row r="635" ht="15.75" customHeight="1">
+    <row r="635" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="18"/>
       <c r="B635" s="18"/>
       <c r="C635" s="18"/>
@@ -20999,7 +21076,7 @@
       <c r="Y635" s="18"/>
       <c r="Z635" s="18"/>
     </row>
-    <row r="636" ht="15.75" customHeight="1">
+    <row r="636" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="18"/>
       <c r="B636" s="18"/>
       <c r="C636" s="18"/>
@@ -21027,7 +21104,7 @@
       <c r="Y636" s="18"/>
       <c r="Z636" s="18"/>
     </row>
-    <row r="637" ht="15.75" customHeight="1">
+    <row r="637" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="18"/>
       <c r="B637" s="18"/>
       <c r="C637" s="18"/>
@@ -21055,7 +21132,7 @@
       <c r="Y637" s="18"/>
       <c r="Z637" s="18"/>
     </row>
-    <row r="638" ht="15.75" customHeight="1">
+    <row r="638" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="18"/>
       <c r="B638" s="18"/>
       <c r="C638" s="18"/>
@@ -21083,7 +21160,7 @@
       <c r="Y638" s="18"/>
       <c r="Z638" s="18"/>
     </row>
-    <row r="639" ht="15.75" customHeight="1">
+    <row r="639" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="18"/>
       <c r="B639" s="18"/>
       <c r="C639" s="18"/>
@@ -21111,7 +21188,7 @@
       <c r="Y639" s="18"/>
       <c r="Z639" s="18"/>
     </row>
-    <row r="640" ht="15.75" customHeight="1">
+    <row r="640" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="18"/>
       <c r="B640" s="18"/>
       <c r="C640" s="18"/>
@@ -21139,7 +21216,7 @@
       <c r="Y640" s="18"/>
       <c r="Z640" s="18"/>
     </row>
-    <row r="641" ht="15.75" customHeight="1">
+    <row r="641" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="18"/>
       <c r="B641" s="18"/>
       <c r="C641" s="18"/>
@@ -21167,7 +21244,7 @@
       <c r="Y641" s="18"/>
       <c r="Z641" s="18"/>
     </row>
-    <row r="642" ht="15.75" customHeight="1">
+    <row r="642" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="18"/>
       <c r="B642" s="18"/>
       <c r="C642" s="18"/>
@@ -21195,7 +21272,7 @@
       <c r="Y642" s="18"/>
       <c r="Z642" s="18"/>
     </row>
-    <row r="643" ht="15.75" customHeight="1">
+    <row r="643" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="18"/>
       <c r="B643" s="18"/>
       <c r="C643" s="18"/>
@@ -21223,7 +21300,7 @@
       <c r="Y643" s="18"/>
       <c r="Z643" s="18"/>
     </row>
-    <row r="644" ht="15.75" customHeight="1">
+    <row r="644" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="18"/>
       <c r="B644" s="18"/>
       <c r="C644" s="18"/>
@@ -21251,7 +21328,7 @@
       <c r="Y644" s="18"/>
       <c r="Z644" s="18"/>
     </row>
-    <row r="645" ht="15.75" customHeight="1">
+    <row r="645" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="18"/>
       <c r="B645" s="18"/>
       <c r="C645" s="18"/>
@@ -21279,7 +21356,7 @@
       <c r="Y645" s="18"/>
       <c r="Z645" s="18"/>
     </row>
-    <row r="646" ht="15.75" customHeight="1">
+    <row r="646" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="18"/>
       <c r="B646" s="18"/>
       <c r="C646" s="18"/>
@@ -21307,7 +21384,7 @@
       <c r="Y646" s="18"/>
       <c r="Z646" s="18"/>
     </row>
-    <row r="647" ht="15.75" customHeight="1">
+    <row r="647" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="18"/>
       <c r="B647" s="18"/>
       <c r="C647" s="18"/>
@@ -21335,7 +21412,7 @@
       <c r="Y647" s="18"/>
       <c r="Z647" s="18"/>
     </row>
-    <row r="648" ht="15.75" customHeight="1">
+    <row r="648" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="18"/>
       <c r="B648" s="18"/>
       <c r="C648" s="18"/>
@@ -21363,7 +21440,7 @@
       <c r="Y648" s="18"/>
       <c r="Z648" s="18"/>
     </row>
-    <row r="649" ht="15.75" customHeight="1">
+    <row r="649" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="18"/>
       <c r="B649" s="18"/>
       <c r="C649" s="18"/>
@@ -21391,7 +21468,7 @@
       <c r="Y649" s="18"/>
       <c r="Z649" s="18"/>
     </row>
-    <row r="650" ht="15.75" customHeight="1">
+    <row r="650" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="18"/>
       <c r="B650" s="18"/>
       <c r="C650" s="18"/>
@@ -21419,7 +21496,7 @@
       <c r="Y650" s="18"/>
       <c r="Z650" s="18"/>
     </row>
-    <row r="651" ht="15.75" customHeight="1">
+    <row r="651" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="18"/>
       <c r="B651" s="18"/>
       <c r="C651" s="18"/>
@@ -21447,7 +21524,7 @@
       <c r="Y651" s="18"/>
       <c r="Z651" s="18"/>
     </row>
-    <row r="652" ht="15.75" customHeight="1">
+    <row r="652" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="18"/>
       <c r="B652" s="18"/>
       <c r="C652" s="18"/>
@@ -21475,7 +21552,7 @@
       <c r="Y652" s="18"/>
       <c r="Z652" s="18"/>
     </row>
-    <row r="653" ht="15.75" customHeight="1">
+    <row r="653" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="18"/>
       <c r="B653" s="18"/>
       <c r="C653" s="18"/>
@@ -21503,7 +21580,7 @@
       <c r="Y653" s="18"/>
       <c r="Z653" s="18"/>
     </row>
-    <row r="654" ht="15.75" customHeight="1">
+    <row r="654" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="18"/>
       <c r="B654" s="18"/>
       <c r="C654" s="18"/>
@@ -21531,7 +21608,7 @@
       <c r="Y654" s="18"/>
       <c r="Z654" s="18"/>
     </row>
-    <row r="655" ht="15.75" customHeight="1">
+    <row r="655" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="18"/>
       <c r="B655" s="18"/>
       <c r="C655" s="18"/>
@@ -21559,7 +21636,7 @@
       <c r="Y655" s="18"/>
       <c r="Z655" s="18"/>
     </row>
-    <row r="656" ht="15.75" customHeight="1">
+    <row r="656" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="18"/>
       <c r="B656" s="18"/>
       <c r="C656" s="18"/>
@@ -21587,7 +21664,7 @@
       <c r="Y656" s="18"/>
       <c r="Z656" s="18"/>
     </row>
-    <row r="657" ht="15.75" customHeight="1">
+    <row r="657" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="18"/>
       <c r="B657" s="18"/>
       <c r="C657" s="18"/>
@@ -21615,7 +21692,7 @@
       <c r="Y657" s="18"/>
       <c r="Z657" s="18"/>
     </row>
-    <row r="658" ht="15.75" customHeight="1">
+    <row r="658" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="18"/>
       <c r="B658" s="18"/>
       <c r="C658" s="18"/>
@@ -21643,7 +21720,7 @@
       <c r="Y658" s="18"/>
       <c r="Z658" s="18"/>
     </row>
-    <row r="659" ht="15.75" customHeight="1">
+    <row r="659" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="18"/>
       <c r="B659" s="18"/>
       <c r="C659" s="18"/>
@@ -21671,7 +21748,7 @@
       <c r="Y659" s="18"/>
       <c r="Z659" s="18"/>
     </row>
-    <row r="660" ht="15.75" customHeight="1">
+    <row r="660" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="18"/>
       <c r="B660" s="18"/>
       <c r="C660" s="18"/>
@@ -21699,7 +21776,7 @@
       <c r="Y660" s="18"/>
       <c r="Z660" s="18"/>
     </row>
-    <row r="661" ht="15.75" customHeight="1">
+    <row r="661" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="18"/>
       <c r="B661" s="18"/>
       <c r="C661" s="18"/>
@@ -21727,7 +21804,7 @@
       <c r="Y661" s="18"/>
       <c r="Z661" s="18"/>
     </row>
-    <row r="662" ht="15.75" customHeight="1">
+    <row r="662" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="18"/>
       <c r="B662" s="18"/>
       <c r="C662" s="18"/>
@@ -21755,7 +21832,7 @@
       <c r="Y662" s="18"/>
       <c r="Z662" s="18"/>
     </row>
-    <row r="663" ht="15.75" customHeight="1">
+    <row r="663" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="18"/>
       <c r="B663" s="18"/>
       <c r="C663" s="18"/>
@@ -21783,7 +21860,7 @@
       <c r="Y663" s="18"/>
       <c r="Z663" s="18"/>
     </row>
-    <row r="664" ht="15.75" customHeight="1">
+    <row r="664" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="18"/>
       <c r="B664" s="18"/>
       <c r="C664" s="18"/>
@@ -21811,7 +21888,7 @@
       <c r="Y664" s="18"/>
       <c r="Z664" s="18"/>
     </row>
-    <row r="665" ht="15.75" customHeight="1">
+    <row r="665" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="18"/>
       <c r="B665" s="18"/>
       <c r="C665" s="18"/>
@@ -21839,7 +21916,7 @@
       <c r="Y665" s="18"/>
       <c r="Z665" s="18"/>
     </row>
-    <row r="666" ht="15.75" customHeight="1">
+    <row r="666" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="18"/>
       <c r="B666" s="18"/>
       <c r="C666" s="18"/>
@@ -21867,7 +21944,7 @@
       <c r="Y666" s="18"/>
       <c r="Z666" s="18"/>
     </row>
-    <row r="667" ht="15.75" customHeight="1">
+    <row r="667" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="18"/>
       <c r="B667" s="18"/>
       <c r="C667" s="18"/>
@@ -21895,7 +21972,7 @@
       <c r="Y667" s="18"/>
       <c r="Z667" s="18"/>
     </row>
-    <row r="668" ht="15.75" customHeight="1">
+    <row r="668" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="18"/>
       <c r="B668" s="18"/>
       <c r="C668" s="18"/>
@@ -21923,7 +22000,7 @@
       <c r="Y668" s="18"/>
       <c r="Z668" s="18"/>
     </row>
-    <row r="669" ht="15.75" customHeight="1">
+    <row r="669" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="18"/>
       <c r="B669" s="18"/>
       <c r="C669" s="18"/>
@@ -21951,7 +22028,7 @@
       <c r="Y669" s="18"/>
       <c r="Z669" s="18"/>
     </row>
-    <row r="670" ht="15.75" customHeight="1">
+    <row r="670" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="18"/>
       <c r="B670" s="18"/>
       <c r="C670" s="18"/>
@@ -21979,7 +22056,7 @@
       <c r="Y670" s="18"/>
       <c r="Z670" s="18"/>
     </row>
-    <row r="671" ht="15.75" customHeight="1">
+    <row r="671" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="18"/>
       <c r="B671" s="18"/>
       <c r="C671" s="18"/>
@@ -22007,7 +22084,7 @@
       <c r="Y671" s="18"/>
       <c r="Z671" s="18"/>
     </row>
-    <row r="672" ht="15.75" customHeight="1">
+    <row r="672" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="18"/>
       <c r="B672" s="18"/>
       <c r="C672" s="18"/>
@@ -22035,7 +22112,7 @@
       <c r="Y672" s="18"/>
       <c r="Z672" s="18"/>
     </row>
-    <row r="673" ht="15.75" customHeight="1">
+    <row r="673" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="18"/>
       <c r="B673" s="18"/>
       <c r="C673" s="18"/>
@@ -22063,7 +22140,7 @@
       <c r="Y673" s="18"/>
       <c r="Z673" s="18"/>
     </row>
-    <row r="674" ht="15.75" customHeight="1">
+    <row r="674" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="18"/>
       <c r="B674" s="18"/>
       <c r="C674" s="18"/>
@@ -22091,7 +22168,7 @@
       <c r="Y674" s="18"/>
       <c r="Z674" s="18"/>
     </row>
-    <row r="675" ht="15.75" customHeight="1">
+    <row r="675" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="18"/>
       <c r="B675" s="18"/>
       <c r="C675" s="18"/>
@@ -22119,7 +22196,7 @@
       <c r="Y675" s="18"/>
       <c r="Z675" s="18"/>
     </row>
-    <row r="676" ht="15.75" customHeight="1">
+    <row r="676" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="18"/>
       <c r="B676" s="18"/>
       <c r="C676" s="18"/>
@@ -22147,7 +22224,7 @@
       <c r="Y676" s="18"/>
       <c r="Z676" s="18"/>
     </row>
-    <row r="677" ht="15.75" customHeight="1">
+    <row r="677" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="18"/>
       <c r="B677" s="18"/>
       <c r="C677" s="18"/>
@@ -22175,7 +22252,7 @@
       <c r="Y677" s="18"/>
       <c r="Z677" s="18"/>
     </row>
-    <row r="678" ht="15.75" customHeight="1">
+    <row r="678" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="18"/>
       <c r="B678" s="18"/>
       <c r="C678" s="18"/>
@@ -22203,7 +22280,7 @@
       <c r="Y678" s="18"/>
       <c r="Z678" s="18"/>
     </row>
-    <row r="679" ht="15.75" customHeight="1">
+    <row r="679" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="18"/>
       <c r="B679" s="18"/>
       <c r="C679" s="18"/>
@@ -22231,7 +22308,7 @@
       <c r="Y679" s="18"/>
       <c r="Z679" s="18"/>
     </row>
-    <row r="680" ht="15.75" customHeight="1">
+    <row r="680" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="18"/>
       <c r="B680" s="18"/>
       <c r="C680" s="18"/>
@@ -22259,7 +22336,7 @@
       <c r="Y680" s="18"/>
       <c r="Z680" s="18"/>
     </row>
-    <row r="681" ht="15.75" customHeight="1">
+    <row r="681" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="18"/>
       <c r="B681" s="18"/>
       <c r="C681" s="18"/>
@@ -22287,7 +22364,7 @@
       <c r="Y681" s="18"/>
       <c r="Z681" s="18"/>
     </row>
-    <row r="682" ht="15.75" customHeight="1">
+    <row r="682" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="18"/>
       <c r="B682" s="18"/>
       <c r="C682" s="18"/>
@@ -22315,7 +22392,7 @@
       <c r="Y682" s="18"/>
       <c r="Z682" s="18"/>
     </row>
-    <row r="683" ht="15.75" customHeight="1">
+    <row r="683" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="18"/>
       <c r="B683" s="18"/>
       <c r="C683" s="18"/>
@@ -22343,7 +22420,7 @@
       <c r="Y683" s="18"/>
       <c r="Z683" s="18"/>
     </row>
-    <row r="684" ht="15.75" customHeight="1">
+    <row r="684" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="18"/>
       <c r="B684" s="18"/>
       <c r="C684" s="18"/>
@@ -22371,7 +22448,7 @@
       <c r="Y684" s="18"/>
       <c r="Z684" s="18"/>
     </row>
-    <row r="685" ht="15.75" customHeight="1">
+    <row r="685" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="18"/>
       <c r="B685" s="18"/>
       <c r="C685" s="18"/>
@@ -22399,7 +22476,7 @@
       <c r="Y685" s="18"/>
       <c r="Z685" s="18"/>
     </row>
-    <row r="686" ht="15.75" customHeight="1">
+    <row r="686" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="18"/>
       <c r="B686" s="18"/>
       <c r="C686" s="18"/>
@@ -22427,7 +22504,7 @@
       <c r="Y686" s="18"/>
       <c r="Z686" s="18"/>
     </row>
-    <row r="687" ht="15.75" customHeight="1">
+    <row r="687" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="18"/>
       <c r="B687" s="18"/>
       <c r="C687" s="18"/>
@@ -22455,7 +22532,7 @@
       <c r="Y687" s="18"/>
       <c r="Z687" s="18"/>
     </row>
-    <row r="688" ht="15.75" customHeight="1">
+    <row r="688" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="18"/>
       <c r="B688" s="18"/>
       <c r="C688" s="18"/>
@@ -22483,7 +22560,7 @@
       <c r="Y688" s="18"/>
       <c r="Z688" s="18"/>
     </row>
-    <row r="689" ht="15.75" customHeight="1">
+    <row r="689" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="18"/>
       <c r="B689" s="18"/>
       <c r="C689" s="18"/>
@@ -22511,7 +22588,7 @@
       <c r="Y689" s="18"/>
       <c r="Z689" s="18"/>
     </row>
-    <row r="690" ht="15.75" customHeight="1">
+    <row r="690" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="18"/>
       <c r="B690" s="18"/>
       <c r="C690" s="18"/>
@@ -22539,7 +22616,7 @@
       <c r="Y690" s="18"/>
       <c r="Z690" s="18"/>
     </row>
-    <row r="691" ht="15.75" customHeight="1">
+    <row r="691" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="18"/>
       <c r="B691" s="18"/>
       <c r="C691" s="18"/>
@@ -22567,7 +22644,7 @@
       <c r="Y691" s="18"/>
       <c r="Z691" s="18"/>
     </row>
-    <row r="692" ht="15.75" customHeight="1">
+    <row r="692" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="18"/>
       <c r="B692" s="18"/>
       <c r="C692" s="18"/>
@@ -22595,7 +22672,7 @@
       <c r="Y692" s="18"/>
       <c r="Z692" s="18"/>
     </row>
-    <row r="693" ht="15.75" customHeight="1">
+    <row r="693" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="18"/>
       <c r="B693" s="18"/>
       <c r="C693" s="18"/>
@@ -22623,7 +22700,7 @@
       <c r="Y693" s="18"/>
       <c r="Z693" s="18"/>
     </row>
-    <row r="694" ht="15.75" customHeight="1">
+    <row r="694" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="18"/>
       <c r="B694" s="18"/>
       <c r="C694" s="18"/>
@@ -22651,7 +22728,7 @@
       <c r="Y694" s="18"/>
       <c r="Z694" s="18"/>
     </row>
-    <row r="695" ht="15.75" customHeight="1">
+    <row r="695" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="18"/>
       <c r="B695" s="18"/>
       <c r="C695" s="18"/>
@@ -22679,7 +22756,7 @@
       <c r="Y695" s="18"/>
       <c r="Z695" s="18"/>
     </row>
-    <row r="696" ht="15.75" customHeight="1">
+    <row r="696" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="18"/>
       <c r="B696" s="18"/>
       <c r="C696" s="18"/>
@@ -22707,7 +22784,7 @@
       <c r="Y696" s="18"/>
       <c r="Z696" s="18"/>
     </row>
-    <row r="697" ht="15.75" customHeight="1">
+    <row r="697" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="18"/>
       <c r="B697" s="18"/>
       <c r="C697" s="18"/>
@@ -22735,7 +22812,7 @@
       <c r="Y697" s="18"/>
       <c r="Z697" s="18"/>
     </row>
-    <row r="698" ht="15.75" customHeight="1">
+    <row r="698" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="18"/>
       <c r="B698" s="18"/>
       <c r="C698" s="18"/>
@@ -22763,7 +22840,7 @@
       <c r="Y698" s="18"/>
       <c r="Z698" s="18"/>
     </row>
-    <row r="699" ht="15.75" customHeight="1">
+    <row r="699" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="18"/>
       <c r="B699" s="18"/>
       <c r="C699" s="18"/>
@@ -22791,7 +22868,7 @@
       <c r="Y699" s="18"/>
       <c r="Z699" s="18"/>
     </row>
-    <row r="700" ht="15.75" customHeight="1">
+    <row r="700" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="18"/>
       <c r="B700" s="18"/>
       <c r="C700" s="18"/>
@@ -22819,7 +22896,7 @@
       <c r="Y700" s="18"/>
       <c r="Z700" s="18"/>
     </row>
-    <row r="701" ht="15.75" customHeight="1">
+    <row r="701" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="18"/>
       <c r="B701" s="18"/>
       <c r="C701" s="18"/>
@@ -22847,7 +22924,7 @@
       <c r="Y701" s="18"/>
       <c r="Z701" s="18"/>
     </row>
-    <row r="702" ht="15.75" customHeight="1">
+    <row r="702" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="18"/>
       <c r="B702" s="18"/>
       <c r="C702" s="18"/>
@@ -22875,7 +22952,7 @@
       <c r="Y702" s="18"/>
       <c r="Z702" s="18"/>
     </row>
-    <row r="703" ht="15.75" customHeight="1">
+    <row r="703" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="18"/>
       <c r="B703" s="18"/>
       <c r="C703" s="18"/>
@@ -22903,7 +22980,7 @@
       <c r="Y703" s="18"/>
       <c r="Z703" s="18"/>
     </row>
-    <row r="704" ht="15.75" customHeight="1">
+    <row r="704" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="18"/>
       <c r="B704" s="18"/>
       <c r="C704" s="18"/>
@@ -22931,7 +23008,7 @@
       <c r="Y704" s="18"/>
       <c r="Z704" s="18"/>
     </row>
-    <row r="705" ht="15.75" customHeight="1">
+    <row r="705" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="18"/>
       <c r="B705" s="18"/>
       <c r="C705" s="18"/>
@@ -22959,7 +23036,7 @@
       <c r="Y705" s="18"/>
       <c r="Z705" s="18"/>
     </row>
-    <row r="706" ht="15.75" customHeight="1">
+    <row r="706" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="18"/>
       <c r="B706" s="18"/>
       <c r="C706" s="18"/>
@@ -22987,7 +23064,7 @@
       <c r="Y706" s="18"/>
       <c r="Z706" s="18"/>
     </row>
-    <row r="707" ht="15.75" customHeight="1">
+    <row r="707" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="18"/>
       <c r="B707" s="18"/>
       <c r="C707" s="18"/>
@@ -23015,7 +23092,7 @@
       <c r="Y707" s="18"/>
       <c r="Z707" s="18"/>
     </row>
-    <row r="708" ht="15.75" customHeight="1">
+    <row r="708" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="18"/>
       <c r="B708" s="18"/>
       <c r="C708" s="18"/>
@@ -23043,7 +23120,7 @@
       <c r="Y708" s="18"/>
       <c r="Z708" s="18"/>
     </row>
-    <row r="709" ht="15.75" customHeight="1">
+    <row r="709" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="18"/>
       <c r="B709" s="18"/>
       <c r="C709" s="18"/>
@@ -23071,7 +23148,7 @@
       <c r="Y709" s="18"/>
       <c r="Z709" s="18"/>
     </row>
-    <row r="710" ht="15.75" customHeight="1">
+    <row r="710" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="18"/>
       <c r="B710" s="18"/>
       <c r="C710" s="18"/>
@@ -23099,7 +23176,7 @@
       <c r="Y710" s="18"/>
       <c r="Z710" s="18"/>
     </row>
-    <row r="711" ht="15.75" customHeight="1">
+    <row r="711" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="18"/>
       <c r="B711" s="18"/>
       <c r="C711" s="18"/>
@@ -23127,7 +23204,7 @@
       <c r="Y711" s="18"/>
       <c r="Z711" s="18"/>
     </row>
-    <row r="712" ht="15.75" customHeight="1">
+    <row r="712" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="18"/>
       <c r="B712" s="18"/>
       <c r="C712" s="18"/>
@@ -23155,7 +23232,7 @@
       <c r="Y712" s="18"/>
       <c r="Z712" s="18"/>
     </row>
-    <row r="713" ht="15.75" customHeight="1">
+    <row r="713" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="18"/>
       <c r="B713" s="18"/>
       <c r="C713" s="18"/>
@@ -23183,7 +23260,7 @@
       <c r="Y713" s="18"/>
       <c r="Z713" s="18"/>
     </row>
-    <row r="714" ht="15.75" customHeight="1">
+    <row r="714" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="18"/>
       <c r="B714" s="18"/>
       <c r="C714" s="18"/>
@@ -23211,7 +23288,7 @@
       <c r="Y714" s="18"/>
       <c r="Z714" s="18"/>
     </row>
-    <row r="715" ht="15.75" customHeight="1">
+    <row r="715" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="18"/>
       <c r="B715" s="18"/>
       <c r="C715" s="18"/>
@@ -23239,7 +23316,7 @@
       <c r="Y715" s="18"/>
       <c r="Z715" s="18"/>
     </row>
-    <row r="716" ht="15.75" customHeight="1">
+    <row r="716" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="18"/>
       <c r="B716" s="18"/>
       <c r="C716" s="18"/>
@@ -23267,7 +23344,7 @@
       <c r="Y716" s="18"/>
       <c r="Z716" s="18"/>
     </row>
-    <row r="717" ht="15.75" customHeight="1">
+    <row r="717" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="18"/>
       <c r="B717" s="18"/>
       <c r="C717" s="18"/>
@@ -23295,7 +23372,7 @@
       <c r="Y717" s="18"/>
       <c r="Z717" s="18"/>
     </row>
-    <row r="718" ht="15.75" customHeight="1">
+    <row r="718" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="18"/>
       <c r="B718" s="18"/>
       <c r="C718" s="18"/>
@@ -23323,7 +23400,7 @@
       <c r="Y718" s="18"/>
       <c r="Z718" s="18"/>
     </row>
-    <row r="719" ht="15.75" customHeight="1">
+    <row r="719" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="18"/>
       <c r="B719" s="18"/>
       <c r="C719" s="18"/>
@@ -23351,7 +23428,7 @@
       <c r="Y719" s="18"/>
       <c r="Z719" s="18"/>
     </row>
-    <row r="720" ht="15.75" customHeight="1">
+    <row r="720" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="18"/>
       <c r="B720" s="18"/>
       <c r="C720" s="18"/>
@@ -23379,7 +23456,7 @@
       <c r="Y720" s="18"/>
       <c r="Z720" s="18"/>
     </row>
-    <row r="721" ht="15.75" customHeight="1">
+    <row r="721" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="18"/>
       <c r="B721" s="18"/>
       <c r="C721" s="18"/>
@@ -23407,7 +23484,7 @@
       <c r="Y721" s="18"/>
       <c r="Z721" s="18"/>
     </row>
-    <row r="722" ht="15.75" customHeight="1">
+    <row r="722" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="18"/>
       <c r="B722" s="18"/>
       <c r="C722" s="18"/>
@@ -23435,7 +23512,7 @@
       <c r="Y722" s="18"/>
       <c r="Z722" s="18"/>
     </row>
-    <row r="723" ht="15.75" customHeight="1">
+    <row r="723" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="18"/>
       <c r="B723" s="18"/>
       <c r="C723" s="18"/>
@@ -23463,7 +23540,7 @@
       <c r="Y723" s="18"/>
       <c r="Z723" s="18"/>
     </row>
-    <row r="724" ht="15.75" customHeight="1">
+    <row r="724" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="18"/>
       <c r="B724" s="18"/>
       <c r="C724" s="18"/>
@@ -23491,7 +23568,7 @@
       <c r="Y724" s="18"/>
       <c r="Z724" s="18"/>
     </row>
-    <row r="725" ht="15.75" customHeight="1">
+    <row r="725" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="18"/>
       <c r="B725" s="18"/>
       <c r="C725" s="18"/>
@@ -23519,7 +23596,7 @@
       <c r="Y725" s="18"/>
       <c r="Z725" s="18"/>
     </row>
-    <row r="726" ht="15.75" customHeight="1">
+    <row r="726" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="18"/>
       <c r="B726" s="18"/>
       <c r="C726" s="18"/>
@@ -23547,7 +23624,7 @@
       <c r="Y726" s="18"/>
       <c r="Z726" s="18"/>
     </row>
-    <row r="727" ht="15.75" customHeight="1">
+    <row r="727" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="18"/>
       <c r="B727" s="18"/>
       <c r="C727" s="18"/>
@@ -23575,7 +23652,7 @@
       <c r="Y727" s="18"/>
       <c r="Z727" s="18"/>
     </row>
-    <row r="728" ht="15.75" customHeight="1">
+    <row r="728" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="18"/>
       <c r="B728" s="18"/>
       <c r="C728" s="18"/>
@@ -23603,7 +23680,7 @@
       <c r="Y728" s="18"/>
       <c r="Z728" s="18"/>
     </row>
-    <row r="729" ht="15.75" customHeight="1">
+    <row r="729" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="18"/>
       <c r="B729" s="18"/>
       <c r="C729" s="18"/>
@@ -23631,7 +23708,7 @@
       <c r="Y729" s="18"/>
       <c r="Z729" s="18"/>
     </row>
-    <row r="730" ht="15.75" customHeight="1">
+    <row r="730" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="18"/>
       <c r="B730" s="18"/>
       <c r="C730" s="18"/>
@@ -23659,7 +23736,7 @@
       <c r="Y730" s="18"/>
       <c r="Z730" s="18"/>
     </row>
-    <row r="731" ht="15.75" customHeight="1">
+    <row r="731" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="18"/>
       <c r="B731" s="18"/>
       <c r="C731" s="18"/>
@@ -23687,7 +23764,7 @@
       <c r="Y731" s="18"/>
       <c r="Z731" s="18"/>
     </row>
-    <row r="732" ht="15.75" customHeight="1">
+    <row r="732" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="18"/>
       <c r="B732" s="18"/>
       <c r="C732" s="18"/>
@@ -23715,7 +23792,7 @@
       <c r="Y732" s="18"/>
       <c r="Z732" s="18"/>
     </row>
-    <row r="733" ht="15.75" customHeight="1">
+    <row r="733" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="18"/>
       <c r="B733" s="18"/>
       <c r="C733" s="18"/>
@@ -23743,7 +23820,7 @@
       <c r="Y733" s="18"/>
       <c r="Z733" s="18"/>
     </row>
-    <row r="734" ht="15.75" customHeight="1">
+    <row r="734" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="18"/>
       <c r="B734" s="18"/>
       <c r="C734" s="18"/>
@@ -23771,7 +23848,7 @@
       <c r="Y734" s="18"/>
       <c r="Z734" s="18"/>
     </row>
-    <row r="735" ht="15.75" customHeight="1">
+    <row r="735" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="18"/>
       <c r="B735" s="18"/>
       <c r="C735" s="18"/>
@@ -23799,7 +23876,7 @@
       <c r="Y735" s="18"/>
       <c r="Z735" s="18"/>
     </row>
-    <row r="736" ht="15.75" customHeight="1">
+    <row r="736" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="18"/>
       <c r="B736" s="18"/>
       <c r="C736" s="18"/>
@@ -23827,7 +23904,7 @@
       <c r="Y736" s="18"/>
       <c r="Z736" s="18"/>
     </row>
-    <row r="737" ht="15.75" customHeight="1">
+    <row r="737" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="18"/>
       <c r="B737" s="18"/>
       <c r="C737" s="18"/>
@@ -23855,7 +23932,7 @@
       <c r="Y737" s="18"/>
       <c r="Z737" s="18"/>
     </row>
-    <row r="738" ht="15.75" customHeight="1">
+    <row r="738" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="18"/>
       <c r="B738" s="18"/>
       <c r="C738" s="18"/>
@@ -23883,7 +23960,7 @@
       <c r="Y738" s="18"/>
       <c r="Z738" s="18"/>
     </row>
-    <row r="739" ht="15.75" customHeight="1">
+    <row r="739" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="18"/>
       <c r="B739" s="18"/>
       <c r="C739" s="18"/>
@@ -23911,7 +23988,7 @@
       <c r="Y739" s="18"/>
       <c r="Z739" s="18"/>
     </row>
-    <row r="740" ht="15.75" customHeight="1">
+    <row r="740" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="18"/>
       <c r="B740" s="18"/>
       <c r="C740" s="18"/>
@@ -23939,7 +24016,7 @@
       <c r="Y740" s="18"/>
       <c r="Z740" s="18"/>
     </row>
-    <row r="741" ht="15.75" customHeight="1">
+    <row r="741" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="18"/>
       <c r="B741" s="18"/>
       <c r="C741" s="18"/>
@@ -23967,7 +24044,7 @@
       <c r="Y741" s="18"/>
       <c r="Z741" s="18"/>
     </row>
-    <row r="742" ht="15.75" customHeight="1">
+    <row r="742" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="18"/>
       <c r="B742" s="18"/>
       <c r="C742" s="18"/>
@@ -23995,7 +24072,7 @@
       <c r="Y742" s="18"/>
       <c r="Z742" s="18"/>
     </row>
-    <row r="743" ht="15.75" customHeight="1">
+    <row r="743" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="18"/>
       <c r="B743" s="18"/>
       <c r="C743" s="18"/>
@@ -24023,7 +24100,7 @@
       <c r="Y743" s="18"/>
       <c r="Z743" s="18"/>
     </row>
-    <row r="744" ht="15.75" customHeight="1">
+    <row r="744" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="18"/>
       <c r="B744" s="18"/>
       <c r="C744" s="18"/>
@@ -24051,7 +24128,7 @@
       <c r="Y744" s="18"/>
       <c r="Z744" s="18"/>
     </row>
-    <row r="745" ht="15.75" customHeight="1">
+    <row r="745" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="18"/>
       <c r="B745" s="18"/>
       <c r="C745" s="18"/>
@@ -24079,7 +24156,7 @@
       <c r="Y745" s="18"/>
       <c r="Z745" s="18"/>
     </row>
-    <row r="746" ht="15.75" customHeight="1">
+    <row r="746" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="18"/>
       <c r="B746" s="18"/>
       <c r="C746" s="18"/>
@@ -24107,7 +24184,7 @@
       <c r="Y746" s="18"/>
       <c r="Z746" s="18"/>
     </row>
-    <row r="747" ht="15.75" customHeight="1">
+    <row r="747" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="18"/>
       <c r="B747" s="18"/>
       <c r="C747" s="18"/>
@@ -24135,7 +24212,7 @@
       <c r="Y747" s="18"/>
       <c r="Z747" s="18"/>
     </row>
-    <row r="748" ht="15.75" customHeight="1">
+    <row r="748" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="18"/>
       <c r="B748" s="18"/>
       <c r="C748" s="18"/>
@@ -24163,7 +24240,7 @@
       <c r="Y748" s="18"/>
       <c r="Z748" s="18"/>
     </row>
-    <row r="749" ht="15.75" customHeight="1">
+    <row r="749" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="18"/>
       <c r="B749" s="18"/>
       <c r="C749" s="18"/>
@@ -24191,7 +24268,7 @@
       <c r="Y749" s="18"/>
       <c r="Z749" s="18"/>
     </row>
-    <row r="750" ht="15.75" customHeight="1">
+    <row r="750" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="18"/>
       <c r="B750" s="18"/>
       <c r="C750" s="18"/>
@@ -24219,7 +24296,7 @@
       <c r="Y750" s="18"/>
       <c r="Z750" s="18"/>
     </row>
-    <row r="751" ht="15.75" customHeight="1">
+    <row r="751" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="18"/>
       <c r="B751" s="18"/>
       <c r="C751" s="18"/>
@@ -24247,7 +24324,7 @@
       <c r="Y751" s="18"/>
       <c r="Z751" s="18"/>
     </row>
-    <row r="752" ht="15.75" customHeight="1">
+    <row r="752" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="18"/>
       <c r="B752" s="18"/>
       <c r="C752" s="18"/>
@@ -24275,7 +24352,7 @@
       <c r="Y752" s="18"/>
       <c r="Z752" s="18"/>
     </row>
-    <row r="753" ht="15.75" customHeight="1">
+    <row r="753" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="18"/>
       <c r="B753" s="18"/>
       <c r="C753" s="18"/>
@@ -24303,7 +24380,7 @@
       <c r="Y753" s="18"/>
       <c r="Z753" s="18"/>
     </row>
-    <row r="754" ht="15.75" customHeight="1">
+    <row r="754" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="18"/>
       <c r="B754" s="18"/>
       <c r="C754" s="18"/>
@@ -24331,7 +24408,7 @@
       <c r="Y754" s="18"/>
       <c r="Z754" s="18"/>
     </row>
-    <row r="755" ht="15.75" customHeight="1">
+    <row r="755" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="18"/>
       <c r="B755" s="18"/>
       <c r="C755" s="18"/>
@@ -24359,7 +24436,7 @@
       <c r="Y755" s="18"/>
       <c r="Z755" s="18"/>
     </row>
-    <row r="756" ht="15.75" customHeight="1">
+    <row r="756" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="18"/>
       <c r="B756" s="18"/>
       <c r="C756" s="18"/>
@@ -24387,7 +24464,7 @@
       <c r="Y756" s="18"/>
       <c r="Z756" s="18"/>
     </row>
-    <row r="757" ht="15.75" customHeight="1">
+    <row r="757" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="18"/>
       <c r="B757" s="18"/>
       <c r="C757" s="18"/>
@@ -24415,7 +24492,7 @@
       <c r="Y757" s="18"/>
       <c r="Z757" s="18"/>
     </row>
-    <row r="758" ht="15.75" customHeight="1">
+    <row r="758" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="18"/>
       <c r="B758" s="18"/>
       <c r="C758" s="18"/>
@@ -24443,7 +24520,7 @@
       <c r="Y758" s="18"/>
       <c r="Z758" s="18"/>
     </row>
-    <row r="759" ht="15.75" customHeight="1">
+    <row r="759" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="18"/>
       <c r="B759" s="18"/>
       <c r="C759" s="18"/>
@@ -24471,7 +24548,7 @@
       <c r="Y759" s="18"/>
       <c r="Z759" s="18"/>
     </row>
-    <row r="760" ht="15.75" customHeight="1">
+    <row r="760" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="18"/>
       <c r="B760" s="18"/>
       <c r="C760" s="18"/>
@@ -24499,7 +24576,7 @@
       <c r="Y760" s="18"/>
       <c r="Z760" s="18"/>
     </row>
-    <row r="761" ht="15.75" customHeight="1">
+    <row r="761" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="18"/>
       <c r="B761" s="18"/>
       <c r="C761" s="18"/>
@@ -24527,7 +24604,7 @@
       <c r="Y761" s="18"/>
       <c r="Z761" s="18"/>
     </row>
-    <row r="762" ht="15.75" customHeight="1">
+    <row r="762" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="18"/>
       <c r="B762" s="18"/>
       <c r="C762" s="18"/>
@@ -24555,7 +24632,7 @@
       <c r="Y762" s="18"/>
       <c r="Z762" s="18"/>
     </row>
-    <row r="763" ht="15.75" customHeight="1">
+    <row r="763" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="18"/>
       <c r="B763" s="18"/>
       <c r="C763" s="18"/>
@@ -24583,7 +24660,7 @@
       <c r="Y763" s="18"/>
       <c r="Z763" s="18"/>
     </row>
-    <row r="764" ht="15.75" customHeight="1">
+    <row r="764" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="18"/>
       <c r="B764" s="18"/>
       <c r="C764" s="18"/>
@@ -24611,7 +24688,7 @@
       <c r="Y764" s="18"/>
       <c r="Z764" s="18"/>
     </row>
-    <row r="765" ht="15.75" customHeight="1">
+    <row r="765" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="18"/>
       <c r="B765" s="18"/>
       <c r="C765" s="18"/>
@@ -24639,7 +24716,7 @@
       <c r="Y765" s="18"/>
       <c r="Z765" s="18"/>
     </row>
-    <row r="766" ht="15.75" customHeight="1">
+    <row r="766" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="18"/>
       <c r="B766" s="18"/>
       <c r="C766" s="18"/>
@@ -24667,7 +24744,7 @@
       <c r="Y766" s="18"/>
       <c r="Z766" s="18"/>
     </row>
-    <row r="767" ht="15.75" customHeight="1">
+    <row r="767" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="18"/>
       <c r="B767" s="18"/>
       <c r="C767" s="18"/>
@@ -24695,7 +24772,7 @@
       <c r="Y767" s="18"/>
       <c r="Z767" s="18"/>
     </row>
-    <row r="768" ht="15.75" customHeight="1">
+    <row r="768" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="18"/>
       <c r="B768" s="18"/>
       <c r="C768" s="18"/>
@@ -24723,7 +24800,7 @@
       <c r="Y768" s="18"/>
       <c r="Z768" s="18"/>
     </row>
-    <row r="769" ht="15.75" customHeight="1">
+    <row r="769" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="18"/>
       <c r="B769" s="18"/>
       <c r="C769" s="18"/>
@@ -24751,7 +24828,7 @@
       <c r="Y769" s="18"/>
       <c r="Z769" s="18"/>
     </row>
-    <row r="770" ht="15.75" customHeight="1">
+    <row r="770" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="18"/>
       <c r="B770" s="18"/>
       <c r="C770" s="18"/>
@@ -24779,7 +24856,7 @@
       <c r="Y770" s="18"/>
       <c r="Z770" s="18"/>
     </row>
-    <row r="771" ht="15.75" customHeight="1">
+    <row r="771" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="18"/>
       <c r="B771" s="18"/>
       <c r="C771" s="18"/>
@@ -24807,7 +24884,7 @@
       <c r="Y771" s="18"/>
       <c r="Z771" s="18"/>
     </row>
-    <row r="772" ht="15.75" customHeight="1">
+    <row r="772" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="18"/>
       <c r="B772" s="18"/>
       <c r="C772" s="18"/>
@@ -24835,7 +24912,7 @@
       <c r="Y772" s="18"/>
       <c r="Z772" s="18"/>
     </row>
-    <row r="773" ht="15.75" customHeight="1">
+    <row r="773" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="18"/>
       <c r="B773" s="18"/>
       <c r="C773" s="18"/>
@@ -24863,7 +24940,7 @@
       <c r="Y773" s="18"/>
       <c r="Z773" s="18"/>
     </row>
-    <row r="774" ht="15.75" customHeight="1">
+    <row r="774" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="18"/>
       <c r="B774" s="18"/>
       <c r="C774" s="18"/>
@@ -24891,7 +24968,7 @@
       <c r="Y774" s="18"/>
       <c r="Z774" s="18"/>
     </row>
-    <row r="775" ht="15.75" customHeight="1">
+    <row r="775" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="18"/>
       <c r="B775" s="18"/>
       <c r="C775" s="18"/>
@@ -24919,7 +24996,7 @@
       <c r="Y775" s="18"/>
       <c r="Z775" s="18"/>
     </row>
-    <row r="776" ht="15.75" customHeight="1">
+    <row r="776" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="18"/>
       <c r="B776" s="18"/>
       <c r="C776" s="18"/>
@@ -24947,7 +25024,7 @@
       <c r="Y776" s="18"/>
       <c r="Z776" s="18"/>
     </row>
-    <row r="777" ht="15.75" customHeight="1">
+    <row r="777" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="18"/>
       <c r="B777" s="18"/>
       <c r="C777" s="18"/>
@@ -24975,7 +25052,7 @@
       <c r="Y777" s="18"/>
       <c r="Z777" s="18"/>
     </row>
-    <row r="778" ht="15.75" customHeight="1">
+    <row r="778" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="18"/>
       <c r="B778" s="18"/>
       <c r="C778" s="18"/>
@@ -25003,7 +25080,7 @@
       <c r="Y778" s="18"/>
       <c r="Z778" s="18"/>
     </row>
-    <row r="779" ht="15.75" customHeight="1">
+    <row r="779" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="18"/>
       <c r="B779" s="18"/>
       <c r="C779" s="18"/>
@@ -25031,7 +25108,7 @@
       <c r="Y779" s="18"/>
       <c r="Z779" s="18"/>
     </row>
-    <row r="780" ht="15.75" customHeight="1">
+    <row r="780" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="18"/>
       <c r="B780" s="18"/>
       <c r="C780" s="18"/>
@@ -25059,7 +25136,7 @@
       <c r="Y780" s="18"/>
       <c r="Z780" s="18"/>
     </row>
-    <row r="781" ht="15.75" customHeight="1">
+    <row r="781" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="18"/>
       <c r="B781" s="18"/>
       <c r="C781" s="18"/>
@@ -25087,7 +25164,7 @@
       <c r="Y781" s="18"/>
       <c r="Z781" s="18"/>
     </row>
-    <row r="782" ht="15.75" customHeight="1">
+    <row r="782" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="18"/>
       <c r="B782" s="18"/>
       <c r="C782" s="18"/>
@@ -25115,7 +25192,7 @@
       <c r="Y782" s="18"/>
       <c r="Z782" s="18"/>
     </row>
-    <row r="783" ht="15.75" customHeight="1">
+    <row r="783" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="18"/>
       <c r="B783" s="18"/>
       <c r="C783" s="18"/>
@@ -25143,7 +25220,7 @@
       <c r="Y783" s="18"/>
       <c r="Z783" s="18"/>
     </row>
-    <row r="784" ht="15.75" customHeight="1">
+    <row r="784" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784" s="18"/>
       <c r="B784" s="18"/>
       <c r="C784" s="18"/>
@@ -25171,7 +25248,7 @@
       <c r="Y784" s="18"/>
       <c r="Z784" s="18"/>
     </row>
-    <row r="785" ht="15.75" customHeight="1">
+    <row r="785" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="18"/>
       <c r="B785" s="18"/>
       <c r="C785" s="18"/>
@@ -25199,7 +25276,7 @@
       <c r="Y785" s="18"/>
       <c r="Z785" s="18"/>
     </row>
-    <row r="786" ht="15.75" customHeight="1">
+    <row r="786" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786" s="18"/>
       <c r="B786" s="18"/>
       <c r="C786" s="18"/>
@@ -25227,7 +25304,7 @@
       <c r="Y786" s="18"/>
       <c r="Z786" s="18"/>
     </row>
-    <row r="787" ht="15.75" customHeight="1">
+    <row r="787" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787" s="18"/>
       <c r="B787" s="18"/>
       <c r="C787" s="18"/>
@@ -25255,7 +25332,7 @@
       <c r="Y787" s="18"/>
       <c r="Z787" s="18"/>
     </row>
-    <row r="788" ht="15.75" customHeight="1">
+    <row r="788" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788" s="18"/>
       <c r="B788" s="18"/>
       <c r="C788" s="18"/>
@@ -25283,7 +25360,7 @@
       <c r="Y788" s="18"/>
       <c r="Z788" s="18"/>
     </row>
-    <row r="789" ht="15.75" customHeight="1">
+    <row r="789" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789" s="18"/>
       <c r="B789" s="18"/>
       <c r="C789" s="18"/>
@@ -25311,7 +25388,7 @@
       <c r="Y789" s="18"/>
       <c r="Z789" s="18"/>
     </row>
-    <row r="790" ht="15.75" customHeight="1">
+    <row r="790" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A790" s="18"/>
       <c r="B790" s="18"/>
       <c r="C790" s="18"/>
@@ -25339,7 +25416,7 @@
       <c r="Y790" s="18"/>
       <c r="Z790" s="18"/>
     </row>
-    <row r="791" ht="15.75" customHeight="1">
+    <row r="791" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A791" s="18"/>
       <c r="B791" s="18"/>
       <c r="C791" s="18"/>
@@ -25367,7 +25444,7 @@
       <c r="Y791" s="18"/>
       <c r="Z791" s="18"/>
     </row>
-    <row r="792" ht="15.75" customHeight="1">
+    <row r="792" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A792" s="18"/>
       <c r="B792" s="18"/>
       <c r="C792" s="18"/>
@@ -25395,7 +25472,7 @@
       <c r="Y792" s="18"/>
       <c r="Z792" s="18"/>
     </row>
-    <row r="793" ht="15.75" customHeight="1">
+    <row r="793" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A793" s="18"/>
       <c r="B793" s="18"/>
       <c r="C793" s="18"/>
@@ -25423,7 +25500,7 @@
       <c r="Y793" s="18"/>
       <c r="Z793" s="18"/>
     </row>
-    <row r="794" ht="15.75" customHeight="1">
+    <row r="794" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A794" s="18"/>
       <c r="B794" s="18"/>
       <c r="C794" s="18"/>
@@ -25451,7 +25528,7 @@
       <c r="Y794" s="18"/>
       <c r="Z794" s="18"/>
     </row>
-    <row r="795" ht="15.75" customHeight="1">
+    <row r="795" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A795" s="18"/>
       <c r="B795" s="18"/>
       <c r="C795" s="18"/>
@@ -25479,7 +25556,7 @@
       <c r="Y795" s="18"/>
       <c r="Z795" s="18"/>
     </row>
-    <row r="796" ht="15.75" customHeight="1">
+    <row r="796" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A796" s="18"/>
       <c r="B796" s="18"/>
       <c r="C796" s="18"/>
@@ -25507,7 +25584,7 @@
       <c r="Y796" s="18"/>
       <c r="Z796" s="18"/>
     </row>
-    <row r="797" ht="15.75" customHeight="1">
+    <row r="797" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A797" s="18"/>
       <c r="B797" s="18"/>
       <c r="C797" s="18"/>
@@ -25535,7 +25612,7 @@
       <c r="Y797" s="18"/>
       <c r="Z797" s="18"/>
     </row>
-    <row r="798" ht="15.75" customHeight="1">
+    <row r="798" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A798" s="18"/>
       <c r="B798" s="18"/>
       <c r="C798" s="18"/>
@@ -25563,7 +25640,7 @@
       <c r="Y798" s="18"/>
       <c r="Z798" s="18"/>
     </row>
-    <row r="799" ht="15.75" customHeight="1">
+    <row r="799" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A799" s="18"/>
       <c r="B799" s="18"/>
       <c r="C799" s="18"/>
@@ -25591,7 +25668,7 @@
       <c r="Y799" s="18"/>
       <c r="Z799" s="18"/>
     </row>
-    <row r="800" ht="15.75" customHeight="1">
+    <row r="800" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A800" s="18"/>
       <c r="B800" s="18"/>
       <c r="C800" s="18"/>
@@ -25619,7 +25696,7 @@
       <c r="Y800" s="18"/>
       <c r="Z800" s="18"/>
     </row>
-    <row r="801" ht="15.75" customHeight="1">
+    <row r="801" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A801" s="18"/>
       <c r="B801" s="18"/>
       <c r="C801" s="18"/>
@@ -25647,7 +25724,7 @@
       <c r="Y801" s="18"/>
       <c r="Z801" s="18"/>
     </row>
-    <row r="802" ht="15.75" customHeight="1">
+    <row r="802" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A802" s="18"/>
       <c r="B802" s="18"/>
       <c r="C802" s="18"/>
@@ -25675,7 +25752,7 @@
       <c r="Y802" s="18"/>
       <c r="Z802" s="18"/>
     </row>
-    <row r="803" ht="15.75" customHeight="1">
+    <row r="803" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A803" s="18"/>
       <c r="B803" s="18"/>
       <c r="C803" s="18"/>
@@ -25703,7 +25780,7 @@
       <c r="Y803" s="18"/>
       <c r="Z803" s="18"/>
     </row>
-    <row r="804" ht="15.75" customHeight="1">
+    <row r="804" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A804" s="18"/>
       <c r="B804" s="18"/>
       <c r="C804" s="18"/>
@@ -25731,7 +25808,7 @@
       <c r="Y804" s="18"/>
       <c r="Z804" s="18"/>
     </row>
-    <row r="805" ht="15.75" customHeight="1">
+    <row r="805" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A805" s="18"/>
       <c r="B805" s="18"/>
       <c r="C805" s="18"/>
@@ -25759,7 +25836,7 @@
       <c r="Y805" s="18"/>
       <c r="Z805" s="18"/>
     </row>
-    <row r="806" ht="15.75" customHeight="1">
+    <row r="806" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A806" s="18"/>
       <c r="B806" s="18"/>
       <c r="C806" s="18"/>
@@ -25787,7 +25864,7 @@
       <c r="Y806" s="18"/>
       <c r="Z806" s="18"/>
     </row>
-    <row r="807" ht="15.75" customHeight="1">
+    <row r="807" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A807" s="18"/>
       <c r="B807" s="18"/>
       <c r="C807" s="18"/>
@@ -25815,7 +25892,7 @@
       <c r="Y807" s="18"/>
       <c r="Z807" s="18"/>
     </row>
-    <row r="808" ht="15.75" customHeight="1">
+    <row r="808" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A808" s="18"/>
       <c r="B808" s="18"/>
       <c r="C808" s="18"/>
@@ -25843,7 +25920,7 @@
       <c r="Y808" s="18"/>
       <c r="Z808" s="18"/>
     </row>
-    <row r="809" ht="15.75" customHeight="1">
+    <row r="809" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A809" s="18"/>
       <c r="B809" s="18"/>
       <c r="C809" s="18"/>
@@ -25871,7 +25948,7 @@
       <c r="Y809" s="18"/>
       <c r="Z809" s="18"/>
     </row>
-    <row r="810" ht="15.75" customHeight="1">
+    <row r="810" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A810" s="18"/>
       <c r="B810" s="18"/>
       <c r="C810" s="18"/>
@@ -25899,7 +25976,7 @@
       <c r="Y810" s="18"/>
       <c r="Z810" s="18"/>
     </row>
-    <row r="811" ht="15.75" customHeight="1">
+    <row r="811" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A811" s="18"/>
       <c r="B811" s="18"/>
       <c r="C811" s="18"/>
@@ -25927,7 +26004,7 @@
       <c r="Y811" s="18"/>
       <c r="Z811" s="18"/>
     </row>
-    <row r="812" ht="15.75" customHeight="1">
+    <row r="812" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A812" s="18"/>
       <c r="B812" s="18"/>
       <c r="C812" s="18"/>
@@ -25955,7 +26032,7 @@
       <c r="Y812" s="18"/>
       <c r="Z812" s="18"/>
     </row>
-    <row r="813" ht="15.75" customHeight="1">
+    <row r="813" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A813" s="18"/>
       <c r="B813" s="18"/>
       <c r="C813" s="18"/>
@@ -25983,7 +26060,7 @@
       <c r="Y813" s="18"/>
       <c r="Z813" s="18"/>
     </row>
-    <row r="814" ht="15.75" customHeight="1">
+    <row r="814" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A814" s="18"/>
       <c r="B814" s="18"/>
       <c r="C814" s="18"/>
@@ -26011,7 +26088,7 @@
       <c r="Y814" s="18"/>
       <c r="Z814" s="18"/>
     </row>
-    <row r="815" ht="15.75" customHeight="1">
+    <row r="815" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A815" s="18"/>
       <c r="B815" s="18"/>
       <c r="C815" s="18"/>
@@ -26039,7 +26116,7 @@
       <c r="Y815" s="18"/>
       <c r="Z815" s="18"/>
     </row>
-    <row r="816" ht="15.75" customHeight="1">
+    <row r="816" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A816" s="18"/>
       <c r="B816" s="18"/>
       <c r="C816" s="18"/>
@@ -26067,7 +26144,7 @@
       <c r="Y816" s="18"/>
       <c r="Z816" s="18"/>
     </row>
-    <row r="817" ht="15.75" customHeight="1">
+    <row r="817" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A817" s="18"/>
       <c r="B817" s="18"/>
       <c r="C817" s="18"/>
@@ -26095,7 +26172,7 @@
       <c r="Y817" s="18"/>
       <c r="Z817" s="18"/>
     </row>
-    <row r="818" ht="15.75" customHeight="1">
+    <row r="818" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A818" s="18"/>
       <c r="B818" s="18"/>
       <c r="C818" s="18"/>
@@ -26123,7 +26200,7 @@
       <c r="Y818" s="18"/>
       <c r="Z818" s="18"/>
     </row>
-    <row r="819" ht="15.75" customHeight="1">
+    <row r="819" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A819" s="18"/>
       <c r="B819" s="18"/>
       <c r="C819" s="18"/>
@@ -26151,7 +26228,7 @@
       <c r="Y819" s="18"/>
       <c r="Z819" s="18"/>
     </row>
-    <row r="820" ht="15.75" customHeight="1">
+    <row r="820" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A820" s="18"/>
       <c r="B820" s="18"/>
       <c r="C820" s="18"/>
@@ -26179,7 +26256,7 @@
       <c r="Y820" s="18"/>
       <c r="Z820" s="18"/>
     </row>
-    <row r="821" ht="15.75" customHeight="1">
+    <row r="821" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821" s="18"/>
       <c r="B821" s="18"/>
       <c r="C821" s="18"/>
@@ -26207,7 +26284,7 @@
       <c r="Y821" s="18"/>
       <c r="Z821" s="18"/>
     </row>
-    <row r="822" ht="15.75" customHeight="1">
+    <row r="822" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822" s="18"/>
       <c r="B822" s="18"/>
       <c r="C822" s="18"/>
@@ -26235,7 +26312,7 @@
       <c r="Y822" s="18"/>
       <c r="Z822" s="18"/>
     </row>
-    <row r="823" ht="15.75" customHeight="1">
+    <row r="823" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A823" s="18"/>
       <c r="B823" s="18"/>
       <c r="C823" s="18"/>
@@ -26263,7 +26340,7 @@
       <c r="Y823" s="18"/>
       <c r="Z823" s="18"/>
     </row>
-    <row r="824" ht="15.75" customHeight="1">
+    <row r="824" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A824" s="18"/>
       <c r="B824" s="18"/>
       <c r="C824" s="18"/>
@@ -26291,7 +26368,7 @@
       <c r="Y824" s="18"/>
       <c r="Z824" s="18"/>
     </row>
-    <row r="825" ht="15.75" customHeight="1">
+    <row r="825" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A825" s="18"/>
       <c r="B825" s="18"/>
       <c r="C825" s="18"/>
@@ -26319,7 +26396,7 @@
       <c r="Y825" s="18"/>
       <c r="Z825" s="18"/>
     </row>
-    <row r="826" ht="15.75" customHeight="1">
+    <row r="826" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A826" s="18"/>
       <c r="B826" s="18"/>
       <c r="C826" s="18"/>
@@ -26347,7 +26424,7 @@
       <c r="Y826" s="18"/>
       <c r="Z826" s="18"/>
     </row>
-    <row r="827" ht="15.75" customHeight="1">
+    <row r="827" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A827" s="18"/>
       <c r="B827" s="18"/>
       <c r="C827" s="18"/>
@@ -26375,7 +26452,7 @@
       <c r="Y827" s="18"/>
       <c r="Z827" s="18"/>
     </row>
-    <row r="828" ht="15.75" customHeight="1">
+    <row r="828" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A828" s="18"/>
       <c r="B828" s="18"/>
       <c r="C828" s="18"/>
@@ -26403,7 +26480,7 @@
       <c r="Y828" s="18"/>
       <c r="Z828" s="18"/>
     </row>
-    <row r="829" ht="15.75" customHeight="1">
+    <row r="829" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A829" s="18"/>
       <c r="B829" s="18"/>
       <c r="C829" s="18"/>
@@ -26431,7 +26508,7 @@
       <c r="Y829" s="18"/>
       <c r="Z829" s="18"/>
     </row>
-    <row r="830" ht="15.75" customHeight="1">
+    <row r="830" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A830" s="18"/>
       <c r="B830" s="18"/>
       <c r="C830" s="18"/>
@@ -26459,7 +26536,7 @@
       <c r="Y830" s="18"/>
       <c r="Z830" s="18"/>
     </row>
-    <row r="831" ht="15.75" customHeight="1">
+    <row r="831" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831" s="18"/>
       <c r="B831" s="18"/>
       <c r="C831" s="18"/>
@@ -26487,7 +26564,7 @@
       <c r="Y831" s="18"/>
       <c r="Z831" s="18"/>
     </row>
-    <row r="832" ht="15.75" customHeight="1">
+    <row r="832" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832" s="18"/>
       <c r="B832" s="18"/>
       <c r="C832" s="18"/>
@@ -26515,7 +26592,7 @@
       <c r="Y832" s="18"/>
       <c r="Z832" s="18"/>
     </row>
-    <row r="833" ht="15.75" customHeight="1">
+    <row r="833" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833" s="18"/>
       <c r="B833" s="18"/>
       <c r="C833" s="18"/>
@@ -26543,7 +26620,7 @@
       <c r="Y833" s="18"/>
       <c r="Z833" s="18"/>
     </row>
-    <row r="834" ht="15.75" customHeight="1">
+    <row r="834" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834" s="18"/>
       <c r="B834" s="18"/>
       <c r="C834" s="18"/>
@@ -26571,7 +26648,7 @@
       <c r="Y834" s="18"/>
       <c r="Z834" s="18"/>
     </row>
-    <row r="835" ht="15.75" customHeight="1">
+    <row r="835" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835" s="18"/>
       <c r="B835" s="18"/>
       <c r="C835" s="18"/>
@@ -26599,7 +26676,7 @@
       <c r="Y835" s="18"/>
       <c r="Z835" s="18"/>
     </row>
-    <row r="836" ht="15.75" customHeight="1">
+    <row r="836" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836" s="18"/>
       <c r="B836" s="18"/>
       <c r="C836" s="18"/>
@@ -26627,7 +26704,7 @@
       <c r="Y836" s="18"/>
       <c r="Z836" s="18"/>
     </row>
-    <row r="837" ht="15.75" customHeight="1">
+    <row r="837" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837" s="18"/>
       <c r="B837" s="18"/>
       <c r="C837" s="18"/>
@@ -26655,7 +26732,7 @@
       <c r="Y837" s="18"/>
       <c r="Z837" s="18"/>
     </row>
-    <row r="838" ht="15.75" customHeight="1">
+    <row r="838" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838" s="18"/>
       <c r="B838" s="18"/>
       <c r="C838" s="18"/>
@@ -26683,7 +26760,7 @@
       <c r="Y838" s="18"/>
       <c r="Z838" s="18"/>
     </row>
-    <row r="839" ht="15.75" customHeight="1">
+    <row r="839" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839" s="18"/>
       <c r="B839" s="18"/>
       <c r="C839" s="18"/>
@@ -26711,7 +26788,7 @@
       <c r="Y839" s="18"/>
       <c r="Z839" s="18"/>
     </row>
-    <row r="840" ht="15.75" customHeight="1">
+    <row r="840" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840" s="18"/>
       <c r="B840" s="18"/>
       <c r="C840" s="18"/>
@@ -26739,7 +26816,7 @@
       <c r="Y840" s="18"/>
       <c r="Z840" s="18"/>
     </row>
-    <row r="841" ht="15.75" customHeight="1">
+    <row r="841" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841" s="18"/>
       <c r="B841" s="18"/>
       <c r="C841" s="18"/>
@@ -26767,7 +26844,7 @@
       <c r="Y841" s="18"/>
       <c r="Z841" s="18"/>
     </row>
-    <row r="842" ht="15.75" customHeight="1">
+    <row r="842" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842" s="18"/>
       <c r="B842" s="18"/>
       <c r="C842" s="18"/>
@@ -26795,7 +26872,7 @@
       <c r="Y842" s="18"/>
       <c r="Z842" s="18"/>
     </row>
-    <row r="843" ht="15.75" customHeight="1">
+    <row r="843" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843" s="18"/>
       <c r="B843" s="18"/>
       <c r="C843" s="18"/>
@@ -26823,7 +26900,7 @@
       <c r="Y843" s="18"/>
       <c r="Z843" s="18"/>
     </row>
-    <row r="844" ht="15.75" customHeight="1">
+    <row r="844" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844" s="18"/>
       <c r="B844" s="18"/>
       <c r="C844" s="18"/>
@@ -26851,7 +26928,7 @@
       <c r="Y844" s="18"/>
       <c r="Z844" s="18"/>
     </row>
-    <row r="845" ht="15.75" customHeight="1">
+    <row r="845" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845" s="18"/>
       <c r="B845" s="18"/>
       <c r="C845" s="18"/>
@@ -26879,7 +26956,7 @@
       <c r="Y845" s="18"/>
       <c r="Z845" s="18"/>
     </row>
-    <row r="846" ht="15.75" customHeight="1">
+    <row r="846" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846" s="18"/>
       <c r="B846" s="18"/>
       <c r="C846" s="18"/>
@@ -26907,7 +26984,7 @@
       <c r="Y846" s="18"/>
       <c r="Z846" s="18"/>
     </row>
-    <row r="847" ht="15.75" customHeight="1">
+    <row r="847" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847" s="18"/>
       <c r="B847" s="18"/>
       <c r="C847" s="18"/>
@@ -26935,7 +27012,7 @@
       <c r="Y847" s="18"/>
       <c r="Z847" s="18"/>
     </row>
-    <row r="848" ht="15.75" customHeight="1">
+    <row r="848" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848" s="18"/>
       <c r="B848" s="18"/>
       <c r="C848" s="18"/>
@@ -26963,7 +27040,7 @@
       <c r="Y848" s="18"/>
       <c r="Z848" s="18"/>
     </row>
-    <row r="849" ht="15.75" customHeight="1">
+    <row r="849" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849" s="18"/>
       <c r="B849" s="18"/>
       <c r="C849" s="18"/>
@@ -26991,7 +27068,7 @@
       <c r="Y849" s="18"/>
       <c r="Z849" s="18"/>
     </row>
-    <row r="850" ht="15.75" customHeight="1">
+    <row r="850" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850" s="18"/>
       <c r="B850" s="18"/>
       <c r="C850" s="18"/>
@@ -27019,7 +27096,7 @@
       <c r="Y850" s="18"/>
       <c r="Z850" s="18"/>
     </row>
-    <row r="851" ht="15.75" customHeight="1">
+    <row r="851" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851" s="18"/>
       <c r="B851" s="18"/>
       <c r="C851" s="18"/>
@@ -27047,7 +27124,7 @@
       <c r="Y851" s="18"/>
       <c r="Z851" s="18"/>
     </row>
-    <row r="852" ht="15.75" customHeight="1">
+    <row r="852" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A852" s="18"/>
       <c r="B852" s="18"/>
       <c r="C852" s="18"/>
@@ -27075,7 +27152,7 @@
       <c r="Y852" s="18"/>
       <c r="Z852" s="18"/>
     </row>
-    <row r="853" ht="15.75" customHeight="1">
+    <row r="853" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A853" s="18"/>
       <c r="B853" s="18"/>
       <c r="C853" s="18"/>
@@ -27103,7 +27180,7 @@
       <c r="Y853" s="18"/>
       <c r="Z853" s="18"/>
     </row>
-    <row r="854" ht="15.75" customHeight="1">
+    <row r="854" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A854" s="18"/>
       <c r="B854" s="18"/>
       <c r="C854" s="18"/>
@@ -27131,7 +27208,7 @@
       <c r="Y854" s="18"/>
       <c r="Z854" s="18"/>
     </row>
-    <row r="855" ht="15.75" customHeight="1">
+    <row r="855" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A855" s="18"/>
       <c r="B855" s="18"/>
       <c r="C855" s="18"/>
@@ -27159,7 +27236,7 @@
       <c r="Y855" s="18"/>
       <c r="Z855" s="18"/>
     </row>
-    <row r="856" ht="15.75" customHeight="1">
+    <row r="856" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A856" s="18"/>
       <c r="B856" s="18"/>
       <c r="C856" s="18"/>
@@ -27187,7 +27264,7 @@
       <c r="Y856" s="18"/>
       <c r="Z856" s="18"/>
     </row>
-    <row r="857" ht="15.75" customHeight="1">
+    <row r="857" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A857" s="18"/>
       <c r="B857" s="18"/>
       <c r="C857" s="18"/>
@@ -27215,7 +27292,7 @@
       <c r="Y857" s="18"/>
       <c r="Z857" s="18"/>
     </row>
-    <row r="858" ht="15.75" customHeight="1">
+    <row r="858" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A858" s="18"/>
       <c r="B858" s="18"/>
       <c r="C858" s="18"/>
@@ -27243,7 +27320,7 @@
       <c r="Y858" s="18"/>
       <c r="Z858" s="18"/>
     </row>
-    <row r="859" ht="15.75" customHeight="1">
+    <row r="859" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A859" s="18"/>
       <c r="B859" s="18"/>
       <c r="C859" s="18"/>
@@ -27271,7 +27348,7 @@
       <c r="Y859" s="18"/>
       <c r="Z859" s="18"/>
     </row>
-    <row r="860" ht="15.75" customHeight="1">
+    <row r="860" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A860" s="18"/>
       <c r="B860" s="18"/>
       <c r="C860" s="18"/>
@@ -27299,7 +27376,7 @@
       <c r="Y860" s="18"/>
       <c r="Z860" s="18"/>
     </row>
-    <row r="861" ht="15.75" customHeight="1">
+    <row r="861" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A861" s="18"/>
       <c r="B861" s="18"/>
       <c r="C861" s="18"/>
@@ -27327,7 +27404,7 @@
       <c r="Y861" s="18"/>
       <c r="Z861" s="18"/>
     </row>
-    <row r="862" ht="15.75" customHeight="1">
+    <row r="862" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A862" s="18"/>
       <c r="B862" s="18"/>
       <c r="C862" s="18"/>
@@ -27355,7 +27432,7 @@
       <c r="Y862" s="18"/>
       <c r="Z862" s="18"/>
     </row>
-    <row r="863" ht="15.75" customHeight="1">
+    <row r="863" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A863" s="18"/>
       <c r="B863" s="18"/>
       <c r="C863" s="18"/>
@@ -27383,7 +27460,7 @@
       <c r="Y863" s="18"/>
       <c r="Z863" s="18"/>
     </row>
-    <row r="864" ht="15.75" customHeight="1">
+    <row r="864" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A864" s="18"/>
       <c r="B864" s="18"/>
       <c r="C864" s="18"/>
@@ -27411,7 +27488,7 @@
       <c r="Y864" s="18"/>
       <c r="Z864" s="18"/>
     </row>
-    <row r="865" ht="15.75" customHeight="1">
+    <row r="865" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A865" s="18"/>
       <c r="B865" s="18"/>
       <c r="C865" s="18"/>
@@ -27439,7 +27516,7 @@
       <c r="Y865" s="18"/>
       <c r="Z865" s="18"/>
     </row>
-    <row r="866" ht="15.75" customHeight="1">
+    <row r="866" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A866" s="18"/>
       <c r="B866" s="18"/>
       <c r="C866" s="18"/>
@@ -27467,7 +27544,7 @@
       <c r="Y866" s="18"/>
       <c r="Z866" s="18"/>
     </row>
-    <row r="867" ht="15.75" customHeight="1">
+    <row r="867" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A867" s="18"/>
       <c r="B867" s="18"/>
       <c r="C867" s="18"/>
@@ -27495,7 +27572,7 @@
       <c r="Y867" s="18"/>
       <c r="Z867" s="18"/>
     </row>
-    <row r="868" ht="15.75" customHeight="1">
+    <row r="868" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A868" s="18"/>
       <c r="B868" s="18"/>
       <c r="C868" s="18"/>
@@ -27523,7 +27600,7 @@
       <c r="Y868" s="18"/>
       <c r="Z868" s="18"/>
     </row>
-    <row r="869" ht="15.75" customHeight="1">
+    <row r="869" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A869" s="18"/>
       <c r="B869" s="18"/>
       <c r="C869" s="18"/>
@@ -27551,7 +27628,7 @@
       <c r="Y869" s="18"/>
       <c r="Z869" s="18"/>
     </row>
-    <row r="870" ht="15.75" customHeight="1">
+    <row r="870" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A870" s="18"/>
       <c r="B870" s="18"/>
       <c r="C870" s="18"/>
@@ -27579,7 +27656,7 @@
       <c r="Y870" s="18"/>
       <c r="Z870" s="18"/>
     </row>
-    <row r="871" ht="15.75" customHeight="1">
+    <row r="871" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A871" s="18"/>
       <c r="B871" s="18"/>
       <c r="C871" s="18"/>
@@ -27607,7 +27684,7 @@
       <c r="Y871" s="18"/>
       <c r="Z871" s="18"/>
     </row>
-    <row r="872" ht="15.75" customHeight="1">
+    <row r="872" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A872" s="18"/>
       <c r="B872" s="18"/>
       <c r="C872" s="18"/>
@@ -27635,7 +27712,7 @@
       <c r="Y872" s="18"/>
       <c r="Z872" s="18"/>
     </row>
-    <row r="873" ht="15.75" customHeight="1">
+    <row r="873" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A873" s="18"/>
       <c r="B873" s="18"/>
       <c r="C873" s="18"/>
@@ -27663,7 +27740,7 @@
       <c r="Y873" s="18"/>
       <c r="Z873" s="18"/>
     </row>
-    <row r="874" ht="15.75" customHeight="1">
+    <row r="874" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A874" s="18"/>
       <c r="B874" s="18"/>
       <c r="C874" s="18"/>
@@ -27691,7 +27768,7 @@
       <c r="Y874" s="18"/>
       <c r="Z874" s="18"/>
     </row>
-    <row r="875" ht="15.75" customHeight="1">
+    <row r="875" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A875" s="18"/>
       <c r="B875" s="18"/>
       <c r="C875" s="18"/>
@@ -27719,7 +27796,7 @@
       <c r="Y875" s="18"/>
       <c r="Z875" s="18"/>
     </row>
-    <row r="876" ht="15.75" customHeight="1">
+    <row r="876" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A876" s="18"/>
       <c r="B876" s="18"/>
       <c r="C876" s="18"/>
@@ -27747,7 +27824,7 @@
       <c r="Y876" s="18"/>
       <c r="Z876" s="18"/>
     </row>
-    <row r="877" ht="15.75" customHeight="1">
+    <row r="877" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A877" s="18"/>
       <c r="B877" s="18"/>
       <c r="C877" s="18"/>
@@ -27775,7 +27852,7 @@
       <c r="Y877" s="18"/>
       <c r="Z877" s="18"/>
     </row>
-    <row r="878" ht="15.75" customHeight="1">
+    <row r="878" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A878" s="18"/>
       <c r="B878" s="18"/>
       <c r="C878" s="18"/>
@@ -27803,7 +27880,7 @@
       <c r="Y878" s="18"/>
       <c r="Z878" s="18"/>
     </row>
-    <row r="879" ht="15.75" customHeight="1">
+    <row r="879" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A879" s="18"/>
       <c r="B879" s="18"/>
       <c r="C879" s="18"/>
@@ -27831,7 +27908,7 @@
       <c r="Y879" s="18"/>
       <c r="Z879" s="18"/>
     </row>
-    <row r="880" ht="15.75" customHeight="1">
+    <row r="880" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A880" s="18"/>
       <c r="B880" s="18"/>
       <c r="C880" s="18"/>
@@ -27859,7 +27936,7 @@
       <c r="Y880" s="18"/>
       <c r="Z880" s="18"/>
     </row>
-    <row r="881" ht="15.75" customHeight="1">
+    <row r="881" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A881" s="18"/>
       <c r="B881" s="18"/>
       <c r="C881" s="18"/>
@@ -27887,7 +27964,7 @@
       <c r="Y881" s="18"/>
       <c r="Z881" s="18"/>
     </row>
-    <row r="882" ht="15.75" customHeight="1">
+    <row r="882" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A882" s="18"/>
       <c r="B882" s="18"/>
       <c r="C882" s="18"/>
@@ -27915,7 +27992,7 @@
       <c r="Y882" s="18"/>
       <c r="Z882" s="18"/>
     </row>
-    <row r="883" ht="15.75" customHeight="1">
+    <row r="883" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A883" s="18"/>
       <c r="B883" s="18"/>
       <c r="C883" s="18"/>
@@ -27943,7 +28020,7 @@
       <c r="Y883" s="18"/>
       <c r="Z883" s="18"/>
     </row>
-    <row r="884" ht="15.75" customHeight="1">
+    <row r="884" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A884" s="18"/>
       <c r="B884" s="18"/>
       <c r="C884" s="18"/>
@@ -27971,7 +28048,7 @@
       <c r="Y884" s="18"/>
       <c r="Z884" s="18"/>
     </row>
-    <row r="885" ht="15.75" customHeight="1">
+    <row r="885" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A885" s="18"/>
       <c r="B885" s="18"/>
       <c r="C885" s="18"/>
@@ -27999,7 +28076,7 @@
       <c r="Y885" s="18"/>
       <c r="Z885" s="18"/>
     </row>
-    <row r="886" ht="15.75" customHeight="1">
+    <row r="886" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A886" s="18"/>
       <c r="B886" s="18"/>
       <c r="C886" s="18"/>
@@ -28027,7 +28104,7 @@
       <c r="Y886" s="18"/>
       <c r="Z886" s="18"/>
     </row>
-    <row r="887" ht="15.75" customHeight="1">
+    <row r="887" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A887" s="18"/>
       <c r="B887" s="18"/>
       <c r="C887" s="18"/>
@@ -28055,7 +28132,7 @@
       <c r="Y887" s="18"/>
       <c r="Z887" s="18"/>
     </row>
-    <row r="888" ht="15.75" customHeight="1">
+    <row r="888" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A888" s="18"/>
       <c r="B888" s="18"/>
       <c r="C888" s="18"/>
@@ -28083,7 +28160,7 @@
       <c r="Y888" s="18"/>
       <c r="Z888" s="18"/>
     </row>
-    <row r="889" ht="15.75" customHeight="1">
+    <row r="889" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A889" s="18"/>
       <c r="B889" s="18"/>
       <c r="C889" s="18"/>
@@ -28111,7 +28188,7 @@
       <c r="Y889" s="18"/>
       <c r="Z889" s="18"/>
     </row>
-    <row r="890" ht="15.75" customHeight="1">
+    <row r="890" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A890" s="18"/>
       <c r="B890" s="18"/>
       <c r="C890" s="18"/>
@@ -28139,7 +28216,7 @@
       <c r="Y890" s="18"/>
       <c r="Z890" s="18"/>
     </row>
-    <row r="891" ht="15.75" customHeight="1">
+    <row r="891" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A891" s="18"/>
       <c r="B891" s="18"/>
       <c r="C891" s="18"/>
@@ -28167,7 +28244,7 @@
       <c r="Y891" s="18"/>
       <c r="Z891" s="18"/>
     </row>
-    <row r="892" ht="15.75" customHeight="1">
+    <row r="892" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A892" s="18"/>
       <c r="B892" s="18"/>
       <c r="C892" s="18"/>
@@ -28195,7 +28272,7 @@
       <c r="Y892" s="18"/>
       <c r="Z892" s="18"/>
     </row>
-    <row r="893" ht="15.75" customHeight="1">
+    <row r="893" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A893" s="18"/>
       <c r="B893" s="18"/>
       <c r="C893" s="18"/>
@@ -28223,7 +28300,7 @@
       <c r="Y893" s="18"/>
       <c r="Z893" s="18"/>
     </row>
-    <row r="894" ht="15.75" customHeight="1">
+    <row r="894" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A894" s="18"/>
       <c r="B894" s="18"/>
       <c r="C894" s="18"/>
@@ -28251,7 +28328,7 @@
       <c r="Y894" s="18"/>
       <c r="Z894" s="18"/>
     </row>
-    <row r="895" ht="15.75" customHeight="1">
+    <row r="895" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A895" s="18"/>
       <c r="B895" s="18"/>
       <c r="C895" s="18"/>
@@ -28279,7 +28356,7 @@
       <c r="Y895" s="18"/>
       <c r="Z895" s="18"/>
     </row>
-    <row r="896" ht="15.75" customHeight="1">
+    <row r="896" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A896" s="18"/>
       <c r="B896" s="18"/>
       <c r="C896" s="18"/>
@@ -28307,7 +28384,7 @@
       <c r="Y896" s="18"/>
       <c r="Z896" s="18"/>
     </row>
-    <row r="897" ht="15.75" customHeight="1">
+    <row r="897" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A897" s="18"/>
       <c r="B897" s="18"/>
       <c r="C897" s="18"/>
@@ -28335,7 +28412,7 @@
       <c r="Y897" s="18"/>
       <c r="Z897" s="18"/>
     </row>
-    <row r="898" ht="15.75" customHeight="1">
+    <row r="898" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A898" s="18"/>
       <c r="B898" s="18"/>
       <c r="C898" s="18"/>
@@ -28363,7 +28440,7 @@
       <c r="Y898" s="18"/>
       <c r="Z898" s="18"/>
     </row>
-    <row r="899" ht="15.75" customHeight="1">
+    <row r="899" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A899" s="18"/>
       <c r="B899" s="18"/>
       <c r="C899" s="18"/>
@@ -28391,7 +28468,7 @@
       <c r="Y899" s="18"/>
       <c r="Z899" s="18"/>
     </row>
-    <row r="900" ht="15.75" customHeight="1">
+    <row r="900" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A900" s="18"/>
       <c r="B900" s="18"/>
       <c r="C900" s="18"/>
@@ -28419,7 +28496,7 @@
       <c r="Y900" s="18"/>
       <c r="Z900" s="18"/>
     </row>
-    <row r="901" ht="15.75" customHeight="1">
+    <row r="901" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A901" s="18"/>
       <c r="B901" s="18"/>
       <c r="C901" s="18"/>
@@ -28447,7 +28524,7 @@
       <c r="Y901" s="18"/>
       <c r="Z901" s="18"/>
     </row>
-    <row r="902" ht="15.75" customHeight="1">
+    <row r="902" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A902" s="18"/>
       <c r="B902" s="18"/>
       <c r="C902" s="18"/>
@@ -28475,7 +28552,7 @@
       <c r="Y902" s="18"/>
       <c r="Z902" s="18"/>
     </row>
-    <row r="903" ht="15.75" customHeight="1">
+    <row r="903" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A903" s="18"/>
       <c r="B903" s="18"/>
       <c r="C903" s="18"/>
@@ -28503,7 +28580,7 @@
       <c r="Y903" s="18"/>
       <c r="Z903" s="18"/>
     </row>
-    <row r="904" ht="15.75" customHeight="1">
+    <row r="904" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A904" s="18"/>
       <c r="B904" s="18"/>
       <c r="C904" s="18"/>
@@ -28531,7 +28608,7 @@
       <c r="Y904" s="18"/>
       <c r="Z904" s="18"/>
     </row>
-    <row r="905" ht="15.75" customHeight="1">
+    <row r="905" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A905" s="18"/>
       <c r="B905" s="18"/>
       <c r="C905" s="18"/>
@@ -28559,7 +28636,7 @@
       <c r="Y905" s="18"/>
       <c r="Z905" s="18"/>
     </row>
-    <row r="906" ht="15.75" customHeight="1">
+    <row r="906" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A906" s="18"/>
       <c r="B906" s="18"/>
       <c r="C906" s="18"/>
@@ -28587,7 +28664,7 @@
       <c r="Y906" s="18"/>
       <c r="Z906" s="18"/>
     </row>
-    <row r="907" ht="15.75" customHeight="1">
+    <row r="907" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A907" s="18"/>
       <c r="B907" s="18"/>
       <c r="C907" s="18"/>
@@ -28615,7 +28692,7 @@
       <c r="Y907" s="18"/>
       <c r="Z907" s="18"/>
     </row>
-    <row r="908" ht="15.75" customHeight="1">
+    <row r="908" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A908" s="18"/>
       <c r="B908" s="18"/>
       <c r="C908" s="18"/>
@@ -28643,7 +28720,7 @@
       <c r="Y908" s="18"/>
       <c r="Z908" s="18"/>
     </row>
-    <row r="909" ht="15.75" customHeight="1">
+    <row r="909" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A909" s="18"/>
       <c r="B909" s="18"/>
       <c r="C909" s="18"/>
@@ -28671,7 +28748,7 @@
       <c r="Y909" s="18"/>
       <c r="Z909" s="18"/>
     </row>
-    <row r="910" ht="15.75" customHeight="1">
+    <row r="910" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A910" s="18"/>
       <c r="B910" s="18"/>
       <c r="C910" s="18"/>
@@ -28699,7 +28776,7 @@
       <c r="Y910" s="18"/>
       <c r="Z910" s="18"/>
     </row>
-    <row r="911" ht="15.75" customHeight="1">
+    <row r="911" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A911" s="18"/>
       <c r="B911" s="18"/>
       <c r="C911" s="18"/>
@@ -28727,7 +28804,7 @@
       <c r="Y911" s="18"/>
       <c r="Z911" s="18"/>
     </row>
-    <row r="912" ht="15.75" customHeight="1">
+    <row r="912" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A912" s="18"/>
       <c r="B912" s="18"/>
       <c r="C912" s="18"/>
@@ -28755,7 +28832,7 @@
       <c r="Y912" s="18"/>
       <c r="Z912" s="18"/>
     </row>
-    <row r="913" ht="15.75" customHeight="1">
+    <row r="913" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A913" s="18"/>
       <c r="B913" s="18"/>
       <c r="C913" s="18"/>
@@ -28783,7 +28860,7 @@
       <c r="Y913" s="18"/>
       <c r="Z913" s="18"/>
     </row>
-    <row r="914" ht="15.75" customHeight="1">
+    <row r="914" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A914" s="18"/>
       <c r="B914" s="18"/>
       <c r="C914" s="18"/>
@@ -28811,7 +28888,7 @@
       <c r="Y914" s="18"/>
       <c r="Z914" s="18"/>
     </row>
-    <row r="915" ht="15.75" customHeight="1">
+    <row r="915" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A915" s="18"/>
       <c r="B915" s="18"/>
       <c r="C915" s="18"/>
@@ -28839,7 +28916,7 @@
       <c r="Y915" s="18"/>
       <c r="Z915" s="18"/>
     </row>
-    <row r="916" ht="15.75" customHeight="1">
+    <row r="916" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A916" s="18"/>
       <c r="B916" s="18"/>
       <c r="C916" s="18"/>
@@ -28867,7 +28944,7 @@
       <c r="Y916" s="18"/>
       <c r="Z916" s="18"/>
     </row>
-    <row r="917" ht="15.75" customHeight="1">
+    <row r="917" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A917" s="18"/>
       <c r="B917" s="18"/>
       <c r="C917" s="18"/>
@@ -28895,7 +28972,7 @@
       <c r="Y917" s="18"/>
       <c r="Z917" s="18"/>
     </row>
-    <row r="918" ht="15.75" customHeight="1">
+    <row r="918" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A918" s="18"/>
       <c r="B918" s="18"/>
       <c r="C918" s="18"/>
@@ -28923,7 +29000,7 @@
       <c r="Y918" s="18"/>
       <c r="Z918" s="18"/>
     </row>
-    <row r="919" ht="15.75" customHeight="1">
+    <row r="919" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A919" s="18"/>
       <c r="B919" s="18"/>
       <c r="C919" s="18"/>
@@ -28951,7 +29028,7 @@
       <c r="Y919" s="18"/>
       <c r="Z919" s="18"/>
     </row>
-    <row r="920" ht="15.75" customHeight="1">
+    <row r="920" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A920" s="18"/>
       <c r="B920" s="18"/>
       <c r="C920" s="18"/>
@@ -28979,7 +29056,7 @@
       <c r="Y920" s="18"/>
       <c r="Z920" s="18"/>
     </row>
-    <row r="921" ht="15.75" customHeight="1">
+    <row r="921" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A921" s="18"/>
       <c r="B921" s="18"/>
       <c r="C921" s="18"/>
@@ -29007,7 +29084,7 @@
       <c r="Y921" s="18"/>
       <c r="Z921" s="18"/>
     </row>
-    <row r="922" ht="15.75" customHeight="1">
+    <row r="922" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A922" s="18"/>
       <c r="B922" s="18"/>
       <c r="C922" s="18"/>
@@ -29035,7 +29112,7 @@
       <c r="Y922" s="18"/>
       <c r="Z922" s="18"/>
     </row>
-    <row r="923" ht="15.75" customHeight="1">
+    <row r="923" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A923" s="18"/>
       <c r="B923" s="18"/>
       <c r="C923" s="18"/>
@@ -29063,7 +29140,7 @@
       <c r="Y923" s="18"/>
       <c r="Z923" s="18"/>
     </row>
-    <row r="924" ht="15.75" customHeight="1">
+    <row r="924" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A924" s="18"/>
       <c r="B924" s="18"/>
       <c r="C924" s="18"/>
@@ -29091,7 +29168,7 @@
       <c r="Y924" s="18"/>
       <c r="Z924" s="18"/>
     </row>
-    <row r="925" ht="15.75" customHeight="1">
+    <row r="925" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A925" s="18"/>
       <c r="B925" s="18"/>
       <c r="C925" s="18"/>
@@ -29119,7 +29196,7 @@
       <c r="Y925" s="18"/>
       <c r="Z925" s="18"/>
     </row>
-    <row r="926" ht="15.75" customHeight="1">
+    <row r="926" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A926" s="18"/>
       <c r="B926" s="18"/>
       <c r="C926" s="18"/>
@@ -29147,7 +29224,7 @@
       <c r="Y926" s="18"/>
       <c r="Z926" s="18"/>
     </row>
-    <row r="927" ht="15.75" customHeight="1">
+    <row r="927" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A927" s="18"/>
       <c r="B927" s="18"/>
       <c r="C927" s="18"/>
@@ -29175,7 +29252,7 @@
       <c r="Y927" s="18"/>
       <c r="Z927" s="18"/>
     </row>
-    <row r="928" ht="15.75" customHeight="1">
+    <row r="928" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A928" s="18"/>
       <c r="B928" s="18"/>
       <c r="C928" s="18"/>
@@ -29203,7 +29280,7 @@
       <c r="Y928" s="18"/>
       <c r="Z928" s="18"/>
     </row>
-    <row r="929" ht="15.75" customHeight="1">
+    <row r="929" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A929" s="18"/>
       <c r="B929" s="18"/>
       <c r="C929" s="18"/>
@@ -29231,7 +29308,7 @@
       <c r="Y929" s="18"/>
       <c r="Z929" s="18"/>
     </row>
-    <row r="930" ht="15.75" customHeight="1">
+    <row r="930" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A930" s="18"/>
       <c r="B930" s="18"/>
       <c r="C930" s="18"/>
@@ -29259,7 +29336,7 @@
       <c r="Y930" s="18"/>
       <c r="Z930" s="18"/>
     </row>
-    <row r="931" ht="15.75" customHeight="1">
+    <row r="931" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A931" s="18"/>
       <c r="B931" s="18"/>
       <c r="C931" s="18"/>
@@ -29287,7 +29364,7 @@
       <c r="Y931" s="18"/>
       <c r="Z931" s="18"/>
     </row>
-    <row r="932" ht="15.75" customHeight="1">
+    <row r="932" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A932" s="18"/>
       <c r="B932" s="18"/>
       <c r="C932" s="18"/>
@@ -29315,7 +29392,7 @@
       <c r="Y932" s="18"/>
       <c r="Z932" s="18"/>
     </row>
-    <row r="933" ht="15.75" customHeight="1">
+    <row r="933" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A933" s="18"/>
       <c r="B933" s="18"/>
       <c r="C933" s="18"/>
@@ -29343,7 +29420,7 @@
       <c r="Y933" s="18"/>
       <c r="Z933" s="18"/>
     </row>
-    <row r="934" ht="15.75" customHeight="1">
+    <row r="934" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A934" s="18"/>
       <c r="B934" s="18"/>
       <c r="C934" s="18"/>
@@ -29371,7 +29448,7 @@
       <c r="Y934" s="18"/>
       <c r="Z934" s="18"/>
     </row>
-    <row r="935" ht="15.75" customHeight="1">
+    <row r="935" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A935" s="18"/>
       <c r="B935" s="18"/>
       <c r="C935" s="18"/>
@@ -29399,7 +29476,7 @@
       <c r="Y935" s="18"/>
       <c r="Z935" s="18"/>
     </row>
-    <row r="936" ht="15.75" customHeight="1">
+    <row r="936" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A936" s="18"/>
       <c r="B936" s="18"/>
       <c r="C936" s="18"/>
@@ -29427,7 +29504,7 @@
       <c r="Y936" s="18"/>
       <c r="Z936" s="18"/>
     </row>
-    <row r="937" ht="15.75" customHeight="1">
+    <row r="937" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A937" s="18"/>
       <c r="B937" s="18"/>
       <c r="C937" s="18"/>
@@ -29455,7 +29532,7 @@
       <c r="Y937" s="18"/>
       <c r="Z937" s="18"/>
     </row>
-    <row r="938" ht="15.75" customHeight="1">
+    <row r="938" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A938" s="18"/>
       <c r="B938" s="18"/>
       <c r="C938" s="18"/>
@@ -29483,7 +29560,7 @@
       <c r="Y938" s="18"/>
       <c r="Z938" s="18"/>
     </row>
-    <row r="939" ht="15.75" customHeight="1">
+    <row r="939" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A939" s="18"/>
       <c r="B939" s="18"/>
       <c r="C939" s="18"/>
@@ -29511,7 +29588,7 @@
       <c r="Y939" s="18"/>
       <c r="Z939" s="18"/>
     </row>
-    <row r="940" ht="15.75" customHeight="1">
+    <row r="940" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A940" s="18"/>
       <c r="B940" s="18"/>
       <c r="C940" s="18"/>
@@ -29539,7 +29616,7 @@
       <c r="Y940" s="18"/>
       <c r="Z940" s="18"/>
     </row>
-    <row r="941" ht="15.75" customHeight="1">
+    <row r="941" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A941" s="18"/>
       <c r="B941" s="18"/>
       <c r="C941" s="18"/>
@@ -29567,7 +29644,7 @@
       <c r="Y941" s="18"/>
       <c r="Z941" s="18"/>
     </row>
-    <row r="942" ht="15.75" customHeight="1">
+    <row r="942" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A942" s="18"/>
       <c r="B942" s="18"/>
       <c r="C942" s="18"/>
@@ -29595,7 +29672,7 @@
       <c r="Y942" s="18"/>
       <c r="Z942" s="18"/>
     </row>
-    <row r="943" ht="15.75" customHeight="1">
+    <row r="943" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A943" s="18"/>
       <c r="B943" s="18"/>
       <c r="C943" s="18"/>
@@ -29623,7 +29700,7 @@
       <c r="Y943" s="18"/>
       <c r="Z943" s="18"/>
     </row>
-    <row r="944" ht="15.75" customHeight="1">
+    <row r="944" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A944" s="18"/>
       <c r="B944" s="18"/>
       <c r="C944" s="18"/>
@@ -29651,7 +29728,7 @@
       <c r="Y944" s="18"/>
       <c r="Z944" s="18"/>
     </row>
-    <row r="945" ht="15.75" customHeight="1">
+    <row r="945" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A945" s="18"/>
       <c r="B945" s="18"/>
       <c r="C945" s="18"/>
@@ -29679,7 +29756,7 @@
       <c r="Y945" s="18"/>
       <c r="Z945" s="18"/>
     </row>
-    <row r="946" ht="15.75" customHeight="1">
+    <row r="946" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A946" s="18"/>
       <c r="B946" s="18"/>
       <c r="C946" s="18"/>
@@ -29707,7 +29784,7 @@
       <c r="Y946" s="18"/>
       <c r="Z946" s="18"/>
     </row>
-    <row r="947" ht="15.75" customHeight="1">
+    <row r="947" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A947" s="18"/>
       <c r="B947" s="18"/>
       <c r="C947" s="18"/>
@@ -29735,7 +29812,7 @@
       <c r="Y947" s="18"/>
       <c r="Z947" s="18"/>
     </row>
-    <row r="948" ht="15.75" customHeight="1">
+    <row r="948" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A948" s="18"/>
       <c r="B948" s="18"/>
       <c r="C948" s="18"/>
@@ -29763,7 +29840,7 @@
       <c r="Y948" s="18"/>
       <c r="Z948" s="18"/>
     </row>
-    <row r="949" ht="15.75" customHeight="1">
+    <row r="949" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A949" s="18"/>
       <c r="B949" s="18"/>
       <c r="C949" s="18"/>
@@ -29791,7 +29868,7 @@
       <c r="Y949" s="18"/>
       <c r="Z949" s="18"/>
     </row>
-    <row r="950" ht="15.75" customHeight="1">
+    <row r="950" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A950" s="18"/>
       <c r="B950" s="18"/>
       <c r="C950" s="18"/>
@@ -29819,7 +29896,7 @@
       <c r="Y950" s="18"/>
       <c r="Z950" s="18"/>
     </row>
-    <row r="951" ht="15.75" customHeight="1">
+    <row r="951" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A951" s="18"/>
       <c r="B951" s="18"/>
       <c r="C951" s="18"/>
@@ -29847,7 +29924,7 @@
       <c r="Y951" s="18"/>
       <c r="Z951" s="18"/>
     </row>
-    <row r="952" ht="15.75" customHeight="1">
+    <row r="952" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A952" s="18"/>
       <c r="B952" s="18"/>
       <c r="C952" s="18"/>
@@ -29875,7 +29952,7 @@
       <c r="Y952" s="18"/>
       <c r="Z952" s="18"/>
     </row>
-    <row r="953" ht="15.75" customHeight="1">
+    <row r="953" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A953" s="18"/>
       <c r="B953" s="18"/>
       <c r="C953" s="18"/>
@@ -29903,7 +29980,7 @@
       <c r="Y953" s="18"/>
       <c r="Z953" s="18"/>
     </row>
-    <row r="954" ht="15.75" customHeight="1">
+    <row r="954" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A954" s="18"/>
       <c r="B954" s="18"/>
       <c r="C954" s="18"/>
@@ -29931,7 +30008,7 @@
       <c r="Y954" s="18"/>
       <c r="Z954" s="18"/>
     </row>
-    <row r="955" ht="15.75" customHeight="1">
+    <row r="955" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A955" s="18"/>
       <c r="B955" s="18"/>
       <c r="C955" s="18"/>
@@ -29959,7 +30036,7 @@
       <c r="Y955" s="18"/>
       <c r="Z955" s="18"/>
     </row>
-    <row r="956" ht="15.75" customHeight="1">
+    <row r="956" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A956" s="18"/>
       <c r="B956" s="18"/>
       <c r="C956" s="18"/>
@@ -29987,7 +30064,7 @@
       <c r="Y956" s="18"/>
       <c r="Z956" s="18"/>
     </row>
-    <row r="957" ht="15.75" customHeight="1">
+    <row r="957" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A957" s="18"/>
       <c r="B957" s="18"/>
       <c r="C957" s="18"/>
@@ -30015,7 +30092,7 @@
       <c r="Y957" s="18"/>
       <c r="Z957" s="18"/>
     </row>
-    <row r="958" ht="15.75" customHeight="1">
+    <row r="958" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A958" s="18"/>
       <c r="B958" s="18"/>
       <c r="C958" s="18"/>
@@ -30043,7 +30120,7 @@
       <c r="Y958" s="18"/>
       <c r="Z958" s="18"/>
     </row>
-    <row r="959" ht="15.75" customHeight="1">
+    <row r="959" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A959" s="18"/>
       <c r="B959" s="18"/>
       <c r="C959" s="18"/>
@@ -30071,7 +30148,7 @@
       <c r="Y959" s="18"/>
       <c r="Z959" s="18"/>
     </row>
-    <row r="960" ht="15.75" customHeight="1">
+    <row r="960" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A960" s="18"/>
       <c r="B960" s="18"/>
       <c r="C960" s="18"/>
@@ -30099,7 +30176,7 @@
       <c r="Y960" s="18"/>
       <c r="Z960" s="18"/>
     </row>
-    <row r="961" ht="15.75" customHeight="1">
+    <row r="961" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A961" s="18"/>
       <c r="B961" s="18"/>
       <c r="C961" s="18"/>
@@ -30127,7 +30204,7 @@
       <c r="Y961" s="18"/>
       <c r="Z961" s="18"/>
     </row>
-    <row r="962" ht="15.75" customHeight="1">
+    <row r="962" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A962" s="18"/>
       <c r="B962" s="18"/>
       <c r="C962" s="18"/>
@@ -30155,7 +30232,7 @@
       <c r="Y962" s="18"/>
       <c r="Z962" s="18"/>
     </row>
-    <row r="963" ht="15.75" customHeight="1">
+    <row r="963" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A963" s="18"/>
       <c r="B963" s="18"/>
       <c r="C963" s="18"/>
@@ -30183,7 +30260,7 @@
       <c r="Y963" s="18"/>
       <c r="Z963" s="18"/>
     </row>
-    <row r="964" ht="15.75" customHeight="1">
+    <row r="964" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A964" s="18"/>
       <c r="B964" s="18"/>
       <c r="C964" s="18"/>
@@ -30211,7 +30288,7 @@
       <c r="Y964" s="18"/>
       <c r="Z964" s="18"/>
     </row>
-    <row r="965" ht="15.75" customHeight="1">
+    <row r="965" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A965" s="18"/>
       <c r="B965" s="18"/>
       <c r="C965" s="18"/>
@@ -30239,7 +30316,7 @@
       <c r="Y965" s="18"/>
       <c r="Z965" s="18"/>
     </row>
-    <row r="966" ht="15.75" customHeight="1">
+    <row r="966" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A966" s="18"/>
       <c r="B966" s="18"/>
       <c r="C966" s="18"/>
@@ -30267,7 +30344,7 @@
       <c r="Y966" s="18"/>
       <c r="Z966" s="18"/>
     </row>
-    <row r="967" ht="15.75" customHeight="1">
+    <row r="967" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A967" s="18"/>
       <c r="B967" s="18"/>
       <c r="C967" s="18"/>
@@ -30295,7 +30372,7 @@
       <c r="Y967" s="18"/>
       <c r="Z967" s="18"/>
     </row>
-    <row r="968" ht="15.75" customHeight="1">
+    <row r="968" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A968" s="18"/>
       <c r="B968" s="18"/>
       <c r="C968" s="18"/>
@@ -30323,7 +30400,7 @@
       <c r="Y968" s="18"/>
       <c r="Z968" s="18"/>
     </row>
-    <row r="969" ht="15.75" customHeight="1">
+    <row r="969" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A969" s="18"/>
       <c r="B969" s="18"/>
       <c r="C969" s="18"/>
@@ -30351,7 +30428,7 @@
       <c r="Y969" s="18"/>
       <c r="Z969" s="18"/>
     </row>
-    <row r="970" ht="15.75" customHeight="1">
+    <row r="970" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A970" s="18"/>
       <c r="B970" s="18"/>
       <c r="C970" s="18"/>
@@ -30379,7 +30456,7 @@
       <c r="Y970" s="18"/>
       <c r="Z970" s="18"/>
     </row>
-    <row r="971" ht="15.75" customHeight="1">
+    <row r="971" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A971" s="18"/>
       <c r="B971" s="18"/>
       <c r="C971" s="18"/>
@@ -30407,7 +30484,7 @@
       <c r="Y971" s="18"/>
       <c r="Z971" s="18"/>
     </row>
-    <row r="972" ht="15.75" customHeight="1">
+    <row r="972" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A972" s="18"/>
       <c r="B972" s="18"/>
       <c r="C972" s="18"/>
@@ -30435,7 +30512,7 @@
       <c r="Y972" s="18"/>
       <c r="Z972" s="18"/>
     </row>
-    <row r="973" ht="15.75" customHeight="1">
+    <row r="973" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A973" s="18"/>
       <c r="B973" s="18"/>
       <c r="C973" s="18"/>
@@ -30463,7 +30540,7 @@
       <c r="Y973" s="18"/>
       <c r="Z973" s="18"/>
     </row>
-    <row r="974" ht="15.75" customHeight="1">
+    <row r="974" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A974" s="18"/>
       <c r="B974" s="18"/>
       <c r="C974" s="18"/>
@@ -30491,7 +30568,7 @@
       <c r="Y974" s="18"/>
       <c r="Z974" s="18"/>
     </row>
-    <row r="975" ht="15.75" customHeight="1">
+    <row r="975" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A975" s="18"/>
       <c r="B975" s="18"/>
       <c r="C975" s="18"/>
@@ -30519,7 +30596,7 @@
       <c r="Y975" s="18"/>
       <c r="Z975" s="18"/>
     </row>
-    <row r="976" ht="15.75" customHeight="1">
+    <row r="976" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A976" s="18"/>
       <c r="B976" s="18"/>
       <c r="C976" s="18"/>
@@ -30547,7 +30624,7 @@
       <c r="Y976" s="18"/>
       <c r="Z976" s="18"/>
     </row>
-    <row r="977" ht="15.75" customHeight="1">
+    <row r="977" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A977" s="18"/>
       <c r="B977" s="18"/>
       <c r="C977" s="18"/>
@@ -30575,7 +30652,7 @@
       <c r="Y977" s="18"/>
       <c r="Z977" s="18"/>
     </row>
-    <row r="978" ht="15.75" customHeight="1">
+    <row r="978" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A978" s="18"/>
       <c r="B978" s="18"/>
       <c r="C978" s="18"/>
@@ -30603,7 +30680,7 @@
       <c r="Y978" s="18"/>
       <c r="Z978" s="18"/>
     </row>
-    <row r="979" ht="15.75" customHeight="1">
+    <row r="979" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A979" s="18"/>
       <c r="B979" s="18"/>
       <c r="C979" s="18"/>
@@ -30631,7 +30708,7 @@
       <c r="Y979" s="18"/>
       <c r="Z979" s="18"/>
     </row>
-    <row r="980" ht="15.75" customHeight="1">
+    <row r="980" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A980" s="18"/>
       <c r="B980" s="18"/>
       <c r="C980" s="18"/>
@@ -30659,7 +30736,7 @@
       <c r="Y980" s="18"/>
       <c r="Z980" s="18"/>
     </row>
-    <row r="981" ht="15.75" customHeight="1">
+    <row r="981" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A981" s="18"/>
       <c r="B981" s="18"/>
       <c r="C981" s="18"/>
@@ -30687,7 +30764,7 @@
       <c r="Y981" s="18"/>
       <c r="Z981" s="18"/>
     </row>
-    <row r="982" ht="15.75" customHeight="1">
+    <row r="982" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A982" s="18"/>
       <c r="B982" s="18"/>
       <c r="C982" s="18"/>
@@ -30715,7 +30792,7 @@
       <c r="Y982" s="18"/>
       <c r="Z982" s="18"/>
     </row>
-    <row r="983" ht="15.75" customHeight="1">
+    <row r="983" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A983" s="18"/>
       <c r="B983" s="18"/>
       <c r="C983" s="18"/>
@@ -30743,7 +30820,7 @@
       <c r="Y983" s="18"/>
       <c r="Z983" s="18"/>
     </row>
-    <row r="984" ht="15.75" customHeight="1">
+    <row r="984" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A984" s="18"/>
       <c r="B984" s="18"/>
       <c r="C984" s="18"/>
@@ -30771,7 +30848,7 @@
       <c r="Y984" s="18"/>
       <c r="Z984" s="18"/>
     </row>
-    <row r="985" ht="15.75" customHeight="1">
+    <row r="985" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A985" s="18"/>
       <c r="B985" s="18"/>
       <c r="C985" s="18"/>
@@ -30799,7 +30876,7 @@
       <c r="Y985" s="18"/>
       <c r="Z985" s="18"/>
     </row>
-    <row r="986" ht="15.75" customHeight="1">
+    <row r="986" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A986" s="18"/>
       <c r="B986" s="18"/>
       <c r="C986" s="18"/>
@@ -30827,7 +30904,7 @@
       <c r="Y986" s="18"/>
       <c r="Z986" s="18"/>
     </row>
-    <row r="987" ht="15.75" customHeight="1">
+    <row r="987" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A987" s="18"/>
       <c r="B987" s="18"/>
       <c r="C987" s="18"/>
@@ -30855,7 +30932,7 @@
       <c r="Y987" s="18"/>
       <c r="Z987" s="18"/>
     </row>
-    <row r="988" ht="15.75" customHeight="1">
+    <row r="988" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A988" s="18"/>
       <c r="B988" s="18"/>
       <c r="C988" s="18"/>
@@ -30883,7 +30960,7 @@
       <c r="Y988" s="18"/>
       <c r="Z988" s="18"/>
     </row>
-    <row r="989" ht="15.75" customHeight="1">
+    <row r="989" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A989" s="18"/>
       <c r="B989" s="18"/>
       <c r="C989" s="18"/>
@@ -30911,7 +30988,7 @@
       <c r="Y989" s="18"/>
       <c r="Z989" s="18"/>
     </row>
-    <row r="990" ht="15.75" customHeight="1">
+    <row r="990" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A990" s="18"/>
       <c r="B990" s="18"/>
       <c r="C990" s="18"/>
@@ -30939,7 +31016,7 @@
       <c r="Y990" s="18"/>
       <c r="Z990" s="18"/>
     </row>
-    <row r="991" ht="15.75" customHeight="1">
+    <row r="991" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A991" s="18"/>
       <c r="B991" s="18"/>
       <c r="C991" s="18"/>
@@ -30967,7 +31044,7 @@
       <c r="Y991" s="18"/>
       <c r="Z991" s="18"/>
     </row>
-    <row r="992" ht="15.75" customHeight="1">
+    <row r="992" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A992" s="18"/>
       <c r="B992" s="18"/>
       <c r="C992" s="18"/>
@@ -30995,7 +31072,7 @@
       <c r="Y992" s="18"/>
       <c r="Z992" s="18"/>
     </row>
-    <row r="993" ht="15.75" customHeight="1">
+    <row r="993" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A993" s="18"/>
       <c r="B993" s="18"/>
       <c r="C993" s="18"/>
@@ -31023,7 +31100,7 @@
       <c r="Y993" s="18"/>
       <c r="Z993" s="18"/>
     </row>
-    <row r="994" ht="15.75" customHeight="1">
+    <row r="994" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A994" s="18"/>
       <c r="B994" s="18"/>
       <c r="C994" s="18"/>
@@ -31051,7 +31128,7 @@
       <c r="Y994" s="18"/>
       <c r="Z994" s="18"/>
     </row>
-    <row r="995" ht="15.75" customHeight="1">
+    <row r="995" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A995" s="18"/>
       <c r="B995" s="18"/>
       <c r="C995" s="18"/>
@@ -31079,7 +31156,7 @@
       <c r="Y995" s="18"/>
       <c r="Z995" s="18"/>
     </row>
-    <row r="996" ht="15.75" customHeight="1">
+    <row r="996" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A996" s="18"/>
       <c r="B996" s="18"/>
       <c r="C996" s="18"/>
@@ -31107,7 +31184,7 @@
       <c r="Y996" s="18"/>
       <c r="Z996" s="18"/>
     </row>
-    <row r="997" ht="15.75" customHeight="1">
+    <row r="997" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A997" s="18"/>
       <c r="B997" s="18"/>
       <c r="C997" s="18"/>
@@ -31135,7 +31212,7 @@
       <c r="Y997" s="18"/>
       <c r="Z997" s="18"/>
     </row>
-    <row r="998" ht="15.75" customHeight="1">
+    <row r="998" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A998" s="18"/>
       <c r="B998" s="18"/>
       <c r="C998" s="18"/>
@@ -31163,7 +31240,7 @@
       <c r="Y998" s="18"/>
       <c r="Z998" s="18"/>
     </row>
-    <row r="999" ht="15.75" customHeight="1">
+    <row r="999" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A999" s="18"/>
       <c r="B999" s="18"/>
       <c r="C999" s="18"/>
@@ -31191,7 +31268,7 @@
       <c r="Y999" s="18"/>
       <c r="Z999" s="18"/>
     </row>
-    <row r="1000" ht="15.75" customHeight="1">
+    <row r="1000" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1000" s="18"/>
       <c r="B1000" s="18"/>
       <c r="C1000" s="18"/>
@@ -31219,7 +31296,7 @@
       <c r="Y1000" s="18"/>
       <c r="Z1000" s="18"/>
     </row>
-    <row r="1001" ht="15.75" customHeight="1">
+    <row r="1001" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1001" s="18"/>
       <c r="B1001" s="18"/>
       <c r="C1001" s="18"/>
@@ -31247,7 +31324,7 @@
       <c r="Y1001" s="18"/>
       <c r="Z1001" s="18"/>
     </row>
-    <row r="1002" ht="15.75" customHeight="1">
+    <row r="1002" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1002" s="18"/>
       <c r="B1002" s="18"/>
       <c r="C1002" s="18"/>
@@ -31275,7 +31352,7 @@
       <c r="Y1002" s="18"/>
       <c r="Z1002" s="18"/>
     </row>
-    <row r="1003" ht="15.75" customHeight="1">
+    <row r="1003" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1003" s="18"/>
       <c r="B1003" s="18"/>
       <c r="C1003" s="18"/>
@@ -31303,7 +31380,7 @@
       <c r="Y1003" s="18"/>
       <c r="Z1003" s="18"/>
     </row>
-    <row r="1004" ht="15.75" customHeight="1">
+    <row r="1004" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1004" s="18"/>
       <c r="B1004" s="18"/>
       <c r="C1004" s="18"/>
@@ -31331,7 +31408,7 @@
       <c r="Y1004" s="18"/>
       <c r="Z1004" s="18"/>
     </row>
-    <row r="1005" ht="15.75" customHeight="1">
+    <row r="1005" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1005" s="18"/>
       <c r="B1005" s="18"/>
       <c r="C1005" s="18"/>
@@ -31359,7 +31436,7 @@
       <c r="Y1005" s="18"/>
       <c r="Z1005" s="18"/>
     </row>
-    <row r="1006" ht="15.75" customHeight="1">
+    <row r="1006" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1006" s="18"/>
       <c r="B1006" s="18"/>
       <c r="C1006" s="18"/>
@@ -31387,7 +31464,7 @@
       <c r="Y1006" s="18"/>
       <c r="Z1006" s="18"/>
     </row>
-    <row r="1007" ht="15.75" customHeight="1">
+    <row r="1007" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1007" s="18"/>
       <c r="B1007" s="18"/>
       <c r="C1007" s="18"/>
@@ -31415,7 +31492,7 @@
       <c r="Y1007" s="18"/>
       <c r="Z1007" s="18"/>
     </row>
-    <row r="1008" ht="15.75" customHeight="1">
+    <row r="1008" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1008" s="18"/>
       <c r="B1008" s="18"/>
       <c r="C1008" s="18"/>
@@ -31443,7 +31520,7 @@
       <c r="Y1008" s="18"/>
       <c r="Z1008" s="18"/>
     </row>
-    <row r="1009" ht="15.75" customHeight="1">
+    <row r="1009" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1009" s="18"/>
       <c r="B1009" s="18"/>
       <c r="C1009" s="18"/>
@@ -31471,7 +31548,7 @@
       <c r="Y1009" s="18"/>
       <c r="Z1009" s="18"/>
     </row>
-    <row r="1010" ht="15.75" customHeight="1">
+    <row r="1010" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1010" s="18"/>
       <c r="B1010" s="18"/>
       <c r="C1010" s="18"/>
@@ -31499,7 +31576,7 @@
       <c r="Y1010" s="18"/>
       <c r="Z1010" s="18"/>
     </row>
-    <row r="1011" ht="15.75" customHeight="1">
+    <row r="1011" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1011" s="18"/>
       <c r="B1011" s="18"/>
       <c r="C1011" s="18"/>
@@ -31527,7 +31604,7 @@
       <c r="Y1011" s="18"/>
       <c r="Z1011" s="18"/>
     </row>
-    <row r="1012" ht="15.75" customHeight="1">
+    <row r="1012" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1012" s="18"/>
       <c r="B1012" s="18"/>
       <c r="C1012" s="18"/>
@@ -31555,7 +31632,7 @@
       <c r="Y1012" s="18"/>
       <c r="Z1012" s="18"/>
     </row>
-    <row r="1013" ht="15.75" customHeight="1">
+    <row r="1013" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1013" s="18"/>
       <c r="B1013" s="18"/>
       <c r="C1013" s="18"/>
@@ -31583,7 +31660,7 @@
       <c r="Y1013" s="18"/>
       <c r="Z1013" s="18"/>
     </row>
-    <row r="1014" ht="15.75" customHeight="1">
+    <row r="1014" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1014" s="18"/>
       <c r="B1014" s="18"/>
       <c r="C1014" s="18"/>
@@ -31611,7 +31688,7 @@
       <c r="Y1014" s="18"/>
       <c r="Z1014" s="18"/>
     </row>
-    <row r="1015" ht="15.75" customHeight="1">
+    <row r="1015" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1015" s="18"/>
       <c r="B1015" s="18"/>
       <c r="C1015" s="18"/>
@@ -31639,7 +31716,7 @@
       <c r="Y1015" s="18"/>
       <c r="Z1015" s="18"/>
     </row>
-    <row r="1016" ht="15.75" customHeight="1">
+    <row r="1016" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1016" s="18"/>
       <c r="B1016" s="18"/>
       <c r="C1016" s="18"/>
@@ -31667,7 +31744,7 @@
       <c r="Y1016" s="18"/>
       <c r="Z1016" s="18"/>
     </row>
-    <row r="1017" ht="15.75" customHeight="1">
+    <row r="1017" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1017" s="18"/>
       <c r="B1017" s="18"/>
       <c r="C1017" s="18"/>
@@ -31695,7 +31772,7 @@
       <c r="Y1017" s="18"/>
       <c r="Z1017" s="18"/>
     </row>
-    <row r="1018" ht="15.75" customHeight="1">
+    <row r="1018" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1018" s="18"/>
       <c r="B1018" s="18"/>
       <c r="C1018" s="18"/>
@@ -31723,7 +31800,7 @@
       <c r="Y1018" s="18"/>
       <c r="Z1018" s="18"/>
     </row>
-    <row r="1019" ht="15.75" customHeight="1">
+    <row r="1019" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1019" s="18"/>
       <c r="B1019" s="18"/>
       <c r="C1019" s="18"/>
@@ -31751,7 +31828,7 @@
       <c r="Y1019" s="18"/>
       <c r="Z1019" s="18"/>
     </row>
-    <row r="1020" ht="15.75" customHeight="1">
+    <row r="1020" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1020" s="18"/>
       <c r="B1020" s="18"/>
       <c r="C1020" s="18"/>
@@ -31779,7 +31856,7 @@
       <c r="Y1020" s="18"/>
       <c r="Z1020" s="18"/>
     </row>
-    <row r="1021" ht="15.75" customHeight="1">
+    <row r="1021" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1021" s="18"/>
       <c r="B1021" s="18"/>
       <c r="C1021" s="18"/>
@@ -31807,7 +31884,7 @@
       <c r="Y1021" s="18"/>
       <c r="Z1021" s="18"/>
     </row>
-    <row r="1022" ht="15.75" customHeight="1">
+    <row r="1022" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1022" s="18"/>
       <c r="B1022" s="18"/>
       <c r="C1022" s="18"/>
@@ -31835,7 +31912,7 @@
       <c r="Y1022" s="18"/>
       <c r="Z1022" s="18"/>
     </row>
-    <row r="1023" ht="15.75" customHeight="1">
+    <row r="1023" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1023" s="18"/>
       <c r="B1023" s="18"/>
       <c r="C1023" s="18"/>
@@ -31863,7 +31940,7 @@
       <c r="Y1023" s="18"/>
       <c r="Z1023" s="18"/>
     </row>
-    <row r="1024" ht="15.75" customHeight="1">
+    <row r="1024" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1024" s="18"/>
       <c r="B1024" s="18"/>
       <c r="C1024" s="18"/>
@@ -31891,7 +31968,7 @@
       <c r="Y1024" s="18"/>
       <c r="Z1024" s="18"/>
     </row>
-    <row r="1025" ht="15.75" customHeight="1">
+    <row r="1025" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1025" s="18"/>
       <c r="B1025" s="18"/>
       <c r="C1025" s="18"/>
@@ -31919,7 +31996,7 @@
       <c r="Y1025" s="18"/>
       <c r="Z1025" s="18"/>
     </row>
-    <row r="1026" ht="15.75" customHeight="1">
+    <row r="1026" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1026" s="18"/>
       <c r="B1026" s="18"/>
       <c r="C1026" s="18"/>
@@ -31947,7 +32024,7 @@
       <c r="Y1026" s="18"/>
       <c r="Z1026" s="18"/>
     </row>
-    <row r="1027" ht="15.75" customHeight="1">
+    <row r="1027" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1027" s="18"/>
       <c r="B1027" s="18"/>
       <c r="C1027" s="18"/>
@@ -31975,7 +32052,7 @@
       <c r="Y1027" s="18"/>
       <c r="Z1027" s="18"/>
     </row>
-    <row r="1028" ht="15.75" customHeight="1">
+    <row r="1028" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1028" s="18"/>
       <c r="B1028" s="18"/>
       <c r="C1028" s="18"/>
@@ -32003,7 +32080,7 @@
       <c r="Y1028" s="18"/>
       <c r="Z1028" s="18"/>
     </row>
-    <row r="1029" ht="15.75" customHeight="1">
+    <row r="1029" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1029" s="18"/>
       <c r="B1029" s="18"/>
       <c r="C1029" s="18"/>
@@ -32031,7 +32108,7 @@
       <c r="Y1029" s="18"/>
       <c r="Z1029" s="18"/>
     </row>
-    <row r="1030" ht="15.75" customHeight="1">
+    <row r="1030" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1030" s="18"/>
       <c r="B1030" s="18"/>
       <c r="C1030" s="18"/>
@@ -32059,7 +32136,7 @@
       <c r="Y1030" s="18"/>
       <c r="Z1030" s="18"/>
     </row>
-    <row r="1031" ht="15.75" customHeight="1">
+    <row r="1031" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1031" s="18"/>
       <c r="B1031" s="18"/>
       <c r="C1031" s="18"/>
@@ -32087,7 +32164,7 @@
       <c r="Y1031" s="18"/>
       <c r="Z1031" s="18"/>
     </row>
-    <row r="1032" ht="15.75" customHeight="1">
+    <row r="1032" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1032" s="18"/>
       <c r="B1032" s="18"/>
       <c r="C1032" s="18"/>
@@ -32115,7 +32192,7 @@
       <c r="Y1032" s="18"/>
       <c r="Z1032" s="18"/>
     </row>
-    <row r="1033" ht="15.75" customHeight="1">
+    <row r="1033" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1033" s="18"/>
       <c r="B1033" s="18"/>
       <c r="C1033" s="18"/>
@@ -32143,7 +32220,7 @@
       <c r="Y1033" s="18"/>
       <c r="Z1033" s="18"/>
     </row>
-    <row r="1034" ht="15.75" customHeight="1">
+    <row r="1034" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1034" s="18"/>
       <c r="B1034" s="18"/>
       <c r="C1034" s="18"/>
@@ -32171,7 +32248,7 @@
       <c r="Y1034" s="18"/>
       <c r="Z1034" s="18"/>
     </row>
-    <row r="1035" ht="15.75" customHeight="1">
+    <row r="1035" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1035" s="18"/>
       <c r="B1035" s="18"/>
       <c r="C1035" s="18"/>
@@ -32199,7 +32276,7 @@
       <c r="Y1035" s="18"/>
       <c r="Z1035" s="18"/>
     </row>
-    <row r="1036" ht="15.75" customHeight="1">
+    <row r="1036" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1036" s="18"/>
       <c r="B1036" s="18"/>
       <c r="C1036" s="18"/>
@@ -32227,7 +32304,7 @@
       <c r="Y1036" s="18"/>
       <c r="Z1036" s="18"/>
     </row>
-    <row r="1037" ht="15.75" customHeight="1">
+    <row r="1037" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1037" s="18"/>
       <c r="B1037" s="18"/>
       <c r="C1037" s="18"/>
@@ -32255,7 +32332,7 @@
       <c r="Y1037" s="18"/>
       <c r="Z1037" s="18"/>
     </row>
-    <row r="1038" ht="15.75" customHeight="1">
+    <row r="1038" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1038" s="18"/>
       <c r="B1038" s="18"/>
       <c r="C1038" s="18"/>
@@ -32283,7 +32360,7 @@
       <c r="Y1038" s="18"/>
       <c r="Z1038" s="18"/>
     </row>
-    <row r="1039" ht="15.75" customHeight="1">
+    <row r="1039" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1039" s="18"/>
       <c r="B1039" s="18"/>
       <c r="C1039" s="18"/>
@@ -32311,7 +32388,7 @@
       <c r="Y1039" s="18"/>
       <c r="Z1039" s="18"/>
     </row>
-    <row r="1040" ht="15.75" customHeight="1">
+    <row r="1040" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1040" s="18"/>
       <c r="B1040" s="18"/>
       <c r="C1040" s="18"/>
@@ -32339,7 +32416,7 @@
       <c r="Y1040" s="18"/>
       <c r="Z1040" s="18"/>
     </row>
-    <row r="1041" ht="15.75" customHeight="1">
+    <row r="1041" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1041" s="18"/>
       <c r="B1041" s="18"/>
       <c r="C1041" s="18"/>
@@ -32367,7 +32444,7 @@
       <c r="Y1041" s="18"/>
       <c r="Z1041" s="18"/>
     </row>
-    <row r="1042" ht="15.75" customHeight="1">
+    <row r="1042" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1042" s="18"/>
       <c r="B1042" s="18"/>
       <c r="C1042" s="18"/>
@@ -32395,7 +32472,7 @@
       <c r="Y1042" s="18"/>
       <c r="Z1042" s="18"/>
     </row>
-    <row r="1043" ht="15.75" customHeight="1">
+    <row r="1043" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1043" s="18"/>
       <c r="B1043" s="18"/>
       <c r="C1043" s="18"/>
@@ -32423,7 +32500,7 @@
       <c r="Y1043" s="18"/>
       <c r="Z1043" s="18"/>
     </row>
-    <row r="1044" ht="15.75" customHeight="1">
+    <row r="1044" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1044" s="18"/>
       <c r="B1044" s="18"/>
       <c r="C1044" s="18"/>
@@ -32451,7 +32528,7 @@
       <c r="Y1044" s="18"/>
       <c r="Z1044" s="18"/>
     </row>
-    <row r="1045" ht="15.75" customHeight="1">
+    <row r="1045" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1045" s="18"/>
       <c r="B1045" s="18"/>
       <c r="C1045" s="18"/>
@@ -32479,7 +32556,7 @@
       <c r="Y1045" s="18"/>
       <c r="Z1045" s="18"/>
     </row>
-    <row r="1046" ht="15.75" customHeight="1">
+    <row r="1046" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1046" s="18"/>
       <c r="B1046" s="18"/>
       <c r="C1046" s="18"/>
@@ -32507,7 +32584,7 @@
       <c r="Y1046" s="18"/>
       <c r="Z1046" s="18"/>
     </row>
-    <row r="1047" ht="15.75" customHeight="1">
+    <row r="1047" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1047" s="18"/>
       <c r="B1047" s="18"/>
       <c r="C1047" s="18"/>
@@ -32535,7 +32612,7 @@
       <c r="Y1047" s="18"/>
       <c r="Z1047" s="18"/>
     </row>
-    <row r="1048" ht="15.75" customHeight="1">
+    <row r="1048" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1048" s="18"/>
       <c r="B1048" s="18"/>
       <c r="C1048" s="18"/>
@@ -32563,7 +32640,7 @@
       <c r="Y1048" s="18"/>
       <c r="Z1048" s="18"/>
     </row>
-    <row r="1049" ht="15.75" customHeight="1">
+    <row r="1049" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1049" s="18"/>
       <c r="B1049" s="18"/>
       <c r="C1049" s="18"/>
@@ -32592,9 +32669,7 @@
       <c r="Z1049" s="18"/>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Resources/Language/Language.xlsx
+++ b/Assets/Resources/Language/Language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jawad Ahmad\01 Unity Projects\ACE\Assets\Resources\Language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DCA660-6D04-4C20-8186-D9A4B2EFF41E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59ACC5E9-0982-48F2-9E3B-A090051C1A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8100" yWindow="1605" windowWidth="17025" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="455">
   <si>
     <t>ID</t>
   </si>
@@ -717,12 +717,6 @@
     <t>使用瀏覽器錢包連接</t>
   </si>
   <si>
-    <t>Don't Have An Account? &lt;color=#79E84B&gt;&lt;link=Sign Up Here!&gt;&lt;u&gt;Sign Up Here!&lt;/u&gt;&lt;/link&gt;&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>沒有帳戶？ &lt;color=#79E84B&gt;&lt;link=Sign Up Here!&gt;&lt;u&gt;在此註冊！&lt;/u&gt;&lt;/link&gt;&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>錢包連接中頁面</t>
   </si>
   <si>
@@ -1462,6 +1456,18 @@
   </si>
   <si>
     <t>积分规则</t>
+  </si>
+  <si>
+    <t>Don't Have An Account?</t>
+  </si>
+  <si>
+    <t>&lt;color=#79E84B&gt;&lt;link=Sign Up Here!&gt;&lt;u&gt;Sign Up Here!&lt;/u&gt;&lt;/link&gt;&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>沒有帳戶?</t>
+  </si>
+  <si>
+    <t>&lt;color=#79E84B&gt;&lt;link=Sign Up Here!&gt;&lt;u&gt;在此註冊！&lt;/u&gt;&lt;/link&gt;&lt;/color&gt;</t>
   </si>
 </sst>
 </file>
@@ -1952,10 +1958,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1049"/>
+  <dimension ref="A1:Z1050"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="C254" sqref="C254"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5731,112 +5737,112 @@
       <c r="Z112" s="3"/>
     </row>
     <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="27" t="s">
+        <v>452</v>
+      </c>
+      <c r="B113" s="27" t="s">
+        <v>452</v>
+      </c>
+      <c r="C113" s="27" t="s">
+        <v>454</v>
+      </c>
+      <c r="D113" s="27"/>
+      <c r="E113" s="27"/>
+      <c r="F113" s="27"/>
+      <c r="G113" s="27"/>
+      <c r="H113" s="27"/>
+      <c r="I113" s="27"/>
+      <c r="J113" s="27"/>
+      <c r="K113" s="27"/>
+      <c r="L113" s="27"/>
+      <c r="M113" s="27"/>
+      <c r="N113" s="27"/>
+      <c r="O113" s="27"/>
+      <c r="P113" s="27"/>
+      <c r="Q113" s="27"/>
+      <c r="R113" s="27"/>
+      <c r="S113" s="27"/>
+      <c r="T113" s="27"/>
+      <c r="U113" s="27"/>
+      <c r="V113" s="27"/>
+      <c r="W113" s="27"/>
+      <c r="X113" s="27"/>
+      <c r="Y113" s="27"/>
+      <c r="Z113" s="27"/>
+    </row>
+    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="3"/>
+      <c r="M114" s="3"/>
+      <c r="N114" s="3"/>
+      <c r="O114" s="3"/>
+      <c r="P114" s="3"/>
+      <c r="Q114" s="3"/>
+      <c r="R114" s="3"/>
+      <c r="S114" s="3"/>
+      <c r="T114" s="3"/>
+      <c r="U114" s="3"/>
+      <c r="V114" s="3"/>
+      <c r="W114" s="3"/>
+      <c r="X114" s="3"/>
+      <c r="Y114" s="3"/>
+      <c r="Z114" s="3"/>
+    </row>
+    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="B113" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
-      <c r="G113" s="3"/>
-      <c r="H113" s="3"/>
-      <c r="I113" s="3"/>
-      <c r="J113" s="3"/>
-      <c r="K113" s="3"/>
-      <c r="L113" s="3"/>
-      <c r="M113" s="3"/>
-      <c r="N113" s="3"/>
-      <c r="O113" s="3"/>
-      <c r="P113" s="3"/>
-      <c r="Q113" s="3"/>
-      <c r="R113" s="3"/>
-      <c r="S113" s="3"/>
-      <c r="T113" s="3"/>
-      <c r="U113" s="3"/>
-      <c r="V113" s="3"/>
-      <c r="W113" s="3"/>
-      <c r="X113" s="3"/>
-      <c r="Y113" s="3"/>
-      <c r="Z113" s="3"/>
-    </row>
-    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="B114" s="25"/>
-      <c r="C114" s="25"/>
-      <c r="D114" s="25"/>
-      <c r="E114" s="25"/>
-      <c r="F114" s="25"/>
-      <c r="G114" s="25"/>
-      <c r="H114" s="25"/>
-      <c r="I114" s="25"/>
-      <c r="J114" s="25"/>
-      <c r="K114" s="25"/>
-      <c r="L114" s="25"/>
-      <c r="M114" s="25"/>
-      <c r="N114" s="25"/>
-      <c r="O114" s="25"/>
-      <c r="P114" s="25"/>
-      <c r="Q114" s="25"/>
-      <c r="R114" s="25"/>
-      <c r="S114" s="25"/>
-      <c r="T114" s="25"/>
-      <c r="U114" s="25"/>
-      <c r="V114" s="25"/>
-      <c r="W114" s="25"/>
-      <c r="X114" s="25"/>
-      <c r="Y114" s="25"/>
-      <c r="Z114" s="25"/>
-    </row>
-    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
-      <c r="H115" s="3"/>
-      <c r="I115" s="3"/>
-      <c r="J115" s="3"/>
-      <c r="K115" s="3"/>
-      <c r="L115" s="3"/>
-      <c r="M115" s="3"/>
-      <c r="N115" s="3"/>
-      <c r="O115" s="3"/>
-      <c r="P115" s="3"/>
-      <c r="Q115" s="3"/>
-      <c r="R115" s="3"/>
-      <c r="S115" s="3"/>
-      <c r="T115" s="3"/>
-      <c r="U115" s="3"/>
-      <c r="V115" s="3"/>
-      <c r="W115" s="3"/>
-      <c r="X115" s="3"/>
-      <c r="Y115" s="3"/>
-      <c r="Z115" s="3"/>
+      <c r="B115" s="25"/>
+      <c r="C115" s="25"/>
+      <c r="D115" s="25"/>
+      <c r="E115" s="25"/>
+      <c r="F115" s="25"/>
+      <c r="G115" s="25"/>
+      <c r="H115" s="25"/>
+      <c r="I115" s="25"/>
+      <c r="J115" s="25"/>
+      <c r="K115" s="25"/>
+      <c r="L115" s="25"/>
+      <c r="M115" s="25"/>
+      <c r="N115" s="25"/>
+      <c r="O115" s="25"/>
+      <c r="P115" s="25"/>
+      <c r="Q115" s="25"/>
+      <c r="R115" s="25"/>
+      <c r="S115" s="25"/>
+      <c r="T115" s="25"/>
+      <c r="U115" s="25"/>
+      <c r="V115" s="25"/>
+      <c r="W115" s="25"/>
+      <c r="X115" s="25"/>
+      <c r="Y115" s="25"/>
+      <c r="Z115" s="25"/>
     </row>
     <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -5864,13 +5870,13 @@
     </row>
     <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -5898,13 +5904,13 @@
     </row>
     <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -5931,142 +5937,142 @@
       <c r="Z118" s="3"/>
     </row>
     <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="26" t="s">
+      <c r="A119" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3"/>
+      <c r="K119" s="3"/>
+      <c r="L119" s="3"/>
+      <c r="M119" s="3"/>
+      <c r="N119" s="3"/>
+      <c r="O119" s="3"/>
+      <c r="P119" s="3"/>
+      <c r="Q119" s="3"/>
+      <c r="R119" s="3"/>
+      <c r="S119" s="3"/>
+      <c r="T119" s="3"/>
+      <c r="U119" s="3"/>
+      <c r="V119" s="3"/>
+      <c r="W119" s="3"/>
+      <c r="X119" s="3"/>
+      <c r="Y119" s="3"/>
+      <c r="Z119" s="3"/>
+    </row>
+    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="B120" s="26"/>
+      <c r="C120" s="26"/>
+      <c r="D120" s="26"/>
+      <c r="E120" s="26"/>
+      <c r="F120" s="26"/>
+      <c r="G120" s="26"/>
+      <c r="H120" s="26"/>
+      <c r="I120" s="26"/>
+      <c r="J120" s="26"/>
+      <c r="K120" s="26"/>
+      <c r="L120" s="26"/>
+      <c r="M120" s="26"/>
+      <c r="N120" s="26"/>
+      <c r="O120" s="26"/>
+      <c r="P120" s="26"/>
+      <c r="Q120" s="26"/>
+      <c r="R120" s="26"/>
+      <c r="S120" s="26"/>
+      <c r="T120" s="26"/>
+      <c r="U120" s="26"/>
+      <c r="V120" s="26"/>
+      <c r="W120" s="26"/>
+      <c r="X120" s="26"/>
+      <c r="Y120" s="26"/>
+      <c r="Z120" s="26"/>
+    </row>
+    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
+      <c r="K121" s="3"/>
+      <c r="L121" s="3"/>
+      <c r="M121" s="3"/>
+      <c r="N121" s="3"/>
+      <c r="O121" s="3"/>
+      <c r="P121" s="3"/>
+      <c r="Q121" s="3"/>
+      <c r="R121" s="3"/>
+      <c r="S121" s="3"/>
+      <c r="T121" s="3"/>
+      <c r="U121" s="3"/>
+      <c r="V121" s="3"/>
+      <c r="W121" s="3"/>
+      <c r="X121" s="3"/>
+      <c r="Y121" s="3"/>
+      <c r="Z121" s="3"/>
+    </row>
+    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="B119" s="26"/>
-      <c r="C119" s="26"/>
-      <c r="D119" s="26"/>
-      <c r="E119" s="26"/>
-      <c r="F119" s="26"/>
-      <c r="G119" s="26"/>
-      <c r="H119" s="26"/>
-      <c r="I119" s="26"/>
-      <c r="J119" s="26"/>
-      <c r="K119" s="26"/>
-      <c r="L119" s="26"/>
-      <c r="M119" s="26"/>
-      <c r="N119" s="26"/>
-      <c r="O119" s="26"/>
-      <c r="P119" s="26"/>
-      <c r="Q119" s="26"/>
-      <c r="R119" s="26"/>
-      <c r="S119" s="26"/>
-      <c r="T119" s="26"/>
-      <c r="U119" s="26"/>
-      <c r="V119" s="26"/>
-      <c r="W119" s="26"/>
-      <c r="X119" s="26"/>
-      <c r="Y119" s="26"/>
-      <c r="Z119" s="26"/>
-    </row>
-    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
+      <c r="B122" s="25"/>
+      <c r="C122" s="25"/>
+      <c r="D122" s="25"/>
+      <c r="E122" s="25"/>
+      <c r="F122" s="25"/>
+      <c r="G122" s="25"/>
+      <c r="H122" s="25"/>
+      <c r="I122" s="25"/>
+      <c r="J122" s="25"/>
+      <c r="K122" s="25"/>
+      <c r="L122" s="25"/>
+      <c r="M122" s="25"/>
+      <c r="N122" s="25"/>
+      <c r="O122" s="25"/>
+      <c r="P122" s="25"/>
+      <c r="Q122" s="25"/>
+      <c r="R122" s="25"/>
+      <c r="S122" s="25"/>
+      <c r="T122" s="25"/>
+      <c r="U122" s="25"/>
+      <c r="V122" s="25"/>
+      <c r="W122" s="25"/>
+      <c r="X122" s="25"/>
+      <c r="Y122" s="25"/>
+      <c r="Z122" s="25"/>
+    </row>
+    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B123" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="C120" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
-      <c r="I120" s="3"/>
-      <c r="J120" s="3"/>
-      <c r="K120" s="3"/>
-      <c r="L120" s="3"/>
-      <c r="M120" s="3"/>
-      <c r="N120" s="3"/>
-      <c r="O120" s="3"/>
-      <c r="P120" s="3"/>
-      <c r="Q120" s="3"/>
-      <c r="R120" s="3"/>
-      <c r="S120" s="3"/>
-      <c r="T120" s="3"/>
-      <c r="U120" s="3"/>
-      <c r="V120" s="3"/>
-      <c r="W120" s="3"/>
-      <c r="X120" s="3"/>
-      <c r="Y120" s="3"/>
-      <c r="Z120" s="3"/>
-    </row>
-    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="25" t="s">
+      <c r="C123" s="27" t="s">
         <v>222</v>
-      </c>
-      <c r="B121" s="25"/>
-      <c r="C121" s="25"/>
-      <c r="D121" s="25"/>
-      <c r="E121" s="25"/>
-      <c r="F121" s="25"/>
-      <c r="G121" s="25"/>
-      <c r="H121" s="25"/>
-      <c r="I121" s="25"/>
-      <c r="J121" s="25"/>
-      <c r="K121" s="25"/>
-      <c r="L121" s="25"/>
-      <c r="M121" s="25"/>
-      <c r="N121" s="25"/>
-      <c r="O121" s="25"/>
-      <c r="P121" s="25"/>
-      <c r="Q121" s="25"/>
-      <c r="R121" s="25"/>
-      <c r="S121" s="25"/>
-      <c r="T121" s="25"/>
-      <c r="U121" s="25"/>
-      <c r="V121" s="25"/>
-      <c r="W121" s="25"/>
-      <c r="X121" s="25"/>
-      <c r="Y121" s="25"/>
-      <c r="Z121" s="25"/>
-    </row>
-    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="B122" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="C122" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3"/>
-      <c r="H122" s="3"/>
-      <c r="I122" s="3"/>
-      <c r="J122" s="3"/>
-      <c r="K122" s="3"/>
-      <c r="L122" s="3"/>
-      <c r="M122" s="3"/>
-      <c r="N122" s="3"/>
-      <c r="O122" s="3"/>
-      <c r="P122" s="3"/>
-      <c r="Q122" s="3"/>
-      <c r="R122" s="3"/>
-      <c r="S122" s="3"/>
-      <c r="T122" s="3"/>
-      <c r="U122" s="3"/>
-      <c r="V122" s="3"/>
-      <c r="W122" s="3"/>
-      <c r="X122" s="3"/>
-      <c r="Y122" s="3"/>
-      <c r="Z122" s="3"/>
-    </row>
-    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>226</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -6093,14 +6099,14 @@
       <c r="Z123" s="3"/>
     </row>
     <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="5" t="s">
-        <v>227</v>
+      <c r="A124" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -6127,141 +6133,141 @@
       <c r="Z124" s="3"/>
     </row>
     <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="25" t="s">
+      <c r="A125" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3"/>
+      <c r="I125" s="3"/>
+      <c r="J125" s="3"/>
+      <c r="K125" s="3"/>
+      <c r="L125" s="3"/>
+      <c r="M125" s="3"/>
+      <c r="N125" s="3"/>
+      <c r="O125" s="3"/>
+      <c r="P125" s="3"/>
+      <c r="Q125" s="3"/>
+      <c r="R125" s="3"/>
+      <c r="S125" s="3"/>
+      <c r="T125" s="3"/>
+      <c r="U125" s="3"/>
+      <c r="V125" s="3"/>
+      <c r="W125" s="3"/>
+      <c r="X125" s="3"/>
+      <c r="Y125" s="3"/>
+      <c r="Z125" s="3"/>
+    </row>
+    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="B126" s="25"/>
+      <c r="C126" s="25"/>
+      <c r="D126" s="25"/>
+      <c r="E126" s="25"/>
+      <c r="F126" s="25"/>
+      <c r="G126" s="25"/>
+      <c r="H126" s="25"/>
+      <c r="I126" s="25"/>
+      <c r="J126" s="25"/>
+      <c r="K126" s="25"/>
+      <c r="L126" s="25"/>
+      <c r="M126" s="25"/>
+      <c r="N126" s="25"/>
+      <c r="O126" s="25"/>
+      <c r="P126" s="25"/>
+      <c r="Q126" s="25"/>
+      <c r="R126" s="25"/>
+      <c r="S126" s="25"/>
+      <c r="T126" s="25"/>
+      <c r="U126" s="25"/>
+      <c r="V126" s="25"/>
+      <c r="W126" s="25"/>
+      <c r="X126" s="25"/>
+      <c r="Y126" s="25"/>
+      <c r="Z126" s="25"/>
+    </row>
+    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C127" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B125" s="25"/>
-      <c r="C125" s="25"/>
-      <c r="D125" s="25"/>
-      <c r="E125" s="25"/>
-      <c r="F125" s="25"/>
-      <c r="G125" s="25"/>
-      <c r="H125" s="25"/>
-      <c r="I125" s="25"/>
-      <c r="J125" s="25"/>
-      <c r="K125" s="25"/>
-      <c r="L125" s="25"/>
-      <c r="M125" s="25"/>
-      <c r="N125" s="25"/>
-      <c r="O125" s="25"/>
-      <c r="P125" s="25"/>
-      <c r="Q125" s="25"/>
-      <c r="R125" s="25"/>
-      <c r="S125" s="25"/>
-      <c r="T125" s="25"/>
-      <c r="U125" s="25"/>
-      <c r="V125" s="25"/>
-      <c r="W125" s="25"/>
-      <c r="X125" s="25"/>
-      <c r="Y125" s="25"/>
-      <c r="Z125" s="25"/>
-    </row>
-    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
+      <c r="O127" s="1"/>
+      <c r="P127" s="1"/>
+      <c r="Q127" s="1"/>
+      <c r="R127" s="1"/>
+      <c r="S127" s="1"/>
+      <c r="T127" s="1"/>
+      <c r="U127" s="1"/>
+      <c r="V127" s="1"/>
+      <c r="W127" s="1"/>
+      <c r="X127" s="1"/>
+      <c r="Y127" s="1"/>
+      <c r="Z127" s="1"/>
+    </row>
+    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C126" s="5" t="s">
+      <c r="B128" s="25"/>
+      <c r="C128" s="25"/>
+      <c r="D128" s="25"/>
+      <c r="E128" s="25"/>
+      <c r="F128" s="25"/>
+      <c r="G128" s="25"/>
+      <c r="H128" s="25"/>
+      <c r="I128" s="25"/>
+      <c r="J128" s="25"/>
+      <c r="K128" s="25"/>
+      <c r="L128" s="25"/>
+      <c r="M128" s="25"/>
+      <c r="N128" s="25"/>
+      <c r="O128" s="25"/>
+      <c r="P128" s="25"/>
+      <c r="Q128" s="25"/>
+      <c r="R128" s="25"/>
+      <c r="S128" s="25"/>
+      <c r="T128" s="25"/>
+      <c r="U128" s="25"/>
+      <c r="V128" s="25"/>
+      <c r="W128" s="25"/>
+      <c r="X128" s="25"/>
+      <c r="Y128" s="25"/>
+      <c r="Z128" s="25"/>
+    </row>
+    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
-      <c r="J126" s="1"/>
-      <c r="K126" s="1"/>
-      <c r="L126" s="1"/>
-      <c r="M126" s="1"/>
-      <c r="N126" s="1"/>
-      <c r="O126" s="1"/>
-      <c r="P126" s="1"/>
-      <c r="Q126" s="1"/>
-      <c r="R126" s="1"/>
-      <c r="S126" s="1"/>
-      <c r="T126" s="1"/>
-      <c r="U126" s="1"/>
-      <c r="V126" s="1"/>
-      <c r="W126" s="1"/>
-      <c r="X126" s="1"/>
-      <c r="Y126" s="1"/>
-      <c r="Z126" s="1"/>
-    </row>
-    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="B127" s="25"/>
-      <c r="C127" s="25"/>
-      <c r="D127" s="25"/>
-      <c r="E127" s="25"/>
-      <c r="F127" s="25"/>
-      <c r="G127" s="25"/>
-      <c r="H127" s="25"/>
-      <c r="I127" s="25"/>
-      <c r="J127" s="25"/>
-      <c r="K127" s="25"/>
-      <c r="L127" s="25"/>
-      <c r="M127" s="25"/>
-      <c r="N127" s="25"/>
-      <c r="O127" s="25"/>
-      <c r="P127" s="25"/>
-      <c r="Q127" s="25"/>
-      <c r="R127" s="25"/>
-      <c r="S127" s="25"/>
-      <c r="T127" s="25"/>
-      <c r="U127" s="25"/>
-      <c r="V127" s="25"/>
-      <c r="W127" s="25"/>
-      <c r="X127" s="25"/>
-      <c r="Y127" s="25"/>
-      <c r="Z127" s="25"/>
-    </row>
-    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
-      <c r="G128" s="3"/>
-      <c r="H128" s="3"/>
-      <c r="I128" s="3"/>
-      <c r="J128" s="3"/>
-      <c r="K128" s="3"/>
-      <c r="L128" s="3"/>
-      <c r="M128" s="3"/>
-      <c r="N128" s="3"/>
-      <c r="O128" s="3"/>
-      <c r="P128" s="3"/>
-      <c r="Q128" s="3"/>
-      <c r="R128" s="3"/>
-      <c r="S128" s="3"/>
-      <c r="T128" s="3"/>
-      <c r="U128" s="3"/>
-      <c r="V128" s="3"/>
-      <c r="W128" s="3"/>
-      <c r="X128" s="3"/>
-      <c r="Y128" s="3"/>
-      <c r="Z128" s="3"/>
-    </row>
-    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C129" s="6" t="s">
+      <c r="B129" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C129" s="5" t="s">
         <v>232</v>
       </c>
       <c r="D129" s="3"/>
@@ -6290,13 +6296,13 @@
     </row>
     <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>230</v>
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -6322,49 +6328,49 @@
       <c r="Y130" s="3"/>
       <c r="Z130" s="3"/>
     </row>
-    <row r="131" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A131" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="B131" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="C131" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="D131" s="18"/>
-      <c r="E131" s="18"/>
-      <c r="F131" s="18"/>
-      <c r="G131" s="18"/>
-      <c r="H131" s="18"/>
-      <c r="I131" s="18"/>
-      <c r="J131" s="18"/>
-      <c r="K131" s="18"/>
-      <c r="L131" s="18"/>
-      <c r="M131" s="18"/>
-      <c r="N131" s="18"/>
-      <c r="O131" s="18"/>
-      <c r="P131" s="18"/>
-      <c r="Q131" s="18"/>
-      <c r="R131" s="18"/>
-      <c r="S131" s="18"/>
-      <c r="T131" s="18"/>
-      <c r="U131" s="18"/>
-      <c r="V131" s="18"/>
-      <c r="W131" s="18"/>
-      <c r="X131" s="18"/>
-      <c r="Y131" s="18"/>
-      <c r="Z131" s="18"/>
+    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
+      <c r="K131" s="3"/>
+      <c r="L131" s="3"/>
+      <c r="M131" s="3"/>
+      <c r="N131" s="3"/>
+      <c r="O131" s="3"/>
+      <c r="P131" s="3"/>
+      <c r="Q131" s="3"/>
+      <c r="R131" s="3"/>
+      <c r="S131" s="3"/>
+      <c r="T131" s="3"/>
+      <c r="U131" s="3"/>
+      <c r="V131" s="3"/>
+      <c r="W131" s="3"/>
+      <c r="X131" s="3"/>
+      <c r="Y131" s="3"/>
+      <c r="Z131" s="3"/>
     </row>
     <row r="132" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="28" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B132" s="28" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C132" s="28" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D132" s="18"/>
       <c r="E132" s="18"/>
@@ -6391,9 +6397,15 @@
       <c r="Z132" s="18"/>
     </row>
     <row r="133" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A133" s="18"/>
-      <c r="B133" s="18"/>
-      <c r="C133" s="18"/>
+      <c r="A133" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="B133" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="C133" s="28" t="s">
+        <v>239</v>
+      </c>
       <c r="D133" s="18"/>
       <c r="E133" s="18"/>
       <c r="F133" s="18"/>
@@ -6418,79 +6430,73 @@
       <c r="Y133" s="18"/>
       <c r="Z133" s="18"/>
     </row>
-    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
-      <c r="G134" s="2"/>
-      <c r="H134" s="2"/>
-      <c r="I134" s="2"/>
-      <c r="J134" s="2"/>
-      <c r="K134" s="2"/>
-      <c r="L134" s="2"/>
-      <c r="M134" s="2"/>
-      <c r="N134" s="2"/>
-      <c r="O134" s="2"/>
-      <c r="P134" s="2"/>
-      <c r="Q134" s="2"/>
-      <c r="R134" s="2"/>
-      <c r="S134" s="2"/>
-      <c r="T134" s="2"/>
-      <c r="U134" s="2"/>
-      <c r="V134" s="2"/>
-      <c r="W134" s="2"/>
-      <c r="X134" s="2"/>
-      <c r="Y134" s="2"/>
-      <c r="Z134" s="2"/>
+    <row r="134" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A134" s="18"/>
+      <c r="B134" s="18"/>
+      <c r="C134" s="18"/>
+      <c r="D134" s="18"/>
+      <c r="E134" s="18"/>
+      <c r="F134" s="18"/>
+      <c r="G134" s="18"/>
+      <c r="H134" s="18"/>
+      <c r="I134" s="18"/>
+      <c r="J134" s="18"/>
+      <c r="K134" s="18"/>
+      <c r="L134" s="18"/>
+      <c r="M134" s="18"/>
+      <c r="N134" s="18"/>
+      <c r="O134" s="18"/>
+      <c r="P134" s="18"/>
+      <c r="Q134" s="18"/>
+      <c r="R134" s="18"/>
+      <c r="S134" s="18"/>
+      <c r="T134" s="18"/>
+      <c r="U134" s="18"/>
+      <c r="V134" s="18"/>
+      <c r="W134" s="18"/>
+      <c r="X134" s="18"/>
+      <c r="Y134" s="18"/>
+      <c r="Z134" s="18"/>
     </row>
     <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
-      <c r="G135" s="3"/>
-      <c r="H135" s="3"/>
-      <c r="I135" s="3"/>
-      <c r="J135" s="3"/>
-      <c r="K135" s="3"/>
-      <c r="L135" s="3"/>
-      <c r="M135" s="3"/>
-      <c r="N135" s="3"/>
-      <c r="O135" s="3"/>
-      <c r="P135" s="3"/>
-      <c r="Q135" s="3"/>
-      <c r="R135" s="3"/>
-      <c r="S135" s="3"/>
-      <c r="T135" s="3"/>
-      <c r="U135" s="3"/>
-      <c r="V135" s="3"/>
-      <c r="W135" s="3"/>
-      <c r="X135" s="3"/>
-      <c r="Y135" s="3"/>
-      <c r="Z135" s="3"/>
+      <c r="A135" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2"/>
+      <c r="K135" s="2"/>
+      <c r="L135" s="2"/>
+      <c r="M135" s="2"/>
+      <c r="N135" s="2"/>
+      <c r="O135" s="2"/>
+      <c r="P135" s="2"/>
+      <c r="Q135" s="2"/>
+      <c r="R135" s="2"/>
+      <c r="S135" s="2"/>
+      <c r="T135" s="2"/>
+      <c r="U135" s="2"/>
+      <c r="V135" s="2"/>
+      <c r="W135" s="2"/>
+      <c r="X135" s="2"/>
+      <c r="Y135" s="2"/>
+      <c r="Z135" s="2"/>
     </row>
     <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -6518,13 +6524,13 @@
     </row>
     <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -6551,9 +6557,15 @@
       <c r="Z137" s="3"/>
     </row>
     <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
+      <c r="A138" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>245</v>
+      </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
@@ -6579,78 +6591,72 @@
       <c r="Z138" s="3"/>
     </row>
     <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
-      <c r="I139" s="2"/>
-      <c r="J139" s="2"/>
-      <c r="K139" s="2"/>
-      <c r="L139" s="2"/>
-      <c r="M139" s="2"/>
-      <c r="N139" s="2"/>
-      <c r="O139" s="2"/>
-      <c r="P139" s="2"/>
-      <c r="Q139" s="2"/>
-      <c r="R139" s="2"/>
-      <c r="S139" s="2"/>
-      <c r="T139" s="2"/>
-      <c r="U139" s="2"/>
-      <c r="V139" s="2"/>
-      <c r="W139" s="2"/>
-      <c r="X139" s="2"/>
-      <c r="Y139" s="2"/>
-      <c r="Z139" s="2"/>
+      <c r="A139" s="3"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="3"/>
+      <c r="I139" s="3"/>
+      <c r="J139" s="3"/>
+      <c r="K139" s="3"/>
+      <c r="L139" s="3"/>
+      <c r="M139" s="3"/>
+      <c r="N139" s="3"/>
+      <c r="O139" s="3"/>
+      <c r="P139" s="3"/>
+      <c r="Q139" s="3"/>
+      <c r="R139" s="3"/>
+      <c r="S139" s="3"/>
+      <c r="T139" s="3"/>
+      <c r="U139" s="3"/>
+      <c r="V139" s="3"/>
+      <c r="W139" s="3"/>
+      <c r="X139" s="3"/>
+      <c r="Y139" s="3"/>
+      <c r="Z139" s="3"/>
     </row>
     <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
-      <c r="H140" s="1"/>
-      <c r="I140" s="1"/>
-      <c r="J140" s="1"/>
-      <c r="K140" s="1"/>
-      <c r="L140" s="1"/>
-      <c r="M140" s="1"/>
-      <c r="N140" s="1"/>
-      <c r="O140" s="1"/>
-      <c r="P140" s="1"/>
-      <c r="Q140" s="1"/>
-      <c r="R140" s="1"/>
-      <c r="S140" s="1"/>
-      <c r="T140" s="1"/>
-      <c r="U140" s="1"/>
-      <c r="V140" s="1"/>
-      <c r="W140" s="1"/>
-      <c r="X140" s="1"/>
-      <c r="Y140" s="1"/>
-      <c r="Z140" s="1"/>
+      <c r="A140" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="2"/>
+      <c r="K140" s="2"/>
+      <c r="L140" s="2"/>
+      <c r="M140" s="2"/>
+      <c r="N140" s="2"/>
+      <c r="O140" s="2"/>
+      <c r="P140" s="2"/>
+      <c r="Q140" s="2"/>
+      <c r="R140" s="2"/>
+      <c r="S140" s="2"/>
+      <c r="T140" s="2"/>
+      <c r="U140" s="2"/>
+      <c r="V140" s="2"/>
+      <c r="W140" s="2"/>
+      <c r="X140" s="2"/>
+      <c r="Y140" s="2"/>
+      <c r="Z140" s="2"/>
     </row>
     <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -6678,13 +6684,13 @@
     </row>
     <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -6712,13 +6718,13 @@
     </row>
     <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -6746,13 +6752,13 @@
     </row>
     <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -6780,13 +6786,13 @@
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -6813,9 +6819,15 @@
       <c r="Z145" s="1"/>
     </row>
     <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
+      <c r="A146" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -6841,73 +6853,73 @@
       <c r="Z146" s="1"/>
     </row>
     <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
-      <c r="F147" s="2"/>
-      <c r="G147" s="2"/>
-      <c r="H147" s="2"/>
-      <c r="I147" s="2"/>
-      <c r="J147" s="2"/>
-      <c r="K147" s="2"/>
-      <c r="L147" s="2"/>
-      <c r="M147" s="2"/>
-      <c r="N147" s="2"/>
-      <c r="O147" s="2"/>
-      <c r="P147" s="2"/>
-      <c r="Q147" s="2"/>
-      <c r="R147" s="2"/>
-      <c r="S147" s="2"/>
-      <c r="T147" s="2"/>
-      <c r="U147" s="2"/>
-      <c r="V147" s="2"/>
-      <c r="W147" s="2"/>
-      <c r="X147" s="2"/>
-      <c r="Y147" s="2"/>
-      <c r="Z147" s="2"/>
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+      <c r="N147" s="1"/>
+      <c r="O147" s="1"/>
+      <c r="P147" s="1"/>
+      <c r="Q147" s="1"/>
+      <c r="R147" s="1"/>
+      <c r="S147" s="1"/>
+      <c r="T147" s="1"/>
+      <c r="U147" s="1"/>
+      <c r="V147" s="1"/>
+      <c r="W147" s="1"/>
+      <c r="X147" s="1"/>
+      <c r="Y147" s="1"/>
+      <c r="Z147" s="1"/>
     </row>
     <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
-      <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
-      <c r="J148" s="1"/>
-      <c r="K148" s="1"/>
-      <c r="L148" s="1"/>
-      <c r="M148" s="1"/>
-      <c r="N148" s="1"/>
-      <c r="O148" s="1"/>
-      <c r="P148" s="1"/>
-      <c r="Q148" s="1"/>
-      <c r="R148" s="1"/>
-      <c r="S148" s="1"/>
-      <c r="T148" s="1"/>
-      <c r="U148" s="1"/>
-      <c r="V148" s="1"/>
-      <c r="W148" s="1"/>
-      <c r="X148" s="1"/>
-      <c r="Y148" s="1"/>
-      <c r="Z148" s="1"/>
+      <c r="A148" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2"/>
+      <c r="K148" s="2"/>
+      <c r="L148" s="2"/>
+      <c r="M148" s="2"/>
+      <c r="N148" s="2"/>
+      <c r="O148" s="2"/>
+      <c r="P148" s="2"/>
+      <c r="Q148" s="2"/>
+      <c r="R148" s="2"/>
+      <c r="S148" s="2"/>
+      <c r="T148" s="2"/>
+      <c r="U148" s="2"/>
+      <c r="V148" s="2"/>
+      <c r="W148" s="2"/>
+      <c r="X148" s="2"/>
+      <c r="Y148" s="2"/>
+      <c r="Z148" s="2"/>
     </row>
     <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
+      <c r="A149" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
@@ -6933,78 +6945,72 @@
       <c r="Z149" s="1"/>
     </row>
     <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="2" t="s">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+      <c r="O150" s="1"/>
+      <c r="P150" s="1"/>
+      <c r="Q150" s="1"/>
+      <c r="R150" s="1"/>
+      <c r="S150" s="1"/>
+      <c r="T150" s="1"/>
+      <c r="U150" s="1"/>
+      <c r="V150" s="1"/>
+      <c r="W150" s="1"/>
+      <c r="X150" s="1"/>
+      <c r="Y150" s="1"/>
+      <c r="Z150" s="1"/>
+    </row>
+    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-      <c r="F150" s="2"/>
-      <c r="G150" s="2"/>
-      <c r="H150" s="2"/>
-      <c r="I150" s="2"/>
-      <c r="J150" s="2"/>
-      <c r="K150" s="2"/>
-      <c r="L150" s="2"/>
-      <c r="M150" s="2"/>
-      <c r="N150" s="2"/>
-      <c r="O150" s="2"/>
-      <c r="P150" s="2"/>
-      <c r="Q150" s="2"/>
-      <c r="R150" s="2"/>
-      <c r="S150" s="2"/>
-      <c r="T150" s="2"/>
-      <c r="U150" s="2"/>
-      <c r="V150" s="2"/>
-      <c r="W150" s="2"/>
-      <c r="X150" s="2"/>
-      <c r="Y150" s="2"/>
-      <c r="Z150" s="2"/>
-    </row>
-    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
-      <c r="G151" s="1"/>
-      <c r="H151" s="1"/>
-      <c r="I151" s="1"/>
-      <c r="J151" s="1"/>
-      <c r="K151" s="1"/>
-      <c r="L151" s="1"/>
-      <c r="M151" s="1"/>
-      <c r="N151" s="1"/>
-      <c r="O151" s="1"/>
-      <c r="P151" s="1"/>
-      <c r="Q151" s="1"/>
-      <c r="R151" s="1"/>
-      <c r="S151" s="1"/>
-      <c r="T151" s="1"/>
-      <c r="U151" s="1"/>
-      <c r="V151" s="1"/>
-      <c r="W151" s="1"/>
-      <c r="X151" s="1"/>
-      <c r="Y151" s="1"/>
-      <c r="Z151" s="1"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2"/>
+      <c r="J151" s="2"/>
+      <c r="K151" s="2"/>
+      <c r="L151" s="2"/>
+      <c r="M151" s="2"/>
+      <c r="N151" s="2"/>
+      <c r="O151" s="2"/>
+      <c r="P151" s="2"/>
+      <c r="Q151" s="2"/>
+      <c r="R151" s="2"/>
+      <c r="S151" s="2"/>
+      <c r="T151" s="2"/>
+      <c r="U151" s="2"/>
+      <c r="V151" s="2"/>
+      <c r="W151" s="2"/>
+      <c r="X151" s="2"/>
+      <c r="Y151" s="2"/>
+      <c r="Z151" s="2"/>
     </row>
     <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -7032,13 +7038,13 @@
     </row>
     <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -7065,184 +7071,184 @@
       <c r="Z153" s="1"/>
     </row>
     <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="7" t="s">
+      <c r="A154" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
+      <c r="N154" s="1"/>
+      <c r="O154" s="1"/>
+      <c r="P154" s="1"/>
+      <c r="Q154" s="1"/>
+      <c r="R154" s="1"/>
+      <c r="S154" s="1"/>
+      <c r="T154" s="1"/>
+      <c r="U154" s="1"/>
+      <c r="V154" s="1"/>
+      <c r="W154" s="1"/>
+      <c r="X154" s="1"/>
+      <c r="Y154" s="1"/>
+      <c r="Z154" s="1"/>
+    </row>
+    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
+      <c r="G155" s="9"/>
+      <c r="H155" s="9"/>
+      <c r="I155" s="9"/>
+      <c r="J155" s="9"/>
+      <c r="K155" s="9"/>
+      <c r="L155" s="9"/>
+      <c r="M155" s="9"/>
+      <c r="N155" s="9"/>
+      <c r="O155" s="9"/>
+      <c r="P155" s="9"/>
+      <c r="Q155" s="9"/>
+      <c r="R155" s="9"/>
+      <c r="S155" s="9"/>
+      <c r="T155" s="9"/>
+      <c r="U155" s="9"/>
+      <c r="V155" s="9"/>
+      <c r="W155" s="9"/>
+      <c r="X155" s="9"/>
+      <c r="Y155" s="9"/>
+      <c r="Z155" s="10"/>
+    </row>
+    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="B154" s="9" t="s">
+      <c r="B156" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C154" s="9" t="s">
+      <c r="C156" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D154" s="9"/>
-      <c r="E154" s="9"/>
-      <c r="F154" s="9"/>
-      <c r="G154" s="9"/>
-      <c r="H154" s="9"/>
-      <c r="I154" s="9"/>
-      <c r="J154" s="9"/>
-      <c r="K154" s="9"/>
-      <c r="L154" s="9"/>
-      <c r="M154" s="9"/>
-      <c r="N154" s="9"/>
-      <c r="O154" s="9"/>
-      <c r="P154" s="9"/>
-      <c r="Q154" s="9"/>
-      <c r="R154" s="9"/>
-      <c r="S154" s="9"/>
-      <c r="T154" s="9"/>
-      <c r="U154" s="9"/>
-      <c r="V154" s="9"/>
-      <c r="W154" s="9"/>
-      <c r="X154" s="9"/>
-      <c r="Y154" s="9"/>
-      <c r="Z154" s="10"/>
-    </row>
-    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="13" t="s">
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
+      <c r="O156" s="1"/>
+      <c r="P156" s="1"/>
+      <c r="Q156" s="1"/>
+      <c r="R156" s="1"/>
+      <c r="S156" s="1"/>
+      <c r="T156" s="1"/>
+      <c r="U156" s="1"/>
+      <c r="V156" s="1"/>
+      <c r="W156" s="1"/>
+      <c r="X156" s="1"/>
+      <c r="Y156" s="1"/>
+      <c r="Z156" s="12"/>
+    </row>
+    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B157" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C157" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
-      <c r="G155" s="1"/>
-      <c r="H155" s="1"/>
-      <c r="I155" s="1"/>
-      <c r="J155" s="1"/>
-      <c r="K155" s="1"/>
-      <c r="L155" s="1"/>
-      <c r="M155" s="1"/>
-      <c r="N155" s="1"/>
-      <c r="O155" s="1"/>
-      <c r="P155" s="1"/>
-      <c r="Q155" s="1"/>
-      <c r="R155" s="1"/>
-      <c r="S155" s="1"/>
-      <c r="T155" s="1"/>
-      <c r="U155" s="1"/>
-      <c r="V155" s="1"/>
-      <c r="W155" s="1"/>
-      <c r="X155" s="1"/>
-      <c r="Y155" s="1"/>
-      <c r="Z155" s="12"/>
-    </row>
-    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="14" t="s">
+      <c r="D157" s="15"/>
+      <c r="E157" s="15"/>
+      <c r="F157" s="15"/>
+      <c r="G157" s="15"/>
+      <c r="H157" s="15"/>
+      <c r="I157" s="15"/>
+      <c r="J157" s="15"/>
+      <c r="K157" s="15"/>
+      <c r="L157" s="15"/>
+      <c r="M157" s="15"/>
+      <c r="N157" s="15"/>
+      <c r="O157" s="15"/>
+      <c r="P157" s="15"/>
+      <c r="Q157" s="15"/>
+      <c r="R157" s="15"/>
+      <c r="S157" s="15"/>
+      <c r="T157" s="15"/>
+      <c r="U157" s="15"/>
+      <c r="V157" s="15"/>
+      <c r="W157" s="15"/>
+      <c r="X157" s="15"/>
+      <c r="Y157" s="15"/>
+      <c r="Z157" s="16"/>
+    </row>
+    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="B156" s="15" t="s">
+      <c r="B158" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="C156" s="15" t="s">
+      <c r="C158" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="D156" s="15"/>
-      <c r="E156" s="15"/>
-      <c r="F156" s="15"/>
-      <c r="G156" s="15"/>
-      <c r="H156" s="15"/>
-      <c r="I156" s="15"/>
-      <c r="J156" s="15"/>
-      <c r="K156" s="15"/>
-      <c r="L156" s="15"/>
-      <c r="M156" s="15"/>
-      <c r="N156" s="15"/>
-      <c r="O156" s="15"/>
-      <c r="P156" s="15"/>
-      <c r="Q156" s="15"/>
-      <c r="R156" s="15"/>
-      <c r="S156" s="15"/>
-      <c r="T156" s="15"/>
-      <c r="U156" s="15"/>
-      <c r="V156" s="15"/>
-      <c r="W156" s="15"/>
-      <c r="X156" s="15"/>
-      <c r="Y156" s="15"/>
-      <c r="Z156" s="16"/>
-    </row>
-    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="B157" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="C157" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="D157" s="9"/>
-      <c r="E157" s="9"/>
-      <c r="F157" s="9"/>
-      <c r="G157" s="9"/>
-      <c r="H157" s="9"/>
-      <c r="I157" s="9"/>
-      <c r="J157" s="9"/>
-      <c r="K157" s="9"/>
-      <c r="L157" s="9"/>
-      <c r="M157" s="9"/>
-      <c r="N157" s="9"/>
-      <c r="O157" s="9"/>
-      <c r="P157" s="9"/>
-      <c r="Q157" s="9"/>
-      <c r="R157" s="9"/>
-      <c r="S157" s="9"/>
-      <c r="T157" s="9"/>
-      <c r="U157" s="9"/>
-      <c r="V157" s="9"/>
-      <c r="W157" s="9"/>
-      <c r="X157" s="9"/>
-      <c r="Y157" s="9"/>
-      <c r="Z157" s="10"/>
-    </row>
-    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
-      <c r="G158" s="1"/>
-      <c r="H158" s="1"/>
-      <c r="I158" s="1"/>
-      <c r="J158" s="1"/>
-      <c r="K158" s="1"/>
-      <c r="L158" s="1"/>
-      <c r="M158" s="1"/>
-      <c r="N158" s="1"/>
-      <c r="O158" s="1"/>
-      <c r="P158" s="1"/>
-      <c r="Q158" s="1"/>
-      <c r="R158" s="1"/>
-      <c r="S158" s="1"/>
-      <c r="T158" s="1"/>
-      <c r="U158" s="1"/>
-      <c r="V158" s="1"/>
-      <c r="W158" s="1"/>
-      <c r="X158" s="1"/>
-      <c r="Y158" s="1"/>
-      <c r="Z158" s="12"/>
+      <c r="D158" s="9"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="9"/>
+      <c r="G158" s="9"/>
+      <c r="H158" s="9"/>
+      <c r="I158" s="9"/>
+      <c r="J158" s="9"/>
+      <c r="K158" s="9"/>
+      <c r="L158" s="9"/>
+      <c r="M158" s="9"/>
+      <c r="N158" s="9"/>
+      <c r="O158" s="9"/>
+      <c r="P158" s="9"/>
+      <c r="Q158" s="9"/>
+      <c r="R158" s="9"/>
+      <c r="S158" s="9"/>
+      <c r="T158" s="9"/>
+      <c r="U158" s="9"/>
+      <c r="V158" s="9"/>
+      <c r="W158" s="9"/>
+      <c r="X158" s="9"/>
+      <c r="Y158" s="9"/>
+      <c r="Z158" s="10"/>
     </row>
     <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="13" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -7269,116 +7275,116 @@
       <c r="Z159" s="12"/>
     </row>
     <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="14" t="s">
+      <c r="A160" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
+      <c r="O160" s="1"/>
+      <c r="P160" s="1"/>
+      <c r="Q160" s="1"/>
+      <c r="R160" s="1"/>
+      <c r="S160" s="1"/>
+      <c r="T160" s="1"/>
+      <c r="U160" s="1"/>
+      <c r="V160" s="1"/>
+      <c r="W160" s="1"/>
+      <c r="X160" s="1"/>
+      <c r="Y160" s="1"/>
+      <c r="Z160" s="12"/>
+    </row>
+    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="B161" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C161" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D161" s="15"/>
+      <c r="E161" s="15"/>
+      <c r="F161" s="15"/>
+      <c r="G161" s="15"/>
+      <c r="H161" s="15"/>
+      <c r="I161" s="15"/>
+      <c r="J161" s="15"/>
+      <c r="K161" s="15"/>
+      <c r="L161" s="15"/>
+      <c r="M161" s="15"/>
+      <c r="N161" s="15"/>
+      <c r="O161" s="15"/>
+      <c r="P161" s="15"/>
+      <c r="Q161" s="15"/>
+      <c r="R161" s="15"/>
+      <c r="S161" s="15"/>
+      <c r="T161" s="15"/>
+      <c r="U161" s="15"/>
+      <c r="V161" s="15"/>
+      <c r="W161" s="15"/>
+      <c r="X161" s="15"/>
+      <c r="Y161" s="15"/>
+      <c r="Z161" s="16"/>
+    </row>
+    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="B160" s="15" t="s">
+      <c r="B162" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="C160" s="15" t="s">
+      <c r="C162" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D160" s="15"/>
-      <c r="E160" s="15"/>
-      <c r="F160" s="15"/>
-      <c r="G160" s="15"/>
-      <c r="H160" s="15"/>
-      <c r="I160" s="15"/>
-      <c r="J160" s="15"/>
-      <c r="K160" s="15"/>
-      <c r="L160" s="15"/>
-      <c r="M160" s="15"/>
-      <c r="N160" s="15"/>
-      <c r="O160" s="15"/>
-      <c r="P160" s="15"/>
-      <c r="Q160" s="15"/>
-      <c r="R160" s="15"/>
-      <c r="S160" s="15"/>
-      <c r="T160" s="15"/>
-      <c r="U160" s="15"/>
-      <c r="V160" s="15"/>
-      <c r="W160" s="15"/>
-      <c r="X160" s="15"/>
-      <c r="Y160" s="15"/>
-      <c r="Z160" s="16"/>
-    </row>
-    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="7" t="s">
+      <c r="D162" s="9"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="9"/>
+      <c r="G162" s="9"/>
+      <c r="H162" s="9"/>
+      <c r="I162" s="9"/>
+      <c r="J162" s="9"/>
+      <c r="K162" s="9"/>
+      <c r="L162" s="9"/>
+      <c r="M162" s="9"/>
+      <c r="N162" s="9"/>
+      <c r="O162" s="9"/>
+      <c r="P162" s="9"/>
+      <c r="Q162" s="9"/>
+      <c r="R162" s="9"/>
+      <c r="S162" s="9"/>
+      <c r="T162" s="9"/>
+      <c r="U162" s="9"/>
+      <c r="V162" s="9"/>
+      <c r="W162" s="9"/>
+      <c r="X162" s="9"/>
+      <c r="Y162" s="9"/>
+      <c r="Z162" s="10"/>
+    </row>
+    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="B161" s="9" t="s">
+      <c r="B163" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C161" s="9" t="s">
+      <c r="C163" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="D161" s="9"/>
-      <c r="E161" s="9"/>
-      <c r="F161" s="9"/>
-      <c r="G161" s="9"/>
-      <c r="H161" s="9"/>
-      <c r="I161" s="9"/>
-      <c r="J161" s="9"/>
-      <c r="K161" s="9"/>
-      <c r="L161" s="9"/>
-      <c r="M161" s="9"/>
-      <c r="N161" s="9"/>
-      <c r="O161" s="9"/>
-      <c r="P161" s="9"/>
-      <c r="Q161" s="9"/>
-      <c r="R161" s="9"/>
-      <c r="S161" s="9"/>
-      <c r="T161" s="9"/>
-      <c r="U161" s="9"/>
-      <c r="V161" s="9"/>
-      <c r="W161" s="9"/>
-      <c r="X161" s="9"/>
-      <c r="Y161" s="9"/>
-      <c r="Z161" s="10"/>
-    </row>
-    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
-      <c r="G162" s="1"/>
-      <c r="H162" s="1"/>
-      <c r="I162" s="1"/>
-      <c r="J162" s="1"/>
-      <c r="K162" s="1"/>
-      <c r="L162" s="1"/>
-      <c r="M162" s="1"/>
-      <c r="N162" s="1"/>
-      <c r="O162" s="1"/>
-      <c r="P162" s="1"/>
-      <c r="Q162" s="1"/>
-      <c r="R162" s="1"/>
-      <c r="S162" s="1"/>
-      <c r="T162" s="1"/>
-      <c r="U162" s="1"/>
-      <c r="V162" s="1"/>
-      <c r="W162" s="1"/>
-      <c r="X162" s="1"/>
-      <c r="Y162" s="1"/>
-      <c r="Z162" s="12"/>
-    </row>
-    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -7405,77 +7411,83 @@
       <c r="Z163" s="12"/>
     </row>
     <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="14" t="s">
+      <c r="A164" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="1"/>
+      <c r="N164" s="1"/>
+      <c r="O164" s="1"/>
+      <c r="P164" s="1"/>
+      <c r="Q164" s="1"/>
+      <c r="R164" s="1"/>
+      <c r="S164" s="1"/>
+      <c r="T164" s="1"/>
+      <c r="U164" s="1"/>
+      <c r="V164" s="1"/>
+      <c r="W164" s="1"/>
+      <c r="X164" s="1"/>
+      <c r="Y164" s="1"/>
+      <c r="Z164" s="12"/>
+    </row>
+    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="B165" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C165" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D165" s="15"/>
+      <c r="E165" s="15"/>
+      <c r="F165" s="15"/>
+      <c r="G165" s="15"/>
+      <c r="H165" s="15"/>
+      <c r="I165" s="15"/>
+      <c r="J165" s="15"/>
+      <c r="K165" s="15"/>
+      <c r="L165" s="15"/>
+      <c r="M165" s="15"/>
+      <c r="N165" s="15"/>
+      <c r="O165" s="15"/>
+      <c r="P165" s="15"/>
+      <c r="Q165" s="15"/>
+      <c r="R165" s="15"/>
+      <c r="S165" s="15"/>
+      <c r="T165" s="15"/>
+      <c r="U165" s="15"/>
+      <c r="V165" s="15"/>
+      <c r="W165" s="15"/>
+      <c r="X165" s="15"/>
+      <c r="Y165" s="15"/>
+      <c r="Z165" s="16"/>
+    </row>
+    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B164" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C164" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D164" s="15"/>
-      <c r="E164" s="15"/>
-      <c r="F164" s="15"/>
-      <c r="G164" s="15"/>
-      <c r="H164" s="15"/>
-      <c r="I164" s="15"/>
-      <c r="J164" s="15"/>
-      <c r="K164" s="15"/>
-      <c r="L164" s="15"/>
-      <c r="M164" s="15"/>
-      <c r="N164" s="15"/>
-      <c r="O164" s="15"/>
-      <c r="P164" s="15"/>
-      <c r="Q164" s="15"/>
-      <c r="R164" s="15"/>
-      <c r="S164" s="15"/>
-      <c r="T164" s="15"/>
-      <c r="U164" s="15"/>
-      <c r="V164" s="15"/>
-      <c r="W164" s="15"/>
-      <c r="X164" s="15"/>
-      <c r="Y164" s="15"/>
-      <c r="Z164" s="16"/>
-    </row>
-    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D165" s="1"/>
-      <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
-      <c r="G165" s="1"/>
-      <c r="H165" s="1"/>
-      <c r="I165" s="1"/>
-      <c r="J165" s="1"/>
-      <c r="K165" s="1"/>
-      <c r="L165" s="1"/>
-      <c r="M165" s="1"/>
-      <c r="N165" s="1"/>
-      <c r="O165" s="1"/>
-      <c r="P165" s="1"/>
-      <c r="Q165" s="1"/>
-      <c r="R165" s="1"/>
-      <c r="S165" s="1"/>
-      <c r="T165" s="1"/>
-      <c r="U165" s="1"/>
-      <c r="V165" s="1"/>
-      <c r="W165" s="1"/>
-      <c r="X165" s="1"/>
-      <c r="Y165" s="1"/>
-      <c r="Z165" s="1"/>
-    </row>
-    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
@@ -7501,73 +7513,73 @@
       <c r="Z166" s="1"/>
     </row>
     <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="2" t="s">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
+      <c r="J167" s="1"/>
+      <c r="K167" s="1"/>
+      <c r="L167" s="1"/>
+      <c r="M167" s="1"/>
+      <c r="N167" s="1"/>
+      <c r="O167" s="1"/>
+      <c r="P167" s="1"/>
+      <c r="Q167" s="1"/>
+      <c r="R167" s="1"/>
+      <c r="S167" s="1"/>
+      <c r="T167" s="1"/>
+      <c r="U167" s="1"/>
+      <c r="V167" s="1"/>
+      <c r="W167" s="1"/>
+      <c r="X167" s="1"/>
+      <c r="Y167" s="1"/>
+      <c r="Z167" s="1"/>
+    </row>
+    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
+      <c r="H168" s="2"/>
+      <c r="I168" s="2"/>
+      <c r="J168" s="2"/>
+      <c r="K168" s="2"/>
+      <c r="L168" s="2"/>
+      <c r="M168" s="2"/>
+      <c r="N168" s="2"/>
+      <c r="O168" s="2"/>
+      <c r="P168" s="2"/>
+      <c r="Q168" s="2"/>
+      <c r="R168" s="2"/>
+      <c r="S168" s="2"/>
+      <c r="T168" s="2"/>
+      <c r="U168" s="2"/>
+      <c r="V168" s="2"/>
+      <c r="W168" s="2"/>
+      <c r="X168" s="2"/>
+      <c r="Y168" s="2"/>
+      <c r="Z168" s="2"/>
+    </row>
+    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B167" s="2"/>
-      <c r="C167" s="2"/>
-      <c r="D167" s="2"/>
-      <c r="E167" s="2"/>
-      <c r="F167" s="2"/>
-      <c r="G167" s="2"/>
-      <c r="H167" s="2"/>
-      <c r="I167" s="2"/>
-      <c r="J167" s="2"/>
-      <c r="K167" s="2"/>
-      <c r="L167" s="2"/>
-      <c r="M167" s="2"/>
-      <c r="N167" s="2"/>
-      <c r="O167" s="2"/>
-      <c r="P167" s="2"/>
-      <c r="Q167" s="2"/>
-      <c r="R167" s="2"/>
-      <c r="S167" s="2"/>
-      <c r="T167" s="2"/>
-      <c r="U167" s="2"/>
-      <c r="V167" s="2"/>
-      <c r="W167" s="2"/>
-      <c r="X167" s="2"/>
-      <c r="Y167" s="2"/>
-      <c r="Z167" s="2"/>
-    </row>
-    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
-      <c r="G168" s="1"/>
-      <c r="H168" s="1"/>
-      <c r="I168" s="1"/>
-      <c r="J168" s="1"/>
-      <c r="K168" s="1"/>
-      <c r="L168" s="1"/>
-      <c r="M168" s="1"/>
-      <c r="N168" s="1"/>
-      <c r="O168" s="1"/>
-      <c r="P168" s="1"/>
-      <c r="Q168" s="1"/>
-      <c r="R168" s="1"/>
-      <c r="S168" s="1"/>
-      <c r="T168" s="1"/>
-      <c r="U168" s="1"/>
-      <c r="V168" s="1"/>
-      <c r="W168" s="1"/>
-      <c r="X168" s="1"/>
-      <c r="Y168" s="1"/>
-      <c r="Z168" s="1"/>
-    </row>
-    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
@@ -7593,78 +7605,72 @@
       <c r="Z169" s="1"/>
     </row>
     <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B170" s="2"/>
-      <c r="C170" s="2"/>
-      <c r="D170" s="2"/>
-      <c r="E170" s="2"/>
-      <c r="F170" s="2"/>
-      <c r="G170" s="2"/>
-      <c r="H170" s="2"/>
-      <c r="I170" s="2"/>
-      <c r="J170" s="2"/>
-      <c r="K170" s="2"/>
-      <c r="L170" s="2"/>
-      <c r="M170" s="2"/>
-      <c r="N170" s="2"/>
-      <c r="O170" s="2"/>
-      <c r="P170" s="2"/>
-      <c r="Q170" s="2"/>
-      <c r="R170" s="2"/>
-      <c r="S170" s="2"/>
-      <c r="T170" s="2"/>
-      <c r="U170" s="2"/>
-      <c r="V170" s="2"/>
-      <c r="W170" s="2"/>
-      <c r="X170" s="2"/>
-      <c r="Y170" s="2"/>
-      <c r="Z170" s="2"/>
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
+      <c r="J170" s="1"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="M170" s="1"/>
+      <c r="N170" s="1"/>
+      <c r="O170" s="1"/>
+      <c r="P170" s="1"/>
+      <c r="Q170" s="1"/>
+      <c r="R170" s="1"/>
+      <c r="S170" s="1"/>
+      <c r="T170" s="1"/>
+      <c r="U170" s="1"/>
+      <c r="V170" s="1"/>
+      <c r="W170" s="1"/>
+      <c r="X170" s="1"/>
+      <c r="Y170" s="1"/>
+      <c r="Z170" s="1"/>
     </row>
     <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
-      <c r="G171" s="1"/>
-      <c r="H171" s="1"/>
-      <c r="I171" s="1"/>
-      <c r="J171" s="1"/>
-      <c r="K171" s="1"/>
-      <c r="L171" s="1"/>
-      <c r="M171" s="1"/>
-      <c r="N171" s="1"/>
-      <c r="O171" s="1"/>
-      <c r="P171" s="1"/>
-      <c r="Q171" s="1"/>
-      <c r="R171" s="1"/>
-      <c r="S171" s="1"/>
-      <c r="T171" s="1"/>
-      <c r="U171" s="1"/>
-      <c r="V171" s="1"/>
-      <c r="W171" s="1"/>
-      <c r="X171" s="1"/>
-      <c r="Y171" s="1"/>
-      <c r="Z171" s="1"/>
+      <c r="A171" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
+      <c r="H171" s="2"/>
+      <c r="I171" s="2"/>
+      <c r="J171" s="2"/>
+      <c r="K171" s="2"/>
+      <c r="L171" s="2"/>
+      <c r="M171" s="2"/>
+      <c r="N171" s="2"/>
+      <c r="O171" s="2"/>
+      <c r="P171" s="2"/>
+      <c r="Q171" s="2"/>
+      <c r="R171" s="2"/>
+      <c r="S171" s="2"/>
+      <c r="T171" s="2"/>
+      <c r="U171" s="2"/>
+      <c r="V171" s="2"/>
+      <c r="W171" s="2"/>
+      <c r="X171" s="2"/>
+      <c r="Y171" s="2"/>
+      <c r="Z171" s="2"/>
     </row>
     <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -7692,13 +7698,13 @@
     </row>
     <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -7726,13 +7732,13 @@
     </row>
     <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -7760,13 +7766,13 @@
     </row>
     <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -7794,13 +7800,13 @@
     </row>
     <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -7828,13 +7834,13 @@
     </row>
     <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -7862,13 +7868,13 @@
     </row>
     <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -7895,9 +7901,15 @@
       <c r="Z178" s="1"/>
     </row>
     <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
-      <c r="C179" s="1"/>
+      <c r="A179" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>309</v>
+      </c>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
@@ -7923,78 +7935,72 @@
       <c r="Z179" s="1"/>
     </row>
     <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B180" s="2"/>
-      <c r="C180" s="2"/>
-      <c r="D180" s="2"/>
-      <c r="E180" s="2"/>
-      <c r="F180" s="2"/>
-      <c r="G180" s="2"/>
-      <c r="H180" s="2"/>
-      <c r="I180" s="2"/>
-      <c r="J180" s="2"/>
-      <c r="K180" s="2"/>
-      <c r="L180" s="2"/>
-      <c r="M180" s="2"/>
-      <c r="N180" s="2"/>
-      <c r="O180" s="2"/>
-      <c r="P180" s="2"/>
-      <c r="Q180" s="2"/>
-      <c r="R180" s="2"/>
-      <c r="S180" s="2"/>
-      <c r="T180" s="2"/>
-      <c r="U180" s="2"/>
-      <c r="V180" s="2"/>
-      <c r="W180" s="2"/>
-      <c r="X180" s="2"/>
-      <c r="Y180" s="2"/>
-      <c r="Z180" s="2"/>
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
+      <c r="I180" s="1"/>
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
+      <c r="L180" s="1"/>
+      <c r="M180" s="1"/>
+      <c r="N180" s="1"/>
+      <c r="O180" s="1"/>
+      <c r="P180" s="1"/>
+      <c r="Q180" s="1"/>
+      <c r="R180" s="1"/>
+      <c r="S180" s="1"/>
+      <c r="T180" s="1"/>
+      <c r="U180" s="1"/>
+      <c r="V180" s="1"/>
+      <c r="W180" s="1"/>
+      <c r="X180" s="1"/>
+      <c r="Y180" s="1"/>
+      <c r="Z180" s="1"/>
     </row>
     <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D181" s="1"/>
-      <c r="E181" s="1"/>
-      <c r="F181" s="1"/>
-      <c r="G181" s="1"/>
-      <c r="H181" s="1"/>
-      <c r="I181" s="1"/>
-      <c r="J181" s="1"/>
-      <c r="K181" s="1"/>
-      <c r="L181" s="1"/>
-      <c r="M181" s="1"/>
-      <c r="N181" s="1"/>
-      <c r="O181" s="1"/>
-      <c r="P181" s="1"/>
-      <c r="Q181" s="1"/>
-      <c r="R181" s="1"/>
-      <c r="S181" s="1"/>
-      <c r="T181" s="1"/>
-      <c r="U181" s="1"/>
-      <c r="V181" s="1"/>
-      <c r="W181" s="1"/>
-      <c r="X181" s="1"/>
-      <c r="Y181" s="1"/>
-      <c r="Z181" s="1"/>
+      <c r="A181" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+      <c r="G181" s="2"/>
+      <c r="H181" s="2"/>
+      <c r="I181" s="2"/>
+      <c r="J181" s="2"/>
+      <c r="K181" s="2"/>
+      <c r="L181" s="2"/>
+      <c r="M181" s="2"/>
+      <c r="N181" s="2"/>
+      <c r="O181" s="2"/>
+      <c r="P181" s="2"/>
+      <c r="Q181" s="2"/>
+      <c r="R181" s="2"/>
+      <c r="S181" s="2"/>
+      <c r="T181" s="2"/>
+      <c r="U181" s="2"/>
+      <c r="V181" s="2"/>
+      <c r="W181" s="2"/>
+      <c r="X181" s="2"/>
+      <c r="Y181" s="2"/>
+      <c r="Z181" s="2"/>
     </row>
     <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -8021,48 +8027,48 @@
       <c r="Z182" s="1"/>
     </row>
     <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="B183" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="C183" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="D183" s="18"/>
-      <c r="E183" s="18"/>
-      <c r="F183" s="18"/>
-      <c r="G183" s="18"/>
-      <c r="H183" s="18"/>
-      <c r="I183" s="18"/>
-      <c r="J183" s="18"/>
-      <c r="K183" s="18"/>
-      <c r="L183" s="18"/>
-      <c r="M183" s="18"/>
-      <c r="N183" s="18"/>
-      <c r="O183" s="18"/>
-      <c r="P183" s="18"/>
-      <c r="Q183" s="18"/>
-      <c r="R183" s="18"/>
-      <c r="S183" s="18"/>
-      <c r="T183" s="18"/>
-      <c r="U183" s="18"/>
-      <c r="V183" s="18"/>
-      <c r="W183" s="18"/>
-      <c r="X183" s="18"/>
-      <c r="Y183" s="18"/>
-      <c r="Z183" s="18"/>
+      <c r="A183" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1"/>
+      <c r="I183" s="1"/>
+      <c r="J183" s="1"/>
+      <c r="K183" s="1"/>
+      <c r="L183" s="1"/>
+      <c r="M183" s="1"/>
+      <c r="N183" s="1"/>
+      <c r="O183" s="1"/>
+      <c r="P183" s="1"/>
+      <c r="Q183" s="1"/>
+      <c r="R183" s="1"/>
+      <c r="S183" s="1"/>
+      <c r="T183" s="1"/>
+      <c r="U183" s="1"/>
+      <c r="V183" s="1"/>
+      <c r="W183" s="1"/>
+      <c r="X183" s="1"/>
+      <c r="Y183" s="1"/>
+      <c r="Z183" s="1"/>
     </row>
     <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="18" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B184" s="18" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C184" s="18" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D184" s="18"/>
       <c r="E184" s="18"/>
@@ -8089,48 +8095,48 @@
       <c r="Z184" s="18"/>
     </row>
     <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D185" s="1"/>
-      <c r="E185" s="1"/>
-      <c r="F185" s="1"/>
-      <c r="G185" s="1"/>
-      <c r="H185" s="1"/>
-      <c r="I185" s="1"/>
-      <c r="J185" s="1"/>
-      <c r="K185" s="1"/>
-      <c r="L185" s="1"/>
-      <c r="M185" s="1"/>
-      <c r="N185" s="1"/>
-      <c r="O185" s="1"/>
-      <c r="P185" s="1"/>
-      <c r="Q185" s="1"/>
-      <c r="R185" s="1"/>
-      <c r="S185" s="1"/>
-      <c r="T185" s="1"/>
-      <c r="U185" s="1"/>
-      <c r="V185" s="1"/>
-      <c r="W185" s="1"/>
-      <c r="X185" s="1"/>
-      <c r="Y185" s="1"/>
-      <c r="Z185" s="1"/>
+      <c r="A185" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B185" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="C185" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="D185" s="18"/>
+      <c r="E185" s="18"/>
+      <c r="F185" s="18"/>
+      <c r="G185" s="18"/>
+      <c r="H185" s="18"/>
+      <c r="I185" s="18"/>
+      <c r="J185" s="18"/>
+      <c r="K185" s="18"/>
+      <c r="L185" s="18"/>
+      <c r="M185" s="18"/>
+      <c r="N185" s="18"/>
+      <c r="O185" s="18"/>
+      <c r="P185" s="18"/>
+      <c r="Q185" s="18"/>
+      <c r="R185" s="18"/>
+      <c r="S185" s="18"/>
+      <c r="T185" s="18"/>
+      <c r="U185" s="18"/>
+      <c r="V185" s="18"/>
+      <c r="W185" s="18"/>
+      <c r="X185" s="18"/>
+      <c r="Y185" s="18"/>
+      <c r="Z185" s="18"/>
     </row>
     <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -8158,13 +8164,13 @@
     </row>
     <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B187" s="6" t="s">
-        <v>327</v>
+        <v>323</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>323</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -8192,13 +8198,13 @@
     </row>
     <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>325</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -8226,13 +8232,13 @@
     </row>
     <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -8260,13 +8266,13 @@
     </row>
     <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B190" s="6" t="s">
-        <v>333</v>
+        <v>329</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>329</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -8294,13 +8300,13 @@
     </row>
     <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -8328,13 +8334,13 @@
     </row>
     <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -8362,13 +8368,13 @@
     </row>
     <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -8396,13 +8402,13 @@
     </row>
     <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -8429,9 +8435,15 @@
       <c r="Z194" s="1"/>
     </row>
     <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
-      <c r="C195" s="1"/>
+      <c r="A195" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>342</v>
+      </c>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
@@ -8457,73 +8469,73 @@
       <c r="Z195" s="1"/>
     </row>
     <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="2" t="s">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1"/>
+      <c r="G196" s="1"/>
+      <c r="H196" s="1"/>
+      <c r="I196" s="1"/>
+      <c r="J196" s="1"/>
+      <c r="K196" s="1"/>
+      <c r="L196" s="1"/>
+      <c r="M196" s="1"/>
+      <c r="N196" s="1"/>
+      <c r="O196" s="1"/>
+      <c r="P196" s="1"/>
+      <c r="Q196" s="1"/>
+      <c r="R196" s="1"/>
+      <c r="S196" s="1"/>
+      <c r="T196" s="1"/>
+      <c r="U196" s="1"/>
+      <c r="V196" s="1"/>
+      <c r="W196" s="1"/>
+      <c r="X196" s="1"/>
+      <c r="Y196" s="1"/>
+      <c r="Z196" s="1"/>
+    </row>
+    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B196" s="2"/>
-      <c r="C196" s="2"/>
-      <c r="D196" s="2"/>
-      <c r="E196" s="2"/>
-      <c r="F196" s="2"/>
-      <c r="G196" s="2"/>
-      <c r="H196" s="2"/>
-      <c r="I196" s="2"/>
-      <c r="J196" s="2"/>
-      <c r="K196" s="2"/>
-      <c r="L196" s="2"/>
-      <c r="M196" s="2"/>
-      <c r="N196" s="2"/>
-      <c r="O196" s="2"/>
-      <c r="P196" s="2"/>
-      <c r="Q196" s="2"/>
-      <c r="R196" s="2"/>
-      <c r="S196" s="2"/>
-      <c r="T196" s="2"/>
-      <c r="U196" s="2"/>
-      <c r="V196" s="2"/>
-      <c r="W196" s="2"/>
-      <c r="X196" s="2"/>
-      <c r="Y196" s="2"/>
-      <c r="Z196" s="2"/>
-    </row>
-    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D197" s="1"/>
-      <c r="E197" s="1"/>
-      <c r="F197" s="1"/>
-      <c r="G197" s="1"/>
-      <c r="H197" s="1"/>
-      <c r="I197" s="1"/>
-      <c r="J197" s="1"/>
-      <c r="K197" s="1"/>
-      <c r="L197" s="1"/>
-      <c r="M197" s="1"/>
-      <c r="N197" s="1"/>
-      <c r="O197" s="1"/>
-      <c r="P197" s="1"/>
-      <c r="Q197" s="1"/>
-      <c r="R197" s="1"/>
-      <c r="S197" s="1"/>
-      <c r="T197" s="1"/>
-      <c r="U197" s="1"/>
-      <c r="V197" s="1"/>
-      <c r="W197" s="1"/>
-      <c r="X197" s="1"/>
-      <c r="Y197" s="1"/>
-      <c r="Z197" s="1"/>
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+      <c r="G197" s="2"/>
+      <c r="H197" s="2"/>
+      <c r="I197" s="2"/>
+      <c r="J197" s="2"/>
+      <c r="K197" s="2"/>
+      <c r="L197" s="2"/>
+      <c r="M197" s="2"/>
+      <c r="N197" s="2"/>
+      <c r="O197" s="2"/>
+      <c r="P197" s="2"/>
+      <c r="Q197" s="2"/>
+      <c r="R197" s="2"/>
+      <c r="S197" s="2"/>
+      <c r="T197" s="2"/>
+      <c r="U197" s="2"/>
+      <c r="V197" s="2"/>
+      <c r="W197" s="2"/>
+      <c r="X197" s="2"/>
+      <c r="Y197" s="2"/>
+      <c r="Z197" s="2"/>
     </row>
     <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
-      <c r="C198" s="1"/>
+      <c r="A198" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>344</v>
+      </c>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
@@ -8549,214 +8561,208 @@
       <c r="Z198" s="1"/>
     </row>
     <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="2" t="s">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1"/>
+      <c r="G199" s="1"/>
+      <c r="H199" s="1"/>
+      <c r="I199" s="1"/>
+      <c r="J199" s="1"/>
+      <c r="K199" s="1"/>
+      <c r="L199" s="1"/>
+      <c r="M199" s="1"/>
+      <c r="N199" s="1"/>
+      <c r="O199" s="1"/>
+      <c r="P199" s="1"/>
+      <c r="Q199" s="1"/>
+      <c r="R199" s="1"/>
+      <c r="S199" s="1"/>
+      <c r="T199" s="1"/>
+      <c r="U199" s="1"/>
+      <c r="V199" s="1"/>
+      <c r="W199" s="1"/>
+      <c r="X199" s="1"/>
+      <c r="Y199" s="1"/>
+      <c r="Z199" s="1"/>
+    </row>
+    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="2"/>
+      <c r="H200" s="2"/>
+      <c r="I200" s="2"/>
+      <c r="J200" s="2"/>
+      <c r="K200" s="2"/>
+      <c r="L200" s="2"/>
+      <c r="M200" s="2"/>
+      <c r="N200" s="2"/>
+      <c r="O200" s="2"/>
+      <c r="P200" s="2"/>
+      <c r="Q200" s="2"/>
+      <c r="R200" s="2"/>
+      <c r="S200" s="2"/>
+      <c r="T200" s="2"/>
+      <c r="U200" s="2"/>
+      <c r="V200" s="2"/>
+      <c r="W200" s="2"/>
+      <c r="X200" s="2"/>
+      <c r="Y200" s="2"/>
+      <c r="Z200" s="2"/>
+    </row>
+    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="C201" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="B199" s="2"/>
-      <c r="C199" s="2"/>
-      <c r="D199" s="2"/>
-      <c r="E199" s="2"/>
-      <c r="F199" s="2"/>
-      <c r="G199" s="2"/>
-      <c r="H199" s="2"/>
-      <c r="I199" s="2"/>
-      <c r="J199" s="2"/>
-      <c r="K199" s="2"/>
-      <c r="L199" s="2"/>
-      <c r="M199" s="2"/>
-      <c r="N199" s="2"/>
-      <c r="O199" s="2"/>
-      <c r="P199" s="2"/>
-      <c r="Q199" s="2"/>
-      <c r="R199" s="2"/>
-      <c r="S199" s="2"/>
-      <c r="T199" s="2"/>
-      <c r="U199" s="2"/>
-      <c r="V199" s="2"/>
-      <c r="W199" s="2"/>
-      <c r="X199" s="2"/>
-      <c r="Y199" s="2"/>
-      <c r="Z199" s="2"/>
-    </row>
-    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="7" t="s">
+      <c r="D201" s="9"/>
+      <c r="E201" s="9"/>
+      <c r="F201" s="9"/>
+      <c r="G201" s="9"/>
+      <c r="H201" s="9"/>
+      <c r="I201" s="9"/>
+      <c r="J201" s="9"/>
+      <c r="K201" s="9"/>
+      <c r="L201" s="9"/>
+      <c r="M201" s="9"/>
+      <c r="N201" s="9"/>
+      <c r="O201" s="9"/>
+      <c r="P201" s="9"/>
+      <c r="Q201" s="9"/>
+      <c r="R201" s="9"/>
+      <c r="S201" s="9"/>
+      <c r="T201" s="9"/>
+      <c r="U201" s="9"/>
+      <c r="V201" s="9"/>
+      <c r="W201" s="9"/>
+      <c r="X201" s="9"/>
+      <c r="Y201" s="9"/>
+      <c r="Z201" s="10"/>
+    </row>
+    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="B200" s="9" t="s">
+      <c r="B202" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C200" s="9" t="s">
+      <c r="C202" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D200" s="9"/>
-      <c r="E200" s="9"/>
-      <c r="F200" s="9"/>
-      <c r="G200" s="9"/>
-      <c r="H200" s="9"/>
-      <c r="I200" s="9"/>
-      <c r="J200" s="9"/>
-      <c r="K200" s="9"/>
-      <c r="L200" s="9"/>
-      <c r="M200" s="9"/>
-      <c r="N200" s="9"/>
-      <c r="O200" s="9"/>
-      <c r="P200" s="9"/>
-      <c r="Q200" s="9"/>
-      <c r="R200" s="9"/>
-      <c r="S200" s="9"/>
-      <c r="T200" s="9"/>
-      <c r="U200" s="9"/>
-      <c r="V200" s="9"/>
-      <c r="W200" s="9"/>
-      <c r="X200" s="9"/>
-      <c r="Y200" s="9"/>
-      <c r="Z200" s="10"/>
-    </row>
-    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="13" t="s">
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1"/>
+      <c r="H202" s="1"/>
+      <c r="I202" s="1"/>
+      <c r="J202" s="1"/>
+      <c r="K202" s="1"/>
+      <c r="L202" s="1"/>
+      <c r="M202" s="1"/>
+      <c r="N202" s="1"/>
+      <c r="O202" s="1"/>
+      <c r="P202" s="1"/>
+      <c r="Q202" s="1"/>
+      <c r="R202" s="1"/>
+      <c r="S202" s="1"/>
+      <c r="T202" s="1"/>
+      <c r="U202" s="1"/>
+      <c r="V202" s="1"/>
+      <c r="W202" s="1"/>
+      <c r="X202" s="1"/>
+      <c r="Y202" s="1"/>
+      <c r="Z202" s="12"/>
+    </row>
+    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B203" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="C203" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="D201" s="1"/>
-      <c r="E201" s="1"/>
-      <c r="F201" s="1"/>
-      <c r="G201" s="1"/>
-      <c r="H201" s="1"/>
-      <c r="I201" s="1"/>
-      <c r="J201" s="1"/>
-      <c r="K201" s="1"/>
-      <c r="L201" s="1"/>
-      <c r="M201" s="1"/>
-      <c r="N201" s="1"/>
-      <c r="O201" s="1"/>
-      <c r="P201" s="1"/>
-      <c r="Q201" s="1"/>
-      <c r="R201" s="1"/>
-      <c r="S201" s="1"/>
-      <c r="T201" s="1"/>
-      <c r="U201" s="1"/>
-      <c r="V201" s="1"/>
-      <c r="W201" s="1"/>
-      <c r="X201" s="1"/>
-      <c r="Y201" s="1"/>
-      <c r="Z201" s="12"/>
-    </row>
-    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="7" t="s">
+      <c r="D203" s="9"/>
+      <c r="E203" s="9"/>
+      <c r="F203" s="9"/>
+      <c r="G203" s="9"/>
+      <c r="H203" s="9"/>
+      <c r="I203" s="9"/>
+      <c r="J203" s="9"/>
+      <c r="K203" s="9"/>
+      <c r="L203" s="9"/>
+      <c r="M203" s="9"/>
+      <c r="N203" s="9"/>
+      <c r="O203" s="9"/>
+      <c r="P203" s="9"/>
+      <c r="Q203" s="9"/>
+      <c r="R203" s="9"/>
+      <c r="S203" s="9"/>
+      <c r="T203" s="9"/>
+      <c r="U203" s="9"/>
+      <c r="V203" s="9"/>
+      <c r="W203" s="9"/>
+      <c r="X203" s="9"/>
+      <c r="Y203" s="9"/>
+      <c r="Z203" s="10"/>
+    </row>
+    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="B202" s="9" t="s">
+      <c r="B204" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C202" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="D202" s="9"/>
-      <c r="E202" s="9"/>
-      <c r="F202" s="9"/>
-      <c r="G202" s="9"/>
-      <c r="H202" s="9"/>
-      <c r="I202" s="9"/>
-      <c r="J202" s="9"/>
-      <c r="K202" s="9"/>
-      <c r="L202" s="9"/>
-      <c r="M202" s="9"/>
-      <c r="N202" s="9"/>
-      <c r="O202" s="9"/>
-      <c r="P202" s="9"/>
-      <c r="Q202" s="9"/>
-      <c r="R202" s="9"/>
-      <c r="S202" s="9"/>
-      <c r="T202" s="9"/>
-      <c r="U202" s="9"/>
-      <c r="V202" s="9"/>
-      <c r="W202" s="9"/>
-      <c r="X202" s="9"/>
-      <c r="Y202" s="9"/>
-      <c r="Z202" s="10"/>
-    </row>
-    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D203" s="1"/>
-      <c r="E203" s="1"/>
-      <c r="F203" s="1"/>
-      <c r="G203" s="1"/>
-      <c r="H203" s="1"/>
-      <c r="I203" s="1"/>
-      <c r="J203" s="1"/>
-      <c r="K203" s="1"/>
-      <c r="L203" s="1"/>
-      <c r="M203" s="1"/>
-      <c r="N203" s="1"/>
-      <c r="O203" s="1"/>
-      <c r="P203" s="1"/>
-      <c r="Q203" s="1"/>
-      <c r="R203" s="1"/>
-      <c r="S203" s="1"/>
-      <c r="T203" s="1"/>
-      <c r="U203" s="1"/>
-      <c r="V203" s="1"/>
-      <c r="W203" s="1"/>
-      <c r="X203" s="1"/>
-      <c r="Y203" s="1"/>
-      <c r="Z203" s="12"/>
-    </row>
-    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="29" t="s">
-        <v>355</v>
-      </c>
-      <c r="B204" s="18" t="s">
-        <v>355</v>
-      </c>
-      <c r="C204" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="D204" s="18"/>
-      <c r="E204" s="18"/>
-      <c r="F204" s="18"/>
-      <c r="G204" s="18"/>
-      <c r="H204" s="18"/>
-      <c r="I204" s="18"/>
-      <c r="J204" s="18"/>
-      <c r="K204" s="18"/>
-      <c r="L204" s="18"/>
-      <c r="M204" s="18"/>
-      <c r="N204" s="18"/>
-      <c r="O204" s="18"/>
-      <c r="P204" s="18"/>
-      <c r="Q204" s="18"/>
-      <c r="R204" s="18"/>
-      <c r="S204" s="18"/>
-      <c r="T204" s="18"/>
-      <c r="U204" s="18"/>
-      <c r="V204" s="18"/>
-      <c r="W204" s="18"/>
-      <c r="X204" s="18"/>
-      <c r="Y204" s="18"/>
-      <c r="Z204" s="19"/>
+      <c r="C204" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
+      <c r="H204" s="1"/>
+      <c r="I204" s="1"/>
+      <c r="J204" s="1"/>
+      <c r="K204" s="1"/>
+      <c r="L204" s="1"/>
+      <c r="M204" s="1"/>
+      <c r="N204" s="1"/>
+      <c r="O204" s="1"/>
+      <c r="P204" s="1"/>
+      <c r="Q204" s="1"/>
+      <c r="R204" s="1"/>
+      <c r="S204" s="1"/>
+      <c r="T204" s="1"/>
+      <c r="U204" s="1"/>
+      <c r="V204" s="1"/>
+      <c r="W204" s="1"/>
+      <c r="X204" s="1"/>
+      <c r="Y204" s="1"/>
+      <c r="Z204" s="12"/>
     </row>
     <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="29" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B205" s="18" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C205" s="18" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D205" s="18"/>
       <c r="E205" s="18"/>
@@ -8784,13 +8790,13 @@
     </row>
     <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="29" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B206" s="18" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C206" s="18" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D206" s="18"/>
       <c r="E206" s="18"/>
@@ -8818,13 +8824,13 @@
     </row>
     <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="29" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B207" s="18" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C207" s="18" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D207" s="18"/>
       <c r="E207" s="18"/>
@@ -8852,13 +8858,13 @@
     </row>
     <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="29" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B208" s="18" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C208" s="18" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D208" s="18"/>
       <c r="E208" s="18"/>
@@ -8886,13 +8892,13 @@
     </row>
     <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="29" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B209" s="18" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C209" s="18" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D209" s="18"/>
       <c r="E209" s="18"/>
@@ -8919,82 +8925,82 @@
       <c r="Z209" s="19"/>
     </row>
     <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="14" t="s">
+      <c r="A210" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="B210" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="C210" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="D210" s="18"/>
+      <c r="E210" s="18"/>
+      <c r="F210" s="18"/>
+      <c r="G210" s="18"/>
+      <c r="H210" s="18"/>
+      <c r="I210" s="18"/>
+      <c r="J210" s="18"/>
+      <c r="K210" s="18"/>
+      <c r="L210" s="18"/>
+      <c r="M210" s="18"/>
+      <c r="N210" s="18"/>
+      <c r="O210" s="18"/>
+      <c r="P210" s="18"/>
+      <c r="Q210" s="18"/>
+      <c r="R210" s="18"/>
+      <c r="S210" s="18"/>
+      <c r="T210" s="18"/>
+      <c r="U210" s="18"/>
+      <c r="V210" s="18"/>
+      <c r="W210" s="18"/>
+      <c r="X210" s="18"/>
+      <c r="Y210" s="18"/>
+      <c r="Z210" s="19"/>
+    </row>
+    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="B211" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="C211" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="B210" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="C210" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="D210" s="15"/>
-      <c r="E210" s="15"/>
-      <c r="F210" s="15"/>
-      <c r="G210" s="15"/>
-      <c r="H210" s="15"/>
-      <c r="I210" s="15"/>
-      <c r="J210" s="15"/>
-      <c r="K210" s="15"/>
-      <c r="L210" s="15"/>
-      <c r="M210" s="15"/>
-      <c r="N210" s="15"/>
-      <c r="O210" s="15"/>
-      <c r="P210" s="15"/>
-      <c r="Q210" s="15"/>
-      <c r="R210" s="15"/>
-      <c r="S210" s="15"/>
-      <c r="T210" s="15"/>
-      <c r="U210" s="15"/>
-      <c r="V210" s="15"/>
-      <c r="W210" s="15"/>
-      <c r="X210" s="15"/>
-      <c r="Y210" s="15"/>
-      <c r="Z210" s="16"/>
-    </row>
-    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D211" s="1"/>
-      <c r="E211" s="1"/>
-      <c r="F211" s="1"/>
-      <c r="G211" s="1"/>
-      <c r="H211" s="1"/>
-      <c r="I211" s="1"/>
-      <c r="J211" s="1"/>
-      <c r="K211" s="1"/>
-      <c r="L211" s="1"/>
-      <c r="M211" s="1"/>
-      <c r="N211" s="1"/>
-      <c r="O211" s="1"/>
-      <c r="P211" s="1"/>
-      <c r="Q211" s="1"/>
-      <c r="R211" s="1"/>
-      <c r="S211" s="1"/>
-      <c r="T211" s="1"/>
-      <c r="U211" s="1"/>
-      <c r="V211" s="1"/>
-      <c r="W211" s="1"/>
-      <c r="X211" s="1"/>
-      <c r="Y211" s="1"/>
-      <c r="Z211" s="12"/>
+      <c r="D211" s="15"/>
+      <c r="E211" s="15"/>
+      <c r="F211" s="15"/>
+      <c r="G211" s="15"/>
+      <c r="H211" s="15"/>
+      <c r="I211" s="15"/>
+      <c r="J211" s="15"/>
+      <c r="K211" s="15"/>
+      <c r="L211" s="15"/>
+      <c r="M211" s="15"/>
+      <c r="N211" s="15"/>
+      <c r="O211" s="15"/>
+      <c r="P211" s="15"/>
+      <c r="Q211" s="15"/>
+      <c r="R211" s="15"/>
+      <c r="S211" s="15"/>
+      <c r="T211" s="15"/>
+      <c r="U211" s="15"/>
+      <c r="V211" s="15"/>
+      <c r="W211" s="15"/>
+      <c r="X211" s="15"/>
+      <c r="Y211" s="15"/>
+      <c r="Z211" s="16"/>
     </row>
     <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="B212" s="30" t="s">
-        <v>372</v>
+        <v>368</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>368</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -9022,13 +9028,13 @@
     </row>
     <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
+      </c>
+      <c r="B213" s="30" t="s">
+        <v>370</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -9055,82 +9061,82 @@
       <c r="Z213" s="12"/>
     </row>
     <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="B214" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="C214" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="D214" s="9"/>
-      <c r="E214" s="9"/>
-      <c r="F214" s="9"/>
-      <c r="G214" s="9"/>
-      <c r="H214" s="9"/>
-      <c r="I214" s="9"/>
-      <c r="J214" s="9"/>
-      <c r="K214" s="9"/>
-      <c r="L214" s="9"/>
-      <c r="M214" s="9"/>
-      <c r="N214" s="9"/>
-      <c r="O214" s="9"/>
-      <c r="P214" s="9"/>
-      <c r="Q214" s="9"/>
-      <c r="R214" s="9"/>
-      <c r="S214" s="9"/>
-      <c r="T214" s="9"/>
-      <c r="U214" s="9"/>
-      <c r="V214" s="9"/>
-      <c r="W214" s="9"/>
-      <c r="X214" s="9"/>
-      <c r="Y214" s="9"/>
-      <c r="Z214" s="10"/>
+      <c r="A214" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
+      <c r="G214" s="1"/>
+      <c r="H214" s="1"/>
+      <c r="I214" s="1"/>
+      <c r="J214" s="1"/>
+      <c r="K214" s="1"/>
+      <c r="L214" s="1"/>
+      <c r="M214" s="1"/>
+      <c r="N214" s="1"/>
+      <c r="O214" s="1"/>
+      <c r="P214" s="1"/>
+      <c r="Q214" s="1"/>
+      <c r="R214" s="1"/>
+      <c r="S214" s="1"/>
+      <c r="T214" s="1"/>
+      <c r="U214" s="1"/>
+      <c r="V214" s="1"/>
+      <c r="W214" s="1"/>
+      <c r="X214" s="1"/>
+      <c r="Y214" s="1"/>
+      <c r="Z214" s="12"/>
     </row>
     <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="D215" s="1"/>
-      <c r="E215" s="1"/>
-      <c r="F215" s="1"/>
-      <c r="G215" s="1"/>
-      <c r="H215" s="1"/>
-      <c r="I215" s="1"/>
-      <c r="J215" s="1"/>
-      <c r="K215" s="1"/>
-      <c r="L215" s="1"/>
-      <c r="M215" s="1"/>
-      <c r="N215" s="1"/>
-      <c r="O215" s="1"/>
-      <c r="P215" s="1"/>
-      <c r="Q215" s="1"/>
-      <c r="R215" s="1"/>
-      <c r="S215" s="1"/>
-      <c r="T215" s="1"/>
-      <c r="U215" s="1"/>
-      <c r="V215" s="1"/>
-      <c r="W215" s="1"/>
-      <c r="X215" s="1"/>
-      <c r="Y215" s="1"/>
-      <c r="Z215" s="12"/>
+      <c r="A215" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B215" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="C215" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="D215" s="9"/>
+      <c r="E215" s="9"/>
+      <c r="F215" s="9"/>
+      <c r="G215" s="9"/>
+      <c r="H215" s="9"/>
+      <c r="I215" s="9"/>
+      <c r="J215" s="9"/>
+      <c r="K215" s="9"/>
+      <c r="L215" s="9"/>
+      <c r="M215" s="9"/>
+      <c r="N215" s="9"/>
+      <c r="O215" s="9"/>
+      <c r="P215" s="9"/>
+      <c r="Q215" s="9"/>
+      <c r="R215" s="9"/>
+      <c r="S215" s="9"/>
+      <c r="T215" s="9"/>
+      <c r="U215" s="9"/>
+      <c r="V215" s="9"/>
+      <c r="W215" s="9"/>
+      <c r="X215" s="9"/>
+      <c r="Y215" s="9"/>
+      <c r="Z215" s="10"/>
     </row>
     <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="13" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -9157,77 +9163,83 @@
       <c r="Z216" s="12"/>
     </row>
     <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="14" t="s">
+      <c r="A217" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
+      <c r="G217" s="1"/>
+      <c r="H217" s="1"/>
+      <c r="I217" s="1"/>
+      <c r="J217" s="1"/>
+      <c r="K217" s="1"/>
+      <c r="L217" s="1"/>
+      <c r="M217" s="1"/>
+      <c r="N217" s="1"/>
+      <c r="O217" s="1"/>
+      <c r="P217" s="1"/>
+      <c r="Q217" s="1"/>
+      <c r="R217" s="1"/>
+      <c r="S217" s="1"/>
+      <c r="T217" s="1"/>
+      <c r="U217" s="1"/>
+      <c r="V217" s="1"/>
+      <c r="W217" s="1"/>
+      <c r="X217" s="1"/>
+      <c r="Y217" s="1"/>
+      <c r="Z217" s="12"/>
+    </row>
+    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="B218" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="C218" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="D218" s="15"/>
+      <c r="E218" s="15"/>
+      <c r="F218" s="15"/>
+      <c r="G218" s="15"/>
+      <c r="H218" s="15"/>
+      <c r="I218" s="15"/>
+      <c r="J218" s="15"/>
+      <c r="K218" s="15"/>
+      <c r="L218" s="15"/>
+      <c r="M218" s="15"/>
+      <c r="N218" s="15"/>
+      <c r="O218" s="15"/>
+      <c r="P218" s="15"/>
+      <c r="Q218" s="15"/>
+      <c r="R218" s="15"/>
+      <c r="S218" s="15"/>
+      <c r="T218" s="15"/>
+      <c r="U218" s="15"/>
+      <c r="V218" s="15"/>
+      <c r="W218" s="15"/>
+      <c r="X218" s="15"/>
+      <c r="Y218" s="15"/>
+      <c r="Z218" s="16"/>
+    </row>
+    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B217" s="15" t="s">
+      <c r="B219" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C217" s="15" t="s">
+      <c r="C219" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="D217" s="15"/>
-      <c r="E217" s="15"/>
-      <c r="F217" s="15"/>
-      <c r="G217" s="15"/>
-      <c r="H217" s="15"/>
-      <c r="I217" s="15"/>
-      <c r="J217" s="15"/>
-      <c r="K217" s="15"/>
-      <c r="L217" s="15"/>
-      <c r="M217" s="15"/>
-      <c r="N217" s="15"/>
-      <c r="O217" s="15"/>
-      <c r="P217" s="15"/>
-      <c r="Q217" s="15"/>
-      <c r="R217" s="15"/>
-      <c r="S217" s="15"/>
-      <c r="T217" s="15"/>
-      <c r="U217" s="15"/>
-      <c r="V217" s="15"/>
-      <c r="W217" s="15"/>
-      <c r="X217" s="15"/>
-      <c r="Y217" s="15"/>
-      <c r="Z217" s="16"/>
-    </row>
-    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="D218" s="1"/>
-      <c r="E218" s="1"/>
-      <c r="F218" s="1"/>
-      <c r="G218" s="1"/>
-      <c r="H218" s="1"/>
-      <c r="I218" s="1"/>
-      <c r="J218" s="1"/>
-      <c r="K218" s="1"/>
-      <c r="L218" s="1"/>
-      <c r="M218" s="1"/>
-      <c r="N218" s="1"/>
-      <c r="O218" s="1"/>
-      <c r="P218" s="1"/>
-      <c r="Q218" s="1"/>
-      <c r="R218" s="1"/>
-      <c r="S218" s="1"/>
-      <c r="T218" s="1"/>
-      <c r="U218" s="1"/>
-      <c r="V218" s="1"/>
-      <c r="W218" s="1"/>
-      <c r="X218" s="1"/>
-      <c r="Y218" s="1"/>
-      <c r="Z218" s="1"/>
-    </row>
-    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
-      <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
@@ -9253,78 +9265,72 @@
       <c r="Z219" s="1"/>
     </row>
     <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="B220" s="2"/>
-      <c r="C220" s="2"/>
-      <c r="D220" s="2"/>
-      <c r="E220" s="2"/>
-      <c r="F220" s="2"/>
-      <c r="G220" s="2"/>
-      <c r="H220" s="2"/>
-      <c r="I220" s="2"/>
-      <c r="J220" s="2"/>
-      <c r="K220" s="2"/>
-      <c r="L220" s="2"/>
-      <c r="M220" s="2"/>
-      <c r="N220" s="2"/>
-      <c r="O220" s="2"/>
-      <c r="P220" s="2"/>
-      <c r="Q220" s="2"/>
-      <c r="R220" s="2"/>
-      <c r="S220" s="2"/>
-      <c r="T220" s="2"/>
-      <c r="U220" s="2"/>
-      <c r="V220" s="2"/>
-      <c r="W220" s="2"/>
-      <c r="X220" s="2"/>
-      <c r="Y220" s="2"/>
-      <c r="Z220" s="2"/>
+      <c r="A220" s="1"/>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1"/>
+      <c r="F220" s="1"/>
+      <c r="G220" s="1"/>
+      <c r="H220" s="1"/>
+      <c r="I220" s="1"/>
+      <c r="J220" s="1"/>
+      <c r="K220" s="1"/>
+      <c r="L220" s="1"/>
+      <c r="M220" s="1"/>
+      <c r="N220" s="1"/>
+      <c r="O220" s="1"/>
+      <c r="P220" s="1"/>
+      <c r="Q220" s="1"/>
+      <c r="R220" s="1"/>
+      <c r="S220" s="1"/>
+      <c r="T220" s="1"/>
+      <c r="U220" s="1"/>
+      <c r="V220" s="1"/>
+      <c r="W220" s="1"/>
+      <c r="X220" s="1"/>
+      <c r="Y220" s="1"/>
+      <c r="Z220" s="1"/>
     </row>
     <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="D221" s="1"/>
-      <c r="E221" s="1"/>
-      <c r="F221" s="1"/>
-      <c r="G221" s="1"/>
-      <c r="H221" s="1"/>
-      <c r="I221" s="1"/>
-      <c r="J221" s="1"/>
-      <c r="K221" s="1"/>
-      <c r="L221" s="1"/>
-      <c r="M221" s="1"/>
-      <c r="N221" s="1"/>
-      <c r="O221" s="1"/>
-      <c r="P221" s="1"/>
-      <c r="Q221" s="1"/>
-      <c r="R221" s="1"/>
-      <c r="S221" s="1"/>
-      <c r="T221" s="1"/>
-      <c r="U221" s="1"/>
-      <c r="V221" s="1"/>
-      <c r="W221" s="1"/>
-      <c r="X221" s="1"/>
-      <c r="Y221" s="1"/>
-      <c r="Z221" s="1"/>
+      <c r="A221" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B221" s="2"/>
+      <c r="C221" s="2"/>
+      <c r="D221" s="2"/>
+      <c r="E221" s="2"/>
+      <c r="F221" s="2"/>
+      <c r="G221" s="2"/>
+      <c r="H221" s="2"/>
+      <c r="I221" s="2"/>
+      <c r="J221" s="2"/>
+      <c r="K221" s="2"/>
+      <c r="L221" s="2"/>
+      <c r="M221" s="2"/>
+      <c r="N221" s="2"/>
+      <c r="O221" s="2"/>
+      <c r="P221" s="2"/>
+      <c r="Q221" s="2"/>
+      <c r="R221" s="2"/>
+      <c r="S221" s="2"/>
+      <c r="T221" s="2"/>
+      <c r="U221" s="2"/>
+      <c r="V221" s="2"/>
+      <c r="W221" s="2"/>
+      <c r="X221" s="2"/>
+      <c r="Y221" s="2"/>
+      <c r="Z221" s="2"/>
     </row>
     <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -9352,13 +9358,13 @@
     </row>
     <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -9386,13 +9392,13 @@
     </row>
     <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -9420,13 +9426,13 @@
     </row>
     <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B225" s="21" t="s">
-        <v>396</v>
+        <v>392</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -9453,9 +9459,15 @@
       <c r="Z225" s="1"/>
     </row>
     <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
-      <c r="C226" s="1"/>
+      <c r="A226" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B226" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>395</v>
+      </c>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
@@ -9481,73 +9493,73 @@
       <c r="Z226" s="1"/>
     </row>
     <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="2" t="s">
+      <c r="A227" s="1"/>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="1"/>
+      <c r="F227" s="1"/>
+      <c r="G227" s="1"/>
+      <c r="H227" s="1"/>
+      <c r="I227" s="1"/>
+      <c r="J227" s="1"/>
+      <c r="K227" s="1"/>
+      <c r="L227" s="1"/>
+      <c r="M227" s="1"/>
+      <c r="N227" s="1"/>
+      <c r="O227" s="1"/>
+      <c r="P227" s="1"/>
+      <c r="Q227" s="1"/>
+      <c r="R227" s="1"/>
+      <c r="S227" s="1"/>
+      <c r="T227" s="1"/>
+      <c r="U227" s="1"/>
+      <c r="V227" s="1"/>
+      <c r="W227" s="1"/>
+      <c r="X227" s="1"/>
+      <c r="Y227" s="1"/>
+      <c r="Z227" s="1"/>
+    </row>
+    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B228" s="2"/>
+      <c r="C228" s="2"/>
+      <c r="D228" s="2"/>
+      <c r="E228" s="2"/>
+      <c r="F228" s="2"/>
+      <c r="G228" s="2"/>
+      <c r="H228" s="2"/>
+      <c r="I228" s="2"/>
+      <c r="J228" s="2"/>
+      <c r="K228" s="2"/>
+      <c r="L228" s="2"/>
+      <c r="M228" s="2"/>
+      <c r="N228" s="2"/>
+      <c r="O228" s="2"/>
+      <c r="P228" s="2"/>
+      <c r="Q228" s="2"/>
+      <c r="R228" s="2"/>
+      <c r="S228" s="2"/>
+      <c r="T228" s="2"/>
+      <c r="U228" s="2"/>
+      <c r="V228" s="2"/>
+      <c r="W228" s="2"/>
+      <c r="X228" s="2"/>
+      <c r="Y228" s="2"/>
+      <c r="Z228" s="2"/>
+    </row>
+    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C229" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B227" s="2"/>
-      <c r="C227" s="2"/>
-      <c r="D227" s="2"/>
-      <c r="E227" s="2"/>
-      <c r="F227" s="2"/>
-      <c r="G227" s="2"/>
-      <c r="H227" s="2"/>
-      <c r="I227" s="2"/>
-      <c r="J227" s="2"/>
-      <c r="K227" s="2"/>
-      <c r="L227" s="2"/>
-      <c r="M227" s="2"/>
-      <c r="N227" s="2"/>
-      <c r="O227" s="2"/>
-      <c r="P227" s="2"/>
-      <c r="Q227" s="2"/>
-      <c r="R227" s="2"/>
-      <c r="S227" s="2"/>
-      <c r="T227" s="2"/>
-      <c r="U227" s="2"/>
-      <c r="V227" s="2"/>
-      <c r="W227" s="2"/>
-      <c r="X227" s="2"/>
-      <c r="Y227" s="2"/>
-      <c r="Z227" s="2"/>
-    </row>
-    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="D228" s="1"/>
-      <c r="E228" s="1"/>
-      <c r="F228" s="1"/>
-      <c r="G228" s="1"/>
-      <c r="H228" s="1"/>
-      <c r="I228" s="1"/>
-      <c r="J228" s="1"/>
-      <c r="K228" s="1"/>
-      <c r="L228" s="1"/>
-      <c r="M228" s="1"/>
-      <c r="N228" s="1"/>
-      <c r="O228" s="1"/>
-      <c r="P228" s="1"/>
-      <c r="Q228" s="1"/>
-      <c r="R228" s="1"/>
-      <c r="S228" s="1"/>
-      <c r="T228" s="1"/>
-      <c r="U228" s="1"/>
-      <c r="V228" s="1"/>
-      <c r="W228" s="1"/>
-      <c r="X228" s="1"/>
-      <c r="Y228" s="1"/>
-      <c r="Z228" s="1"/>
-    </row>
-    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="1"/>
-      <c r="B229" s="1"/>
-      <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
@@ -9573,78 +9585,72 @@
       <c r="Z229" s="1"/>
     </row>
     <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="B230" s="2"/>
-      <c r="C230" s="2"/>
-      <c r="D230" s="2"/>
-      <c r="E230" s="2"/>
-      <c r="F230" s="2"/>
-      <c r="G230" s="2"/>
-      <c r="H230" s="2"/>
-      <c r="I230" s="2"/>
-      <c r="J230" s="2"/>
-      <c r="K230" s="2"/>
-      <c r="L230" s="2"/>
-      <c r="M230" s="2"/>
-      <c r="N230" s="2"/>
-      <c r="O230" s="2"/>
-      <c r="P230" s="2"/>
-      <c r="Q230" s="2"/>
-      <c r="R230" s="2"/>
-      <c r="S230" s="2"/>
-      <c r="T230" s="2"/>
-      <c r="U230" s="2"/>
-      <c r="V230" s="2"/>
-      <c r="W230" s="2"/>
-      <c r="X230" s="2"/>
-      <c r="Y230" s="2"/>
-      <c r="Z230" s="2"/>
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="1"/>
+      <c r="F230" s="1"/>
+      <c r="G230" s="1"/>
+      <c r="H230" s="1"/>
+      <c r="I230" s="1"/>
+      <c r="J230" s="1"/>
+      <c r="K230" s="1"/>
+      <c r="L230" s="1"/>
+      <c r="M230" s="1"/>
+      <c r="N230" s="1"/>
+      <c r="O230" s="1"/>
+      <c r="P230" s="1"/>
+      <c r="Q230" s="1"/>
+      <c r="R230" s="1"/>
+      <c r="S230" s="1"/>
+      <c r="T230" s="1"/>
+      <c r="U230" s="1"/>
+      <c r="V230" s="1"/>
+      <c r="W230" s="1"/>
+      <c r="X230" s="1"/>
+      <c r="Y230" s="1"/>
+      <c r="Z230" s="1"/>
     </row>
     <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="D231" s="1"/>
-      <c r="E231" s="1"/>
-      <c r="F231" s="1"/>
-      <c r="G231" s="1"/>
-      <c r="H231" s="1"/>
-      <c r="I231" s="1"/>
-      <c r="J231" s="1"/>
-      <c r="K231" s="1"/>
-      <c r="L231" s="1"/>
-      <c r="M231" s="1"/>
-      <c r="N231" s="1"/>
-      <c r="O231" s="1"/>
-      <c r="P231" s="1"/>
-      <c r="Q231" s="1"/>
-      <c r="R231" s="1"/>
-      <c r="S231" s="1"/>
-      <c r="T231" s="1"/>
-      <c r="U231" s="1"/>
-      <c r="V231" s="1"/>
-      <c r="W231" s="1"/>
-      <c r="X231" s="1"/>
-      <c r="Y231" s="1"/>
-      <c r="Z231" s="1"/>
+      <c r="A231" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B231" s="2"/>
+      <c r="C231" s="2"/>
+      <c r="D231" s="2"/>
+      <c r="E231" s="2"/>
+      <c r="F231" s="2"/>
+      <c r="G231" s="2"/>
+      <c r="H231" s="2"/>
+      <c r="I231" s="2"/>
+      <c r="J231" s="2"/>
+      <c r="K231" s="2"/>
+      <c r="L231" s="2"/>
+      <c r="M231" s="2"/>
+      <c r="N231" s="2"/>
+      <c r="O231" s="2"/>
+      <c r="P231" s="2"/>
+      <c r="Q231" s="2"/>
+      <c r="R231" s="2"/>
+      <c r="S231" s="2"/>
+      <c r="T231" s="2"/>
+      <c r="U231" s="2"/>
+      <c r="V231" s="2"/>
+      <c r="W231" s="2"/>
+      <c r="X231" s="2"/>
+      <c r="Y231" s="2"/>
+      <c r="Z231" s="2"/>
     </row>
     <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -9672,13 +9678,13 @@
     </row>
     <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -9706,13 +9712,13 @@
     </row>
     <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -9740,13 +9746,13 @@
     </row>
     <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -9774,13 +9780,13 @@
     </row>
     <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -9808,13 +9814,13 @@
     </row>
     <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -9842,13 +9848,13 @@
     </row>
     <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -9876,13 +9882,13 @@
     </row>
     <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -9910,13 +9916,13 @@
     </row>
     <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -9943,9 +9949,15 @@
       <c r="Z240" s="1"/>
     </row>
     <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="1"/>
-      <c r="B241" s="1"/>
-      <c r="C241" s="1"/>
+      <c r="A241" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>427</v>
+      </c>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
@@ -9971,78 +9983,72 @@
       <c r="Z241" s="1"/>
     </row>
     <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B242" s="2"/>
-      <c r="C242" s="2"/>
-      <c r="D242" s="2"/>
-      <c r="E242" s="2"/>
-      <c r="F242" s="2"/>
-      <c r="G242" s="2"/>
-      <c r="H242" s="2"/>
-      <c r="I242" s="2"/>
-      <c r="J242" s="2"/>
-      <c r="K242" s="2"/>
-      <c r="L242" s="2"/>
-      <c r="M242" s="2"/>
-      <c r="N242" s="2"/>
-      <c r="O242" s="2"/>
-      <c r="P242" s="2"/>
-      <c r="Q242" s="2"/>
-      <c r="R242" s="2"/>
-      <c r="S242" s="2"/>
-      <c r="T242" s="2"/>
-      <c r="U242" s="2"/>
-      <c r="V242" s="2"/>
-      <c r="W242" s="2"/>
-      <c r="X242" s="2"/>
-      <c r="Y242" s="2"/>
-      <c r="Z242" s="2"/>
+      <c r="A242" s="1"/>
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="1"/>
+      <c r="F242" s="1"/>
+      <c r="G242" s="1"/>
+      <c r="H242" s="1"/>
+      <c r="I242" s="1"/>
+      <c r="J242" s="1"/>
+      <c r="K242" s="1"/>
+      <c r="L242" s="1"/>
+      <c r="M242" s="1"/>
+      <c r="N242" s="1"/>
+      <c r="O242" s="1"/>
+      <c r="P242" s="1"/>
+      <c r="Q242" s="1"/>
+      <c r="R242" s="1"/>
+      <c r="S242" s="1"/>
+      <c r="T242" s="1"/>
+      <c r="U242" s="1"/>
+      <c r="V242" s="1"/>
+      <c r="W242" s="1"/>
+      <c r="X242" s="1"/>
+      <c r="Y242" s="1"/>
+      <c r="Z242" s="1"/>
     </row>
     <row r="243" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D243" s="1"/>
-      <c r="E243" s="1"/>
-      <c r="F243" s="1"/>
-      <c r="G243" s="1"/>
-      <c r="H243" s="1"/>
-      <c r="I243" s="1"/>
-      <c r="J243" s="1"/>
-      <c r="K243" s="1"/>
-      <c r="L243" s="1"/>
-      <c r="M243" s="1"/>
-      <c r="N243" s="1"/>
-      <c r="O243" s="1"/>
-      <c r="P243" s="1"/>
-      <c r="Q243" s="1"/>
-      <c r="R243" s="1"/>
-      <c r="S243" s="1"/>
-      <c r="T243" s="1"/>
-      <c r="U243" s="1"/>
-      <c r="V243" s="1"/>
-      <c r="W243" s="1"/>
-      <c r="X243" s="1"/>
-      <c r="Y243" s="1"/>
-      <c r="Z243" s="1"/>
+      <c r="A243" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B243" s="2"/>
+      <c r="C243" s="2"/>
+      <c r="D243" s="2"/>
+      <c r="E243" s="2"/>
+      <c r="F243" s="2"/>
+      <c r="G243" s="2"/>
+      <c r="H243" s="2"/>
+      <c r="I243" s="2"/>
+      <c r="J243" s="2"/>
+      <c r="K243" s="2"/>
+      <c r="L243" s="2"/>
+      <c r="M243" s="2"/>
+      <c r="N243" s="2"/>
+      <c r="O243" s="2"/>
+      <c r="P243" s="2"/>
+      <c r="Q243" s="2"/>
+      <c r="R243" s="2"/>
+      <c r="S243" s="2"/>
+      <c r="T243" s="2"/>
+      <c r="U243" s="2"/>
+      <c r="V243" s="2"/>
+      <c r="W243" s="2"/>
+      <c r="X243" s="2"/>
+      <c r="Y243" s="2"/>
+      <c r="Z243" s="2"/>
     </row>
     <row r="244" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -10070,10 +10076,10 @@
     </row>
     <row r="245" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>81</v>
@@ -10104,13 +10110,13 @@
     </row>
     <row r="246" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>435</v>
+        <v>81</v>
       </c>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -10138,13 +10144,13 @@
     </row>
     <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -10172,13 +10178,13 @@
     </row>
     <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -10206,13 +10212,13 @@
     </row>
     <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>22</v>
+        <v>437</v>
       </c>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -10240,13 +10246,13 @@
     </row>
     <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -10274,13 +10280,13 @@
     </row>
     <row r="251" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>444</v>
+        <v>16</v>
       </c>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -10308,13 +10314,13 @@
     </row>
     <row r="252" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -10342,13 +10348,13 @@
     </row>
     <row r="253" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -10376,13 +10382,13 @@
     </row>
     <row r="254" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -10409,9 +10415,15 @@
       <c r="Z254" s="1"/>
     </row>
     <row r="255" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="1"/>
-      <c r="B255" s="1"/>
-      <c r="C255" s="1"/>
+      <c r="A255" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>450</v>
+      </c>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
@@ -15981,32 +15993,32 @@
       <c r="Z453" s="1"/>
     </row>
     <row r="454" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A454" s="18"/>
-      <c r="B454" s="18"/>
-      <c r="C454" s="18"/>
-      <c r="D454" s="18"/>
-      <c r="E454" s="18"/>
-      <c r="F454" s="18"/>
-      <c r="G454" s="18"/>
-      <c r="H454" s="18"/>
-      <c r="I454" s="18"/>
-      <c r="J454" s="18"/>
-      <c r="K454" s="18"/>
-      <c r="L454" s="18"/>
-      <c r="M454" s="18"/>
-      <c r="N454" s="18"/>
-      <c r="O454" s="18"/>
-      <c r="P454" s="18"/>
-      <c r="Q454" s="18"/>
-      <c r="R454" s="18"/>
-      <c r="S454" s="18"/>
-      <c r="T454" s="18"/>
-      <c r="U454" s="18"/>
-      <c r="V454" s="18"/>
-      <c r="W454" s="18"/>
-      <c r="X454" s="18"/>
-      <c r="Y454" s="18"/>
-      <c r="Z454" s="18"/>
+      <c r="A454" s="1"/>
+      <c r="B454" s="1"/>
+      <c r="C454" s="1"/>
+      <c r="D454" s="1"/>
+      <c r="E454" s="1"/>
+      <c r="F454" s="1"/>
+      <c r="G454" s="1"/>
+      <c r="H454" s="1"/>
+      <c r="I454" s="1"/>
+      <c r="J454" s="1"/>
+      <c r="K454" s="1"/>
+      <c r="L454" s="1"/>
+      <c r="M454" s="1"/>
+      <c r="N454" s="1"/>
+      <c r="O454" s="1"/>
+      <c r="P454" s="1"/>
+      <c r="Q454" s="1"/>
+      <c r="R454" s="1"/>
+      <c r="S454" s="1"/>
+      <c r="T454" s="1"/>
+      <c r="U454" s="1"/>
+      <c r="V454" s="1"/>
+      <c r="W454" s="1"/>
+      <c r="X454" s="1"/>
+      <c r="Y454" s="1"/>
+      <c r="Z454" s="1"/>
     </row>
     <row r="455" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="18"/>
@@ -32668,6 +32680,34 @@
       <c r="Y1049" s="18"/>
       <c r="Z1049" s="18"/>
     </row>
+    <row r="1050" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1050" s="18"/>
+      <c r="B1050" s="18"/>
+      <c r="C1050" s="18"/>
+      <c r="D1050" s="18"/>
+      <c r="E1050" s="18"/>
+      <c r="F1050" s="18"/>
+      <c r="G1050" s="18"/>
+      <c r="H1050" s="18"/>
+      <c r="I1050" s="18"/>
+      <c r="J1050" s="18"/>
+      <c r="K1050" s="18"/>
+      <c r="L1050" s="18"/>
+      <c r="M1050" s="18"/>
+      <c r="N1050" s="18"/>
+      <c r="O1050" s="18"/>
+      <c r="P1050" s="18"/>
+      <c r="Q1050" s="18"/>
+      <c r="R1050" s="18"/>
+      <c r="S1050" s="18"/>
+      <c r="T1050" s="18"/>
+      <c r="U1050" s="18"/>
+      <c r="V1050" s="18"/>
+      <c r="W1050" s="18"/>
+      <c r="X1050" s="18"/>
+      <c r="Y1050" s="18"/>
+      <c r="Z1050" s="18"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Assets/Resources/Language/Language.xlsx
+++ b/Assets/Resources/Language/Language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jawad Ahmad\01 Unity Projects\ACE\Assets\Resources\Language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59ACC5E9-0982-48F2-9E3B-A090051C1A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73749244-947C-40C3-AAEA-5A7BEE1A8665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8100" yWindow="1605" windowWidth="17025" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1455,9 +1455,6 @@
     <t>INTEGRAL RULE</t>
   </si>
   <si>
-    <t>积分规则</t>
-  </si>
-  <si>
     <t>Don't Have An Account?</t>
   </si>
   <si>
@@ -1468,6 +1465,9 @@
   </si>
   <si>
     <t>&lt;color=#79E84B&gt;&lt;link=Sign Up Here!&gt;&lt;u&gt;在此註冊！&lt;/u&gt;&lt;/link&gt;&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>積分規則</t>
   </si>
 </sst>
 </file>
@@ -1960,8 +1960,8 @@
   </sheetPr>
   <dimension ref="A1:Z1050"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="C255" sqref="C255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5738,13 +5738,13 @@
     </row>
     <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="27" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B113" s="27" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C113" s="27" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D113" s="27"/>
       <c r="E113" s="27"/>
@@ -5772,13 +5772,13 @@
     </row>
     <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -10422,7 +10422,7 @@
         <v>449</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>

--- a/Assets/Resources/Language/Language.xlsx
+++ b/Assets/Resources/Language/Language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jawad Ahmad\01 Unity Projects\ACE\Assets\Resources\Language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73749244-947C-40C3-AAEA-5A7BEE1A8665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D98944A-FAAB-44CB-8ED7-0E5F744BAFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8100" yWindow="1605" windowWidth="17025" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="457">
   <si>
     <t>ID</t>
   </si>
@@ -1468,6 +1468,12 @@
   </si>
   <si>
     <t>積分規則</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>用</t>
   </si>
 </sst>
 </file>
@@ -1961,7 +1967,7 @@
   <dimension ref="A1:Z1050"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="C255" sqref="C255"/>
+      <selection activeCell="C256" sqref="C256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10449,9 +10455,15 @@
       <c r="Z255" s="1"/>
     </row>
     <row r="256" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="1"/>
-      <c r="B256" s="1"/>
-      <c r="C256" s="1"/>
+      <c r="A256" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C256" t="s">
+        <v>456</v>
+      </c>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>

--- a/Assets/Resources/Language/Language.xlsx
+++ b/Assets/Resources/Language/Language.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="461">
   <si>
     <t>ID</t>
   </si>
@@ -1450,12 +1450,27 @@
   <si>
     <t>积分规则</t>
   </si>
+  <si>
+    <t>Award</t>
+  </si>
+  <si>
+    <t>獎勵</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>玩家</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1481,6 +1496,11 @@
       <sz val="10.0"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1653,9 +1673,6 @@
     <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
     <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1666,8 +1683,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4231,7 +4251,7 @@
       <c r="B70" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D70" s="1"/>
@@ -4391,7 +4411,7 @@
       <c r="B75" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C75" s="22" t="s">
+      <c r="C75" s="21" t="s">
         <v>138</v>
       </c>
       <c r="D75" s="3"/>
@@ -5559,34 +5579,34 @@
       <c r="Z109" s="3"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="23" t="s">
+      <c r="A110" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="B110" s="23"/>
-      <c r="C110" s="23"/>
-      <c r="D110" s="23"/>
-      <c r="E110" s="23"/>
-      <c r="F110" s="23"/>
-      <c r="G110" s="23"/>
-      <c r="H110" s="23"/>
-      <c r="I110" s="23"/>
-      <c r="J110" s="23"/>
-      <c r="K110" s="23"/>
-      <c r="L110" s="23"/>
-      <c r="M110" s="23"/>
-      <c r="N110" s="23"/>
-      <c r="O110" s="23"/>
-      <c r="P110" s="23"/>
-      <c r="Q110" s="23"/>
-      <c r="R110" s="23"/>
-      <c r="S110" s="23"/>
-      <c r="T110" s="23"/>
-      <c r="U110" s="23"/>
-      <c r="V110" s="23"/>
-      <c r="W110" s="23"/>
-      <c r="X110" s="23"/>
-      <c r="Y110" s="23"/>
-      <c r="Z110" s="23"/>
+      <c r="B110" s="22"/>
+      <c r="C110" s="22"/>
+      <c r="D110" s="22"/>
+      <c r="E110" s="22"/>
+      <c r="F110" s="22"/>
+      <c r="G110" s="22"/>
+      <c r="H110" s="22"/>
+      <c r="I110" s="22"/>
+      <c r="J110" s="22"/>
+      <c r="K110" s="22"/>
+      <c r="L110" s="22"/>
+      <c r="M110" s="22"/>
+      <c r="N110" s="22"/>
+      <c r="O110" s="22"/>
+      <c r="P110" s="22"/>
+      <c r="Q110" s="22"/>
+      <c r="R110" s="22"/>
+      <c r="S110" s="22"/>
+      <c r="T110" s="22"/>
+      <c r="U110" s="22"/>
+      <c r="V110" s="22"/>
+      <c r="W110" s="22"/>
+      <c r="X110" s="22"/>
+      <c r="Y110" s="22"/>
+      <c r="Z110" s="22"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="3" t="s">
@@ -5691,34 +5711,34 @@
       <c r="Z113" s="3"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="23" t="s">
+      <c r="A114" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="B114" s="23"/>
-      <c r="C114" s="23"/>
-      <c r="D114" s="23"/>
-      <c r="E114" s="23"/>
-      <c r="F114" s="23"/>
-      <c r="G114" s="23"/>
-      <c r="H114" s="23"/>
-      <c r="I114" s="23"/>
-      <c r="J114" s="23"/>
-      <c r="K114" s="23"/>
-      <c r="L114" s="23"/>
-      <c r="M114" s="23"/>
-      <c r="N114" s="23"/>
-      <c r="O114" s="23"/>
-      <c r="P114" s="23"/>
-      <c r="Q114" s="23"/>
-      <c r="R114" s="23"/>
-      <c r="S114" s="23"/>
-      <c r="T114" s="23"/>
-      <c r="U114" s="23"/>
-      <c r="V114" s="23"/>
-      <c r="W114" s="23"/>
-      <c r="X114" s="23"/>
-      <c r="Y114" s="23"/>
-      <c r="Z114" s="23"/>
+      <c r="B114" s="22"/>
+      <c r="C114" s="22"/>
+      <c r="D114" s="22"/>
+      <c r="E114" s="22"/>
+      <c r="F114" s="22"/>
+      <c r="G114" s="22"/>
+      <c r="H114" s="22"/>
+      <c r="I114" s="22"/>
+      <c r="J114" s="22"/>
+      <c r="K114" s="22"/>
+      <c r="L114" s="22"/>
+      <c r="M114" s="22"/>
+      <c r="N114" s="22"/>
+      <c r="O114" s="22"/>
+      <c r="P114" s="22"/>
+      <c r="Q114" s="22"/>
+      <c r="R114" s="22"/>
+      <c r="S114" s="22"/>
+      <c r="T114" s="22"/>
+      <c r="U114" s="22"/>
+      <c r="V114" s="22"/>
+      <c r="W114" s="22"/>
+      <c r="X114" s="22"/>
+      <c r="Y114" s="22"/>
+      <c r="Z114" s="22"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="3" t="s">
@@ -5857,34 +5877,34 @@
       <c r="Z118" s="3"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="24" t="s">
+      <c r="A119" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="B119" s="24"/>
-      <c r="C119" s="24"/>
-      <c r="D119" s="24"/>
-      <c r="E119" s="24"/>
-      <c r="F119" s="24"/>
-      <c r="G119" s="24"/>
-      <c r="H119" s="24"/>
-      <c r="I119" s="24"/>
-      <c r="J119" s="24"/>
-      <c r="K119" s="24"/>
-      <c r="L119" s="24"/>
-      <c r="M119" s="24"/>
-      <c r="N119" s="24"/>
-      <c r="O119" s="24"/>
-      <c r="P119" s="24"/>
-      <c r="Q119" s="24"/>
-      <c r="R119" s="24"/>
-      <c r="S119" s="24"/>
-      <c r="T119" s="24"/>
-      <c r="U119" s="24"/>
-      <c r="V119" s="24"/>
-      <c r="W119" s="24"/>
-      <c r="X119" s="24"/>
-      <c r="Y119" s="24"/>
-      <c r="Z119" s="24"/>
+      <c r="B119" s="23"/>
+      <c r="C119" s="23"/>
+      <c r="D119" s="23"/>
+      <c r="E119" s="23"/>
+      <c r="F119" s="23"/>
+      <c r="G119" s="23"/>
+      <c r="H119" s="23"/>
+      <c r="I119" s="23"/>
+      <c r="J119" s="23"/>
+      <c r="K119" s="23"/>
+      <c r="L119" s="23"/>
+      <c r="M119" s="23"/>
+      <c r="N119" s="23"/>
+      <c r="O119" s="23"/>
+      <c r="P119" s="23"/>
+      <c r="Q119" s="23"/>
+      <c r="R119" s="23"/>
+      <c r="S119" s="23"/>
+      <c r="T119" s="23"/>
+      <c r="U119" s="23"/>
+      <c r="V119" s="23"/>
+      <c r="W119" s="23"/>
+      <c r="X119" s="23"/>
+      <c r="Y119" s="23"/>
+      <c r="Z119" s="23"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="3" t="s">
@@ -5921,34 +5941,34 @@
       <c r="Z120" s="3"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="23" t="s">
+      <c r="A121" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="B121" s="23"/>
-      <c r="C121" s="23"/>
-      <c r="D121" s="23"/>
-      <c r="E121" s="23"/>
-      <c r="F121" s="23"/>
-      <c r="G121" s="23"/>
-      <c r="H121" s="23"/>
-      <c r="I121" s="23"/>
-      <c r="J121" s="23"/>
-      <c r="K121" s="23"/>
-      <c r="L121" s="23"/>
-      <c r="M121" s="23"/>
-      <c r="N121" s="23"/>
-      <c r="O121" s="23"/>
-      <c r="P121" s="23"/>
-      <c r="Q121" s="23"/>
-      <c r="R121" s="23"/>
-      <c r="S121" s="23"/>
-      <c r="T121" s="23"/>
-      <c r="U121" s="23"/>
-      <c r="V121" s="23"/>
-      <c r="W121" s="23"/>
-      <c r="X121" s="23"/>
-      <c r="Y121" s="23"/>
-      <c r="Z121" s="23"/>
+      <c r="B121" s="22"/>
+      <c r="C121" s="22"/>
+      <c r="D121" s="22"/>
+      <c r="E121" s="22"/>
+      <c r="F121" s="22"/>
+      <c r="G121" s="22"/>
+      <c r="H121" s="22"/>
+      <c r="I121" s="22"/>
+      <c r="J121" s="22"/>
+      <c r="K121" s="22"/>
+      <c r="L121" s="22"/>
+      <c r="M121" s="22"/>
+      <c r="N121" s="22"/>
+      <c r="O121" s="22"/>
+      <c r="P121" s="22"/>
+      <c r="Q121" s="22"/>
+      <c r="R121" s="22"/>
+      <c r="S121" s="22"/>
+      <c r="T121" s="22"/>
+      <c r="U121" s="22"/>
+      <c r="V121" s="22"/>
+      <c r="W121" s="22"/>
+      <c r="X121" s="22"/>
+      <c r="Y121" s="22"/>
+      <c r="Z121" s="22"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="3" t="s">
@@ -6053,34 +6073,34 @@
       <c r="Z124" s="3"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="23" t="s">
+      <c r="A125" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="B125" s="23"/>
-      <c r="C125" s="23"/>
-      <c r="D125" s="23"/>
-      <c r="E125" s="23"/>
-      <c r="F125" s="23"/>
-      <c r="G125" s="23"/>
-      <c r="H125" s="23"/>
-      <c r="I125" s="23"/>
-      <c r="J125" s="23"/>
-      <c r="K125" s="23"/>
-      <c r="L125" s="23"/>
-      <c r="M125" s="23"/>
-      <c r="N125" s="23"/>
-      <c r="O125" s="23"/>
-      <c r="P125" s="23"/>
-      <c r="Q125" s="23"/>
-      <c r="R125" s="23"/>
-      <c r="S125" s="23"/>
-      <c r="T125" s="23"/>
-      <c r="U125" s="23"/>
-      <c r="V125" s="23"/>
-      <c r="W125" s="23"/>
-      <c r="X125" s="23"/>
-      <c r="Y125" s="23"/>
-      <c r="Z125" s="23"/>
+      <c r="B125" s="22"/>
+      <c r="C125" s="22"/>
+      <c r="D125" s="22"/>
+      <c r="E125" s="22"/>
+      <c r="F125" s="22"/>
+      <c r="G125" s="22"/>
+      <c r="H125" s="22"/>
+      <c r="I125" s="22"/>
+      <c r="J125" s="22"/>
+      <c r="K125" s="22"/>
+      <c r="L125" s="22"/>
+      <c r="M125" s="22"/>
+      <c r="N125" s="22"/>
+      <c r="O125" s="22"/>
+      <c r="P125" s="22"/>
+      <c r="Q125" s="22"/>
+      <c r="R125" s="22"/>
+      <c r="S125" s="22"/>
+      <c r="T125" s="22"/>
+      <c r="U125" s="22"/>
+      <c r="V125" s="22"/>
+      <c r="W125" s="22"/>
+      <c r="X125" s="22"/>
+      <c r="Y125" s="22"/>
+      <c r="Z125" s="22"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="1" t="s">
@@ -6117,34 +6137,34 @@
       <c r="Z126" s="1"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="23" t="s">
+      <c r="A127" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="B127" s="23"/>
-      <c r="C127" s="23"/>
-      <c r="D127" s="23"/>
-      <c r="E127" s="23"/>
-      <c r="F127" s="23"/>
-      <c r="G127" s="23"/>
-      <c r="H127" s="23"/>
-      <c r="I127" s="23"/>
-      <c r="J127" s="23"/>
-      <c r="K127" s="23"/>
-      <c r="L127" s="23"/>
-      <c r="M127" s="23"/>
-      <c r="N127" s="23"/>
-      <c r="O127" s="23"/>
-      <c r="P127" s="23"/>
-      <c r="Q127" s="23"/>
-      <c r="R127" s="23"/>
-      <c r="S127" s="23"/>
-      <c r="T127" s="23"/>
-      <c r="U127" s="23"/>
-      <c r="V127" s="23"/>
-      <c r="W127" s="23"/>
-      <c r="X127" s="23"/>
-      <c r="Y127" s="23"/>
-      <c r="Z127" s="23"/>
+      <c r="B127" s="22"/>
+      <c r="C127" s="22"/>
+      <c r="D127" s="22"/>
+      <c r="E127" s="22"/>
+      <c r="F127" s="22"/>
+      <c r="G127" s="22"/>
+      <c r="H127" s="22"/>
+      <c r="I127" s="22"/>
+      <c r="J127" s="22"/>
+      <c r="K127" s="22"/>
+      <c r="L127" s="22"/>
+      <c r="M127" s="22"/>
+      <c r="N127" s="22"/>
+      <c r="O127" s="22"/>
+      <c r="P127" s="22"/>
+      <c r="Q127" s="22"/>
+      <c r="R127" s="22"/>
+      <c r="S127" s="22"/>
+      <c r="T127" s="22"/>
+      <c r="U127" s="22"/>
+      <c r="V127" s="22"/>
+      <c r="W127" s="22"/>
+      <c r="X127" s="22"/>
+      <c r="Y127" s="22"/>
+      <c r="Z127" s="22"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="4" t="s">
@@ -7263,7 +7283,7 @@
       <c r="Z161" s="10"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="25" t="s">
+      <c r="A162" s="24" t="s">
         <v>289</v>
       </c>
       <c r="B162" s="1" t="s">
@@ -8641,7 +8661,7 @@
       <c r="Z203" s="12"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="25" t="s">
+      <c r="A204" s="24" t="s">
         <v>358</v>
       </c>
       <c r="B204" s="18" t="s">
@@ -8675,7 +8695,7 @@
       <c r="Z204" s="19"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="25" t="s">
+      <c r="A205" s="24" t="s">
         <v>360</v>
       </c>
       <c r="B205" s="18" t="s">
@@ -8709,7 +8729,7 @@
       <c r="Z205" s="19"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="25" t="s">
+      <c r="A206" s="24" t="s">
         <v>362</v>
       </c>
       <c r="B206" s="18" t="s">
@@ -8743,7 +8763,7 @@
       <c r="Z206" s="19"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="25" t="s">
+      <c r="A207" s="24" t="s">
         <v>364</v>
       </c>
       <c r="B207" s="18" t="s">
@@ -8777,7 +8797,7 @@
       <c r="Z207" s="19"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="25" t="s">
+      <c r="A208" s="24" t="s">
         <v>366</v>
       </c>
       <c r="B208" s="18" t="s">
@@ -8811,7 +8831,7 @@
       <c r="Z208" s="19"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="25" t="s">
+      <c r="A209" s="24" t="s">
         <v>368</v>
       </c>
       <c r="B209" s="18" t="s">
@@ -8851,7 +8871,7 @@
       <c r="B210" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="C210" s="26" t="s">
+      <c r="C210" s="16" t="s">
         <v>372</v>
       </c>
       <c r="D210" s="16"/>
@@ -10335,9 +10355,15 @@
       <c r="Z254" s="1"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="A255" s="1"/>
-      <c r="B255" s="1"/>
-      <c r="C255" s="1"/>
+      <c r="A255" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="B255" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="C255" s="26" t="s">
+        <v>457</v>
+      </c>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
@@ -10363,9 +10389,15 @@
       <c r="Z255" s="1"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="A256" s="1"/>
-      <c r="B256" s="1"/>
-      <c r="C256" s="1"/>
+      <c r="A256" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="B256" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="C256" s="25" t="s">
+        <v>459</v>
+      </c>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
@@ -10391,9 +10423,15 @@
       <c r="Z256" s="1"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="A257" s="1"/>
-      <c r="B257" s="1"/>
-      <c r="C257" s="1"/>
+      <c r="A257" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="B257" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="C257" s="25" t="s">
+        <v>56</v>
+      </c>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
